--- a/WaterDiag.xlsx
+++ b/WaterDiag.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10911"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dub/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dub/Code/MilanoWaterProject/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D13B607E-7A03-D24B-8160-78475AB21152}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CACAC79-D3AA-FB4B-985F-C1B893443012}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18100" yWindow="500" windowWidth="31380" windowHeight="19020" xr2:uid="{60223CC9-929C-2C40-9DF4-4D5E66E85102}"/>
+    <workbookView xWindow="15080" yWindow="2200" windowWidth="31380" windowHeight="19020" xr2:uid="{60223CC9-929C-2C40-9DF4-4D5E66E85102}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439" uniqueCount="241">
   <si>
     <t>/*</t>
   </si>
@@ -48,9 +48,6 @@
     <t xml:space="preserve">*/ </t>
   </si>
   <si>
-    <t>/* CLIENTID</t>
-  </si>
-  <si>
     <t xml:space="preserve"> CH1 Unused Damaged/Dead</t>
   </si>
   <si>
@@ -315,9 +312,6 @@
     <t>House Water Pressure Value</t>
   </si>
   <si>
-    <t>* payload 0</t>
-  </si>
-  <si>
     <t>* payload 1</t>
   </si>
   <si>
@@ -378,12 +372,6 @@
     <t>* payload 20</t>
   </si>
   <si>
-    <t>* payload 21</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Last payload is Control Word From User</t>
-  </si>
-  <si>
     <t>* payload[2] =</t>
   </si>
   <si>
@@ -441,9 +429,6 @@
     <t>* payload[20] =</t>
   </si>
   <si>
-    <t xml:space="preserve"> "ESP8266 Client", #define PUB_TOPIC   "Tank ESP", tank_esp_ , len=21</t>
-  </si>
-  <si>
     <t>/* payload[0] =</t>
   </si>
   <si>
@@ -510,9 +495,6 @@
     <t xml:space="preserve"> 43floatState;  //byte34-float4;byte123-float3</t>
   </si>
   <si>
-    <t xml:space="preserve"> "ESP8266 ClientFlow", #define PUB_TOPIC   "Flow ESP", flow_esp_ , len=21</t>
-  </si>
-  <si>
     <t>Number of milliseconds in Time Window</t>
   </si>
   <si>
@@ -754,13 +736,86 @@
   </si>
   <si>
     <t>//Blynk.virtualWrite (V</t>
+  </si>
+  <si>
+    <t>/* payload 0</t>
+  </si>
+  <si>
+    <r>
+      <t>unsigned</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF9B2393"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>short</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF9B2393"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>int</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t>#define  ESP_CLIENTID</t>
+  </si>
+  <si>
+    <t>#define FLO_CLIENTID</t>
+  </si>
+  <si>
+    <t>flow_data_payload[FLO_LEN] ;</t>
+  </si>
+  <si>
+    <t>data_payload[ESP_LEN] ;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "ESP8266 ClientFlow", #define FLO_TOPIC   "Flow ESP", flow_esp_ , #define FLO_LEN 21</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "ESP8266 Client", #define ESP_TOPIC   "Tank ESP", tank_esp_ , #define ESP_LEN 21</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -808,6 +863,19 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Menlo"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF9B2393"/>
+      <name val="Menlo"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -916,7 +984,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2953,7 +3021,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2013 - 2022">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -3241,7 +3309,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3251,8 +3319,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0F5BC79-5CC4-4146-A4AC-12A07A1DA7E2}">
   <dimension ref="B3:K133"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33:E63"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3269,274 +3337,274 @@
     <row r="3" spans="4:11" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="4" spans="4:11" x14ac:dyDescent="0.2">
       <c r="D4" s="2" t="s">
-        <v>3</v>
+        <v>235</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>134</v>
+        <v>240</v>
       </c>
     </row>
     <row r="5" spans="4:11" x14ac:dyDescent="0.2">
       <c r="D5" s="3" t="s">
-        <v>92</v>
+        <v>233</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="4:11" x14ac:dyDescent="0.2">
       <c r="D6" s="3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="4:11" x14ac:dyDescent="0.2">
       <c r="D7" s="3" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="4:11" x14ac:dyDescent="0.2">
       <c r="D8" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="4:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="D9" s="3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
     </row>
     <row r="10" spans="4:11" x14ac:dyDescent="0.2">
       <c r="D10" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="K10" s="5" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
     </row>
     <row r="11" spans="4:11" x14ac:dyDescent="0.2">
       <c r="D11" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="K11" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="4:11" x14ac:dyDescent="0.2">
       <c r="D12" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="K12" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="4:11" x14ac:dyDescent="0.2">
       <c r="D13" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="K13" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="4:11" x14ac:dyDescent="0.2">
       <c r="D14" s="3" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="K14" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15" spans="4:11" x14ac:dyDescent="0.2">
       <c r="D15" s="3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="K15" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16" spans="4:11" x14ac:dyDescent="0.2">
       <c r="D16" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="K16" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="17" spans="4:11" x14ac:dyDescent="0.2">
       <c r="D17" s="3" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="K17" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="18" spans="4:11" x14ac:dyDescent="0.2">
       <c r="D18" s="3" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="K18" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="19" spans="4:11" x14ac:dyDescent="0.2">
       <c r="D19" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="K19" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="20" spans="4:11" x14ac:dyDescent="0.2">
       <c r="D20" s="3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J20" s="3" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="K20" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="21" spans="4:11" x14ac:dyDescent="0.2">
       <c r="D21" s="3" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J21" s="3" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="K21" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="22" spans="4:11" x14ac:dyDescent="0.2">
       <c r="D22" s="3" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J22" s="3" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="K22" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="23" spans="4:11" x14ac:dyDescent="0.2">
       <c r="D23" s="3" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J23" s="3" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="K23" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="24" spans="4:11" x14ac:dyDescent="0.2">
       <c r="D24" s="3" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J24" s="3" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="K24" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="25" spans="4:11" x14ac:dyDescent="0.2">
       <c r="D25" s="3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J25" s="3" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="K25" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="26" spans="4:11" x14ac:dyDescent="0.2">
@@ -3545,10 +3613,10 @@
       </c>
       <c r="E26" s="6"/>
       <c r="J26" s="3" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="K26" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="27" spans="4:11" x14ac:dyDescent="0.2">
@@ -3557,24 +3625,24 @@
       </c>
       <c r="E27" s="6"/>
       <c r="J27" s="3" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="K27" s="6" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="28" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="D28" s="11" t="s">
+        <v>234</v>
+      </c>
+      <c r="E28" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="J28" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="K28" s="6" t="s">
         <v>90</v>
-      </c>
-    </row>
-    <row r="28" spans="4:11" x14ac:dyDescent="0.2">
-      <c r="D28" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="E28" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="J28" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="K28" s="6" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="29" spans="4:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -3583,26 +3651,26 @@
       </c>
       <c r="E29" s="7"/>
       <c r="J29" s="3" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="K29" s="6" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
     </row>
     <row r="30" spans="4:11" x14ac:dyDescent="0.2">
       <c r="J30" s="3" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="K30" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="31" spans="4:11" x14ac:dyDescent="0.2">
       <c r="J31" s="3" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="K31" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="32" spans="4:11" x14ac:dyDescent="0.2">
@@ -3612,17 +3680,17 @@
       <c r="K32" s="6"/>
     </row>
     <row r="33" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B33" s="11" t="s">
-        <v>238</v>
-      </c>
-      <c r="C33" s="11">
+      <c r="B33" s="10" t="s">
+        <v>232</v>
+      </c>
+      <c r="C33" s="10">
         <v>0</v>
       </c>
-      <c r="D33" s="11" t="s">
-        <v>188</v>
-      </c>
-      <c r="E33" s="11" t="s">
-        <v>237</v>
+      <c r="D33" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="E33" s="10" t="s">
+        <v>231</v>
       </c>
       <c r="J33" s="3" t="s">
         <v>0</v>
@@ -3630,37 +3698,37 @@
       <c r="K33" s="6"/>
     </row>
     <row r="34" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B34" s="11" t="s">
-        <v>219</v>
-      </c>
-      <c r="C34" s="11">
+      <c r="B34" s="10" t="s">
+        <v>213</v>
+      </c>
+      <c r="C34" s="10">
         <v>1</v>
       </c>
-      <c r="D34" s="11" t="s">
-        <v>189</v>
-      </c>
-      <c r="E34" s="11" t="s">
-        <v>176</v>
+      <c r="D34" s="10" t="s">
+        <v>183</v>
+      </c>
+      <c r="E34" s="10" t="s">
+        <v>170</v>
       </c>
       <c r="J34" s="9" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="K34" s="3" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
     </row>
     <row r="35" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="11" t="s">
-        <v>219</v>
-      </c>
-      <c r="C35" s="11">
+      <c r="B35" s="10" t="s">
+        <v>213</v>
+      </c>
+      <c r="C35" s="10">
         <v>2</v>
       </c>
-      <c r="D35" s="11" t="s">
-        <v>190</v>
-      </c>
-      <c r="E35" s="11" t="s">
-        <v>177</v>
+      <c r="D35" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="E35" s="10" t="s">
+        <v>171</v>
       </c>
       <c r="J35" s="4" t="s">
         <v>1</v>
@@ -3668,527 +3736,527 @@
       <c r="K35" s="7"/>
     </row>
     <row r="36" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B36" s="11" t="s">
-        <v>219</v>
-      </c>
-      <c r="C36" s="11">
+      <c r="B36" s="10" t="s">
+        <v>213</v>
+      </c>
+      <c r="C36" s="10">
         <v>3</v>
       </c>
-      <c r="D36" s="11" t="s">
-        <v>191</v>
-      </c>
-      <c r="E36" s="11" t="s">
-        <v>178</v>
+      <c r="D36" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="E36" s="10" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="37" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B37" s="10" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="C37" s="10">
         <v>4</v>
       </c>
       <c r="D37" s="10" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="E37" s="10" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B38" s="10" t="s">
+        <v>213</v>
+      </c>
+      <c r="C38" s="10">
+        <v>5</v>
+      </c>
+      <c r="D38" s="10" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B38" s="11" t="s">
-        <v>219</v>
-      </c>
-      <c r="C38" s="11">
-        <v>5</v>
-      </c>
-      <c r="D38" s="11" t="s">
-        <v>193</v>
-      </c>
       <c r="E38" s="10" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
     </row>
     <row r="39" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B39" s="11" t="s">
-        <v>219</v>
-      </c>
-      <c r="C39" s="11">
+      <c r="B39" s="10" t="s">
+        <v>213</v>
+      </c>
+      <c r="C39" s="10">
         <v>6</v>
       </c>
-      <c r="D39" s="11" t="s">
-        <v>194</v>
+      <c r="D39" s="10" t="s">
+        <v>188</v>
       </c>
       <c r="E39" s="10" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
     </row>
     <row r="40" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="11" t="s">
-        <v>219</v>
-      </c>
-      <c r="C40" s="11">
+      <c r="B40" s="10" t="s">
+        <v>213</v>
+      </c>
+      <c r="C40" s="10">
         <v>7</v>
       </c>
-      <c r="D40" s="11" t="s">
-        <v>195</v>
+      <c r="D40" s="10" t="s">
+        <v>189</v>
       </c>
       <c r="E40" s="10" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
     </row>
     <row r="41" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B41" s="10" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="C41" s="10">
         <v>8</v>
       </c>
       <c r="D41" s="10" t="s">
+        <v>190</v>
+      </c>
+      <c r="E41" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="J41" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="K41" s="5" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B42" s="10" t="s">
+        <v>213</v>
+      </c>
+      <c r="C42" s="10">
+        <v>9</v>
+      </c>
+      <c r="D42" s="10" t="s">
+        <v>191</v>
+      </c>
+      <c r="E42" s="10" t="s">
+        <v>173</v>
+      </c>
+      <c r="J42" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="K42" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B43" s="10" t="s">
+        <v>213</v>
+      </c>
+      <c r="C43" s="10">
+        <v>10</v>
+      </c>
+      <c r="D43" s="10" t="s">
+        <v>192</v>
+      </c>
+      <c r="E43" s="10" t="s">
+        <v>174</v>
+      </c>
+      <c r="J43" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="K43" s="6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B44" s="10" t="s">
+        <v>213</v>
+      </c>
+      <c r="C44" s="10">
+        <v>11</v>
+      </c>
+      <c r="D44" s="10" t="s">
+        <v>193</v>
+      </c>
+      <c r="E44" s="10" t="s">
+        <v>230</v>
+      </c>
+      <c r="J44" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="K44" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B45" s="10" t="s">
+        <v>213</v>
+      </c>
+      <c r="C45" s="10">
+        <v>12</v>
+      </c>
+      <c r="D45" s="10" t="s">
+        <v>194</v>
+      </c>
+      <c r="E45" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="J45" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="K45" s="6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B46" s="10" t="s">
+        <v>213</v>
+      </c>
+      <c r="C46" s="10">
+        <v>13</v>
+      </c>
+      <c r="D46" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="E46" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="J46" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="K46" s="6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B47" s="10" t="s">
+        <v>213</v>
+      </c>
+      <c r="C47" s="10">
+        <v>14</v>
+      </c>
+      <c r="D47" s="10" t="s">
         <v>196</v>
       </c>
-      <c r="E41" s="10" t="s">
-        <v>186</v>
-      </c>
-      <c r="J41" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="K41" s="5" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B42" s="11" t="s">
-        <v>219</v>
-      </c>
-      <c r="C42" s="11">
-        <v>9</v>
-      </c>
-      <c r="D42" s="11" t="s">
+      <c r="E47" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="J47" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="K47" s="6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B48" s="10" t="s">
+        <v>213</v>
+      </c>
+      <c r="C48" s="10">
+        <v>15</v>
+      </c>
+      <c r="D48" s="10" t="s">
         <v>197</v>
       </c>
-      <c r="E42" s="11" t="s">
-        <v>179</v>
-      </c>
-      <c r="J42" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="K42" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B43" s="11" t="s">
-        <v>219</v>
-      </c>
-      <c r="C43" s="11">
-        <v>10</v>
-      </c>
-      <c r="D43" s="11" t="s">
-        <v>198</v>
-      </c>
-      <c r="E43" s="11" t="s">
-        <v>180</v>
-      </c>
-      <c r="J43" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="K43" s="6" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B44" s="11" t="s">
-        <v>219</v>
-      </c>
-      <c r="C44" s="11">
-        <v>11</v>
-      </c>
-      <c r="D44" s="11" t="s">
-        <v>199</v>
-      </c>
-      <c r="E44" s="11" t="s">
-        <v>236</v>
-      </c>
-      <c r="J44" s="3" t="s">
+      <c r="E48" s="10" t="s">
+        <v>178</v>
+      </c>
+      <c r="J48" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="K44" s="6" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B45" s="11" t="s">
-        <v>219</v>
-      </c>
-      <c r="C45" s="11">
-        <v>12</v>
-      </c>
-      <c r="D45" s="11" t="s">
-        <v>200</v>
-      </c>
-      <c r="E45" s="11" t="s">
-        <v>181</v>
-      </c>
-      <c r="J45" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="K45" s="6" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B46" s="11" t="s">
-        <v>219</v>
-      </c>
-      <c r="C46" s="11">
-        <v>13</v>
-      </c>
-      <c r="D46" s="11" t="s">
-        <v>201</v>
-      </c>
-      <c r="E46" s="11" t="s">
-        <v>182</v>
-      </c>
-      <c r="J46" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="K46" s="6" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B47" s="11" t="s">
-        <v>219</v>
-      </c>
-      <c r="C47" s="11">
-        <v>14</v>
-      </c>
-      <c r="D47" s="11" t="s">
-        <v>202</v>
-      </c>
-      <c r="E47" s="11" t="s">
-        <v>183</v>
-      </c>
-      <c r="J47" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="K47" s="6" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B48" s="11" t="s">
-        <v>219</v>
-      </c>
-      <c r="C48" s="11">
-        <v>15</v>
-      </c>
-      <c r="D48" s="11" t="s">
-        <v>203</v>
-      </c>
-      <c r="E48" s="11" t="s">
-        <v>184</v>
-      </c>
-      <c r="J48" s="3" t="s">
-        <v>119</v>
-      </c>
       <c r="K48" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="49" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B49" s="10" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="C49" s="10">
         <v>16</v>
       </c>
       <c r="D49" s="10" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="E49" s="10" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="J49" s="3" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="K49" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="50" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B50" s="10" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="C50" s="10">
         <v>17</v>
       </c>
       <c r="D50" s="10" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="E50" s="10" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="J50" s="3" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="K50" s="6" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
     </row>
     <row r="51" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B51" s="10" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="C51" s="10">
         <v>18</v>
       </c>
       <c r="D51" s="10" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="E51" s="10" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="J51" s="3" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="K51" s="6" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
     </row>
     <row r="52" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B52" s="10" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="C52" s="10">
         <v>19</v>
       </c>
       <c r="D52" s="10" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="E52" s="10" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="J52" s="3" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="K52" s="6" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="53" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B53" s="10" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="C53" s="10">
         <v>20</v>
       </c>
       <c r="D53" s="10" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="E53" s="10" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="J53" s="3" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="K53" s="6" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
     </row>
     <row r="54" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B54" s="10" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="C54" s="10">
         <v>21</v>
       </c>
       <c r="D54" s="10" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="E54" s="10" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="J54" s="3" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="K54" s="6" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
     </row>
     <row r="55" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B55" s="10" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="C55" s="10">
         <v>22</v>
       </c>
       <c r="D55" s="10" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="E55" s="10" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="J55" s="3" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="K55" s="6" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
     </row>
     <row r="56" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B56" s="10" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="C56" s="10">
         <v>23</v>
       </c>
       <c r="D56" s="10" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="E56" s="10" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="J56" s="3" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="K56" s="6" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
     </row>
     <row r="57" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B57" s="10" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="C57" s="10">
         <v>24</v>
       </c>
       <c r="D57" s="10" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="E57" s="10" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="J57" s="3" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="K57" s="6" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
     </row>
     <row r="58" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B58" s="10" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="C58" s="10">
         <v>25</v>
       </c>
       <c r="D58" s="10" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="E58" s="10" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="J58" s="3" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="K58" s="6" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
     </row>
     <row r="59" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B59" s="10" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="C59" s="10">
         <v>26</v>
       </c>
       <c r="D59" s="10" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="E59" s="10" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="J59" s="3" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="K59" s="6" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
     </row>
     <row r="60" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B60" s="10" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="C60" s="10">
         <v>27</v>
       </c>
       <c r="D60" s="10" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="E60" s="10" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="J60" s="3" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="K60" s="6" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
     </row>
     <row r="61" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B61" s="10" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="C61" s="10">
         <v>28</v>
       </c>
       <c r="D61" s="10" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="E61" s="10" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="J61" s="3" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="K61" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="62" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B62" s="10" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="C62" s="10">
         <v>29</v>
       </c>
       <c r="D62" s="10" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="E62" s="10" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="J62" s="3" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="K62" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="63" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B63" s="10" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="C63" s="10">
         <v>30</v>
       </c>
       <c r="D63" s="10" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="E63" s="10" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="J63" s="3" t="s">
         <v>1</v>
@@ -4207,24 +4275,24 @@
     </row>
     <row r="66" spans="4:11" x14ac:dyDescent="0.2">
       <c r="D66" s="2" t="s">
-        <v>3</v>
+        <v>236</v>
       </c>
       <c r="E66" s="5" t="s">
-        <v>157</v>
+        <v>239</v>
       </c>
       <c r="J66" s="9" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="K66" s="3" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
     </row>
     <row r="67" spans="4:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="D67" s="3" t="s">
-        <v>92</v>
+        <v>233</v>
       </c>
       <c r="E67" s="6" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="J67" s="4" t="s">
         <v>1</v>
@@ -4233,252 +4301,252 @@
     </row>
     <row r="68" spans="4:11" x14ac:dyDescent="0.2">
       <c r="D68" s="3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E68" s="6" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
     </row>
     <row r="69" spans="4:11" x14ac:dyDescent="0.2">
       <c r="D69" s="3" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E69" s="6" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
     </row>
     <row r="70" spans="4:11" x14ac:dyDescent="0.2">
       <c r="D70" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E70" s="6" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
     </row>
     <row r="71" spans="4:11" x14ac:dyDescent="0.2">
       <c r="D71" s="3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E71" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="72" spans="4:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="D72" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E72" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="73" spans="4:11" x14ac:dyDescent="0.2">
       <c r="D73" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E73" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J73" s="2" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="K73" s="5" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
     </row>
     <row r="74" spans="4:11" x14ac:dyDescent="0.2">
       <c r="D74" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E74" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J74" s="3" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="K74" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="75" spans="4:11" x14ac:dyDescent="0.2">
       <c r="D75" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E75" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J75" s="3" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="K75" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="76" spans="4:11" x14ac:dyDescent="0.2">
       <c r="D76" s="3" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E76" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J76" s="3" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="K76" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="77" spans="4:11" x14ac:dyDescent="0.2">
       <c r="D77" s="3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E77" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J77" s="3" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="K77" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="78" spans="4:11" x14ac:dyDescent="0.2">
       <c r="D78" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E78" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J78" s="3" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="K78" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="79" spans="4:11" x14ac:dyDescent="0.2">
       <c r="D79" s="3" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E79" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J79" s="3" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="K79" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="80" spans="4:11" x14ac:dyDescent="0.2">
       <c r="D80" s="3" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E80" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J80" s="3" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="K80" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="81" spans="4:11" x14ac:dyDescent="0.2">
       <c r="D81" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E81" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J81" s="3" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="K81" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="82" spans="4:11" x14ac:dyDescent="0.2">
       <c r="D82" s="3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E82" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J82" s="3" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="K82" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="83" spans="4:11" x14ac:dyDescent="0.2">
       <c r="D83" s="3" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E83" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J83" s="3" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="K83" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="84" spans="4:11" x14ac:dyDescent="0.2">
       <c r="D84" s="3" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E84" s="6" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="J84" s="3" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="K84" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="85" spans="4:11" x14ac:dyDescent="0.2">
       <c r="D85" s="3" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E85" s="6" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="J85" s="3" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="K85" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="86" spans="4:11" x14ac:dyDescent="0.2">
       <c r="D86" s="3" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E86" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J86" s="3" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="K86" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="87" spans="4:11" x14ac:dyDescent="0.2">
       <c r="D87" s="3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E87" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J87" s="3" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="K87" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="88" spans="4:11" x14ac:dyDescent="0.2">
@@ -4487,10 +4555,10 @@
       </c>
       <c r="E88" s="6"/>
       <c r="J88" s="3" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="K88" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="89" spans="4:11" x14ac:dyDescent="0.2">
@@ -4499,24 +4567,24 @@
       </c>
       <c r="E89" s="6"/>
       <c r="J89" s="3" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="K89" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="90" spans="4:11" x14ac:dyDescent="0.2">
-      <c r="D90" s="3" t="s">
-        <v>113</v>
+      <c r="D90" s="11" t="s">
+        <v>234</v>
       </c>
       <c r="E90" s="6" t="s">
-        <v>114</v>
+        <v>237</v>
       </c>
       <c r="J90" s="3" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="K90" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="91" spans="4:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -4525,34 +4593,34 @@
       </c>
       <c r="E91" s="7"/>
       <c r="J91" s="3" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="K91" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="92" spans="4:11" x14ac:dyDescent="0.2">
       <c r="J92" s="3" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="K92" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="93" spans="4:11" x14ac:dyDescent="0.2">
       <c r="J93" s="3" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="K93" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="94" spans="4:11" x14ac:dyDescent="0.2">
       <c r="J94" s="3" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="K94" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="95" spans="4:11" x14ac:dyDescent="0.2">
@@ -4573,10 +4641,10 @@
     </row>
     <row r="98" spans="10:11" x14ac:dyDescent="0.2">
       <c r="J98" s="9" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="K98" s="3" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
     </row>
     <row r="99" spans="10:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -4588,178 +4656,178 @@
     <row r="106" spans="10:11" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="107" spans="10:11" x14ac:dyDescent="0.2">
       <c r="J107" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="K107" s="5" t="s">
         <v>162</v>
-      </c>
-      <c r="K107" s="5" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="108" spans="10:11" x14ac:dyDescent="0.2">
       <c r="J108" s="3" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="K108" s="6" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
     </row>
     <row r="109" spans="10:11" x14ac:dyDescent="0.2">
       <c r="J109" s="3" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="K109" s="6" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
     </row>
     <row r="110" spans="10:11" x14ac:dyDescent="0.2">
       <c r="J110" s="3" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="K110" s="6" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
     </row>
     <row r="111" spans="10:11" x14ac:dyDescent="0.2">
       <c r="J111" s="3" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="K111" s="6" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
     </row>
     <row r="112" spans="10:11" x14ac:dyDescent="0.2">
       <c r="J112" s="3" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="K112" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="113" spans="10:11" x14ac:dyDescent="0.2">
       <c r="J113" s="3" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="K113" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="114" spans="10:11" x14ac:dyDescent="0.2">
       <c r="J114" s="3" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="K114" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="115" spans="10:11" x14ac:dyDescent="0.2">
       <c r="J115" s="3" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="K115" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="116" spans="10:11" x14ac:dyDescent="0.2">
       <c r="J116" s="3" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="K116" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="117" spans="10:11" x14ac:dyDescent="0.2">
       <c r="J117" s="3" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="K117" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="118" spans="10:11" x14ac:dyDescent="0.2">
       <c r="J118" s="3" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="K118" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="119" spans="10:11" x14ac:dyDescent="0.2">
       <c r="J119" s="3" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="K119" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="120" spans="10:11" x14ac:dyDescent="0.2">
       <c r="J120" s="3" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="K120" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="121" spans="10:11" x14ac:dyDescent="0.2">
       <c r="J121" s="3" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="K121" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="122" spans="10:11" x14ac:dyDescent="0.2">
       <c r="J122" s="3" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="K122" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="123" spans="10:11" x14ac:dyDescent="0.2">
       <c r="J123" s="3" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="K123" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="124" spans="10:11" x14ac:dyDescent="0.2">
       <c r="J124" s="3" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="K124" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="125" spans="10:11" x14ac:dyDescent="0.2">
       <c r="J125" s="3" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="K125" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="126" spans="10:11" x14ac:dyDescent="0.2">
       <c r="J126" s="3" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="K126" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="127" spans="10:11" x14ac:dyDescent="0.2">
       <c r="J127" s="3" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="K127" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="128" spans="10:11" x14ac:dyDescent="0.2">
       <c r="J128" s="3" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="K128" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="129" spans="10:11" x14ac:dyDescent="0.2">
@@ -4780,10 +4848,10 @@
     </row>
     <row r="132" spans="10:11" x14ac:dyDescent="0.2">
       <c r="J132" s="9" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="K132" s="3" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
     </row>
     <row r="133" spans="10:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -4815,210 +4883,210 @@
   <sheetData>
     <row r="5" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E5" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="F5" t="s">
         <v>36</v>
-      </c>
-      <c r="F5" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="6" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E6" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="F6" t="s">
         <v>38</v>
-      </c>
-      <c r="F6" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="7" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E7" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="F7" t="s">
         <v>40</v>
-      </c>
-      <c r="F7" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="8" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E8" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="F8" t="s">
         <v>42</v>
-      </c>
-      <c r="F8" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="9" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E9" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="F9" t="s">
         <v>44</v>
-      </c>
-      <c r="F9" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="10" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E10" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="F10" t="s">
         <v>46</v>
-      </c>
-      <c r="F10" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="11" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E11" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="F11" t="s">
         <v>48</v>
-      </c>
-      <c r="F11" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="12" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E12" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="F12" t="s">
         <v>50</v>
-      </c>
-      <c r="F12" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="13" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E13" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="F13" t="s">
         <v>52</v>
-      </c>
-      <c r="F13" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="14" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E14" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="F14" t="s">
         <v>54</v>
-      </c>
-      <c r="F14" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="15" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E15" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="F15" t="s">
         <v>56</v>
-      </c>
-      <c r="F15" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="16" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E16" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="F16" t="s">
         <v>58</v>
-      </c>
-      <c r="F16" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="17" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E17" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="F17" t="s">
         <v>60</v>
-      </c>
-      <c r="F17" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="18" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E18" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="F18" t="s">
         <v>62</v>
-      </c>
-      <c r="F18" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="19" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E19" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="F19" t="s">
         <v>64</v>
-      </c>
-      <c r="F19" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="20" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E20" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="F20" t="s">
         <v>66</v>
-      </c>
-      <c r="F20" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="21" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E21" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="F21" t="s">
         <v>68</v>
-      </c>
-      <c r="F21" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="22" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E22" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="F22" t="s">
         <v>70</v>
-      </c>
-      <c r="F22" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="23" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E23" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="F23" t="s">
         <v>72</v>
-      </c>
-      <c r="F23" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="24" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E24" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="F24" t="s">
         <v>74</v>
-      </c>
-      <c r="F24" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="25" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E25" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="F25" t="s">
         <v>76</v>
-      </c>
-      <c r="F25" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="26" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E26" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="F26" t="s">
         <v>78</v>
-      </c>
-      <c r="F26" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="27" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E27" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="F27" t="s">
         <v>80</v>
-      </c>
-      <c r="F27" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="28" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E28" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="F28" t="s">
         <v>82</v>
-      </c>
-      <c r="F28" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="29" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E29" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="F29" t="s">
         <v>84</v>
-      </c>
-      <c r="F29" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="30" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E30" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="F30" t="s">
         <v>86</v>
-      </c>
-      <c r="F30" t="s">
-        <v>87</v>
       </c>
     </row>
   </sheetData>

--- a/WaterDiag.xlsx
+++ b/WaterDiag.xlsx
@@ -1,22 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dub/Code/MilanoWaterProject/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CACAC79-D3AA-FB4B-985F-C1B893443012}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4C84D9D0-823F-F940-8745-AE7EC7AA78EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15080" yWindow="2200" windowWidth="31380" windowHeight="19020" xr2:uid="{60223CC9-929C-2C40-9DF4-4D5E66E85102}"/>
+    <workbookView xWindow="7380" yWindow="980" windowWidth="35560" windowHeight="19020" activeTab="1" xr2:uid="{60223CC9-929C-2C40-9DF4-4D5E66E85102}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Current" sheetId="1" r:id="rId1"/>
+    <sheet name="Future" sheetId="3" r:id="rId2"/>
+    <sheet name="Alerts" sheetId="4" r:id="rId3"/>
+    <sheet name="TestStruct" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439" uniqueCount="241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1558" uniqueCount="463">
   <si>
     <t>/*</t>
   </si>
@@ -144,160 +147,28 @@
     <t>Float State 4</t>
   </si>
   <si>
-    <t xml:space="preserve">SystemData[5] </t>
-  </si>
-  <si>
     <t xml:space="preserve"> PumpCurrentSense[1];</t>
   </si>
   <si>
-    <t xml:space="preserve">SystemData[6] </t>
-  </si>
-  <si>
     <t xml:space="preserve"> PumpCurrentSense[2];</t>
   </si>
   <si>
-    <t xml:space="preserve">SystemData[7] </t>
-  </si>
-  <si>
     <t xml:space="preserve"> PumpCurrentSense[3];</t>
   </si>
   <si>
-    <t xml:space="preserve">SystemData[8] </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> firmware; </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SystemData[9] </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> data_payload[16]; //I2C Faults</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SystemData[10] </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> data_payload[12]; //Cycle Count</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SystemData[11] </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> AmbientTempF;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SystemData[12] </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> floatstate[1];</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SystemData[13] </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> floatstate[2];</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SystemData[14] </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> floatstate[3];</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SystemData[15] </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> floatstate[4];</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SystemData[16] </t>
-  </si>
-  <si>
     <t xml:space="preserve"> PumpLedColor[1];</t>
   </si>
   <si>
-    <t xml:space="preserve">SystemData[17] </t>
-  </si>
-  <si>
     <t xml:space="preserve"> PumpLedColor[2];</t>
   </si>
   <si>
-    <t xml:space="preserve">SystemData[18] </t>
-  </si>
-  <si>
     <t xml:space="preserve"> PumpLedColor[3];</t>
   </si>
   <si>
-    <t xml:space="preserve">SystemData[19] </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> floatLedcolor[1];</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SystemData[20] </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> floatLedcolor[2];</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SystemData[21] </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> floatLedcolor[3];</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SystemData[22] </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> floatLedcolor[4];</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SystemData[23] </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Pump[1].RunCommanded;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SystemData[24] </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Pump[2].RunCommanded;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SystemData[25] </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Pump[3].RunCommanded;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SystemData[26] </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> WaterPresSensorValue;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SystemData[27] </t>
-  </si>
-  <si>
     <t xml:space="preserve"> PumpCurrentSense[4];</t>
   </si>
   <si>
-    <t xml:space="preserve">SystemData[28] </t>
-  </si>
-  <si>
     <t xml:space="preserve"> PumpLedColor[4];</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SystemData[29] </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> pressState;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SystemData[30] </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> pressLedColor;</t>
   </si>
   <si>
     <t>Pressure LED Color</t>
@@ -810,12 +681,810 @@
   <si>
     <t xml:space="preserve"> "ESP8266 Client", #define ESP_TOPIC   "Tank ESP", tank_esp_ , #define ESP_LEN 21</t>
   </si>
+  <si>
+    <t xml:space="preserve"> 4-20 mA Raw Tank Sensor HydroStatic Pressure 16bit</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> GPIO 8 bits Hex (bits 0-3 floats)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "Tank Client", #define TANK_TOPIC   "Tank ESP", tank_esp_ , #define TANK_LEN 21</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "Well Client", #define WELL_TOPIC   "Well ESP", well_esp_ , #define WELL_LEN 21</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> GPIO 8 bits Hex (bit 0-pump1&amp;2 commanded, bit 1 septic alert, bit 2-7 spare)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> CH1 Unused 2 16bit</t>
+  </si>
+  <si>
+    <t>tank_data_payload[TANK_LEN] ;</t>
+  </si>
+  <si>
+    <t>well_data_payload[WELL_LEN] ;</t>
+  </si>
+  <si>
+    <t>#define FL_CLIENTID</t>
+  </si>
+  <si>
+    <t>Pump No Start - House Pressure Tank Relay Active but Pump 1 or 2 Not Running</t>
+  </si>
+  <si>
+    <t>*</t>
+  </si>
+  <si>
+    <t>Note:  Bits 0-2: Alert Type; Bits 3-10: LED Brightness, Bits 11-13: LED Color, Bits 14-15: Spare</t>
+  </si>
+  <si>
+    <t>Current Sensor  1 Value (Well #1)</t>
+  </si>
+  <si>
+    <t>Current Sensor  2 Value (Well #2)</t>
+  </si>
+  <si>
+    <t>Current Sensor  3 Value (Well #3)</t>
+  </si>
+  <si>
+    <t>Current Sensor  4 Value (Irrigation Pump)</t>
+  </si>
+  <si>
+    <t>Hydrostatic Tank Pressure Sensor Value</t>
+  </si>
+  <si>
+    <t>;</t>
+  </si>
+  <si>
+    <t>struct FormattedSensorData {</t>
+  </si>
+  <si>
+    <t>};</t>
+  </si>
+  <si>
+    <t>struct AlertSensorData {</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>spare1</t>
+  </si>
+  <si>
+    <t>spare2</t>
+  </si>
+  <si>
+    <t>spare3</t>
+  </si>
+  <si>
+    <t>spare4</t>
+  </si>
+  <si>
+    <t>spare5</t>
+  </si>
+  <si>
+    <t>spare6</t>
+  </si>
+  <si>
+    <t>spare7</t>
+  </si>
+  <si>
+    <t>spare8</t>
+  </si>
+  <si>
+    <t>spare9</t>
+  </si>
+  <si>
+    <t>spare10</t>
+  </si>
+  <si>
+    <t>spare11</t>
+  </si>
+  <si>
+    <t>spare12</t>
+  </si>
+  <si>
+    <t>spare13</t>
+  </si>
+  <si>
+    <t>spare14</t>
+  </si>
+  <si>
+    <t>spare15</t>
+  </si>
+  <si>
+    <t>spare16</t>
+  </si>
+  <si>
+    <t>spare17</t>
+  </si>
+  <si>
+    <t>spare18</t>
+  </si>
+  <si>
+    <t>spare19</t>
+  </si>
+  <si>
+    <t>spare20</t>
+  </si>
+  <si>
+    <t>PumpNoStart</t>
+  </si>
+  <si>
+    <t>Alert Type</t>
+  </si>
+  <si>
+    <t>Alert Description</t>
+  </si>
+  <si>
+    <t>Key Param 1</t>
+  </si>
+  <si>
+    <t>Key Param 2</t>
+  </si>
+  <si>
+    <t>Key Param 3</t>
+  </si>
+  <si>
+    <t>Constraint 1</t>
+  </si>
+  <si>
+    <t>Constrain 2</t>
+  </si>
+  <si>
+    <t>Reset 1</t>
+  </si>
+  <si>
+    <t>Log</t>
+  </si>
+  <si>
+    <t>Critical</t>
+  </si>
+  <si>
+    <t>Tank Critically Low</t>
+  </si>
+  <si>
+    <t>Float 25 Low</t>
+  </si>
+  <si>
+    <t>Float 25 High</t>
+  </si>
+  <si>
+    <t>Water Level in Tank is Critically Low</t>
+  </si>
+  <si>
+    <t>Settle Time 10 Min</t>
+  </si>
+  <si>
+    <t>House Water Pressure Low</t>
+  </si>
+  <si>
+    <t>House Water Pressure Sensor &lt; 40 PSI</t>
+  </si>
+  <si>
+    <t>Settle Time 5 Minutes</t>
+  </si>
+  <si>
+    <t>House Water Pressure &gt; 40 PSI</t>
+  </si>
+  <si>
+    <t>Household Water Pressure Critically Low</t>
+  </si>
+  <si>
+    <t>Warn</t>
+  </si>
+  <si>
+    <t>Well Pumps Not Starting</t>
+  </si>
+  <si>
+    <t>Pessure Tank Sensor</t>
+  </si>
+  <si>
+    <t>Current Sensor W1</t>
+  </si>
+  <si>
+    <t>Start Time 10 Seconds</t>
+  </si>
+  <si>
+    <t>Pressure Tank Sensor Off</t>
+  </si>
+  <si>
+    <t>Water Well Pumps Failed to Start</t>
+  </si>
+  <si>
+    <t>Current Sensor W2</t>
+  </si>
+  <si>
+    <t>Well Pumps Runtime Exceeded</t>
+  </si>
+  <si>
+    <t>CS W1</t>
+  </si>
+  <si>
+    <t>CS W2</t>
+  </si>
+  <si>
+    <t>CS to zero</t>
+  </si>
+  <si>
+    <t>Water Well Run Time Exceeds 5 Minutes</t>
+  </si>
+  <si>
+    <t>Well Pumps Cycles Excessive</t>
+  </si>
+  <si>
+    <t>Off Time Exceeds 1 Hour</t>
+  </si>
+  <si>
+    <t>Water Well Cycles Exceeds 10 per Hour</t>
+  </si>
+  <si>
+    <t>Info</t>
+  </si>
+  <si>
+    <t>Well Protect Circuit Active</t>
+  </si>
+  <si>
+    <t>Well #x Protect Circuit Active</t>
+  </si>
+  <si>
+    <t>Tank Overfill Condition</t>
+  </si>
+  <si>
+    <t>Tank Flow Gallons</t>
+  </si>
+  <si>
+    <t>Tank Gallons Below 2275</t>
+  </si>
+  <si>
+    <t>Tank Overfill Detected</t>
+  </si>
+  <si>
+    <t>Gallons Exceed 2275 for 1 minute</t>
+  </si>
+  <si>
+    <t>Irrigation Pump Temp Low/High</t>
+  </si>
+  <si>
+    <t>Pump Temp Sensor &lt; 35 or &gt; 110</t>
+  </si>
+  <si>
+    <t>Pump Temp &lt; 35 of &gt;110</t>
+  </si>
+  <si>
+    <t>Itrrigation Pump Temperature Exceeding Limits</t>
+  </si>
+  <si>
+    <t>Septic System Alert</t>
+  </si>
+  <si>
+    <t>Septic alert</t>
+  </si>
+  <si>
+    <t>Septic System Malfunction</t>
+  </si>
+  <si>
+    <t>Irrigation Pump Run Away</t>
+  </si>
+  <si>
+    <t>CS W4</t>
+  </si>
+  <si>
+    <t>Wait 10 Sec on Flow</t>
+  </si>
+  <si>
+    <t>Irrigation Flow Amount</t>
+  </si>
+  <si>
+    <t>Irrigation Flow &gt; 2 GPM</t>
+  </si>
+  <si>
+    <t>Irrigation Pump Running with No Flow</t>
+  </si>
+  <si>
+    <t>Well 3 Pump Run Away</t>
+  </si>
+  <si>
+    <t>CS W3</t>
+  </si>
+  <si>
+    <t>Tank Flow Amount</t>
+  </si>
+  <si>
+    <t>Tank Flow &gt; 2 GPM</t>
+  </si>
+  <si>
+    <t>Well 3 Pump Running with No Flow</t>
+  </si>
+  <si>
+    <t>##</t>
+  </si>
+  <si>
+    <t>Float 25 Low &gt; 25 seconds</t>
+  </si>
+  <si>
+    <t>Septic alert zero &gt; 25 seconds</t>
+  </si>
+  <si>
+    <t>Septic Alert High</t>
+  </si>
+  <si>
+    <t>Event Param</t>
+  </si>
+  <si>
+    <t>pump_no_start</t>
+  </si>
+  <si>
+    <t>/**</t>
+  </si>
+  <si>
+    <t>1 -</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2- </t>
+  </si>
+  <si>
+    <t>3 -</t>
+  </si>
+  <si>
+    <t>4 -</t>
+  </si>
+  <si>
+    <t>6 -</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5 - </t>
+  </si>
+  <si>
+    <t>7 -</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8 - </t>
+  </si>
+  <si>
+    <t>9  -</t>
+  </si>
+  <si>
+    <t>10 -</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11 - </t>
+  </si>
+  <si>
+    <t>low_water_alert</t>
+  </si>
+  <si>
+    <t>I2C Faults Detected</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12 - </t>
+  </si>
+  <si>
+    <t>I2C Count</t>
+  </si>
+  <si>
+    <t>I2C Count Exceeds 20 for 1 minute</t>
+  </si>
+  <si>
+    <t>I2C Count Stable</t>
+  </si>
+  <si>
+    <t>I2C Communication Faults detected</t>
+  </si>
+  <si>
+    <t>verbose</t>
+  </si>
+  <si>
+    <t>"-V" of "-v"</t>
+  </si>
+  <si>
+    <t>Echo all output to the user terminal</t>
+  </si>
+  <si>
+    <t>log</t>
+  </si>
+  <si>
+    <t>Logging level 1 - all, 2 - verifies only, 3 - test case result only (default is 1)</t>
+  </si>
+  <si>
+    <t>File syntax</t>
+  </si>
+  <si>
+    <t>s</t>
+  </si>
+  <si>
+    <t>set</t>
+  </si>
+  <si>
+    <t>value</t>
+  </si>
+  <si>
+    <t>d,f,x</t>
+  </si>
+  <si>
+    <t>r</t>
+  </si>
+  <si>
+    <t>read</t>
+  </si>
+  <si>
+    <t>v</t>
+  </si>
+  <si>
+    <t>verify</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>compare</t>
+  </si>
+  <si>
+    <t>Function Exit:</t>
+  </si>
+  <si>
+    <t>Sucessful / no failres</t>
+  </si>
+  <si>
+    <t>"-1"</t>
+  </si>
+  <si>
+    <t>Test Failed</t>
+  </si>
+  <si>
+    <t>Tank Flowmonitor [Block 0]</t>
+  </si>
+  <si>
+    <t>ESP Main Controller [Block 1]</t>
+  </si>
+  <si>
+    <t>Irrigation  Flowmonitor [Block 3]</t>
+  </si>
+  <si>
+    <t>Test Floats:</t>
+  </si>
+  <si>
+    <t>struct MonitorSensorData {</t>
+  </si>
+  <si>
+    <t>struct FlowMonSensorData {</t>
+  </si>
+  <si>
+    <t>IrrigationFlowPerMin</t>
+  </si>
+  <si>
+    <t>IrrigationTotalFlow</t>
+  </si>
+  <si>
+    <t>IrrigationPressure</t>
+  </si>
+  <si>
+    <t>IrrigationPumpTemp</t>
+  </si>
+  <si>
+    <t>pump_current_sense_1</t>
+  </si>
+  <si>
+    <t>pump_current_sense_2</t>
+  </si>
+  <si>
+    <t>pump_current_sense_3</t>
+  </si>
+  <si>
+    <t>pump_current_sense_4</t>
+  </si>
+  <si>
+    <t>pump_led_color_1</t>
+  </si>
+  <si>
+    <t>pump_led_color_2</t>
+  </si>
+  <si>
+    <t>pump_led_color_3</t>
+  </si>
+  <si>
+    <t>pump_led_color_4</t>
+  </si>
+  <si>
+    <t>pump_run_count</t>
+  </si>
+  <si>
+    <t>pump_run_time_1</t>
+  </si>
+  <si>
+    <t>pump_run_time_2</t>
+  </si>
+  <si>
+    <t>pump_run_time_3</t>
+  </si>
+  <si>
+    <t>pump_run_time_4</t>
+  </si>
+  <si>
+    <t>float_state_43</t>
+  </si>
+  <si>
+    <t>float_state_21</t>
+  </si>
+  <si>
+    <t>all_float_led_colors</t>
+  </si>
+  <si>
+    <t>septic_relay_alert</t>
+  </si>
+  <si>
+    <t>septic_relay_alert_color</t>
+  </si>
+  <si>
+    <t>press_relay_sense</t>
+  </si>
+  <si>
+    <t>press_led_color</t>
+  </si>
+  <si>
+    <t>hydro_stat_pressure</t>
+  </si>
+  <si>
+    <t>water_height</t>
+  </si>
+  <si>
+    <t>tank_gallons</t>
+  </si>
+  <si>
+    <t>tank_per_full</t>
+  </si>
+  <si>
+    <t>well_pump_1</t>
+  </si>
+  <si>
+    <t>well_pump_2</t>
+  </si>
+  <si>
+    <t>well_pump_3</t>
+  </si>
+  <si>
+    <t>irrigation_pump</t>
+  </si>
+  <si>
+    <t>fw_version</t>
+  </si>
+  <si>
+    <t>i2c_fault_count</t>
+  </si>
+  <si>
+    <t>cycle_count</t>
+  </si>
+  <si>
+    <t>ambient_temp</t>
+  </si>
+  <si>
+    <t>float_state_1</t>
+  </si>
+  <si>
+    <t>float_state_2</t>
+  </si>
+  <si>
+    <t>float_state_3</t>
+  </si>
+  <si>
+    <t>float_state_4</t>
+  </si>
+  <si>
+    <t>pressure_tank_switch</t>
+  </si>
+  <si>
+    <t>house_water_pressure</t>
+  </si>
+  <si>
+    <t>septic_alert</t>
+  </si>
+  <si>
+    <t>spare_1</t>
+  </si>
+  <si>
+    <t>spare_2</t>
+  </si>
+  <si>
+    <t>Block 3</t>
+  </si>
+  <si>
+    <t>Block 4</t>
+  </si>
+  <si>
+    <t>Block 5</t>
+  </si>
+  <si>
+    <t>Block 6</t>
+  </si>
+  <si>
+    <t>Block 0</t>
+  </si>
+  <si>
+    <t>Block 1</t>
+  </si>
+  <si>
+    <t>Block 2</t>
+  </si>
+  <si>
+    <t>unsigned short int</t>
+  </si>
+  <si>
+    <t>struct WellClientDatat {</t>
+  </si>
+  <si>
+    <t>raw_current_sense_1</t>
+  </si>
+  <si>
+    <t>raw_current_sense_2</t>
+  </si>
+  <si>
+    <t>raw_current_sense_3</t>
+  </si>
+  <si>
+    <t>raw_current_sense_4</t>
+  </si>
+  <si>
+    <t>raw_current_sense_5</t>
+  </si>
+  <si>
+    <t>raw_current_sense_6</t>
+  </si>
+  <si>
+    <t>raw_current_sense_7</t>
+  </si>
+  <si>
+    <t>raw_current_sense_8</t>
+  </si>
+  <si>
+    <t>raw_temp_celcius</t>
+  </si>
+  <si>
+    <t>gpio_alerts</t>
+  </si>
+  <si>
+    <t>cycle_counter</t>
+  </si>
+  <si>
+    <t>spare_3</t>
+  </si>
+  <si>
+    <t>spare_4</t>
+  </si>
+  <si>
+    <t>spare_5</t>
+  </si>
+  <si>
+    <t>I2C_panic_count</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> TMP100_I2C_error</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> MCP23008_I2C_error</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> MCP3428_I2C_error</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> FW_version_4_hex </t>
+  </si>
+  <si>
+    <t>}</t>
+  </si>
+  <si>
+    <t>pulse_count</t>
+  </si>
+  <si>
+    <t>millisecnods</t>
+  </si>
+  <si>
+    <t>new_data_flag</t>
+  </si>
+  <si>
+    <t>irrigation_pressure_sensor</t>
+  </si>
+  <si>
+    <t>pump_temp_w1</t>
+  </si>
+  <si>
+    <t>pump_temp_w2</t>
+  </si>
+  <si>
+    <t>spare_6</t>
+  </si>
+  <si>
+    <t>spare_7</t>
+  </si>
+  <si>
+    <t>spare_8</t>
+  </si>
+  <si>
+    <t>spare_9</t>
+  </si>
+  <si>
+    <t>spare_10</t>
+  </si>
+  <si>
+    <t>spare_11</t>
+  </si>
+  <si>
+    <t>spare_12</t>
+  </si>
+  <si>
+    <t>spare_13</t>
+  </si>
+  <si>
+    <t>tank_baro_pressure_sensor</t>
+  </si>
+  <si>
+    <t>gpio</t>
+  </si>
+  <si>
+    <t>spare_14</t>
+  </si>
+  <si>
+    <t>spare_15</t>
+  </si>
+  <si>
+    <t>spare_16</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>struct FlowClientDatat {</t>
+  </si>
+  <si>
+    <t>struct TankClientDatat {</t>
+  </si>
+  <si>
+    <t>Irrigation Pump Temperature in F Float Bytes 1&amp;2</t>
+  </si>
+  <si>
+    <t>Irrigation Pump Temperature in F Float Bytes 3&amp;4</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "Flow Client", #define FLO_TOPIC   "Flow ESP", flow_esp_ , #define FLO_LEN 21</t>
+  </si>
+  <si>
+    <t>#define  TANK_CLIENTID</t>
+  </si>
+  <si>
+    <t>#define  WELL_CLIENTID</t>
+  </si>
+  <si>
+    <t>parameter ID</t>
+  </si>
+  <si>
+    <t>wait x seconds before next instruction</t>
+  </si>
+  <si>
+    <t>delay</t>
+  </si>
+  <si>
+    <t>Usage: %s [-v] [-l N] [file_name]</t>
+  </si>
+  <si>
+    <t>"-L" or "-l" 1,2,3</t>
+  </si>
+  <si>
+    <t>tolerance</t>
+  </si>
+  <si>
+    <t>tank_gpio</t>
+  </si>
+  <si>
+    <t>well_gpio</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -852,12 +1521,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FF9CDCFE"/>
-      <name val="Menlo"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -877,8 +1540,57 @@
       <name val="Menlo"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="4"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF00A67D"/>
+      <name val="Monaco"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -889,6 +1601,48 @@
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF8CBAD"/>
+        <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
   </fills>
@@ -972,7 +1726,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -981,10 +1735,62 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3020,8 +3826,2089 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>6859</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="5918200" cy="374141"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C6D0947E-6FCC-2D45-9E27-A19311224F4C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3810000" y="6859"/>
+          <a:ext cx="5918200" cy="374141"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1800"/>
+            <a:t>Sensor Input Raw</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1800" baseline="0"/>
+            <a:t> Data </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1800"/>
+            <a:t> from TankClient.c</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="Straight Arrow Connector 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EF0F2D02-2906-224A-8535-7879AF6FE9CF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7467600" y="1638300"/>
+          <a:ext cx="825500" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="76200" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="4" name="Straight Arrow Connector 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B95927A4-1461-D449-83D4-8045529B5C14}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="9944100" y="2463800"/>
+          <a:ext cx="825500" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="76200" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>120650</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>120650</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="5" name="Straight Arrow Connector 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E184E1EE-2476-0B4F-AC06-1ED6C5604907}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9944100" y="2178050"/>
+          <a:ext cx="825500" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="76200" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="4660900" cy="825500"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="TextBox 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6FC026A2-4CD6-1D40-A92A-75A5DC5A4937}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10782300" y="800100"/>
+          <a:ext cx="4660900" cy="825500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1800"/>
+            <a:t>/*Raw Sensor Data Conversion</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1800" baseline="0"/>
+            <a:t> and Formatted by subsriber.c() */</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1800"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>201082</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1651000" cy="21166667"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="TextBox 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{74913FE3-A27F-B044-A8EB-08742F00BB67}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8293100" y="1636182"/>
+          <a:ext cx="1651000" cy="21166667"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="ctr">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="2800">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>MQTT</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="2800">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Broker</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>660400</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>12701</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="901700" cy="762000"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="TextBox 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E8ECCBC9-2428-A441-9CE8-323F27008DF2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9779000" y="1244601"/>
+          <a:ext cx="901700" cy="762000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="ctr">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000"/>
+            <a:t>Sensor</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t> Input</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Raw</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> Data</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>from ESP32</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>800100</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="4660900" cy="762000"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="TextBox 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D9494B4D-6ECB-7F4F-994E-F7833051E855}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10744200" y="7480300"/>
+          <a:ext cx="4660900" cy="762000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1800" baseline="0"/>
+            <a:t>/*Data Formatted for Blynk</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1800" baseline="0"/>
+            <a:t>monitor.c() */</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1800"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>711200</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>88899</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>711200</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>88899</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="10" name="Straight Arrow Connector 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E4EB4298-90FA-2543-AF29-3BCF2DDD876C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="9829800" y="8686799"/>
+          <a:ext cx="825500" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="76200" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>171449</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>171449</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="11" name="Straight Arrow Connector 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7F83094B-B8E2-6749-B9C2-7EF430720BF2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9969500" y="8362949"/>
+          <a:ext cx="825500" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="76200" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>685800</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="901700" cy="762000"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="TextBox 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3DE59C28-5D41-2C41-BB8D-3266B89888C3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9804400" y="7429500"/>
+          <a:ext cx="901700" cy="762000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="ctr">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000"/>
+            <a:t>Converted</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000" baseline="0"/>
+            <a:t> &amp;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000" baseline="0"/>
+            <a:t> Formatted</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000" baseline="0"/>
+            <a:t>Sensor Data</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>787400</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>50799</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>787400</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>50799</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="13" name="Straight Arrow Connector 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{97FCE727-7E9B-1242-B206-EE9839DCC1FF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="9906000" y="15189199"/>
+          <a:ext cx="825500" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="76200" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>171449</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>171449</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4C3B8B02-FD1C-AE4F-8883-31C03A387CB1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9969500" y="14687549"/>
+          <a:ext cx="825500" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="76200" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="4660900" cy="774700"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="TextBox 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7C4CE98C-2B45-A248-AA64-60FDDDCE5196}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10769600" y="14224000"/>
+          <a:ext cx="4660900" cy="774700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="C00000"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>/* Compute Alerts alert.c() */</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>660400</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="901700" cy="762000"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="TextBox 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B1520B30-E572-1244-9DCA-8E81C1DF476C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9779000" y="13830300"/>
+          <a:ext cx="901700" cy="762000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="ctr">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000"/>
+            <a:t>Converted</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000" baseline="0"/>
+            <a:t> &amp;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000" baseline="0"/>
+            <a:t> Formatted</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000" baseline="0"/>
+            <a:t>Sensor Data</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>660400</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="901700" cy="762000"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="TextBox 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{44FCD1DA-F504-E248-BADA-EEF058393400}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9779000" y="13042900"/>
+          <a:ext cx="901700" cy="762000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="ctr">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000"/>
+            <a:t>Formatted</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1000" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000" baseline="0"/>
+            <a:t>Sensor</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000" baseline="0"/>
+            <a:t>Data</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>3517900</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>520700</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="18" name="Straight Arrow Connector 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0C995A35-C9F5-9748-9516-327BA4C93914}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="7162800" y="20104100"/>
+          <a:ext cx="825500" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="76200" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>3520017</xdr:colOff>
+      <xdr:row>101</xdr:row>
+      <xdr:rowOff>33867</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>508000</xdr:colOff>
+      <xdr:row>101</xdr:row>
+      <xdr:rowOff>33867</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="19" name="Straight Arrow Connector 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{76FD4271-4ADF-F246-9746-183B2E4CD836}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="7164917" y="20684067"/>
+          <a:ext cx="810683" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="76200" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>3520016</xdr:colOff>
+      <xdr:row>105</xdr:row>
+      <xdr:rowOff>29633</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>507999</xdr:colOff>
+      <xdr:row>105</xdr:row>
+      <xdr:rowOff>29633</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="20" name="Straight Arrow Connector 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5255067F-FF61-7847-A497-6FE1AF68CB97}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="7164916" y="21492633"/>
+          <a:ext cx="810683" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="76200" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>141817</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>162983</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="901700" cy="762000"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="TextBox 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A09AF318-95B8-8943-A36E-1B3F75E1BEC2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7609417" y="19378083"/>
+          <a:ext cx="901700" cy="762000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="ctr">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000"/>
+            <a:t>Converted</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000" baseline="0"/>
+            <a:t> &amp;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000" baseline="0"/>
+            <a:t> Formatted</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000" baseline="0"/>
+            <a:t>Sensor Data</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="901700" cy="762000"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="22" name="TextBox 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A636087B-D775-8849-A169-F0A1F463C8DF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7620000" y="20218400"/>
+          <a:ext cx="901700" cy="762000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="ctr">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000"/>
+            <a:t>Formatted</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1000" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000" baseline="0"/>
+            <a:t>Sensor</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000" baseline="0"/>
+            <a:t>Data</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>139700</xdr:colOff>
+      <xdr:row>103</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="901700" cy="762000"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="23" name="TextBox 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7BBA1BC2-BEF9-BD4C-8ED3-F4303542FBEF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7607300" y="21145500"/>
+          <a:ext cx="901700" cy="762000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="C00000"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="ctr">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Alert Data</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>171449</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>171449</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C3FDC62-6714-ED40-AD49-114869D14FBE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9969500" y="14903449"/>
+          <a:ext cx="825500" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="76200" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>4232</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>8976</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="5939367" cy="374141"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="25" name="TextBox 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DC47D872-86A2-984F-A87D-2770CCEC3A20}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3814232" y="13242376"/>
+          <a:ext cx="5939367" cy="374141"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1800"/>
+            <a:t>Sensor Input Raw</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1800" baseline="0"/>
+            <a:t> Data </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1800"/>
+            <a:t> from Irrigation FlowClient.c</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="26" name="Straight Arrow Connector 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3D2792E2-5C82-5047-9471-95E64BB6CA42}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7467600" y="14312900"/>
+          <a:ext cx="825500" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="76200" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>821266</xdr:colOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>167216</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="4660900" cy="825500"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="27" name="TextBox 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D8C1831F-F26C-A840-B7BF-CC15BC355539}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10765366" y="21376216"/>
+          <a:ext cx="4660900" cy="825500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1800" baseline="0"/>
+            <a:t>/*Data Formatted for Blynk</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1800" baseline="0"/>
+            <a:t>flowmonitor.c() */</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1800"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>774700</xdr:colOff>
+      <xdr:row>106</xdr:row>
+      <xdr:rowOff>173565</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>774700</xdr:colOff>
+      <xdr:row>106</xdr:row>
+      <xdr:rowOff>173565</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="28" name="Straight Arrow Connector 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7DB64314-1255-DD4A-962C-114CE6E77B81}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="9893300" y="21852465"/>
+          <a:ext cx="825500" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="76200" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>819150</xdr:colOff>
+      <xdr:row>105</xdr:row>
+      <xdr:rowOff>2116</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>364067</xdr:colOff>
+      <xdr:row>105</xdr:row>
+      <xdr:rowOff>2116</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="29" name="Straight Arrow Connector 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4E54D38A-3656-5145-90B9-60B647D503A8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9937750" y="21465116"/>
+          <a:ext cx="1195917" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="76200" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>781050</xdr:colOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>182033</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="901700" cy="762000"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="30" name="TextBox 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D3FAD902-3550-4543-9113-68D4F4E0D60F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9899650" y="21391033"/>
+          <a:ext cx="901700" cy="762000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="ctr">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000" baseline="0"/>
+            <a:t>Flow Data</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>106</xdr:row>
+      <xdr:rowOff>171449</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>106</xdr:row>
+      <xdr:rowOff>171449</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="31" name="Straight Arrow Connector 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{64B6A718-66F3-0A4D-9F04-38D6C9F3F4FC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9969500" y="21850349"/>
+          <a:ext cx="825500" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="76200" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="5918200" cy="374141"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="32" name="TextBox 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4C0A77D7-57B3-AE4B-8F56-86FADC901761}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3810000" y="6464300"/>
+          <a:ext cx="5918200" cy="374141"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1800"/>
+            <a:t>Sensor Input Raw</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1800" baseline="0"/>
+            <a:t> Data </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1800"/>
+            <a:t> from WellClient.c</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2013 - 2022">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -3309,7 +6196,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3319,8 +6206,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0F5BC79-5CC4-4146-A4AC-12A07A1DA7E2}">
   <dimension ref="B3:K133"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView topLeftCell="A65" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E67" sqref="E67:E87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3337,15 +6224,15 @@
     <row r="3" spans="4:11" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="4" spans="4:11" x14ac:dyDescent="0.2">
       <c r="D4" s="2" t="s">
-        <v>235</v>
+        <v>191</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>240</v>
+        <v>196</v>
       </c>
     </row>
     <row r="5" spans="4:11" x14ac:dyDescent="0.2">
       <c r="D5" s="3" t="s">
-        <v>233</v>
+        <v>189</v>
       </c>
       <c r="E5" s="6" t="s">
         <v>3</v>
@@ -3353,7 +6240,7 @@
     </row>
     <row r="6" spans="4:11" x14ac:dyDescent="0.2">
       <c r="D6" s="3" t="s">
-        <v>91</v>
+        <v>47</v>
       </c>
       <c r="E6" s="6" t="s">
         <v>4</v>
@@ -3361,7 +6248,7 @@
     </row>
     <row r="7" spans="4:11" x14ac:dyDescent="0.2">
       <c r="D7" s="3" t="s">
-        <v>92</v>
+        <v>48</v>
       </c>
       <c r="E7" s="6" t="s">
         <v>5</v>
@@ -3369,7 +6256,7 @@
     </row>
     <row r="8" spans="4:11" x14ac:dyDescent="0.2">
       <c r="D8" s="3" t="s">
-        <v>93</v>
+        <v>49</v>
       </c>
       <c r="E8" s="6" t="s">
         <v>6</v>
@@ -3377,35 +6264,35 @@
     </row>
     <row r="9" spans="4:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="D9" s="3" t="s">
-        <v>94</v>
+        <v>50</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>166</v>
+        <v>122</v>
       </c>
     </row>
     <row r="10" spans="4:11" x14ac:dyDescent="0.2">
       <c r="D10" s="3" t="s">
-        <v>95</v>
+        <v>51</v>
       </c>
       <c r="E10" s="6" t="s">
         <v>7</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>133</v>
+        <v>89</v>
       </c>
       <c r="K10" s="5" t="s">
-        <v>136</v>
+        <v>92</v>
       </c>
     </row>
     <row r="11" spans="4:11" x14ac:dyDescent="0.2">
       <c r="D11" s="3" t="s">
-        <v>96</v>
+        <v>52</v>
       </c>
       <c r="E11" s="6" t="s">
         <v>8</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>130</v>
+        <v>86</v>
       </c>
       <c r="K11" s="6" t="s">
         <v>19</v>
@@ -3413,13 +6300,13 @@
     </row>
     <row r="12" spans="4:11" x14ac:dyDescent="0.2">
       <c r="D12" s="3" t="s">
-        <v>97</v>
+        <v>53</v>
       </c>
       <c r="E12" s="6" t="s">
         <v>8</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>132</v>
+        <v>88</v>
       </c>
       <c r="K12" s="6" t="s">
         <v>20</v>
@@ -3427,13 +6314,13 @@
     </row>
     <row r="13" spans="4:11" x14ac:dyDescent="0.2">
       <c r="D13" s="3" t="s">
-        <v>98</v>
+        <v>54</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>163</v>
+        <v>119</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>111</v>
+        <v>67</v>
       </c>
       <c r="K13" s="6" t="s">
         <v>21</v>
@@ -3441,13 +6328,13 @@
     </row>
     <row r="14" spans="4:11" x14ac:dyDescent="0.2">
       <c r="D14" s="3" t="s">
-        <v>99</v>
+        <v>55</v>
       </c>
       <c r="E14" s="6" t="s">
         <v>9</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>112</v>
+        <v>68</v>
       </c>
       <c r="K14" s="6" t="s">
         <v>22</v>
@@ -3455,13 +6342,13 @@
     </row>
     <row r="15" spans="4:11" x14ac:dyDescent="0.2">
       <c r="D15" s="3" t="s">
-        <v>100</v>
+        <v>56</v>
       </c>
       <c r="E15" s="6" t="s">
         <v>10</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>113</v>
+        <v>69</v>
       </c>
       <c r="K15" s="6" t="s">
         <v>23</v>
@@ -3469,13 +6356,13 @@
     </row>
     <row r="16" spans="4:11" x14ac:dyDescent="0.2">
       <c r="D16" s="3" t="s">
-        <v>101</v>
+        <v>57</v>
       </c>
       <c r="E16" s="6" t="s">
         <v>11</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>114</v>
+        <v>70</v>
       </c>
       <c r="K16" s="6" t="s">
         <v>24</v>
@@ -3483,13 +6370,13 @@
     </row>
     <row r="17" spans="4:11" x14ac:dyDescent="0.2">
       <c r="D17" s="3" t="s">
-        <v>102</v>
+        <v>58</v>
       </c>
       <c r="E17" s="6" t="s">
         <v>12</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>115</v>
+        <v>71</v>
       </c>
       <c r="K17" s="6" t="s">
         <v>25</v>
@@ -3497,13 +6384,13 @@
     </row>
     <row r="18" spans="4:11" x14ac:dyDescent="0.2">
       <c r="D18" s="3" t="s">
-        <v>103</v>
+        <v>59</v>
       </c>
       <c r="E18" s="6" t="s">
         <v>13</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>116</v>
+        <v>72</v>
       </c>
       <c r="K18" s="6" t="s">
         <v>26</v>
@@ -3511,13 +6398,13 @@
     </row>
     <row r="19" spans="4:11" x14ac:dyDescent="0.2">
       <c r="D19" s="3" t="s">
-        <v>104</v>
+        <v>60</v>
       </c>
       <c r="E19" s="6" t="s">
         <v>13</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>117</v>
+        <v>73</v>
       </c>
       <c r="K19" s="6" t="s">
         <v>27</v>
@@ -3525,13 +6412,13 @@
     </row>
     <row r="20" spans="4:11" x14ac:dyDescent="0.2">
       <c r="D20" s="3" t="s">
-        <v>105</v>
+        <v>61</v>
       </c>
       <c r="E20" s="6" t="s">
         <v>13</v>
       </c>
       <c r="J20" s="3" t="s">
-        <v>118</v>
+        <v>74</v>
       </c>
       <c r="K20" s="6" t="s">
         <v>28</v>
@@ -3539,13 +6426,13 @@
     </row>
     <row r="21" spans="4:11" x14ac:dyDescent="0.2">
       <c r="D21" s="3" t="s">
-        <v>106</v>
+        <v>62</v>
       </c>
       <c r="E21" s="6" t="s">
         <v>14</v>
       </c>
       <c r="J21" s="3" t="s">
-        <v>119</v>
+        <v>75</v>
       </c>
       <c r="K21" s="6" t="s">
         <v>29</v>
@@ -3553,13 +6440,13 @@
     </row>
     <row r="22" spans="4:11" x14ac:dyDescent="0.2">
       <c r="D22" s="3" t="s">
-        <v>107</v>
+        <v>63</v>
       </c>
       <c r="E22" s="6" t="s">
         <v>15</v>
       </c>
       <c r="J22" s="3" t="s">
-        <v>120</v>
+        <v>76</v>
       </c>
       <c r="K22" s="6" t="s">
         <v>30</v>
@@ -3567,13 +6454,13 @@
     </row>
     <row r="23" spans="4:11" x14ac:dyDescent="0.2">
       <c r="D23" s="3" t="s">
-        <v>108</v>
+        <v>64</v>
       </c>
       <c r="E23" s="6" t="s">
         <v>16</v>
       </c>
       <c r="J23" s="3" t="s">
-        <v>121</v>
+        <v>77</v>
       </c>
       <c r="K23" s="6" t="s">
         <v>31</v>
@@ -3581,13 +6468,13 @@
     </row>
     <row r="24" spans="4:11" x14ac:dyDescent="0.2">
       <c r="D24" s="3" t="s">
-        <v>109</v>
+        <v>65</v>
       </c>
       <c r="E24" s="6" t="s">
         <v>17</v>
       </c>
       <c r="J24" s="3" t="s">
-        <v>122</v>
+        <v>78</v>
       </c>
       <c r="K24" s="6" t="s">
         <v>32</v>
@@ -3595,13 +6482,13 @@
     </row>
     <row r="25" spans="4:11" x14ac:dyDescent="0.2">
       <c r="D25" s="3" t="s">
-        <v>110</v>
+        <v>66</v>
       </c>
       <c r="E25" s="6" t="s">
         <v>18</v>
       </c>
       <c r="J25" s="3" t="s">
-        <v>123</v>
+        <v>79</v>
       </c>
       <c r="K25" s="6" t="s">
         <v>33</v>
@@ -3613,7 +6500,7 @@
       </c>
       <c r="E26" s="6"/>
       <c r="J26" s="3" t="s">
-        <v>124</v>
+        <v>80</v>
       </c>
       <c r="K26" s="6" t="s">
         <v>34</v>
@@ -3625,24 +6512,24 @@
       </c>
       <c r="E27" s="6"/>
       <c r="J27" s="3" t="s">
-        <v>125</v>
+        <v>81</v>
       </c>
       <c r="K27" s="6" t="s">
-        <v>89</v>
+        <v>45</v>
       </c>
     </row>
     <row r="28" spans="4:11" x14ac:dyDescent="0.2">
-      <c r="D28" s="11" t="s">
-        <v>234</v>
+      <c r="D28" s="10" t="s">
+        <v>190</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>238</v>
+        <v>194</v>
       </c>
       <c r="J28" s="3" t="s">
-        <v>126</v>
+        <v>82</v>
       </c>
       <c r="K28" s="6" t="s">
-        <v>90</v>
+        <v>46</v>
       </c>
     </row>
     <row r="29" spans="4:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -3651,15 +6538,15 @@
       </c>
       <c r="E29" s="7"/>
       <c r="J29" s="3" t="s">
-        <v>127</v>
+        <v>83</v>
       </c>
       <c r="K29" s="6" t="s">
-        <v>167</v>
+        <v>123</v>
       </c>
     </row>
     <row r="30" spans="4:11" x14ac:dyDescent="0.2">
       <c r="J30" s="3" t="s">
-        <v>128</v>
+        <v>84</v>
       </c>
       <c r="K30" s="6" t="s">
         <v>13</v>
@@ -3667,7 +6554,7 @@
     </row>
     <row r="31" spans="4:11" x14ac:dyDescent="0.2">
       <c r="J31" s="3" t="s">
-        <v>129</v>
+        <v>85</v>
       </c>
       <c r="K31" s="6" t="s">
         <v>13</v>
@@ -3680,17 +6567,17 @@
       <c r="K32" s="6"/>
     </row>
     <row r="33" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B33" s="10" t="s">
-        <v>232</v>
-      </c>
-      <c r="C33" s="10">
+      <c r="B33" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="C33" s="9">
         <v>0</v>
       </c>
-      <c r="D33" s="10" t="s">
-        <v>182</v>
-      </c>
-      <c r="E33" s="10" t="s">
-        <v>231</v>
+      <c r="D33" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="E33" s="9" t="s">
+        <v>187</v>
       </c>
       <c r="J33" s="3" t="s">
         <v>0</v>
@@ -3698,37 +6585,37 @@
       <c r="K33" s="6"/>
     </row>
     <row r="34" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B34" s="10" t="s">
-        <v>213</v>
-      </c>
-      <c r="C34" s="10">
+      <c r="B34" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="C34" s="9">
         <v>1</v>
       </c>
-      <c r="D34" s="10" t="s">
-        <v>183</v>
-      </c>
-      <c r="E34" s="10" t="s">
-        <v>170</v>
-      </c>
-      <c r="J34" s="9" t="s">
-        <v>131</v>
+      <c r="D34" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="E34" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="J34" s="8" t="s">
+        <v>87</v>
       </c>
       <c r="K34" s="3" t="s">
-        <v>141</v>
+        <v>97</v>
       </c>
     </row>
     <row r="35" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="10" t="s">
-        <v>213</v>
-      </c>
-      <c r="C35" s="10">
+      <c r="B35" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="C35" s="9">
         <v>2</v>
       </c>
-      <c r="D35" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="E35" s="10" t="s">
-        <v>171</v>
+      <c r="D35" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="E35" s="9" t="s">
+        <v>127</v>
       </c>
       <c r="J35" s="4" t="s">
         <v>1</v>
@@ -3736,527 +6623,527 @@
       <c r="K35" s="7"/>
     </row>
     <row r="36" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B36" s="10" t="s">
-        <v>213</v>
-      </c>
-      <c r="C36" s="10">
+      <c r="B36" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="C36" s="9">
         <v>3</v>
       </c>
-      <c r="D36" s="10" t="s">
+      <c r="D36" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="E36" s="9" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B37" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="C37" s="9">
+        <v>4</v>
+      </c>
+      <c r="D37" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="E37" s="9" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B38" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="C38" s="9">
+        <v>5</v>
+      </c>
+      <c r="D38" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="E38" s="9" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B39" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="C39" s="9">
+        <v>6</v>
+      </c>
+      <c r="D39" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="E39" s="9" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="40" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B40" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="C40" s="9">
+        <v>7</v>
+      </c>
+      <c r="D40" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="E40" s="9" t="s">
         <v>185</v>
       </c>
-      <c r="E36" s="10" t="s">
+    </row>
+    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B41" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="C41" s="9">
+        <v>8</v>
+      </c>
+      <c r="D41" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="E41" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="J41" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="K41" s="5" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B42" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="C42" s="9">
+        <v>9</v>
+      </c>
+      <c r="D42" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="E42" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="J42" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="K42" s="6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B43" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="C43" s="9">
+        <v>10</v>
+      </c>
+      <c r="D43" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="E43" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="J43" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="K43" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B44" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="C44" s="9">
+        <v>11</v>
+      </c>
+      <c r="D44" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="E44" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="J44" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="K44" s="6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B45" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="C45" s="9">
+        <v>12</v>
+      </c>
+      <c r="D45" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="E45" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="J45" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="K45" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B46" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="C46" s="9">
+        <v>13</v>
+      </c>
+      <c r="D46" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="E46" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="J46" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="K46" s="6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B47" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="C47" s="9">
+        <v>14</v>
+      </c>
+      <c r="D47" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="E47" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="J47" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="K47" s="6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B48" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="C48" s="9">
+        <v>15</v>
+      </c>
+      <c r="D48" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="E48" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="J48" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="K48" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="49" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B49" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="C49" s="9">
+        <v>16</v>
+      </c>
+      <c r="D49" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="E49" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="J49" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="K49" s="6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="50" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B50" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="C50" s="9">
+        <v>17</v>
+      </c>
+      <c r="D50" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="E50" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="J50" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="K50" s="6" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="51" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B51" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="C51" s="9">
+        <v>18</v>
+      </c>
+      <c r="D51" s="9" t="s">
+        <v>168</v>
+      </c>
+      <c r="E51" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="J51" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="K51" s="6" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="52" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B52" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="C52" s="9">
+        <v>19</v>
+      </c>
+      <c r="D52" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="E52" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="J52" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="K52" s="6" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="53" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B53" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="C53" s="9">
+        <v>20</v>
+      </c>
+      <c r="D53" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="E53" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="J53" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="K53" s="6" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="54" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B54" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="C54" s="9">
+        <v>21</v>
+      </c>
+      <c r="D54" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="E54" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="J54" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="K54" s="6" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="55" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B55" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="C55" s="9">
+        <v>22</v>
+      </c>
+      <c r="D55" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="E55" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="J55" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="K55" s="6" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="56" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B56" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="C56" s="9">
+        <v>23</v>
+      </c>
+      <c r="D56" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="E56" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="J56" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="K56" s="6" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="57" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B57" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="C57" s="9">
+        <v>24</v>
+      </c>
+      <c r="D57" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="E57" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="J57" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="K57" s="6" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="58" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B58" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="C58" s="9">
+        <v>25</v>
+      </c>
+      <c r="D58" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="E58" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="J58" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="K58" s="6" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="59" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B59" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="C59" s="9">
+        <v>26</v>
+      </c>
+      <c r="D59" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="E59" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="J59" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="K59" s="6" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="60" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B60" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="C60" s="9">
+        <v>27</v>
+      </c>
+      <c r="D60" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="E60" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="J60" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="K60" s="6" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="61" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B61" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="C61" s="9">
+        <v>28</v>
+      </c>
+      <c r="D61" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="E61" s="9" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B37" s="10" t="s">
-        <v>213</v>
-      </c>
-      <c r="C37" s="10">
-        <v>4</v>
-      </c>
-      <c r="D37" s="10" t="s">
-        <v>186</v>
-      </c>
-      <c r="E37" s="10" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B38" s="10" t="s">
-        <v>213</v>
-      </c>
-      <c r="C38" s="10">
-        <v>5</v>
-      </c>
-      <c r="D38" s="10" t="s">
-        <v>187</v>
-      </c>
-      <c r="E38" s="10" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B39" s="10" t="s">
-        <v>213</v>
-      </c>
-      <c r="C39" s="10">
-        <v>6</v>
-      </c>
-      <c r="D39" s="10" t="s">
-        <v>188</v>
-      </c>
-      <c r="E39" s="10" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="40" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="10" t="s">
-        <v>213</v>
-      </c>
-      <c r="C40" s="10">
-        <v>7</v>
-      </c>
-      <c r="D40" s="10" t="s">
-        <v>189</v>
-      </c>
-      <c r="E40" s="10" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B41" s="10" t="s">
-        <v>213</v>
-      </c>
-      <c r="C41" s="10">
-        <v>8</v>
-      </c>
-      <c r="D41" s="10" t="s">
-        <v>190</v>
-      </c>
-      <c r="E41" s="10" t="s">
-        <v>180</v>
-      </c>
-      <c r="J41" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="K41" s="5" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B42" s="10" t="s">
-        <v>213</v>
-      </c>
-      <c r="C42" s="10">
-        <v>9</v>
-      </c>
-      <c r="D42" s="10" t="s">
-        <v>191</v>
-      </c>
-      <c r="E42" s="10" t="s">
+      <c r="J61" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="K61" s="6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="62" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B62" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="C62" s="9">
+        <v>29</v>
+      </c>
+      <c r="D62" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="E62" s="9" t="s">
         <v>173</v>
       </c>
-      <c r="J42" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="K42" s="6" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B43" s="10" t="s">
-        <v>213</v>
-      </c>
-      <c r="C43" s="10">
-        <v>10</v>
-      </c>
-      <c r="D43" s="10" t="s">
-        <v>192</v>
-      </c>
-      <c r="E43" s="10" t="s">
-        <v>174</v>
-      </c>
-      <c r="J43" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="K43" s="6" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B44" s="10" t="s">
-        <v>213</v>
-      </c>
-      <c r="C44" s="10">
-        <v>11</v>
-      </c>
-      <c r="D44" s="10" t="s">
-        <v>193</v>
-      </c>
-      <c r="E44" s="10" t="s">
-        <v>230</v>
-      </c>
-      <c r="J44" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="K44" s="6" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B45" s="10" t="s">
-        <v>213</v>
-      </c>
-      <c r="C45" s="10">
-        <v>12</v>
-      </c>
-      <c r="D45" s="10" t="s">
-        <v>194</v>
-      </c>
-      <c r="E45" s="10" t="s">
-        <v>175</v>
-      </c>
-      <c r="J45" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="K45" s="6" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B46" s="10" t="s">
-        <v>213</v>
-      </c>
-      <c r="C46" s="10">
-        <v>13</v>
-      </c>
-      <c r="D46" s="10" t="s">
-        <v>195</v>
-      </c>
-      <c r="E46" s="10" t="s">
-        <v>176</v>
-      </c>
-      <c r="J46" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="K46" s="6" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B47" s="10" t="s">
-        <v>213</v>
-      </c>
-      <c r="C47" s="10">
-        <v>14</v>
-      </c>
-      <c r="D47" s="10" t="s">
-        <v>196</v>
-      </c>
-      <c r="E47" s="10" t="s">
-        <v>177</v>
-      </c>
-      <c r="J47" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="K47" s="6" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B48" s="10" t="s">
-        <v>213</v>
-      </c>
-      <c r="C48" s="10">
-        <v>15</v>
-      </c>
-      <c r="D48" s="10" t="s">
-        <v>197</v>
-      </c>
-      <c r="E48" s="10" t="s">
-        <v>178</v>
-      </c>
-      <c r="J48" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="K48" s="6" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="49" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B49" s="10" t="s">
-        <v>213</v>
-      </c>
-      <c r="C49" s="10">
-        <v>16</v>
-      </c>
-      <c r="D49" s="10" t="s">
-        <v>210</v>
-      </c>
-      <c r="E49" s="10" t="s">
-        <v>222</v>
-      </c>
-      <c r="J49" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="K49" s="6" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="50" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B50" s="10" t="s">
-        <v>213</v>
-      </c>
-      <c r="C50" s="10">
-        <v>17</v>
-      </c>
-      <c r="D50" s="10" t="s">
-        <v>211</v>
-      </c>
-      <c r="E50" s="10" t="s">
-        <v>223</v>
-      </c>
-      <c r="J50" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="K50" s="6" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="51" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B51" s="10" t="s">
-        <v>213</v>
-      </c>
-      <c r="C51" s="10">
-        <v>18</v>
-      </c>
-      <c r="D51" s="10" t="s">
-        <v>212</v>
-      </c>
-      <c r="E51" s="10" t="s">
-        <v>224</v>
-      </c>
-      <c r="J51" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="K51" s="6" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="52" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B52" s="10" t="s">
-        <v>213</v>
-      </c>
-      <c r="C52" s="10">
-        <v>19</v>
-      </c>
-      <c r="D52" s="10" t="s">
-        <v>198</v>
-      </c>
-      <c r="E52" s="10" t="s">
-        <v>179</v>
-      </c>
-      <c r="J52" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="K52" s="6" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="53" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B53" s="10" t="s">
-        <v>213</v>
-      </c>
-      <c r="C53" s="10">
-        <v>20</v>
-      </c>
-      <c r="D53" s="10" t="s">
-        <v>199</v>
-      </c>
-      <c r="E53" s="10" t="s">
-        <v>226</v>
-      </c>
-      <c r="J53" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="K53" s="6" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="54" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B54" s="10" t="s">
-        <v>213</v>
-      </c>
-      <c r="C54" s="10">
-        <v>21</v>
-      </c>
-      <c r="D54" s="10" t="s">
-        <v>200</v>
-      </c>
-      <c r="E54" s="10" t="s">
-        <v>225</v>
-      </c>
-      <c r="J54" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="K54" s="6" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="55" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B55" s="10" t="s">
-        <v>213</v>
-      </c>
-      <c r="C55" s="10">
-        <v>22</v>
-      </c>
-      <c r="D55" s="10" t="s">
-        <v>201</v>
-      </c>
-      <c r="E55" s="10" t="s">
-        <v>218</v>
-      </c>
-      <c r="J55" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="K55" s="6" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="56" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B56" s="10" t="s">
-        <v>213</v>
-      </c>
-      <c r="C56" s="10">
-        <v>23</v>
-      </c>
-      <c r="D56" s="10" t="s">
-        <v>202</v>
-      </c>
-      <c r="E56" s="10" t="s">
-        <v>219</v>
-      </c>
-      <c r="J56" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="K56" s="6" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="57" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B57" s="10" t="s">
-        <v>213</v>
-      </c>
-      <c r="C57" s="10">
-        <v>24</v>
-      </c>
-      <c r="D57" s="10" t="s">
-        <v>203</v>
-      </c>
-      <c r="E57" s="10" t="s">
-        <v>220</v>
-      </c>
-      <c r="J57" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="K57" s="6" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="58" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B58" s="10" t="s">
-        <v>213</v>
-      </c>
-      <c r="C58" s="10">
-        <v>25</v>
-      </c>
-      <c r="D58" s="10" t="s">
-        <v>204</v>
-      </c>
-      <c r="E58" s="10" t="s">
-        <v>221</v>
-      </c>
-      <c r="J58" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="K58" s="6" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="59" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B59" s="10" t="s">
-        <v>213</v>
-      </c>
-      <c r="C59" s="10">
-        <v>26</v>
-      </c>
-      <c r="D59" s="10" t="s">
-        <v>205</v>
-      </c>
-      <c r="E59" s="10" t="s">
-        <v>214</v>
-      </c>
-      <c r="J59" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="K59" s="6" t="s">
+      <c r="J62" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="K62" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="63" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B63" s="9" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="60" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B60" s="10" t="s">
-        <v>213</v>
-      </c>
-      <c r="C60" s="10">
-        <v>27</v>
-      </c>
-      <c r="D60" s="10" t="s">
-        <v>206</v>
-      </c>
-      <c r="E60" s="10" t="s">
-        <v>215</v>
-      </c>
-      <c r="J60" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="K60" s="6" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="61" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B61" s="10" t="s">
-        <v>213</v>
-      </c>
-      <c r="C61" s="10">
-        <v>28</v>
-      </c>
-      <c r="D61" s="10" t="s">
-        <v>207</v>
-      </c>
-      <c r="E61" s="10" t="s">
-        <v>216</v>
-      </c>
-      <c r="J61" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="K61" s="6" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="62" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B62" s="10" t="s">
-        <v>213</v>
-      </c>
-      <c r="C62" s="10">
-        <v>29</v>
-      </c>
-      <c r="D62" s="10" t="s">
-        <v>208</v>
-      </c>
-      <c r="E62" s="10" t="s">
-        <v>217</v>
-      </c>
-      <c r="J62" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="K62" s="6" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="63" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B63" s="10" t="s">
-        <v>213</v>
-      </c>
-      <c r="C63" s="10">
+      <c r="C63" s="9">
         <v>30</v>
       </c>
-      <c r="D63" s="10" t="s">
-        <v>209</v>
-      </c>
-      <c r="E63" s="10" t="s">
-        <v>180</v>
+      <c r="D63" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="E63" s="9" t="s">
+        <v>136</v>
       </c>
       <c r="J63" s="3" t="s">
         <v>1</v>
@@ -4275,24 +7162,24 @@
     </row>
     <row r="66" spans="4:11" x14ac:dyDescent="0.2">
       <c r="D66" s="2" t="s">
-        <v>236</v>
+        <v>192</v>
       </c>
       <c r="E66" s="5" t="s">
-        <v>239</v>
-      </c>
-      <c r="J66" s="9" t="s">
-        <v>142</v>
+        <v>195</v>
+      </c>
+      <c r="J66" s="8" t="s">
+        <v>98</v>
       </c>
       <c r="K66" s="3" t="s">
-        <v>140</v>
+        <v>96</v>
       </c>
     </row>
     <row r="67" spans="4:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="D67" s="3" t="s">
-        <v>233</v>
+        <v>189</v>
       </c>
       <c r="E67" s="6" t="s">
-        <v>153</v>
+        <v>109</v>
       </c>
       <c r="J67" s="4" t="s">
         <v>1</v>
@@ -4301,31 +7188,31 @@
     </row>
     <row r="68" spans="4:11" x14ac:dyDescent="0.2">
       <c r="D68" s="3" t="s">
-        <v>91</v>
+        <v>47</v>
       </c>
       <c r="E68" s="6" t="s">
-        <v>152</v>
+        <v>108</v>
       </c>
     </row>
     <row r="69" spans="4:11" x14ac:dyDescent="0.2">
       <c r="D69" s="3" t="s">
-        <v>92</v>
+        <v>48</v>
       </c>
       <c r="E69" s="6" t="s">
-        <v>154</v>
+        <v>110</v>
       </c>
     </row>
     <row r="70" spans="4:11" x14ac:dyDescent="0.2">
       <c r="D70" s="3" t="s">
-        <v>93</v>
+        <v>49</v>
       </c>
       <c r="E70" s="6" t="s">
-        <v>155</v>
+        <v>111</v>
       </c>
     </row>
     <row r="71" spans="4:11" x14ac:dyDescent="0.2">
       <c r="D71" s="3" t="s">
-        <v>94</v>
+        <v>50</v>
       </c>
       <c r="E71" s="6" t="s">
         <v>8</v>
@@ -4333,7 +7220,7 @@
     </row>
     <row r="72" spans="4:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="D72" s="3" t="s">
-        <v>95</v>
+        <v>51</v>
       </c>
       <c r="E72" s="6" t="s">
         <v>8</v>
@@ -4341,212 +7228,212 @@
     </row>
     <row r="73" spans="4:11" x14ac:dyDescent="0.2">
       <c r="D73" s="3" t="s">
-        <v>96</v>
+        <v>52</v>
       </c>
       <c r="E73" s="6" t="s">
         <v>8</v>
       </c>
       <c r="J73" s="2" t="s">
-        <v>135</v>
+        <v>91</v>
       </c>
       <c r="K73" s="5" t="s">
-        <v>138</v>
+        <v>94</v>
       </c>
     </row>
     <row r="74" spans="4:11" x14ac:dyDescent="0.2">
       <c r="D74" s="3" t="s">
-        <v>97</v>
+        <v>53</v>
       </c>
       <c r="E74" s="6" t="s">
         <v>8</v>
       </c>
       <c r="J74" s="3" t="s">
-        <v>130</v>
+        <v>86</v>
       </c>
       <c r="K74" s="6" t="s">
-        <v>88</v>
+        <v>44</v>
       </c>
     </row>
     <row r="75" spans="4:11" x14ac:dyDescent="0.2">
       <c r="D75" s="3" t="s">
-        <v>98</v>
+        <v>54</v>
       </c>
       <c r="E75" s="6" t="s">
         <v>8</v>
       </c>
       <c r="J75" s="3" t="s">
-        <v>132</v>
+        <v>88</v>
       </c>
       <c r="K75" s="6" t="s">
-        <v>88</v>
+        <v>44</v>
       </c>
     </row>
     <row r="76" spans="4:11" x14ac:dyDescent="0.2">
       <c r="D76" s="3" t="s">
-        <v>99</v>
+        <v>55</v>
       </c>
       <c r="E76" s="6" t="s">
         <v>8</v>
       </c>
       <c r="J76" s="3" t="s">
-        <v>111</v>
+        <v>67</v>
       </c>
       <c r="K76" s="6" t="s">
-        <v>88</v>
+        <v>44</v>
       </c>
     </row>
     <row r="77" spans="4:11" x14ac:dyDescent="0.2">
       <c r="D77" s="3" t="s">
-        <v>100</v>
+        <v>56</v>
       </c>
       <c r="E77" s="6" t="s">
         <v>8</v>
       </c>
       <c r="J77" s="3" t="s">
-        <v>112</v>
+        <v>68</v>
       </c>
       <c r="K77" s="6" t="s">
-        <v>88</v>
+        <v>44</v>
       </c>
     </row>
     <row r="78" spans="4:11" x14ac:dyDescent="0.2">
       <c r="D78" s="3" t="s">
-        <v>101</v>
+        <v>57</v>
       </c>
       <c r="E78" s="6" t="s">
         <v>8</v>
       </c>
       <c r="J78" s="3" t="s">
-        <v>113</v>
+        <v>69</v>
       </c>
       <c r="K78" s="6" t="s">
-        <v>88</v>
+        <v>44</v>
       </c>
     </row>
     <row r="79" spans="4:11" x14ac:dyDescent="0.2">
       <c r="D79" s="3" t="s">
-        <v>102</v>
+        <v>58</v>
       </c>
       <c r="E79" s="6" t="s">
         <v>12</v>
       </c>
       <c r="J79" s="3" t="s">
-        <v>114</v>
+        <v>70</v>
       </c>
       <c r="K79" s="6" t="s">
-        <v>88</v>
+        <v>44</v>
       </c>
     </row>
     <row r="80" spans="4:11" x14ac:dyDescent="0.2">
       <c r="D80" s="3" t="s">
-        <v>103</v>
+        <v>59</v>
       </c>
       <c r="E80" s="6" t="s">
         <v>8</v>
       </c>
       <c r="J80" s="3" t="s">
-        <v>115</v>
+        <v>71</v>
       </c>
       <c r="K80" s="6" t="s">
-        <v>88</v>
+        <v>44</v>
       </c>
     </row>
     <row r="81" spans="4:11" x14ac:dyDescent="0.2">
       <c r="D81" s="3" t="s">
-        <v>104</v>
+        <v>60</v>
       </c>
       <c r="E81" s="6" t="s">
         <v>8</v>
       </c>
       <c r="J81" s="3" t="s">
-        <v>116</v>
+        <v>72</v>
       </c>
       <c r="K81" s="6" t="s">
-        <v>88</v>
+        <v>44</v>
       </c>
     </row>
     <row r="82" spans="4:11" x14ac:dyDescent="0.2">
       <c r="D82" s="3" t="s">
-        <v>105</v>
+        <v>61</v>
       </c>
       <c r="E82" s="6" t="s">
         <v>8</v>
       </c>
       <c r="J82" s="3" t="s">
-        <v>117</v>
+        <v>73</v>
       </c>
       <c r="K82" s="6" t="s">
-        <v>88</v>
+        <v>44</v>
       </c>
     </row>
     <row r="83" spans="4:11" x14ac:dyDescent="0.2">
       <c r="D83" s="3" t="s">
-        <v>106</v>
+        <v>62</v>
       </c>
       <c r="E83" s="6" t="s">
         <v>8</v>
       </c>
       <c r="J83" s="3" t="s">
-        <v>118</v>
+        <v>74</v>
       </c>
       <c r="K83" s="6" t="s">
-        <v>88</v>
+        <v>44</v>
       </c>
     </row>
     <row r="84" spans="4:11" x14ac:dyDescent="0.2">
       <c r="D84" s="3" t="s">
-        <v>107</v>
+        <v>63</v>
       </c>
       <c r="E84" s="6" t="s">
-        <v>164</v>
+        <v>120</v>
       </c>
       <c r="J84" s="3" t="s">
-        <v>119</v>
+        <v>75</v>
       </c>
       <c r="K84" s="6" t="s">
-        <v>88</v>
+        <v>44</v>
       </c>
     </row>
     <row r="85" spans="4:11" x14ac:dyDescent="0.2">
       <c r="D85" s="3" t="s">
-        <v>108</v>
+        <v>64</v>
       </c>
       <c r="E85" s="6" t="s">
-        <v>165</v>
+        <v>121</v>
       </c>
       <c r="J85" s="3" t="s">
-        <v>120</v>
+        <v>76</v>
       </c>
       <c r="K85" s="6" t="s">
-        <v>88</v>
+        <v>44</v>
       </c>
     </row>
     <row r="86" spans="4:11" x14ac:dyDescent="0.2">
       <c r="D86" s="3" t="s">
-        <v>109</v>
+        <v>65</v>
       </c>
       <c r="E86" s="6" t="s">
         <v>8</v>
       </c>
       <c r="J86" s="3" t="s">
-        <v>121</v>
+        <v>77</v>
       </c>
       <c r="K86" s="6" t="s">
-        <v>88</v>
+        <v>44</v>
       </c>
     </row>
     <row r="87" spans="4:11" x14ac:dyDescent="0.2">
       <c r="D87" s="3" t="s">
-        <v>110</v>
+        <v>66</v>
       </c>
       <c r="E87" s="6" t="s">
         <v>18</v>
       </c>
       <c r="J87" s="3" t="s">
-        <v>122</v>
+        <v>78</v>
       </c>
       <c r="K87" s="6" t="s">
-        <v>88</v>
+        <v>44</v>
       </c>
     </row>
     <row r="88" spans="4:11" x14ac:dyDescent="0.2">
@@ -4555,10 +7442,10 @@
       </c>
       <c r="E88" s="6"/>
       <c r="J88" s="3" t="s">
-        <v>123</v>
+        <v>79</v>
       </c>
       <c r="K88" s="6" t="s">
-        <v>88</v>
+        <v>44</v>
       </c>
     </row>
     <row r="89" spans="4:11" x14ac:dyDescent="0.2">
@@ -4567,24 +7454,24 @@
       </c>
       <c r="E89" s="6"/>
       <c r="J89" s="3" t="s">
-        <v>124</v>
+        <v>80</v>
       </c>
       <c r="K89" s="6" t="s">
-        <v>88</v>
+        <v>44</v>
       </c>
     </row>
     <row r="90" spans="4:11" x14ac:dyDescent="0.2">
-      <c r="D90" s="11" t="s">
-        <v>234</v>
+      <c r="D90" s="10" t="s">
+        <v>190</v>
       </c>
       <c r="E90" s="6" t="s">
-        <v>237</v>
+        <v>193</v>
       </c>
       <c r="J90" s="3" t="s">
-        <v>125</v>
+        <v>81</v>
       </c>
       <c r="K90" s="6" t="s">
-        <v>88</v>
+        <v>44</v>
       </c>
     </row>
     <row r="91" spans="4:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -4593,34 +7480,34 @@
       </c>
       <c r="E91" s="7"/>
       <c r="J91" s="3" t="s">
-        <v>126</v>
+        <v>82</v>
       </c>
       <c r="K91" s="6" t="s">
-        <v>88</v>
+        <v>44</v>
       </c>
     </row>
     <row r="92" spans="4:11" x14ac:dyDescent="0.2">
       <c r="J92" s="3" t="s">
-        <v>127</v>
+        <v>83</v>
       </c>
       <c r="K92" s="6" t="s">
-        <v>88</v>
+        <v>44</v>
       </c>
     </row>
     <row r="93" spans="4:11" x14ac:dyDescent="0.2">
       <c r="J93" s="3" t="s">
-        <v>128</v>
+        <v>84</v>
       </c>
       <c r="K93" s="6" t="s">
-        <v>88</v>
+        <v>44</v>
       </c>
     </row>
     <row r="94" spans="4:11" x14ac:dyDescent="0.2">
       <c r="J94" s="3" t="s">
-        <v>129</v>
+        <v>85</v>
       </c>
       <c r="K94" s="6" t="s">
-        <v>88</v>
+        <v>44</v>
       </c>
     </row>
     <row r="95" spans="4:11" x14ac:dyDescent="0.2">
@@ -4640,11 +7527,11 @@
       <c r="K97" s="6"/>
     </row>
     <row r="98" spans="10:11" x14ac:dyDescent="0.2">
-      <c r="J98" s="9" t="s">
-        <v>142</v>
+      <c r="J98" s="8" t="s">
+        <v>98</v>
       </c>
       <c r="K98" s="3" t="s">
-        <v>139</v>
+        <v>95</v>
       </c>
     </row>
     <row r="99" spans="10:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -4656,95 +7543,95 @@
     <row r="106" spans="10:11" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="107" spans="10:11" x14ac:dyDescent="0.2">
       <c r="J107" s="2" t="s">
-        <v>156</v>
+        <v>112</v>
       </c>
       <c r="K107" s="5" t="s">
-        <v>162</v>
+        <v>118</v>
       </c>
     </row>
     <row r="108" spans="10:11" x14ac:dyDescent="0.2">
       <c r="J108" s="3" t="s">
-        <v>130</v>
+        <v>86</v>
       </c>
       <c r="K108" s="6" t="s">
-        <v>157</v>
+        <v>113</v>
       </c>
     </row>
     <row r="109" spans="10:11" x14ac:dyDescent="0.2">
       <c r="J109" s="3" t="s">
-        <v>132</v>
+        <v>88</v>
       </c>
       <c r="K109" s="6" t="s">
-        <v>158</v>
+        <v>114</v>
       </c>
     </row>
     <row r="110" spans="10:11" x14ac:dyDescent="0.2">
       <c r="J110" s="3" t="s">
-        <v>111</v>
+        <v>67</v>
       </c>
       <c r="K110" s="6" t="s">
-        <v>159</v>
+        <v>115</v>
       </c>
     </row>
     <row r="111" spans="10:11" x14ac:dyDescent="0.2">
       <c r="J111" s="3" t="s">
-        <v>112</v>
+        <v>68</v>
       </c>
       <c r="K111" s="6" t="s">
-        <v>160</v>
+        <v>116</v>
       </c>
     </row>
     <row r="112" spans="10:11" x14ac:dyDescent="0.2">
       <c r="J112" s="3" t="s">
-        <v>113</v>
+        <v>69</v>
       </c>
       <c r="K112" s="6" t="s">
-        <v>88</v>
+        <v>44</v>
       </c>
     </row>
     <row r="113" spans="10:11" x14ac:dyDescent="0.2">
       <c r="J113" s="3" t="s">
-        <v>114</v>
+        <v>70</v>
       </c>
       <c r="K113" s="6" t="s">
-        <v>88</v>
+        <v>44</v>
       </c>
     </row>
     <row r="114" spans="10:11" x14ac:dyDescent="0.2">
       <c r="J114" s="3" t="s">
-        <v>115</v>
+        <v>71</v>
       </c>
       <c r="K114" s="6" t="s">
-        <v>88</v>
+        <v>44</v>
       </c>
     </row>
     <row r="115" spans="10:11" x14ac:dyDescent="0.2">
       <c r="J115" s="3" t="s">
-        <v>116</v>
+        <v>72</v>
       </c>
       <c r="K115" s="6" t="s">
-        <v>88</v>
+        <v>44</v>
       </c>
     </row>
     <row r="116" spans="10:11" x14ac:dyDescent="0.2">
       <c r="J116" s="3" t="s">
-        <v>117</v>
+        <v>73</v>
       </c>
       <c r="K116" s="6" t="s">
-        <v>88</v>
+        <v>44</v>
       </c>
     </row>
     <row r="117" spans="10:11" x14ac:dyDescent="0.2">
       <c r="J117" s="3" t="s">
-        <v>118</v>
+        <v>74</v>
       </c>
       <c r="K117" s="6" t="s">
-        <v>88</v>
+        <v>44</v>
       </c>
     </row>
     <row r="118" spans="10:11" x14ac:dyDescent="0.2">
       <c r="J118" s="3" t="s">
-        <v>119</v>
+        <v>75</v>
       </c>
       <c r="K118" s="6" t="s">
         <v>29</v>
@@ -4752,82 +7639,82 @@
     </row>
     <row r="119" spans="10:11" x14ac:dyDescent="0.2">
       <c r="J119" s="3" t="s">
-        <v>120</v>
+        <v>76</v>
       </c>
       <c r="K119" s="6" t="s">
-        <v>88</v>
+        <v>44</v>
       </c>
     </row>
     <row r="120" spans="10:11" x14ac:dyDescent="0.2">
       <c r="J120" s="3" t="s">
-        <v>121</v>
+        <v>77</v>
       </c>
       <c r="K120" s="6" t="s">
-        <v>88</v>
+        <v>44</v>
       </c>
     </row>
     <row r="121" spans="10:11" x14ac:dyDescent="0.2">
       <c r="J121" s="3" t="s">
-        <v>122</v>
+        <v>78</v>
       </c>
       <c r="K121" s="6" t="s">
-        <v>88</v>
+        <v>44</v>
       </c>
     </row>
     <row r="122" spans="10:11" x14ac:dyDescent="0.2">
       <c r="J122" s="3" t="s">
-        <v>123</v>
+        <v>79</v>
       </c>
       <c r="K122" s="6" t="s">
-        <v>88</v>
+        <v>44</v>
       </c>
     </row>
     <row r="123" spans="10:11" x14ac:dyDescent="0.2">
       <c r="J123" s="3" t="s">
-        <v>124</v>
+        <v>80</v>
       </c>
       <c r="K123" s="6" t="s">
-        <v>88</v>
+        <v>44</v>
       </c>
     </row>
     <row r="124" spans="10:11" x14ac:dyDescent="0.2">
       <c r="J124" s="3" t="s">
-        <v>125</v>
+        <v>81</v>
       </c>
       <c r="K124" s="6" t="s">
-        <v>88</v>
+        <v>44</v>
       </c>
     </row>
     <row r="125" spans="10:11" x14ac:dyDescent="0.2">
       <c r="J125" s="3" t="s">
-        <v>126</v>
+        <v>82</v>
       </c>
       <c r="K125" s="6" t="s">
-        <v>88</v>
+        <v>44</v>
       </c>
     </row>
     <row r="126" spans="10:11" x14ac:dyDescent="0.2">
       <c r="J126" s="3" t="s">
-        <v>127</v>
+        <v>83</v>
       </c>
       <c r="K126" s="6" t="s">
-        <v>88</v>
+        <v>44</v>
       </c>
     </row>
     <row r="127" spans="10:11" x14ac:dyDescent="0.2">
       <c r="J127" s="3" t="s">
-        <v>128</v>
+        <v>84</v>
       </c>
       <c r="K127" s="6" t="s">
-        <v>88</v>
+        <v>44</v>
       </c>
     </row>
     <row r="128" spans="10:11" x14ac:dyDescent="0.2">
       <c r="J128" s="3" t="s">
-        <v>129</v>
+        <v>85</v>
       </c>
       <c r="K128" s="6" t="s">
-        <v>88</v>
+        <v>44</v>
       </c>
     </row>
     <row r="129" spans="10:11" x14ac:dyDescent="0.2">
@@ -4847,11 +7734,11 @@
       <c r="K131" s="6"/>
     </row>
     <row r="132" spans="10:11" x14ac:dyDescent="0.2">
-      <c r="J132" s="9" t="s">
-        <v>131</v>
+      <c r="J132" s="8" t="s">
+        <v>87</v>
       </c>
       <c r="K132" s="3" t="s">
-        <v>161</v>
+        <v>117</v>
       </c>
     </row>
     <row r="133" spans="10:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -4872,224 +7759,4144 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{594767B5-8025-CE44-8AF7-D3B4EEAEA6D9}">
-  <dimension ref="E5:F30"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C03884E4-1121-FE49-8CFC-397DF0F5A368}">
+  <dimension ref="A3:O133"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5:F30"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="17.1640625" customWidth="1"/>
+    <col min="2" max="2" width="30" customWidth="1"/>
+    <col min="3" max="3" width="2.83203125" customWidth="1"/>
+    <col min="4" max="4" width="27.5" style="1" customWidth="1"/>
+    <col min="5" max="5" width="50.1640625" customWidth="1"/>
+    <col min="10" max="10" width="15.6640625" customWidth="1"/>
+    <col min="11" max="11" width="45.33203125" customWidth="1"/>
+    <col min="12" max="12" width="9.33203125" customWidth="1"/>
+    <col min="13" max="13" width="17.33203125" customWidth="1"/>
+    <col min="14" max="14" width="20.83203125" customWidth="1"/>
+    <col min="15" max="15" width="3.5" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="5" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E5" s="8" t="s">
+    <row r="3" spans="1:15" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D3" s="25" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>449</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>453</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>405</v>
+      </c>
+      <c r="B5" t="s">
+        <v>427</v>
+      </c>
+      <c r="C5" t="s">
+        <v>214</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>405</v>
+      </c>
+      <c r="B6" t="s">
+        <v>428</v>
+      </c>
+      <c r="C6" t="s">
+        <v>214</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>405</v>
+      </c>
+      <c r="B7" t="s">
+        <v>429</v>
+      </c>
+      <c r="C7" t="s">
+        <v>214</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>405</v>
+      </c>
+      <c r="B8" t="s">
+        <v>441</v>
+      </c>
+      <c r="C8" t="s">
+        <v>214</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>405</v>
+      </c>
+      <c r="B9" t="s">
+        <v>461</v>
+      </c>
+      <c r="C9" t="s">
+        <v>214</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="J9" s="24" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" ht="34" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>405</v>
+      </c>
+      <c r="B10" t="s">
+        <v>396</v>
+      </c>
+      <c r="C10" t="s">
+        <v>214</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="J10" s="22" t="s">
+        <v>89</v>
+      </c>
+      <c r="K10" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="M10" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>405</v>
+      </c>
+      <c r="B11" t="s">
+        <v>397</v>
+      </c>
+      <c r="C11" t="s">
+        <v>214</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="K11" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="M11" t="s">
+        <v>87</v>
+      </c>
+      <c r="N11" t="s">
+        <v>377</v>
+      </c>
+      <c r="O11" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>405</v>
+      </c>
+      <c r="B12" t="s">
+        <v>418</v>
+      </c>
+      <c r="C12" t="s">
+        <v>214</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="K12" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="M12" t="s">
+        <v>87</v>
+      </c>
+      <c r="N12" t="s">
+        <v>378</v>
+      </c>
+      <c r="O12" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>405</v>
+      </c>
+      <c r="B13" t="s">
+        <v>419</v>
+      </c>
+      <c r="C13" t="s">
+        <v>214</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="K13" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="M13" t="s">
+        <v>87</v>
+      </c>
+      <c r="N13" t="s">
+        <v>379</v>
+      </c>
+      <c r="O13" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>405</v>
+      </c>
+      <c r="B14" t="s">
+        <v>420</v>
+      </c>
+      <c r="C14" t="s">
+        <v>214</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="K14" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="M14" t="s">
+        <v>87</v>
+      </c>
+      <c r="N14" t="s">
+        <v>380</v>
+      </c>
+      <c r="O14" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>405</v>
+      </c>
+      <c r="B15" t="s">
+        <v>433</v>
+      </c>
+      <c r="C15" t="s">
+        <v>214</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="K15" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="M15" t="s">
+        <v>87</v>
+      </c>
+      <c r="N15" t="s">
+        <v>381</v>
+      </c>
+      <c r="O15" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>405</v>
+      </c>
+      <c r="B16" t="s">
+        <v>434</v>
+      </c>
+      <c r="C16" t="s">
+        <v>214</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="K16" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="M16" t="s">
+        <v>87</v>
+      </c>
+      <c r="N16" t="s">
+        <v>382</v>
+      </c>
+      <c r="O16" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>405</v>
+      </c>
+      <c r="B17" t="s">
+        <v>387</v>
+      </c>
+      <c r="C17" t="s">
+        <v>214</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="K17" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="M17" t="s">
+        <v>87</v>
+      </c>
+      <c r="N17" t="s">
+        <v>383</v>
+      </c>
+      <c r="O17" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>405</v>
+      </c>
+      <c r="B18" t="s">
+        <v>436</v>
+      </c>
+      <c r="C18" t="s">
+        <v>214</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="K18" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="M18" t="s">
+        <v>87</v>
+      </c>
+      <c r="N18" t="s">
+        <v>384</v>
+      </c>
+      <c r="O18" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>405</v>
+      </c>
+      <c r="B19" t="s">
+        <v>437</v>
+      </c>
+      <c r="C19" t="s">
+        <v>214</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="J19" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="K19" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="M19" t="s">
+        <v>87</v>
+      </c>
+      <c r="N19" t="s">
+        <v>385</v>
+      </c>
+      <c r="O19" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>405</v>
+      </c>
+      <c r="B20" t="s">
+        <v>438</v>
+      </c>
+      <c r="C20" t="s">
+        <v>214</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="K20" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="M20" t="s">
+        <v>87</v>
+      </c>
+      <c r="N20" t="s">
+        <v>386</v>
+      </c>
+      <c r="O20" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>405</v>
+      </c>
+      <c r="B21" t="s">
+        <v>439</v>
+      </c>
+      <c r="C21" t="s">
+        <v>214</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="K21" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="M21" t="s">
+        <v>87</v>
+      </c>
+      <c r="N21" t="s">
+        <v>387</v>
+      </c>
+      <c r="O21" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>405</v>
+      </c>
+      <c r="B22" t="s">
+        <v>440</v>
+      </c>
+      <c r="C22" t="s">
+        <v>214</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="K22" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="M22" t="s">
+        <v>87</v>
+      </c>
+      <c r="N22" t="s">
+        <v>388</v>
+      </c>
+      <c r="O22" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>405</v>
+      </c>
+      <c r="B23" t="s">
+        <v>443</v>
+      </c>
+      <c r="C23" t="s">
+        <v>214</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="J23" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="K23" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="M23" t="s">
+        <v>87</v>
+      </c>
+      <c r="N23" t="s">
+        <v>389</v>
+      </c>
+      <c r="O23" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>405</v>
+      </c>
+      <c r="B24" t="s">
+        <v>444</v>
+      </c>
+      <c r="C24" t="s">
+        <v>214</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="K24" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="M24" t="s">
+        <v>87</v>
+      </c>
+      <c r="N24" t="s">
+        <v>390</v>
+      </c>
+      <c r="O24" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>405</v>
+      </c>
+      <c r="B25" t="s">
+        <v>445</v>
+      </c>
+      <c r="C25" t="s">
+        <v>214</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="J25" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="K25" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="M25" t="s">
+        <v>87</v>
+      </c>
+      <c r="N25" t="s">
+        <v>391</v>
+      </c>
+      <c r="O25" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>426</v>
+      </c>
+      <c r="C26" t="s">
+        <v>214</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E26" s="6"/>
+      <c r="J26" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="K26" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="M26" t="s">
+        <v>87</v>
+      </c>
+      <c r="N26" t="s">
+        <v>392</v>
+      </c>
+      <c r="O26" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="D27" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E27" s="6"/>
+      <c r="J27" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="K27" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="M27" t="s">
+        <v>87</v>
+      </c>
+      <c r="N27" t="s">
+        <v>393</v>
+      </c>
+      <c r="O27" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="D28" s="11" t="s">
+        <v>218</v>
+      </c>
+      <c r="E28" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="J28" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="K28" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="M28" t="s">
+        <v>87</v>
+      </c>
+      <c r="N28" t="s">
+        <v>394</v>
+      </c>
+      <c r="O28" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D29" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E29" s="7"/>
+      <c r="J29" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="K29" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="M29" t="s">
+        <v>87</v>
+      </c>
+      <c r="N29" t="s">
+        <v>395</v>
+      </c>
+      <c r="O29" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="J30" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="K30" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="M30" t="s">
+        <v>87</v>
+      </c>
+      <c r="N30" t="s">
+        <v>396</v>
+      </c>
+      <c r="O30" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="J31" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="K31" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="M31" t="s">
+        <v>87</v>
+      </c>
+      <c r="N31" t="s">
+        <v>397</v>
+      </c>
+      <c r="O31" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="J32" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="K32" s="6"/>
+      <c r="M32" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D33" s="25" t="s">
+        <v>403</v>
+      </c>
+      <c r="J33" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="K33" s="6"/>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>406</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>454</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="J34" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="K34" s="3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>405</v>
+      </c>
+      <c r="B35" t="s">
+        <v>407</v>
+      </c>
+      <c r="C35" t="s">
+        <v>214</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="E35" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="J35" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="K35" s="7"/>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>405</v>
+      </c>
+      <c r="B36" t="s">
+        <v>408</v>
+      </c>
+      <c r="C36" t="s">
+        <v>214</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E36" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>405</v>
+      </c>
+      <c r="B37" t="s">
+        <v>409</v>
+      </c>
+      <c r="C37" t="s">
+        <v>214</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E37" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>405</v>
+      </c>
+      <c r="B38" t="s">
+        <v>410</v>
+      </c>
+      <c r="C38" t="s">
+        <v>214</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E38" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>405</v>
+      </c>
+      <c r="B39" t="s">
+        <v>462</v>
+      </c>
+      <c r="C39" t="s">
+        <v>214</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E39" s="6" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>405</v>
+      </c>
+      <c r="B40" t="s">
+        <v>415</v>
+      </c>
+      <c r="C40" t="s">
+        <v>214</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E40" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="J40" s="24" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>405</v>
+      </c>
+      <c r="B41" t="s">
+        <v>396</v>
+      </c>
+      <c r="C41" t="s">
+        <v>214</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E41" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="J41" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="K41" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="M41" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>405</v>
+      </c>
+      <c r="B42" t="s">
+        <v>397</v>
+      </c>
+      <c r="C42" t="s">
+        <v>214</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E42" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="J42" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="K42" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="F5" t="s">
+      <c r="M42" t="s">
+        <v>218</v>
+      </c>
+      <c r="N42" t="s">
+        <v>357</v>
+      </c>
+      <c r="O42" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>405</v>
+      </c>
+      <c r="B43" t="s">
+        <v>411</v>
+      </c>
+      <c r="C43" t="s">
+        <v>214</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E43" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="J43" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="K43" s="6" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="6" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E6" s="8" t="s">
+      <c r="M43" t="s">
+        <v>218</v>
+      </c>
+      <c r="N43" t="s">
+        <v>358</v>
+      </c>
+      <c r="O43" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>405</v>
+      </c>
+      <c r="B44" t="s">
+        <v>412</v>
+      </c>
+      <c r="C44" t="s">
+        <v>214</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E44" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="J44" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="K44" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="F6" t="s">
+      <c r="M44" t="s">
+        <v>218</v>
+      </c>
+      <c r="N44" t="s">
+        <v>359</v>
+      </c>
+      <c r="O44" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>405</v>
+      </c>
+      <c r="B45" t="s">
+        <v>413</v>
+      </c>
+      <c r="C45" t="s">
+        <v>214</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E45" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="J45" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="K45" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="M45" t="s">
+        <v>218</v>
+      </c>
+      <c r="N45" t="s">
+        <v>360</v>
+      </c>
+      <c r="O45" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>405</v>
+      </c>
+      <c r="B46" t="s">
+        <v>414</v>
+      </c>
+      <c r="C46" t="s">
+        <v>214</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E46" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="J46" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="K46" s="6" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="7" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E7" s="8" t="s">
+      <c r="M46" t="s">
+        <v>218</v>
+      </c>
+      <c r="N46" t="s">
+        <v>361</v>
+      </c>
+      <c r="O46" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>405</v>
+      </c>
+      <c r="B47" t="s">
+        <v>387</v>
+      </c>
+      <c r="C47" t="s">
+        <v>214</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E47" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="J47" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="K47" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="F7" t="s">
+      <c r="M47" t="s">
+        <v>218</v>
+      </c>
+      <c r="N47" t="s">
+        <v>362</v>
+      </c>
+      <c r="O47" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>405</v>
+      </c>
+      <c r="B48" t="s">
+        <v>418</v>
+      </c>
+      <c r="C48" t="s">
+        <v>214</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E48" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="J48" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="K48" s="6" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="8" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E8" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="F8" t="s">
+      <c r="M48" t="s">
+        <v>218</v>
+      </c>
+      <c r="N48" t="s">
+        <v>363</v>
+      </c>
+      <c r="O48" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>405</v>
+      </c>
+      <c r="B49" t="s">
+        <v>419</v>
+      </c>
+      <c r="C49" t="s">
+        <v>214</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E49" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="J49" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="K49" s="6" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="9" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E9" s="8" t="s">
+      <c r="M49" t="s">
+        <v>218</v>
+      </c>
+      <c r="N49" t="s">
+        <v>364</v>
+      </c>
+      <c r="O49" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>405</v>
+      </c>
+      <c r="B50" t="s">
+        <v>420</v>
+      </c>
+      <c r="C50" t="s">
+        <v>214</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="E50" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="J50" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="K50" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="M50" t="s">
+        <v>218</v>
+      </c>
+      <c r="N50" t="s">
+        <v>365</v>
+      </c>
+      <c r="O50" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>405</v>
+      </c>
+      <c r="B51" t="s">
+        <v>421</v>
+      </c>
+      <c r="C51" t="s">
+        <v>214</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E51" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="J51" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="K51" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="M51" t="s">
+        <v>218</v>
+      </c>
+      <c r="N51" t="s">
+        <v>366</v>
+      </c>
+      <c r="O51" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>405</v>
+      </c>
+      <c r="B52" t="s">
+        <v>422</v>
+      </c>
+      <c r="C52" t="s">
+        <v>214</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="E52" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="J52" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="K52" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="M52" t="s">
+        <v>218</v>
+      </c>
+      <c r="N52" t="s">
+        <v>367</v>
+      </c>
+      <c r="O52" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>405</v>
+      </c>
+      <c r="B53" t="s">
+        <v>423</v>
+      </c>
+      <c r="C53" t="s">
+        <v>214</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E53" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="J53" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="K53" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="M53" t="s">
+        <v>218</v>
+      </c>
+      <c r="N53" t="s">
+        <v>368</v>
+      </c>
+      <c r="O53" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>405</v>
+      </c>
+      <c r="B54" t="s">
+        <v>424</v>
+      </c>
+      <c r="C54" t="s">
+        <v>214</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E54" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="J54" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="K54" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="M54" t="s">
+        <v>218</v>
+      </c>
+      <c r="N54" t="s">
+        <v>369</v>
+      </c>
+      <c r="O54" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>405</v>
+      </c>
+      <c r="B55" t="s">
+        <v>425</v>
+      </c>
+      <c r="C55" t="s">
+        <v>214</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E55" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="J55" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="K55" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="M55" t="s">
+        <v>218</v>
+      </c>
+      <c r="N55" t="s">
+        <v>370</v>
+      </c>
+      <c r="O55" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>426</v>
+      </c>
+      <c r="C56" t="s">
+        <v>214</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E56" s="6"/>
+      <c r="J56" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="K56" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="M56" t="s">
+        <v>218</v>
+      </c>
+      <c r="N56" t="s">
+        <v>371</v>
+      </c>
+      <c r="O56" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="D57" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E57" s="6"/>
+      <c r="J57" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="K57" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="M57" t="s">
+        <v>218</v>
+      </c>
+      <c r="N57" t="s">
+        <v>372</v>
+      </c>
+      <c r="O57" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="D58" s="11" t="s">
+        <v>218</v>
+      </c>
+      <c r="E58" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="J58" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="K58" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="M58" t="s">
+        <v>218</v>
+      </c>
+      <c r="N58" t="s">
+        <v>373</v>
+      </c>
+      <c r="O58" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D59" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E59" s="7"/>
+      <c r="J59" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="K59" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="M59" t="s">
+        <v>218</v>
+      </c>
+      <c r="N59" t="s">
+        <v>374</v>
+      </c>
+      <c r="O59" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="J60" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="K60" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="M60" t="s">
+        <v>218</v>
+      </c>
+      <c r="N60" t="s">
+        <v>375</v>
+      </c>
+      <c r="O60" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="J61" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="K61" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="F9" t="s">
+      <c r="M61" t="s">
+        <v>218</v>
+      </c>
+      <c r="N61" t="s">
+        <v>376</v>
+      </c>
+      <c r="O61" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="J62" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="K62" s="6" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="10" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E10" s="8" t="s">
-        <v>45</v>
+      <c r="M62" t="s">
+        <v>218</v>
+      </c>
+      <c r="N62" t="s">
+        <v>44</v>
+      </c>
+      <c r="O62" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="J63" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="K63" s="6"/>
+      <c r="M63" t="s">
+        <v>216</v>
+      </c>
+      <c r="O63" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="J64" s="3"/>
+      <c r="K64" s="6"/>
+    </row>
+    <row r="65" spans="1:15" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D65" s="25" t="s">
+        <v>404</v>
+      </c>
+      <c r="J65" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="K65" s="6"/>
+    </row>
+    <row r="66" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>448</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="E66" s="5" t="s">
+        <v>452</v>
+      </c>
+      <c r="J66" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="K66" s="3" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="67" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>405</v>
+      </c>
+      <c r="B67" t="s">
+        <v>427</v>
+      </c>
+      <c r="C67" t="s">
+        <v>214</v>
+      </c>
+      <c r="D67" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="E67" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="J67" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="K67" s="7"/>
+    </row>
+    <row r="68" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>405</v>
+      </c>
+      <c r="B68" t="s">
+        <v>428</v>
+      </c>
+      <c r="C68" t="s">
+        <v>214</v>
+      </c>
+      <c r="D68" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E68" s="6" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="69" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>405</v>
+      </c>
+      <c r="B69" t="s">
+        <v>429</v>
+      </c>
+      <c r="C69" t="s">
+        <v>214</v>
+      </c>
+      <c r="D69" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E69" s="6" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="70" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>405</v>
+      </c>
+      <c r="B70" t="s">
+        <v>430</v>
+      </c>
+      <c r="C70" t="s">
+        <v>214</v>
+      </c>
+      <c r="D70" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E70" s="6" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="71" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>405</v>
+      </c>
+      <c r="B71" t="s">
+        <v>396</v>
+      </c>
+      <c r="C71" t="s">
+        <v>214</v>
+      </c>
+      <c r="D71" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E71" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="72" spans="1:15" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>405</v>
+      </c>
+      <c r="B72" t="s">
+        <v>397</v>
+      </c>
+      <c r="C72" t="s">
+        <v>214</v>
+      </c>
+      <c r="D72" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E72" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="J72" s="24" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="73" spans="1:15" ht="34" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>405</v>
+      </c>
+      <c r="B73" t="s">
+        <v>418</v>
+      </c>
+      <c r="C73" t="s">
+        <v>214</v>
+      </c>
+      <c r="D73" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E73" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="J73" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="K73" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="M73" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="74" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>405</v>
+      </c>
+      <c r="B74" t="s">
+        <v>419</v>
+      </c>
+      <c r="C74" t="s">
+        <v>214</v>
+      </c>
+      <c r="D74" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E74" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="J74" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="K74" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="M74" t="s">
+        <v>218</v>
+      </c>
+      <c r="N74" t="s">
+        <v>239</v>
+      </c>
+      <c r="O74" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="75" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>405</v>
+      </c>
+      <c r="B75" t="s">
+        <v>420</v>
+      </c>
+      <c r="C75" t="s">
+        <v>214</v>
+      </c>
+      <c r="D75" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E75" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="J75" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="K75" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="M75" t="s">
+        <v>218</v>
+      </c>
+      <c r="N75" t="s">
+        <v>219</v>
+      </c>
+      <c r="O75" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="76" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>405</v>
+      </c>
+      <c r="B76" t="s">
+        <v>433</v>
+      </c>
+      <c r="C76" t="s">
+        <v>214</v>
+      </c>
+      <c r="D76" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E76" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="J76" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="K76" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="M76" t="s">
+        <v>218</v>
+      </c>
+      <c r="N76" t="s">
+        <v>220</v>
+      </c>
+      <c r="O76" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="77" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>405</v>
+      </c>
+      <c r="B77" t="s">
+        <v>434</v>
+      </c>
+      <c r="C77" t="s">
+        <v>214</v>
+      </c>
+      <c r="D77" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E77" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="J77" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="K77" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="M77" t="s">
+        <v>218</v>
+      </c>
+      <c r="N77" t="s">
+        <v>221</v>
+      </c>
+      <c r="O77" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="78" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>405</v>
+      </c>
+      <c r="B78" t="s">
+        <v>435</v>
+      </c>
+      <c r="C78" t="s">
+        <v>214</v>
+      </c>
+      <c r="D78" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E78" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="J78" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="K78" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="M78" t="s">
+        <v>218</v>
+      </c>
+      <c r="N78" t="s">
+        <v>222</v>
+      </c>
+      <c r="O78" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="79" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>405</v>
+      </c>
+      <c r="B79" t="s">
+        <v>387</v>
+      </c>
+      <c r="C79" t="s">
+        <v>214</v>
+      </c>
+      <c r="D79" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E79" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="J79" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="K79" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="M79" t="s">
+        <v>218</v>
+      </c>
+      <c r="N79" t="s">
+        <v>223</v>
+      </c>
+      <c r="O79" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="80" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>405</v>
+      </c>
+      <c r="B80" t="s">
+        <v>436</v>
+      </c>
+      <c r="C80" t="s">
+        <v>214</v>
+      </c>
+      <c r="D80" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E80" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="J80" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="K80" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="M80" t="s">
+        <v>218</v>
+      </c>
+      <c r="N80" t="s">
+        <v>224</v>
+      </c>
+      <c r="O80" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="81" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>405</v>
+      </c>
+      <c r="B81" t="s">
+        <v>437</v>
+      </c>
+      <c r="C81" t="s">
+        <v>214</v>
+      </c>
+      <c r="D81" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E81" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="J81" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="K81" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="M81" t="s">
+        <v>218</v>
+      </c>
+      <c r="N81" t="s">
+        <v>225</v>
+      </c>
+      <c r="O81" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="82" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>405</v>
+      </c>
+      <c r="B82" t="s">
+        <v>438</v>
+      </c>
+      <c r="C82" t="s">
+        <v>214</v>
+      </c>
+      <c r="D82" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="E82" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="J82" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="K82" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="M82" t="s">
+        <v>218</v>
+      </c>
+      <c r="N82" t="s">
+        <v>226</v>
+      </c>
+      <c r="O82" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="83" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>405</v>
+      </c>
+      <c r="B83" t="s">
+        <v>439</v>
+      </c>
+      <c r="C83" t="s">
+        <v>214</v>
+      </c>
+      <c r="D83" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E83" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="J83" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="K83" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="M83" t="s">
+        <v>218</v>
+      </c>
+      <c r="N83" t="s">
+        <v>227</v>
+      </c>
+      <c r="O83" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="84" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>405</v>
+      </c>
+      <c r="B84" t="s">
+        <v>431</v>
+      </c>
+      <c r="C84" t="s">
+        <v>214</v>
+      </c>
+      <c r="D84" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="E84" s="6" t="s">
+        <v>450</v>
+      </c>
+      <c r="J84" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="K84" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="M84" t="s">
+        <v>218</v>
+      </c>
+      <c r="N84" t="s">
+        <v>228</v>
+      </c>
+      <c r="O84" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="85" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>405</v>
+      </c>
+      <c r="B85" t="s">
+        <v>432</v>
+      </c>
+      <c r="C85" t="s">
+        <v>214</v>
+      </c>
+      <c r="D85" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E85" s="6" t="s">
+        <v>451</v>
+      </c>
+      <c r="J85" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="K85" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="M85" t="s">
+        <v>218</v>
+      </c>
+      <c r="N85" t="s">
+        <v>229</v>
+      </c>
+      <c r="O85" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="86" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>405</v>
+      </c>
+      <c r="B86" t="s">
+        <v>440</v>
+      </c>
+      <c r="C86" t="s">
+        <v>214</v>
+      </c>
+      <c r="D86" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E86" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="J86" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="K86" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="M86" t="s">
+        <v>218</v>
+      </c>
+      <c r="N86" t="s">
+        <v>230</v>
+      </c>
+      <c r="O86" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="87" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>405</v>
+      </c>
+      <c r="B87" t="s">
+        <v>385</v>
+      </c>
+      <c r="C87" t="s">
+        <v>214</v>
+      </c>
+      <c r="D87" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E87" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="J87" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="K87" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="M87" t="s">
+        <v>218</v>
+      </c>
+      <c r="N87" t="s">
+        <v>231</v>
+      </c>
+      <c r="O87" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="88" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>426</v>
+      </c>
+      <c r="C88" t="s">
+        <v>214</v>
+      </c>
+      <c r="D88" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E88" s="6"/>
+      <c r="J88" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="K88" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="M88" t="s">
+        <v>218</v>
+      </c>
+      <c r="N88" t="s">
+        <v>232</v>
+      </c>
+      <c r="O88" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="89" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="D89" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E89" s="6"/>
+      <c r="J89" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="K89" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="M89" t="s">
+        <v>218</v>
+      </c>
+      <c r="N89" t="s">
+        <v>233</v>
+      </c>
+      <c r="O89" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="90" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="D90" s="10" t="s">
+        <v>218</v>
+      </c>
+      <c r="E90" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="J90" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="K90" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="M90" t="s">
+        <v>218</v>
+      </c>
+      <c r="N90" t="s">
+        <v>234</v>
+      </c>
+      <c r="O90" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="91" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D91" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E91" s="7"/>
+      <c r="J91" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="K91" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="M91" t="s">
+        <v>218</v>
+      </c>
+      <c r="N91" t="s">
+        <v>235</v>
+      </c>
+      <c r="O91" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="92" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="J92" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="K92" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="M92" t="s">
+        <v>218</v>
+      </c>
+      <c r="N92" t="s">
+        <v>236</v>
+      </c>
+      <c r="O92" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="93" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="J93" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="K93" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="M93" t="s">
+        <v>218</v>
+      </c>
+      <c r="N93" t="s">
+        <v>237</v>
+      </c>
+      <c r="O93" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="94" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B94" s="12" t="s">
+        <v>188</v>
+      </c>
+      <c r="C94" s="12">
+        <v>0</v>
+      </c>
+      <c r="D94" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="E94" s="12" t="s">
+        <v>187</v>
+      </c>
+      <c r="J94" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="K94" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="M94" t="s">
+        <v>218</v>
+      </c>
+      <c r="N94" t="s">
+        <v>238</v>
+      </c>
+      <c r="O94" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="95" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B95" s="12" t="s">
+        <v>169</v>
+      </c>
+      <c r="C95" s="12">
+        <v>1</v>
+      </c>
+      <c r="D95" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="E95" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="J95" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="K95" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="M95" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="96" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B96" s="12" t="s">
+        <v>169</v>
+      </c>
+      <c r="C96" s="12">
+        <v>2</v>
+      </c>
+      <c r="D96" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="E96" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="J96" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="K96" s="6"/>
+    </row>
+    <row r="97" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B97" s="12" t="s">
+        <v>169</v>
+      </c>
+      <c r="C97" s="12">
+        <v>3</v>
+      </c>
+      <c r="D97" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="E97" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="J97" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="K97" s="6"/>
+    </row>
+    <row r="98" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B98" s="12" t="s">
+        <v>169</v>
+      </c>
+      <c r="C98" s="12">
+        <v>4</v>
+      </c>
+      <c r="D98" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="E98" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="J98" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="K98" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="99" spans="2:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B99" s="12" t="s">
+        <v>169</v>
+      </c>
+      <c r="C99" s="12">
+        <v>5</v>
+      </c>
+      <c r="D99" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="E99" s="12" t="s">
+        <v>183</v>
+      </c>
+      <c r="J99" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="K99" s="7"/>
+    </row>
+    <row r="100" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B100" s="12" t="s">
+        <v>169</v>
+      </c>
+      <c r="C100" s="12">
+        <v>6</v>
+      </c>
+      <c r="D100" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="E100" s="12" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="101" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B101" s="12" t="s">
+        <v>169</v>
+      </c>
+      <c r="C101" s="12">
+        <v>7</v>
+      </c>
+      <c r="D101" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="E101" s="12" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="102" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B102" s="12" t="s">
+        <v>169</v>
+      </c>
+      <c r="C102" s="12">
+        <v>8</v>
+      </c>
+      <c r="D102" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="E102" s="12" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="103" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B103" s="12" t="s">
+        <v>169</v>
+      </c>
+      <c r="C103" s="12">
+        <v>9</v>
+      </c>
+      <c r="D103" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="E103" s="12" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="104" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B104" s="12" t="s">
+        <v>169</v>
+      </c>
+      <c r="C104" s="12">
+        <v>10</v>
+      </c>
+      <c r="D104" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="E104" s="12" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="105" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B105" s="12" t="s">
+        <v>169</v>
+      </c>
+      <c r="C105" s="12">
+        <v>11</v>
+      </c>
+      <c r="D105" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="E105" s="12" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="106" spans="2:15" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B106" s="12" t="s">
+        <v>169</v>
+      </c>
+      <c r="C106" s="12">
+        <v>12</v>
+      </c>
+      <c r="D106" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="E106" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="J106" s="25" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="107" spans="2:15" ht="34" x14ac:dyDescent="0.2">
+      <c r="B107" s="12" t="s">
+        <v>169</v>
+      </c>
+      <c r="C107" s="12">
+        <v>13</v>
+      </c>
+      <c r="D107" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="E107" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="J107" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="K107" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="M107" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="108" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B108" s="12" t="s">
+        <v>169</v>
+      </c>
+      <c r="C108" s="12">
+        <v>14</v>
+      </c>
+      <c r="D108" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="E108" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="J108" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="K108" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="M108" t="s">
+        <v>87</v>
+      </c>
+      <c r="N108" t="s">
+        <v>353</v>
+      </c>
+      <c r="O108" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="109" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B109" s="12" t="s">
+        <v>169</v>
+      </c>
+      <c r="C109" s="12">
+        <v>15</v>
+      </c>
+      <c r="D109" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="E109" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="J109" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="K109" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="M109" t="s">
+        <v>87</v>
+      </c>
+      <c r="N109" t="s">
+        <v>354</v>
+      </c>
+      <c r="O109" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="110" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B110" s="12" t="s">
+        <v>169</v>
+      </c>
+      <c r="C110" s="12">
+        <v>16</v>
+      </c>
+      <c r="D110" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="E110" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="J110" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="K110" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="M110" t="s">
+        <v>87</v>
+      </c>
+      <c r="N110" t="s">
+        <v>355</v>
+      </c>
+      <c r="O110" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="111" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B111" s="12" t="s">
+        <v>169</v>
+      </c>
+      <c r="C111" s="12">
+        <v>17</v>
+      </c>
+      <c r="D111" s="12" t="s">
+        <v>167</v>
+      </c>
+      <c r="E111" s="12" t="s">
+        <v>179</v>
+      </c>
+      <c r="J111" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="K111" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="M111" t="s">
+        <v>87</v>
+      </c>
+      <c r="N111" t="s">
+        <v>356</v>
+      </c>
+      <c r="O111" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="112" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B112" s="12" t="s">
+        <v>169</v>
+      </c>
+      <c r="C112" s="12">
+        <v>18</v>
+      </c>
+      <c r="D112" s="12" t="s">
+        <v>168</v>
+      </c>
+      <c r="E112" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="J112" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="K112" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="M112" t="s">
+        <v>87</v>
+      </c>
+      <c r="N112" t="s">
+        <v>222</v>
+      </c>
+      <c r="O112" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="113" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B113" s="12" t="s">
+        <v>169</v>
+      </c>
+      <c r="C113" s="12">
+        <v>19</v>
+      </c>
+      <c r="D113" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="E113" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="J113" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="K113" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="M113" t="s">
+        <v>87</v>
+      </c>
+      <c r="N113" t="s">
+        <v>223</v>
+      </c>
+      <c r="O113" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="114" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B114" s="12" t="s">
+        <v>169</v>
+      </c>
+      <c r="C114" s="12">
+        <v>20</v>
+      </c>
+      <c r="D114" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="E114" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="J114" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="K114" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="M114" t="s">
+        <v>87</v>
+      </c>
+      <c r="N114" t="s">
+        <v>224</v>
+      </c>
+      <c r="O114" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="115" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B115" s="12" t="s">
+        <v>169</v>
+      </c>
+      <c r="C115" s="12">
+        <v>21</v>
+      </c>
+      <c r="D115" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="E115" s="12" t="s">
+        <v>181</v>
+      </c>
+      <c r="J115" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="K115" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="M115" t="s">
+        <v>87</v>
+      </c>
+      <c r="N115" t="s">
+        <v>225</v>
+      </c>
+      <c r="O115" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="116" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B116" s="12" t="s">
+        <v>169</v>
+      </c>
+      <c r="C116" s="12">
+        <v>22</v>
+      </c>
+      <c r="D116" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="E116" s="12" t="s">
+        <v>174</v>
+      </c>
+      <c r="J116" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="K116" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="M116" t="s">
+        <v>87</v>
+      </c>
+      <c r="N116" t="s">
+        <v>226</v>
+      </c>
+      <c r="O116" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="117" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B117" s="12" t="s">
+        <v>169</v>
+      </c>
+      <c r="C117" s="12">
+        <v>23</v>
+      </c>
+      <c r="D117" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="E117" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="J117" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="K117" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="M117" t="s">
+        <v>87</v>
+      </c>
+      <c r="N117" t="s">
+        <v>227</v>
+      </c>
+      <c r="O117" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="118" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B118" s="12" t="s">
+        <v>169</v>
+      </c>
+      <c r="C118" s="12">
+        <v>24</v>
+      </c>
+      <c r="D118" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="E118" s="12" t="s">
+        <v>176</v>
+      </c>
+      <c r="J118" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="K118" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="M118" t="s">
+        <v>87</v>
+      </c>
+      <c r="N118" t="s">
+        <v>29</v>
+      </c>
+      <c r="O118" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="119" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B119" s="12" t="s">
+        <v>169</v>
+      </c>
+      <c r="C119" s="12">
+        <v>25</v>
+      </c>
+      <c r="D119" s="12" t="s">
+        <v>160</v>
+      </c>
+      <c r="E119" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="J119" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="K119" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="M119" t="s">
+        <v>87</v>
+      </c>
+      <c r="N119" t="s">
+        <v>229</v>
+      </c>
+      <c r="O119" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="120" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B120" s="12" t="s">
+        <v>169</v>
+      </c>
+      <c r="C120" s="12">
+        <v>26</v>
+      </c>
+      <c r="D120" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="E120" s="12" t="s">
+        <v>170</v>
+      </c>
+      <c r="J120" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="K120" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="M120" t="s">
+        <v>87</v>
+      </c>
+      <c r="N120" t="s">
+        <v>230</v>
+      </c>
+      <c r="O120" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="121" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B121" s="12" t="s">
+        <v>169</v>
+      </c>
+      <c r="C121" s="12">
+        <v>27</v>
+      </c>
+      <c r="D121" s="12" t="s">
+        <v>162</v>
+      </c>
+      <c r="E121" s="12" t="s">
+        <v>171</v>
+      </c>
+      <c r="J121" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="K121" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="M121" t="s">
+        <v>87</v>
+      </c>
+      <c r="N121" t="s">
+        <v>231</v>
+      </c>
+      <c r="O121" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="122" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B122" s="12" t="s">
+        <v>169</v>
+      </c>
+      <c r="C122" s="12">
+        <v>28</v>
+      </c>
+      <c r="D122" s="12" t="s">
+        <v>163</v>
+      </c>
+      <c r="E122" s="12" t="s">
+        <v>172</v>
+      </c>
+      <c r="J122" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="K122" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="M122" t="s">
+        <v>87</v>
+      </c>
+      <c r="N122" t="s">
+        <v>232</v>
+      </c>
+      <c r="O122" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="123" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B123" s="12" t="s">
+        <v>169</v>
+      </c>
+      <c r="C123" s="12">
+        <v>29</v>
+      </c>
+      <c r="D123" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="E123" s="12" t="s">
+        <v>173</v>
+      </c>
+      <c r="J123" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="K123" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="M123" t="s">
+        <v>87</v>
+      </c>
+      <c r="N123" t="s">
+        <v>233</v>
+      </c>
+      <c r="O123" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="124" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B124" s="12" t="s">
+        <v>169</v>
+      </c>
+      <c r="C124" s="12">
+        <v>30</v>
+      </c>
+      <c r="D124" s="12" t="s">
+        <v>165</v>
+      </c>
+      <c r="E124" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="J124" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="K124" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="M124" t="s">
+        <v>87</v>
+      </c>
+      <c r="N124" t="s">
+        <v>234</v>
+      </c>
+      <c r="O124" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="125" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="J125" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="K125" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="M125" t="s">
+        <v>87</v>
+      </c>
+      <c r="N125" t="s">
+        <v>235</v>
+      </c>
+      <c r="O125" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="126" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="J126" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="K126" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="M126" t="s">
+        <v>87</v>
+      </c>
+      <c r="N126" t="s">
+        <v>236</v>
+      </c>
+      <c r="O126" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="127" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="J127" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="K127" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="M127" t="s">
+        <v>87</v>
+      </c>
+      <c r="N127" t="s">
+        <v>237</v>
+      </c>
+      <c r="O127" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="128" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="J128" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="K128" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="M128" t="s">
+        <v>87</v>
+      </c>
+      <c r="N128" t="s">
+        <v>238</v>
+      </c>
+      <c r="O128" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="129" spans="10:13" x14ac:dyDescent="0.2">
+      <c r="J129" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="K129" s="6"/>
+      <c r="M129" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="130" spans="10:13" x14ac:dyDescent="0.2">
+      <c r="J130" s="3"/>
+      <c r="K130" s="6"/>
+    </row>
+    <row r="131" spans="10:13" x14ac:dyDescent="0.2">
+      <c r="J131" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="K131" s="6"/>
+    </row>
+    <row r="132" spans="10:13" x14ac:dyDescent="0.2">
+      <c r="J132" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="K132" s="3" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="133" spans="10:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="J133" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="K133" s="7"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43EF0447-FEAA-DE4B-B6F4-489E40F1B706}">
+  <sheetPr>
+    <tabColor rgb="FFFF0000"/>
+  </sheetPr>
+  <dimension ref="A3:M21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M15" sqref="M15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="3.5" customWidth="1"/>
+    <col min="2" max="2" width="7.33203125" customWidth="1"/>
+    <col min="3" max="3" width="17" customWidth="1"/>
+    <col min="4" max="4" width="31.33203125" customWidth="1"/>
+    <col min="5" max="5" width="4.6640625" customWidth="1"/>
+    <col min="6" max="6" width="24.83203125" customWidth="1"/>
+    <col min="7" max="9" width="18.5" customWidth="1"/>
+    <col min="10" max="11" width="20" customWidth="1"/>
+    <col min="12" max="12" width="27" customWidth="1"/>
+    <col min="13" max="13" width="38.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:13" ht="24" x14ac:dyDescent="0.3">
+      <c r="A3" s="14"/>
+      <c r="B3" s="15" t="s">
+        <v>302</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>240</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>241</v>
+      </c>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16" t="s">
+        <v>306</v>
+      </c>
+      <c r="G3" s="16" t="s">
+        <v>242</v>
+      </c>
+      <c r="H3" s="16" t="s">
+        <v>243</v>
+      </c>
+      <c r="I3" s="16" t="s">
+        <v>244</v>
+      </c>
+      <c r="J3" s="16" t="s">
+        <v>245</v>
+      </c>
+      <c r="K3" s="16" t="s">
+        <v>246</v>
+      </c>
+      <c r="L3" s="16" t="s">
+        <v>247</v>
+      </c>
+      <c r="M3" s="16" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>308</v>
+      </c>
+      <c r="B4" t="s">
+        <v>309</v>
+      </c>
+      <c r="C4" t="s">
+        <v>249</v>
+      </c>
+      <c r="D4" t="s">
+        <v>250</v>
+      </c>
+      <c r="E4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F4" t="s">
+        <v>320</v>
+      </c>
+      <c r="G4" t="s">
+        <v>251</v>
+      </c>
+      <c r="J4" t="s">
+        <v>303</v>
+      </c>
+      <c r="L4" t="s">
+        <v>252</v>
+      </c>
+      <c r="M4" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>308</v>
+      </c>
+      <c r="B5" t="s">
+        <v>310</v>
+      </c>
+      <c r="C5" t="s">
+        <v>249</v>
+      </c>
+      <c r="D5" t="s">
+        <v>284</v>
+      </c>
+      <c r="E5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G5" t="s">
+        <v>285</v>
+      </c>
+      <c r="J5" t="s">
+        <v>254</v>
+      </c>
+      <c r="L5" t="s">
+        <v>286</v>
+      </c>
+      <c r="M5" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>308</v>
+      </c>
+      <c r="B6" t="s">
+        <v>311</v>
+      </c>
+      <c r="C6" t="s">
+        <v>249</v>
+      </c>
+      <c r="D6" t="s">
+        <v>255</v>
+      </c>
+      <c r="E6" t="s">
+        <v>1</v>
+      </c>
+      <c r="G6" t="s">
+        <v>256</v>
+      </c>
+      <c r="J6" t="s">
+        <v>257</v>
+      </c>
+      <c r="L6" t="s">
+        <v>258</v>
+      </c>
+      <c r="M6" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>308</v>
+      </c>
+      <c r="B7" t="s">
+        <v>312</v>
+      </c>
+      <c r="C7" t="s">
+        <v>249</v>
+      </c>
+      <c r="D7" t="s">
+        <v>288</v>
+      </c>
+      <c r="E7" t="s">
+        <v>1</v>
+      </c>
+      <c r="G7" t="s">
+        <v>289</v>
+      </c>
+      <c r="J7" t="s">
+        <v>305</v>
+      </c>
+      <c r="L7" t="s">
+        <v>304</v>
+      </c>
+      <c r="M7" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>308</v>
+      </c>
+      <c r="B8" t="s">
+        <v>314</v>
+      </c>
+      <c r="C8" t="s">
+        <v>249</v>
+      </c>
+      <c r="D8" t="s">
+        <v>291</v>
+      </c>
+      <c r="E8" t="s">
+        <v>1</v>
+      </c>
+      <c r="G8" t="s">
+        <v>292</v>
+      </c>
+      <c r="H8" t="s">
+        <v>294</v>
+      </c>
+      <c r="J8" t="s">
+        <v>293</v>
+      </c>
+      <c r="L8" t="s">
+        <v>295</v>
+      </c>
+      <c r="M8" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>308</v>
+      </c>
+      <c r="B9" t="s">
+        <v>313</v>
+      </c>
+      <c r="C9" t="s">
+        <v>249</v>
+      </c>
+      <c r="D9" t="s">
+        <v>297</v>
+      </c>
+      <c r="E9" t="s">
+        <v>1</v>
+      </c>
+      <c r="G9" t="s">
+        <v>298</v>
+      </c>
+      <c r="H9" t="s">
+        <v>299</v>
+      </c>
+      <c r="J9" t="s">
+        <v>293</v>
+      </c>
+      <c r="L9" t="s">
+        <v>300</v>
+      </c>
+      <c r="M9" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>308</v>
+      </c>
+      <c r="B10" t="s">
+        <v>315</v>
+      </c>
+      <c r="C10" t="s">
+        <v>260</v>
+      </c>
+      <c r="D10" t="s">
+        <v>261</v>
+      </c>
+      <c r="E10" t="s">
+        <v>1</v>
       </c>
       <c r="F10" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="11" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E11" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="F11" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="12" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E12" s="8" t="s">
-        <v>49</v>
-      </c>
+        <v>307</v>
+      </c>
+      <c r="G10" t="s">
+        <v>262</v>
+      </c>
+      <c r="H10" t="s">
+        <v>263</v>
+      </c>
+      <c r="I10" t="s">
+        <v>267</v>
+      </c>
+      <c r="J10" t="s">
+        <v>264</v>
+      </c>
+      <c r="L10" t="s">
+        <v>265</v>
+      </c>
+      <c r="M10" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>308</v>
+      </c>
+      <c r="B11" t="s">
+        <v>316</v>
+      </c>
+      <c r="C11" t="s">
+        <v>260</v>
+      </c>
+      <c r="D11" t="s">
+        <v>268</v>
+      </c>
+      <c r="E11" t="s">
+        <v>1</v>
+      </c>
+      <c r="G11" t="s">
+        <v>269</v>
+      </c>
+      <c r="H11" t="s">
+        <v>270</v>
+      </c>
+      <c r="L11" t="s">
+        <v>271</v>
+      </c>
+      <c r="M11" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>308</v>
+      </c>
+      <c r="B12" t="s">
+        <v>317</v>
+      </c>
+      <c r="C12" t="s">
+        <v>260</v>
+      </c>
+      <c r="D12" t="s">
+        <v>273</v>
+      </c>
+      <c r="E12" t="s">
+        <v>1</v>
+      </c>
+      <c r="G12" t="s">
+        <v>269</v>
+      </c>
+      <c r="H12" t="s">
+        <v>270</v>
+      </c>
+      <c r="L12" t="s">
+        <v>274</v>
+      </c>
+      <c r="M12" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>308</v>
+      </c>
+      <c r="B13" t="s">
+        <v>318</v>
+      </c>
+      <c r="C13" t="s">
+        <v>276</v>
+      </c>
+      <c r="D13" t="s">
+        <v>277</v>
+      </c>
+      <c r="E13" t="s">
+        <v>1</v>
+      </c>
+      <c r="G13" t="s">
+        <v>269</v>
+      </c>
+      <c r="H13" t="s">
+        <v>270</v>
+      </c>
+      <c r="L13" t="s">
+        <v>271</v>
+      </c>
+      <c r="M13" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>308</v>
+      </c>
+      <c r="B14" t="s">
+        <v>319</v>
+      </c>
+      <c r="C14" t="s">
+        <v>260</v>
+      </c>
+      <c r="D14" t="s">
+        <v>279</v>
+      </c>
+      <c r="E14" t="s">
+        <v>1</v>
+      </c>
+      <c r="G14" t="s">
+        <v>21</v>
+      </c>
+      <c r="H14" t="s">
+        <v>280</v>
+      </c>
+      <c r="J14" t="s">
+        <v>283</v>
+      </c>
+      <c r="L14" t="s">
+        <v>281</v>
+      </c>
+      <c r="M14" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>308</v>
+      </c>
+      <c r="B15" t="s">
+        <v>322</v>
+      </c>
+      <c r="C15" t="s">
+        <v>260</v>
+      </c>
+      <c r="D15" t="s">
+        <v>321</v>
+      </c>
+      <c r="E15" t="s">
+        <v>1</v>
+      </c>
+      <c r="G15" t="s">
+        <v>323</v>
+      </c>
+      <c r="J15" t="s">
+        <v>324</v>
+      </c>
+      <c r="L15" t="s">
+        <v>325</v>
+      </c>
+      <c r="M15" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="27" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="17" ht="27" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="18" ht="27" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="19" ht="27" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="20" ht="27" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="21" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE230EF6-CC67-FC4F-BD53-EEEF0DC38F92}">
+  <sheetPr>
+    <tabColor theme="7" tint="0.39997558519241921"/>
+  </sheetPr>
+  <dimension ref="A1:AY33"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="2.1640625" customWidth="1"/>
+    <col min="2" max="6" width="12.83203125" customWidth="1"/>
+    <col min="7" max="7" width="2.1640625" customWidth="1"/>
+    <col min="14" max="15" width="7.33203125" customWidth="1"/>
+    <col min="21" max="23" width="8.1640625" customWidth="1"/>
+    <col min="29" max="29" width="2.33203125" customWidth="1"/>
+    <col min="50" max="50" width="9.83203125" customWidth="1"/>
+    <col min="51" max="51" width="1.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:10" ht="19" x14ac:dyDescent="0.25">
+      <c r="B1" s="21" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="2" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>327</v>
+      </c>
+      <c r="C2" t="s">
+        <v>328</v>
+      </c>
+      <c r="D2" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="3" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>330</v>
+      </c>
+      <c r="C3" t="s">
+        <v>459</v>
+      </c>
+      <c r="D3" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>343</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="C8" t="s">
+        <v>345</v>
+      </c>
+      <c r="D8" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B12" t="s">
+        <v>333</v>
+      </c>
+      <c r="C12" t="s">
+        <v>334</v>
+      </c>
+      <c r="D12" s="31" t="s">
+        <v>455</v>
+      </c>
+      <c r="E12" s="31"/>
       <c r="F12" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="13" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E13" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="F13" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="14" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E14" s="8" t="s">
-        <v>53</v>
-      </c>
+        <v>336</v>
+      </c>
+      <c r="H12" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B13" t="s">
+        <v>337</v>
+      </c>
+      <c r="C13" t="s">
+        <v>338</v>
+      </c>
+      <c r="D13" s="31" t="s">
+        <v>455</v>
+      </c>
+      <c r="E13" s="31"/>
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B14" t="s">
+        <v>339</v>
+      </c>
+      <c r="C14" t="s">
+        <v>340</v>
+      </c>
+      <c r="D14" s="31" t="s">
+        <v>455</v>
+      </c>
+      <c r="E14" s="31"/>
       <c r="F14" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="15" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E15" s="8" t="s">
-        <v>55</v>
-      </c>
+        <v>336</v>
+      </c>
+      <c r="H14" t="s">
+        <v>335</v>
+      </c>
+      <c r="I14" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B15" t="s">
+        <v>341</v>
+      </c>
+      <c r="C15" t="s">
+        <v>342</v>
+      </c>
+      <c r="D15" s="31" t="s">
+        <v>455</v>
+      </c>
+      <c r="E15" s="31"/>
       <c r="F15" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="16" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E16" s="8" t="s">
-        <v>57</v>
-      </c>
+        <v>336</v>
+      </c>
+      <c r="H15" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B16" t="s">
+        <v>447</v>
+      </c>
+      <c r="C16" t="s">
+        <v>457</v>
+      </c>
+      <c r="D16" s="31" t="s">
+        <v>457</v>
+      </c>
+      <c r="E16" s="31"/>
       <c r="F16" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="17" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E17" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="F17" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="18" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E18" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="F18" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="19" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E19" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="F19" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="20" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E20" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="F20" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="21" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E21" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="F21" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="22" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E22" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="F22" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="23" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E23" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="F23" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="24" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E24" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="F24" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="25" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E25" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="F25" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="26" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E26" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="F26" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="27" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E27" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="F27" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="28" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E28" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="F28" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="29" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E29" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="F29" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="30" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E30" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="F30" t="s">
-        <v>86</v>
-      </c>
+        <v>336</v>
+      </c>
+      <c r="H16" t="s">
+        <v>335</v>
+      </c>
+      <c r="J16" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="19" spans="1:51" ht="22" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="20" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="A20" s="17"/>
+      <c r="B20" s="30" t="s">
+        <v>347</v>
+      </c>
+      <c r="C20" s="30"/>
+      <c r="D20" s="30"/>
+      <c r="E20" s="30"/>
+      <c r="F20" s="30"/>
+      <c r="G20" s="17"/>
+      <c r="H20" s="30" t="s">
+        <v>348</v>
+      </c>
+      <c r="I20" s="30"/>
+      <c r="J20" s="30"/>
+      <c r="K20" s="30"/>
+      <c r="L20" s="30"/>
+      <c r="M20" s="30"/>
+      <c r="N20" s="30"/>
+      <c r="O20" s="30"/>
+      <c r="P20" s="30"/>
+      <c r="Q20" s="30"/>
+      <c r="R20" s="30"/>
+      <c r="S20" s="30"/>
+      <c r="T20" s="30"/>
+      <c r="U20" s="30"/>
+      <c r="V20" s="30"/>
+      <c r="W20" s="30"/>
+      <c r="X20" s="30"/>
+      <c r="Y20" s="30"/>
+      <c r="Z20" s="30"/>
+      <c r="AA20" s="30"/>
+      <c r="AB20" s="30"/>
+      <c r="AC20" s="17"/>
+      <c r="AD20" s="30" t="s">
+        <v>349</v>
+      </c>
+      <c r="AE20" s="30"/>
+      <c r="AF20" s="30"/>
+      <c r="AG20" s="30"/>
+      <c r="AH20" s="30"/>
+      <c r="AI20" s="30"/>
+      <c r="AJ20" s="30"/>
+      <c r="AK20" s="30"/>
+      <c r="AL20" s="30"/>
+      <c r="AM20" s="30"/>
+      <c r="AN20" s="30"/>
+      <c r="AO20" s="30"/>
+      <c r="AP20" s="30"/>
+      <c r="AQ20" s="30"/>
+      <c r="AR20" s="30"/>
+      <c r="AS20" s="30"/>
+      <c r="AT20" s="30"/>
+      <c r="AU20" s="30"/>
+      <c r="AV20" s="30"/>
+      <c r="AW20" s="30"/>
+      <c r="AX20" s="30"/>
+      <c r="AY20" s="17"/>
+    </row>
+    <row r="21" spans="1:51" s="20" customFormat="1" ht="97" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="18"/>
+      <c r="B21" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="C21" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="D21" s="19" t="s">
+        <v>110</v>
+      </c>
+      <c r="E21" s="19" t="s">
+        <v>197</v>
+      </c>
+      <c r="F21" s="19" t="s">
+        <v>198</v>
+      </c>
+      <c r="G21" s="18"/>
+      <c r="H21" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="I21" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="J21" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="K21" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="L21" s="19" t="s">
+        <v>201</v>
+      </c>
+      <c r="M21" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="N21" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="O21" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="P21" s="19" t="s">
+        <v>202</v>
+      </c>
+      <c r="Q21" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="R21" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="S21" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="T21" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="U21" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="V21" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="W21" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="X21" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y21" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="Z21" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="AA21" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="AB21" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="AC21" s="18"/>
+      <c r="AD21" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="AE21" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="AF21" s="19" t="s">
+        <v>110</v>
+      </c>
+      <c r="AG21" s="19" t="s">
+        <v>111</v>
+      </c>
+      <c r="AH21" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="AI21" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="AJ21" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="AK21" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="AL21" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="AM21" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="AN21" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="AO21" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="AP21" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="AQ21" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="AR21" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="AS21" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="AT21" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="AU21" s="19" t="s">
+        <v>120</v>
+      </c>
+      <c r="AV21" s="19" t="s">
+        <v>121</v>
+      </c>
+      <c r="AW21" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="AX21" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="AY21" s="18"/>
+    </row>
+    <row r="22" spans="1:51" s="26" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="27"/>
+      <c r="B22" s="28" t="s">
+        <v>427</v>
+      </c>
+      <c r="C22" s="28" t="s">
+        <v>428</v>
+      </c>
+      <c r="D22" s="28" t="s">
+        <v>429</v>
+      </c>
+      <c r="E22" s="28" t="s">
+        <v>441</v>
+      </c>
+      <c r="F22" s="28" t="s">
+        <v>442</v>
+      </c>
+      <c r="G22" s="27"/>
+      <c r="H22" s="26" t="s">
+        <v>407</v>
+      </c>
+      <c r="I22" s="26" t="s">
+        <v>408</v>
+      </c>
+      <c r="J22" s="26" t="s">
+        <v>409</v>
+      </c>
+      <c r="K22" s="26" t="s">
+        <v>410</v>
+      </c>
+      <c r="L22" s="26" t="s">
+        <v>416</v>
+      </c>
+      <c r="M22" s="26" t="s">
+        <v>415</v>
+      </c>
+      <c r="N22" s="26" t="s">
+        <v>396</v>
+      </c>
+      <c r="O22" s="26" t="s">
+        <v>397</v>
+      </c>
+      <c r="P22" s="26" t="s">
+        <v>411</v>
+      </c>
+      <c r="Q22" s="26" t="s">
+        <v>412</v>
+      </c>
+      <c r="R22" s="26" t="s">
+        <v>413</v>
+      </c>
+      <c r="S22" s="26" t="s">
+        <v>414</v>
+      </c>
+      <c r="T22" s="26" t="s">
+        <v>417</v>
+      </c>
+      <c r="U22" s="26" t="s">
+        <v>418</v>
+      </c>
+      <c r="V22" s="26" t="s">
+        <v>419</v>
+      </c>
+      <c r="W22" s="26" t="s">
+        <v>420</v>
+      </c>
+      <c r="X22" s="26" t="s">
+        <v>421</v>
+      </c>
+      <c r="Y22" s="26" t="s">
+        <v>422</v>
+      </c>
+      <c r="Z22" s="26" t="s">
+        <v>423</v>
+      </c>
+      <c r="AA22" s="26" t="s">
+        <v>424</v>
+      </c>
+      <c r="AB22" s="26" t="s">
+        <v>425</v>
+      </c>
+      <c r="AC22" s="27"/>
+      <c r="AD22" s="28" t="s">
+        <v>427</v>
+      </c>
+      <c r="AE22" s="28" t="s">
+        <v>428</v>
+      </c>
+      <c r="AF22" s="28" t="s">
+        <v>429</v>
+      </c>
+      <c r="AG22" s="28" t="s">
+        <v>430</v>
+      </c>
+      <c r="AH22" s="28" t="s">
+        <v>396</v>
+      </c>
+      <c r="AI22" s="28" t="s">
+        <v>397</v>
+      </c>
+      <c r="AJ22" s="28" t="s">
+        <v>418</v>
+      </c>
+      <c r="AK22" s="28" t="s">
+        <v>419</v>
+      </c>
+      <c r="AL22" s="28" t="s">
+        <v>420</v>
+      </c>
+      <c r="AM22" s="28" t="s">
+        <v>433</v>
+      </c>
+      <c r="AN22" s="28" t="s">
+        <v>434</v>
+      </c>
+      <c r="AO22" s="28" t="s">
+        <v>435</v>
+      </c>
+      <c r="AP22" s="28" t="s">
+        <v>387</v>
+      </c>
+      <c r="AQ22" s="28" t="s">
+        <v>436</v>
+      </c>
+      <c r="AR22" s="28" t="s">
+        <v>437</v>
+      </c>
+      <c r="AS22" s="28" t="s">
+        <v>438</v>
+      </c>
+      <c r="AT22" s="28" t="s">
+        <v>439</v>
+      </c>
+      <c r="AU22" s="28" t="s">
+        <v>431</v>
+      </c>
+      <c r="AV22" s="28" t="s">
+        <v>432</v>
+      </c>
+      <c r="AW22" s="28" t="s">
+        <v>440</v>
+      </c>
+      <c r="AX22" s="28" t="s">
+        <v>385</v>
+      </c>
+      <c r="AY22" s="27"/>
+    </row>
+    <row r="30" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="B30" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="31" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="C31" s="23" t="s">
+        <v>333</v>
+      </c>
+      <c r="D31" s="29" t="s">
+        <v>442</v>
+      </c>
+      <c r="E31" s="23" t="s">
+        <v>446</v>
+      </c>
+      <c r="F31" s="23">
+        <v>1</v>
+      </c>
+      <c r="G31" s="23">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="C32" s="23" t="s">
+        <v>339</v>
+      </c>
+      <c r="D32" s="29" t="s">
+        <v>389</v>
+      </c>
+      <c r="E32" s="23" t="s">
+        <v>447</v>
+      </c>
+      <c r="F32" s="23">
+        <v>1</v>
+      </c>
+      <c r="G32" s="23"/>
+    </row>
+    <row r="33" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C33" s="23"/>
+      <c r="D33" s="23"/>
+      <c r="E33" s="23"/>
+      <c r="F33" s="23"/>
+      <c r="G33" s="23"/>
     </row>
   </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="B20:F20"/>
+    <mergeCell ref="H20:AB20"/>
+    <mergeCell ref="AD20:AX20"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="D16:E16"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/WaterDiag.xlsx
+++ b/WaterDiag.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dub/Code/MilanoWaterProject/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4C84D9D0-823F-F940-8745-AE7EC7AA78EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3143B8D9-AA9E-2F4B-BAED-3B22CA77B4C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7380" yWindow="980" windowWidth="35560" windowHeight="19020" activeTab="1" xr2:uid="{60223CC9-929C-2C40-9DF4-4D5E66E85102}"/>
+    <workbookView xWindow="18940" yWindow="1180" windowWidth="46700" windowHeight="19020" activeTab="1" xr2:uid="{60223CC9-929C-2C40-9DF4-4D5E66E85102}"/>
   </bookViews>
   <sheets>
     <sheet name="Current" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1558" uniqueCount="463">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1698" uniqueCount="521">
   <si>
     <t>/*</t>
   </si>
@@ -688,12 +688,6 @@
     <t xml:space="preserve"> GPIO 8 bits Hex (bits 0-3 floats)</t>
   </si>
   <si>
-    <t xml:space="preserve"> "Tank Client", #define TANK_TOPIC   "Tank ESP", tank_esp_ , #define TANK_LEN 21</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> "Well Client", #define WELL_TOPIC   "Well ESP", well_esp_ , #define WELL_LEN 21</t>
-  </si>
-  <si>
     <t xml:space="preserve"> GPIO 8 bits Hex (bit 0-pump1&amp;2 commanded, bit 1 septic alert, bit 2-7 spare)</t>
   </si>
   <si>
@@ -706,9 +700,6 @@
     <t>well_data_payload[WELL_LEN] ;</t>
   </si>
   <si>
-    <t>#define FL_CLIENTID</t>
-  </si>
-  <si>
     <t>Pump No Start - House Pressure Tank Relay Active but Pump 1 or 2 Not Running</t>
   </si>
   <si>
@@ -718,33 +709,12 @@
     <t>Note:  Bits 0-2: Alert Type; Bits 3-10: LED Brightness, Bits 11-13: LED Color, Bits 14-15: Spare</t>
   </si>
   <si>
-    <t>Current Sensor  1 Value (Well #1)</t>
-  </si>
-  <si>
-    <t>Current Sensor  2 Value (Well #2)</t>
-  </si>
-  <si>
-    <t>Current Sensor  3 Value (Well #3)</t>
-  </si>
-  <si>
-    <t>Current Sensor  4 Value (Irrigation Pump)</t>
-  </si>
-  <si>
-    <t>Hydrostatic Tank Pressure Sensor Value</t>
-  </si>
-  <si>
     <t>;</t>
   </si>
   <si>
-    <t>struct FormattedSensorData {</t>
-  </si>
-  <si>
     <t>};</t>
   </si>
   <si>
-    <t>struct AlertSensorData {</t>
-  </si>
-  <si>
     <t>int</t>
   </si>
   <si>
@@ -1144,24 +1114,6 @@
     <t>Test Floats:</t>
   </si>
   <si>
-    <t>struct MonitorSensorData {</t>
-  </si>
-  <si>
-    <t>struct FlowMonSensorData {</t>
-  </si>
-  <si>
-    <t>IrrigationFlowPerMin</t>
-  </si>
-  <si>
-    <t>IrrigationTotalFlow</t>
-  </si>
-  <si>
-    <t>IrrigationPressure</t>
-  </si>
-  <si>
-    <t>IrrigationPumpTemp</t>
-  </si>
-  <si>
     <t>pump_current_sense_1</t>
   </si>
   <si>
@@ -1222,9 +1174,6 @@
     <t>press_led_color</t>
   </si>
   <si>
-    <t>hydro_stat_pressure</t>
-  </si>
-  <si>
     <t>water_height</t>
   </si>
   <si>
@@ -1234,30 +1183,12 @@
     <t>tank_per_full</t>
   </si>
   <si>
-    <t>well_pump_1</t>
-  </si>
-  <si>
-    <t>well_pump_2</t>
-  </si>
-  <si>
-    <t>well_pump_3</t>
-  </si>
-  <si>
-    <t>irrigation_pump</t>
-  </si>
-  <si>
     <t>fw_version</t>
   </si>
   <si>
-    <t>i2c_fault_count</t>
-  </si>
-  <si>
     <t>cycle_count</t>
   </si>
   <si>
-    <t>ambient_temp</t>
-  </si>
-  <si>
     <t>float_state_1</t>
   </si>
   <si>
@@ -1270,15 +1201,9 @@
     <t>float_state_4</t>
   </si>
   <si>
-    <t>pressure_tank_switch</t>
-  </si>
-  <si>
     <t>house_water_pressure</t>
   </si>
   <si>
-    <t>septic_alert</t>
-  </si>
-  <si>
     <t>spare_1</t>
   </si>
   <si>
@@ -1306,9 +1231,6 @@
     <t>Block 2</t>
   </si>
   <si>
-    <t>unsigned short int</t>
-  </si>
-  <si>
     <t>struct WellClientDatat {</t>
   </si>
   <si>
@@ -1420,15 +1342,6 @@
     <t>gpio</t>
   </si>
   <si>
-    <t>spare_14</t>
-  </si>
-  <si>
-    <t>spare_15</t>
-  </si>
-  <si>
-    <t>spare_16</t>
-  </si>
-  <si>
     <t>x</t>
   </si>
   <si>
@@ -1438,18 +1351,12 @@
     <t>struct FlowClientDatat {</t>
   </si>
   <si>
-    <t>struct TankClientDatat {</t>
-  </si>
-  <si>
     <t>Irrigation Pump Temperature in F Float Bytes 1&amp;2</t>
   </si>
   <si>
     <t>Irrigation Pump Temperature in F Float Bytes 3&amp;4</t>
   </si>
   <si>
-    <t xml:space="preserve"> "Flow Client", #define FLO_TOPIC   "Flow ESP", flow_esp_ , #define FLO_LEN 21</t>
-  </si>
-  <si>
     <t>#define  TANK_CLIENTID</t>
   </si>
   <si>
@@ -1474,17 +1381,284 @@
     <t>tolerance</t>
   </si>
   <si>
-    <t>tank_gpio</t>
-  </si>
-  <si>
-    <t>well_gpio</t>
+    <t>Air Temperature in F Float Bytes 1&amp;2</t>
+  </si>
+  <si>
+    <t>Air Temperature in F Float Bytes 3&amp;4</t>
+  </si>
+  <si>
+    <t>system_temp</t>
+  </si>
+  <si>
+    <t>Block 7</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> A0 Raw Sensor Current Sense Well 1 16bit</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> A1 Raw Sensor Current Sense Well 2 16bit</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> A2 Raw Sensor Current Sense Well 3 16bit</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> A3 Raw Sensor Current Sense Irrigation Pump 16bit</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> A7 Sensor House Water Pressure 16bit ADC 0-5v</t>
+  </si>
+  <si>
+    <t>D2 House Tank Pressure Switch (0=active)</t>
+  </si>
+  <si>
+    <t>D3 Septic Alert (0=active)</t>
+  </si>
+  <si>
+    <t>Float 1</t>
+  </si>
+  <si>
+    <t>Float 2</t>
+  </si>
+  <si>
+    <t>Float 3</t>
+  </si>
+  <si>
+    <t>Float 4</t>
+  </si>
+  <si>
+    <t>Tank Gallons Per Minute</t>
+  </si>
+  <si>
+    <t>Air Temperature</t>
+  </si>
+  <si>
+    <t>Tank Total Gallons (24hrs)</t>
+  </si>
+  <si>
+    <t>tank_gallons_per_minute</t>
+  </si>
+  <si>
+    <t>tank_total_gallons_24</t>
+  </si>
+  <si>
+    <t>air_temp</t>
+  </si>
+  <si>
+    <t>Well Pump 1 On</t>
+  </si>
+  <si>
+    <t>Well Pump 2 On</t>
+  </si>
+  <si>
+    <t>Well Pump 3 On</t>
+  </si>
+  <si>
+    <t>Irrigation Pump On</t>
+  </si>
+  <si>
+    <t>House Water Pressure</t>
+  </si>
+  <si>
+    <t>House Tank Pressure Switch On</t>
+  </si>
+  <si>
+    <t>Septic Alert On</t>
+  </si>
+  <si>
+    <t>System Temp</t>
+  </si>
+  <si>
+    <t>#define FLOW_CLIENTID</t>
+  </si>
+  <si>
+    <t>#define WELL_MONID</t>
+  </si>
+  <si>
+    <t>#define TANK_MONID</t>
+  </si>
+  <si>
+    <t>#define ALERT_ID</t>
+  </si>
+  <si>
+    <t>#define MON_ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "Tank Client", #define TANK_CLIENT   "Tank Client", #define TANK_LEN 25</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "Well Client", #define WELL_CLIENT   "Well Client", #define WELL_LEN 25</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "Flow Client", #define FLOW_CLIENT   "Flow Client", #define FLO_LEN 25</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "Tank Monitor",  #define TANK_TOPIC  "Tank Data", #define TANK_DATA 25</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "Well Monitor",  #define WELL_TOPIC  "Well Data", #define WELL_DATA 25</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "Flow Monitor",  #define FLOW_TOPIC  "Flow Data", #define FLOW_DATA 25</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "Monitor",  #define M_TOPIC  "Monitor Data", #define M_LEN 25</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "Sys Alert",  #define A_TOPIC  "Alert Data", #define A_LEN 25</t>
+  </si>
+  <si>
+    <t>struct TankMonitorData {</t>
+  </si>
+  <si>
+    <t>well_pump_1_on</t>
+  </si>
+  <si>
+    <t>well_pump_2_on</t>
+  </si>
+  <si>
+    <t>well_pump_3_on</t>
+  </si>
+  <si>
+    <t>irrigation_pump_on</t>
+  </si>
+  <si>
+    <t>House_tank_pressure_switch_on</t>
+  </si>
+  <si>
+    <t>septic_alert_on</t>
+  </si>
+  <si>
+    <t>tank_hydrostatic_pressure</t>
+  </si>
+  <si>
+    <t>float_1</t>
+  </si>
+  <si>
+    <t>float_2</t>
+  </si>
+  <si>
+    <t>float_3</t>
+  </si>
+  <si>
+    <t>float_4</t>
+  </si>
+  <si>
+    <t>air_temp_1</t>
+  </si>
+  <si>
+    <t>air_temp_2</t>
+  </si>
+  <si>
+    <t>tank_sensor_payload[TANK_DATA];</t>
+  </si>
+  <si>
+    <t>well_sensor_payload[WELL_DATA];</t>
+  </si>
+  <si>
+    <t>flow_sensor_payload[FLOW_DATA];</t>
+  </si>
+  <si>
+    <t>flow_data_payload[FLOW_LEN] ;</t>
+  </si>
+  <si>
+    <t>struct WellMonitorData {</t>
+  </si>
+  <si>
+    <t>struct FlowMonitorData {</t>
+  </si>
+  <si>
+    <t>struct MonitorData {</t>
+  </si>
+  <si>
+    <t>struct AlertData {</t>
+  </si>
+  <si>
+    <t>struct TankClientData {</t>
+  </si>
+  <si>
+    <t>monitor_payload[M_LEN];</t>
+  </si>
+  <si>
+    <t>alert_payload[A_LEN];</t>
+  </si>
+  <si>
+    <t>char* TankMonitorData_var_name[] = {</t>
+  </si>
+  <si>
+    <t>char* WellMonitorData_var_name[] = {</t>
+  </si>
+  <si>
+    <t>char* FlowMonitorData_var_name[] = {</t>
+  </si>
+  <si>
+    <t>char* MonitorData_var_name[] = {</t>
+  </si>
+  <si>
+    <t>char* AlertData_var_name[] = {</t>
+  </si>
+  <si>
+    <t>char* TankClientData_var_name [] = {</t>
+  </si>
+  <si>
+    <t>char* WellClientData_var_name [] = {</t>
+  </si>
+  <si>
+    <t>char* FlowClientData_var_name [] = {</t>
+  </si>
+  <si>
+    <t>irrigationFlowPerMin</t>
+  </si>
+  <si>
+    <t>irrigationTotalFlow</t>
+  </si>
+  <si>
+    <t>irrigationPressure</t>
+  </si>
+  <si>
+    <t>irrigationPumpTemp</t>
+  </si>
+  <si>
+    <t>cycle count</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "Tank Client", #define TANK_CLIENT   "Tank Payload", #define TANK_LEN 25</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "Well Client", #define WELL_CLIENT   "Well Payload", #define WELL_LEN 25</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "Flow Client", #define FLOW_CLIENT   "Flow Payload", #define FLOW_LEN 25</t>
+  </si>
+  <si>
+    <t>house_tank_pressure_switch_on</t>
+  </si>
+  <si>
+    <t>raw_current_sense_well1</t>
+  </si>
+  <si>
+    <t>raw_current_sense_well2</t>
+  </si>
+  <si>
+    <t>raw_current_sense_well3</t>
+  </si>
+  <si>
+    <t>raw_current_sense_irrigation_pump</t>
+  </si>
+  <si>
+    <t>#define FLOW_MONTID</t>
+  </si>
+  <si>
+    <t>#define FLOW_MONID</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Cycle Counter</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1589,8 +1763,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1643,6 +1824,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFF8CBAD"/>
         <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -1740,9 +1927,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1761,9 +1945,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1785,6 +1966,8 @@
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3831,8 +4014,8 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>6859</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="5918200" cy="374141"/>
@@ -3849,7 +4032,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3810000" y="6859"/>
+          <a:off x="3848100" y="1226059"/>
           <a:ext cx="5918200" cy="374141"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3901,13 +4084,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -4130,11 +4313,11 @@
         <a:p>
           <a:r>
             <a:rPr lang="en-US" sz="1800"/>
-            <a:t>/*Raw Sensor Data Conversion</a:t>
+            <a:t>/*Raw Tank Sensor Data Conversion</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" sz="1800" baseline="0"/>
-            <a:t> and Formatted by subsriber.c() */</a:t>
+            <a:t> and Formatted */</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="1800"/>
         </a:p>
@@ -4149,7 +4332,7 @@
       <xdr:row>7</xdr:row>
       <xdr:rowOff>201082</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="1651000" cy="21166667"/>
+    <xdr:ext cx="1651000" cy="28729518"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="7" name="TextBox 6">
@@ -4163,8 +4346,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8293100" y="1636182"/>
-          <a:ext cx="1651000" cy="21166667"/>
+          <a:off x="10553700" y="1674282"/>
+          <a:ext cx="1651000" cy="28729518"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4296,7 +4479,7 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr lang="en-US" sz="1100"/>
-            <a:t>from ESP32</a:t>
+            <a:t>from Tank</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -4307,7 +4490,7 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>800100</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>99</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="4660900" cy="762000"/>
@@ -4377,13 +4560,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>711200</xdr:colOff>
-      <xdr:row>42</xdr:row>
+      <xdr:row>106</xdr:row>
       <xdr:rowOff>88899</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>711200</xdr:colOff>
-      <xdr:row>42</xdr:row>
+      <xdr:row>106</xdr:row>
       <xdr:rowOff>88899</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -4436,13 +4619,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>25400</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>104</xdr:row>
       <xdr:rowOff>171449</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>25400</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>104</xdr:row>
       <xdr:rowOff>171449</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -4495,7 +4678,7 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>685800</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:row>100</xdr:row>
       <xdr:rowOff>63500</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="901700" cy="762000"/>
@@ -4581,13 +4764,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>787400</xdr:colOff>
-      <xdr:row>74</xdr:row>
+      <xdr:row>138</xdr:row>
       <xdr:rowOff>50799</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>787400</xdr:colOff>
-      <xdr:row>74</xdr:row>
+      <xdr:row>138</xdr:row>
       <xdr:rowOff>50799</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -4640,13 +4823,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>25400</xdr:colOff>
-      <xdr:row>71</xdr:row>
+      <xdr:row>135</xdr:row>
       <xdr:rowOff>171449</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>25400</xdr:colOff>
-      <xdr:row>71</xdr:row>
+      <xdr:row>135</xdr:row>
       <xdr:rowOff>171449</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -4699,7 +4882,7 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>67</xdr:row>
+      <xdr:row>131</xdr:row>
       <xdr:rowOff>25400</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="4660900" cy="774700"/>
@@ -4763,7 +4946,7 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>660400</xdr:colOff>
-      <xdr:row>67</xdr:row>
+      <xdr:row>131</xdr:row>
       <xdr:rowOff>127000</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="901700" cy="762000"/>
@@ -4849,7 +5032,7 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>660400</xdr:colOff>
-      <xdr:row>63</xdr:row>
+      <xdr:row>127</xdr:row>
       <xdr:rowOff>177800</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="901700" cy="762000"/>
@@ -4929,13 +5112,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>3517900</xdr:colOff>
-      <xdr:row>98</xdr:row>
+      <xdr:row>104</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>520700</xdr:colOff>
-      <xdr:row>98</xdr:row>
+      <xdr:row>104</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -4988,13 +5171,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>3520017</xdr:colOff>
-      <xdr:row>101</xdr:row>
+      <xdr:row>107</xdr:row>
       <xdr:rowOff>33867</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>508000</xdr:colOff>
-      <xdr:row>101</xdr:row>
+      <xdr:row>107</xdr:row>
       <xdr:rowOff>33867</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -5047,13 +5230,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>3520016</xdr:colOff>
-      <xdr:row>105</xdr:row>
+      <xdr:row>111</xdr:row>
       <xdr:rowOff>29633</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>507999</xdr:colOff>
-      <xdr:row>105</xdr:row>
+      <xdr:row>111</xdr:row>
       <xdr:rowOff>29633</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -5106,7 +5289,7 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>141817</xdr:colOff>
-      <xdr:row>94</xdr:row>
+      <xdr:row>100</xdr:row>
       <xdr:rowOff>162983</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="901700" cy="762000"/>
@@ -5192,7 +5375,7 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>98</xdr:row>
+      <xdr:row>104</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="901700" cy="762000"/>
@@ -5272,7 +5455,7 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>139700</xdr:colOff>
-      <xdr:row>103</xdr:row>
+      <xdr:row>109</xdr:row>
       <xdr:rowOff>88900</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="901700" cy="762000"/>
@@ -5337,13 +5520,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>25400</xdr:colOff>
-      <xdr:row>72</xdr:row>
+      <xdr:row>136</xdr:row>
       <xdr:rowOff>171449</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>25400</xdr:colOff>
-      <xdr:row>72</xdr:row>
+      <xdr:row>136</xdr:row>
       <xdr:rowOff>171449</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -5396,7 +5579,7 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>4232</xdr:colOff>
-      <xdr:row>62</xdr:row>
+      <xdr:row>68</xdr:row>
       <xdr:rowOff>8976</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="5939367" cy="374141"/>
@@ -5465,13 +5648,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>70</xdr:row>
+      <xdr:row>76</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>70</xdr:row>
+      <xdr:row>76</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -5523,11 +5706,11 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>821266</xdr:colOff>
-      <xdr:row>100</xdr:row>
-      <xdr:rowOff>167216</xdr:rowOff>
+      <xdr:colOff>783166</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>14816</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="4660900" cy="825500"/>
+    <xdr:ext cx="5630334" cy="632884"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="27" name="TextBox 26">
@@ -5541,8 +5724,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10765366" y="21376216"/>
-          <a:ext cx="4660900" cy="825500"/>
+          <a:off x="12987866" y="14238816"/>
+          <a:ext cx="5630334" cy="632884"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5576,13 +5759,7 @@
         <a:p>
           <a:r>
             <a:rPr lang="en-US" sz="1800" baseline="0"/>
-            <a:t>/*Data Formatted for Blynk</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1800" baseline="0"/>
-            <a:t>flowmonitor.c() */</a:t>
+            <a:t>/*Data Formatted for Blynk flowmonitor.c() */</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="1800"/>
         </a:p>
@@ -5593,15 +5770,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>774700</xdr:colOff>
-      <xdr:row>106</xdr:row>
-      <xdr:rowOff>173565</xdr:rowOff>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>643465</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>774700</xdr:colOff>
-      <xdr:row>106</xdr:row>
-      <xdr:rowOff>173565</xdr:rowOff>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>643465</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -5616,7 +5793,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="9893300" y="21852465"/>
+          <a:off x="12026900" y="16404165"/>
           <a:ext cx="825500" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -5649,71 +5826,12 @@
     </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>819150</xdr:colOff>
-      <xdr:row>105</xdr:row>
-      <xdr:rowOff>2116</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>364067</xdr:colOff>
-      <xdr:row>105</xdr:row>
-      <xdr:rowOff>2116</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="29" name="Straight Arrow Connector 28">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4E54D38A-3656-5145-90B9-60B647D503A8}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9937750" y="21465116"/>
-          <a:ext cx="1195917" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="76200" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:round/>
-          <a:headEnd type="none" w="med" len="med"/>
-          <a:tailEnd type="arrow" w="med" len="med"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>781050</xdr:colOff>
-      <xdr:row>100</xdr:row>
-      <xdr:rowOff>182033</xdr:rowOff>
+      <xdr:colOff>730250</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>207433</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="901700" cy="762000"/>
     <xdr:sp macro="" textlink="">
@@ -5729,7 +5847,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9899650" y="21391033"/>
+          <a:off x="12109450" y="14215533"/>
           <a:ext cx="901700" cy="762000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -5779,15 +5897,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>25400</xdr:colOff>
-      <xdr:row>106</xdr:row>
-      <xdr:rowOff>171449</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>666749</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>25400</xdr:colOff>
-      <xdr:row>106</xdr:row>
-      <xdr:rowOff>171449</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>666749</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -5802,7 +5920,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9969500" y="21850349"/>
+          <a:off x="12204700" y="16427449"/>
           <a:ext cx="825500" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -5839,7 +5957,7 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>25400</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="5918200" cy="374141"/>
@@ -5899,6 +6017,315 @@
             <a:rPr lang="en-US" sz="1800"/>
             <a:t> from WellClient.c</a:t>
           </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>156633</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>156633</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="36" name="Straight Arrow Connector 35">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BCB79360-796F-F24F-BF36-D808023A3253}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12261850" y="9122833"/>
+          <a:ext cx="825500" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="76200" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>660400</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>812800</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="37" name="Straight Arrow Connector 36">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5F1E3DE6-ABFA-434A-98E9-5758B011ABB5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="12039600" y="8902700"/>
+          <a:ext cx="977900" cy="25400"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="76200" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>812800</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>95249</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>812800</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>95249</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="41" name="Straight Arrow Connector 40">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2E564104-ADE2-5142-BB4A-2BD08D0D31FB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12192000" y="8604249"/>
+          <a:ext cx="825500" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="76200" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>52916</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>203200</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="5357284" cy="622300"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="38" name="TextBox 37">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9532FD44-E37B-BA4E-BDD6-1AE0EA698BF5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13083116" y="7632700"/>
+          <a:ext cx="5357284" cy="622300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1800" baseline="0"/>
+            <a:t>/*Raw Well Sensor Data Converted and Formatted*/</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1800"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>177799</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="901700" cy="687917"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="40" name="TextBox 39">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7B5DB609-EF6D-7F42-965E-21C1438F6BC0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12217400" y="7607299"/>
+          <a:ext cx="901700" cy="687917"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="ctr">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000" baseline="0"/>
+            <a:t> Well Data</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -6206,7 +6633,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0F5BC79-5CC4-4146-A4AC-12A07A1DA7E2}">
   <dimension ref="B3:K133"/>
   <sheetViews>
-    <sheetView topLeftCell="A65" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E67" sqref="E67:E87"/>
     </sheetView>
   </sheetViews>
@@ -7760,15 +8187,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C03884E4-1121-FE49-8CFC-397DF0F5A368}">
-  <dimension ref="A3:O133"/>
+  <dimension ref="A1:R163"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B40" sqref="B40"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E40" sqref="E40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.1640625" customWidth="1"/>
+    <col min="1" max="1" width="8.6640625" customWidth="1"/>
     <col min="2" max="2" width="30" customWidth="1"/>
     <col min="3" max="3" width="2.83203125" customWidth="1"/>
     <col min="4" max="4" width="27.5" style="1" customWidth="1"/>
@@ -7778,186 +8205,182 @@
     <col min="12" max="12" width="9.33203125" customWidth="1"/>
     <col min="13" max="13" width="17.33203125" customWidth="1"/>
     <col min="14" max="14" width="20.83203125" customWidth="1"/>
-    <col min="15" max="15" width="3.5" customWidth="1"/>
+    <col min="15" max="16" width="3.5" customWidth="1"/>
+    <col min="17" max="17" width="22.33203125" customWidth="1"/>
+    <col min="18" max="18" width="77.83203125" customWidth="1"/>
+    <col min="19" max="19" width="16.5" customWidth="1"/>
+    <col min="20" max="20" width="39.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:15" ht="20" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D3" s="25" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>449</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>453</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>405</v>
-      </c>
-      <c r="B5" t="s">
-        <v>427</v>
-      </c>
-      <c r="C5" t="s">
-        <v>214</v>
-      </c>
-      <c r="D5" s="3" t="s">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="P1">
+        <v>0</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>422</v>
+      </c>
+      <c r="R1" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="P2">
+        <v>1</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>423</v>
+      </c>
+      <c r="R2" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="P3">
+        <v>2</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>459</v>
+      </c>
+      <c r="R3" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="P4">
+        <v>3</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>461</v>
+      </c>
+      <c r="R4" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="P5">
+        <v>4</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>460</v>
+      </c>
+      <c r="R5" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="P6">
+        <v>5</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>519</v>
+      </c>
+      <c r="R6" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="P7">
+        <v>6</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>463</v>
+      </c>
+      <c r="R7" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="P8">
+        <v>7</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>462</v>
+      </c>
+      <c r="R8" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" ht="19" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>502</v>
+      </c>
+      <c r="D9" s="23" t="s">
+        <v>377</v>
+      </c>
+      <c r="J9" s="22" t="s">
+        <v>373</v>
+      </c>
+      <c r="N9" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>494</v>
+      </c>
+      <c r="D10" s="28" t="s">
+        <v>422</v>
+      </c>
+      <c r="E10" s="28" t="s">
+        <v>510</v>
+      </c>
+      <c r="J10" s="28" t="s">
+        <v>461</v>
+      </c>
+      <c r="K10" s="28" t="s">
+        <v>467</v>
+      </c>
+      <c r="M10" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>208</v>
+      </c>
+      <c r="B11" t="s">
+        <v>401</v>
+      </c>
+      <c r="C11" t="s">
+        <v>206</v>
+      </c>
+      <c r="D11" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E11" s="6" t="s">
         <v>109</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>405</v>
-      </c>
-      <c r="B6" t="s">
-        <v>428</v>
-      </c>
-      <c r="C6" t="s">
-        <v>214</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>405</v>
-      </c>
-      <c r="B7" t="s">
-        <v>429</v>
-      </c>
-      <c r="C7" t="s">
-        <v>214</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>405</v>
-      </c>
-      <c r="B8" t="s">
-        <v>441</v>
-      </c>
-      <c r="C8" t="s">
-        <v>214</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" ht="20" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>405</v>
-      </c>
-      <c r="B9" t="s">
-        <v>461</v>
-      </c>
-      <c r="C9" t="s">
-        <v>214</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>198</v>
-      </c>
-      <c r="J9" s="24" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" ht="34" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>405</v>
-      </c>
-      <c r="B10" t="s">
-        <v>396</v>
-      </c>
-      <c r="C10" t="s">
-        <v>214</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="J10" s="22" t="s">
-        <v>89</v>
-      </c>
-      <c r="K10" s="13" t="s">
-        <v>92</v>
-      </c>
-      <c r="M10" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>405</v>
-      </c>
-      <c r="B11" t="s">
-        <v>397</v>
-      </c>
-      <c r="C11" t="s">
-        <v>214</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>13</v>
       </c>
       <c r="J11" s="3" t="s">
         <v>86</v>
       </c>
       <c r="K11" s="6" t="s">
-        <v>213</v>
+        <v>445</v>
       </c>
       <c r="M11" t="s">
         <v>87</v>
       </c>
       <c r="N11" t="s">
-        <v>377</v>
+        <v>448</v>
       </c>
       <c r="O11" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>405</v>
+        <v>208</v>
       </c>
       <c r="B12" t="s">
-        <v>418</v>
+        <v>402</v>
       </c>
       <c r="C12" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>13</v>
+        <v>108</v>
       </c>
       <c r="J12" s="3" t="s">
         <v>88</v>
@@ -7969,27 +8392,27 @@
         <v>87</v>
       </c>
       <c r="N12" t="s">
-        <v>378</v>
+        <v>361</v>
       </c>
       <c r="O12" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>405</v>
+        <v>208</v>
       </c>
       <c r="B13" t="s">
-        <v>419</v>
+        <v>403</v>
       </c>
       <c r="C13" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>13</v>
+        <v>110</v>
       </c>
       <c r="J13" s="3" t="s">
         <v>67</v>
@@ -8001,27 +8424,27 @@
         <v>87</v>
       </c>
       <c r="N13" t="s">
-        <v>379</v>
+        <v>362</v>
       </c>
       <c r="O13" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>405</v>
+        <v>208</v>
       </c>
       <c r="B14" t="s">
-        <v>420</v>
+        <v>479</v>
       </c>
       <c r="C14" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>13</v>
+        <v>197</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>68</v>
@@ -8033,152 +8456,152 @@
         <v>87</v>
       </c>
       <c r="N14" t="s">
-        <v>380</v>
+        <v>363</v>
       </c>
       <c r="O14" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>405</v>
+        <v>208</v>
       </c>
       <c r="B15" t="s">
-        <v>433</v>
+        <v>480</v>
       </c>
       <c r="C15" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>13</v>
+        <v>441</v>
       </c>
       <c r="J15" s="3" t="s">
         <v>69</v>
       </c>
       <c r="K15" s="6" t="s">
-        <v>209</v>
+        <v>447</v>
       </c>
       <c r="M15" t="s">
         <v>87</v>
       </c>
       <c r="N15" t="s">
-        <v>381</v>
+        <v>449</v>
       </c>
       <c r="O15" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>405</v>
+        <v>208</v>
       </c>
       <c r="B16" t="s">
-        <v>434</v>
+        <v>481</v>
       </c>
       <c r="C16" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>13</v>
+        <v>442</v>
       </c>
       <c r="J16" s="3" t="s">
         <v>70</v>
       </c>
       <c r="K16" s="6" t="s">
-        <v>210</v>
+        <v>13</v>
       </c>
       <c r="M16" t="s">
         <v>87</v>
       </c>
       <c r="N16" t="s">
-        <v>382</v>
+        <v>44</v>
       </c>
       <c r="O16" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>405</v>
+        <v>208</v>
       </c>
       <c r="B17" t="s">
-        <v>387</v>
+        <v>482</v>
       </c>
       <c r="C17" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>13</v>
+        <v>443</v>
       </c>
       <c r="J17" s="3" t="s">
         <v>71</v>
       </c>
       <c r="K17" s="6" t="s">
-        <v>211</v>
+        <v>13</v>
       </c>
       <c r="M17" t="s">
         <v>87</v>
       </c>
       <c r="N17" t="s">
-        <v>383</v>
+        <v>44</v>
       </c>
       <c r="O17" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>405</v>
+        <v>208</v>
       </c>
       <c r="B18" t="s">
-        <v>436</v>
+        <v>483</v>
       </c>
       <c r="C18" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>13</v>
+        <v>444</v>
       </c>
       <c r="J18" s="3" t="s">
         <v>72</v>
       </c>
       <c r="K18" s="6" t="s">
-        <v>212</v>
+        <v>13</v>
       </c>
       <c r="M18" t="s">
         <v>87</v>
       </c>
       <c r="N18" t="s">
-        <v>384</v>
+        <v>44</v>
       </c>
       <c r="O18" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>405</v>
+        <v>208</v>
       </c>
       <c r="B19" t="s">
-        <v>437</v>
+        <v>371</v>
       </c>
       <c r="C19" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="E19" s="6" t="s">
         <v>13</v>
@@ -8187,30 +8610,30 @@
         <v>73</v>
       </c>
       <c r="K19" s="6" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M19" t="s">
         <v>87</v>
       </c>
       <c r="N19" t="s">
-        <v>385</v>
+        <v>44</v>
       </c>
       <c r="O19" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>405</v>
+        <v>208</v>
       </c>
       <c r="B20" t="s">
-        <v>438</v>
+        <v>372</v>
       </c>
       <c r="C20" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="E20" s="6" t="s">
         <v>13</v>
@@ -8219,30 +8642,30 @@
         <v>74</v>
       </c>
       <c r="K20" s="6" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="M20" t="s">
         <v>87</v>
       </c>
       <c r="N20" t="s">
-        <v>386</v>
+        <v>44</v>
       </c>
       <c r="O20" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>405</v>
+        <v>208</v>
       </c>
       <c r="B21" t="s">
-        <v>439</v>
+        <v>392</v>
       </c>
       <c r="C21" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="E21" s="6" t="s">
         <v>13</v>
@@ -8257,24 +8680,24 @@
         <v>87</v>
       </c>
       <c r="N21" t="s">
-        <v>387</v>
+        <v>365</v>
       </c>
       <c r="O21" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>405</v>
+        <v>208</v>
       </c>
       <c r="B22" t="s">
-        <v>440</v>
+        <v>393</v>
       </c>
       <c r="C22" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="E22" s="6" t="s">
         <v>13</v>
@@ -8283,33 +8706,33 @@
         <v>76</v>
       </c>
       <c r="K22" s="6" t="s">
-        <v>30</v>
+        <v>446</v>
       </c>
       <c r="M22" t="s">
         <v>87</v>
       </c>
       <c r="N22" t="s">
-        <v>388</v>
+        <v>450</v>
       </c>
       <c r="O22" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>405</v>
+        <v>208</v>
       </c>
       <c r="B23" t="s">
-        <v>443</v>
+        <v>365</v>
       </c>
       <c r="C23" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>13</v>
+        <v>509</v>
       </c>
       <c r="J23" s="3" t="s">
         <v>77</v>
@@ -8321,24 +8744,24 @@
         <v>87</v>
       </c>
       <c r="N23" t="s">
-        <v>389</v>
+        <v>366</v>
       </c>
       <c r="O23" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>405</v>
+        <v>208</v>
       </c>
       <c r="B24" t="s">
-        <v>444</v>
+        <v>394</v>
       </c>
       <c r="C24" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="E24" s="6" t="s">
         <v>13</v>
@@ -8353,24 +8776,24 @@
         <v>87</v>
       </c>
       <c r="N24" t="s">
-        <v>390</v>
+        <v>367</v>
       </c>
       <c r="O24" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>405</v>
+        <v>208</v>
       </c>
       <c r="B25" t="s">
-        <v>445</v>
+        <v>407</v>
       </c>
       <c r="C25" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="E25" s="6" t="s">
         <v>13</v>
@@ -8385,23 +8808,28 @@
         <v>87</v>
       </c>
       <c r="N25" t="s">
-        <v>391</v>
+        <v>368</v>
       </c>
       <c r="O25" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>426</v>
+        <v>208</v>
+      </c>
+      <c r="B26" t="s">
+        <v>408</v>
       </c>
       <c r="C26" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E26" s="6"/>
+        <v>61</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>13</v>
+      </c>
       <c r="J26" s="3" t="s">
         <v>80</v>
       </c>
@@ -8412,78 +8840,124 @@
         <v>87</v>
       </c>
       <c r="N26" t="s">
-        <v>392</v>
+        <v>369</v>
       </c>
       <c r="O26" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>208</v>
+      </c>
+      <c r="B27" t="s">
+        <v>409</v>
+      </c>
+      <c r="C27" t="s">
+        <v>206</v>
+      </c>
       <c r="D27" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E27" s="6"/>
+        <v>62</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>13</v>
+      </c>
       <c r="J27" s="3" t="s">
         <v>81</v>
       </c>
       <c r="K27" s="6" t="s">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="M27" t="s">
         <v>87</v>
       </c>
       <c r="N27" t="s">
-        <v>393</v>
+        <v>44</v>
       </c>
       <c r="O27" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="D28" s="11" t="s">
-        <v>218</v>
+      <c r="A28" t="s">
+        <v>208</v>
+      </c>
+      <c r="B28" t="s">
+        <v>484</v>
+      </c>
+      <c r="C28" t="s">
+        <v>206</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>63</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>203</v>
+        <v>430</v>
       </c>
       <c r="J28" s="3" t="s">
         <v>82</v>
       </c>
       <c r="K28" s="6" t="s">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="M28" t="s">
         <v>87</v>
       </c>
       <c r="N28" t="s">
-        <v>394</v>
+        <v>44</v>
       </c>
       <c r="O28" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D29" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="E29" s="7"/>
+        <v>206</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>208</v>
+      </c>
+      <c r="B29" t="s">
+        <v>485</v>
+      </c>
+      <c r="C29" t="s">
+        <v>206</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>431</v>
+      </c>
       <c r="J29" s="3" t="s">
         <v>83</v>
       </c>
       <c r="K29" s="6" t="s">
-        <v>123</v>
+        <v>13</v>
       </c>
       <c r="M29" t="s">
         <v>87</v>
       </c>
       <c r="N29" t="s">
-        <v>395</v>
+        <v>44</v>
       </c>
       <c r="O29" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>208</v>
+      </c>
+      <c r="B30" t="s">
+        <v>410</v>
+      </c>
+      <c r="C30" t="s">
+        <v>206</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E30" s="6" t="s">
+        <v>13</v>
+      </c>
       <c r="J30" s="3" t="s">
         <v>84</v>
       </c>
@@ -8494,13 +8968,28 @@
         <v>87</v>
       </c>
       <c r="N30" t="s">
-        <v>396</v>
+        <v>44</v>
       </c>
       <c r="O30" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>208</v>
+      </c>
+      <c r="B31" t="s">
+        <v>411</v>
+      </c>
+      <c r="C31" t="s">
+        <v>206</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E31" s="6" t="s">
+        <v>13</v>
+      </c>
       <c r="J31" s="3" t="s">
         <v>85</v>
       </c>
@@ -8511,1662 +9000,1598 @@
         <v>87</v>
       </c>
       <c r="N31" t="s">
-        <v>397</v>
+        <v>44</v>
       </c>
       <c r="O31" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>400</v>
+      </c>
+      <c r="C32" t="s">
+        <v>206</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E32" s="6"/>
       <c r="J32" s="3" t="s">
         <v>1</v>
       </c>
       <c r="K32" s="6"/>
       <c r="M32" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="33" spans="1:15" ht="20" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D33" s="25" t="s">
-        <v>403</v>
-      </c>
+        <v>207</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="D33" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E33" s="6"/>
       <c r="J33" s="3" t="s">
         <v>0</v>
       </c>
       <c r="K33" s="6"/>
+      <c r="N33" t="s">
+        <v>400</v>
+      </c>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>406</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>454</v>
-      </c>
-      <c r="E34" s="5" t="s">
-        <v>200</v>
+      <c r="D34" s="11" t="s">
+        <v>208</v>
+      </c>
+      <c r="E34" s="6" t="s">
+        <v>201</v>
       </c>
       <c r="J34" s="8" t="s">
         <v>87</v>
       </c>
       <c r="K34" s="3" t="s">
-        <v>97</v>
+        <v>486</v>
       </c>
     </row>
     <row r="35" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>405</v>
-      </c>
-      <c r="B35" t="s">
-        <v>407</v>
-      </c>
-      <c r="C35" t="s">
-        <v>214</v>
-      </c>
-      <c r="D35" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="E35" s="6" t="s">
-        <v>3</v>
-      </c>
+      <c r="D35" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E35" s="7"/>
       <c r="J35" s="4" t="s">
         <v>1</v>
       </c>
       <c r="K35" s="7"/>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
-        <v>405</v>
-      </c>
-      <c r="B36" t="s">
-        <v>408</v>
-      </c>
-      <c r="C36" t="s">
-        <v>214</v>
-      </c>
-      <c r="D36" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="E36" s="6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
-        <v>405</v>
-      </c>
-      <c r="B37" t="s">
-        <v>409</v>
-      </c>
-      <c r="C37" t="s">
-        <v>214</v>
-      </c>
-      <c r="D37" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="E37" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
-        <v>405</v>
-      </c>
-      <c r="B38" t="s">
-        <v>410</v>
-      </c>
-      <c r="C38" t="s">
-        <v>214</v>
-      </c>
-      <c r="D38" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="E38" s="6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
-        <v>405</v>
-      </c>
+    <row r="39" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
-        <v>462</v>
-      </c>
-      <c r="C39" t="s">
-        <v>214</v>
-      </c>
-      <c r="D39" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="E39" s="6" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="40" spans="1:15" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+        <v>503</v>
+      </c>
+      <c r="D39" s="23" t="s">
+        <v>378</v>
+      </c>
+      <c r="J39" s="23" t="s">
+        <v>374</v>
+      </c>
+      <c r="N39" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>405</v>
-      </c>
-      <c r="B40" t="s">
-        <v>415</v>
-      </c>
-      <c r="C40" t="s">
-        <v>214</v>
-      </c>
-      <c r="D40" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="E40" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="J40" s="24" t="s">
-        <v>399</v>
+        <v>380</v>
+      </c>
+      <c r="D40" s="28" t="s">
+        <v>423</v>
+      </c>
+      <c r="E40" s="28" t="s">
+        <v>511</v>
+      </c>
+      <c r="J40" s="28" t="s">
+        <v>460</v>
+      </c>
+      <c r="K40" s="28" t="s">
+        <v>468</v>
+      </c>
+      <c r="M40" t="s">
+        <v>490</v>
       </c>
     </row>
     <row r="41" spans="1:15" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>405</v>
+        <v>208</v>
       </c>
       <c r="B41" t="s">
-        <v>396</v>
+        <v>514</v>
       </c>
       <c r="C41" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>52</v>
+        <v>189</v>
       </c>
       <c r="E41" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="J41" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="K41" s="13" t="s">
-        <v>93</v>
+        <v>434</v>
+      </c>
+      <c r="J41" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="K41" s="6" t="s">
+        <v>451</v>
       </c>
       <c r="M41" t="s">
-        <v>351</v>
+        <v>87</v>
+      </c>
+      <c r="N41" t="s">
+        <v>473</v>
+      </c>
+      <c r="O41" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>405</v>
+        <v>208</v>
       </c>
       <c r="B42" t="s">
-        <v>397</v>
+        <v>515</v>
       </c>
       <c r="C42" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="E42" s="6" t="s">
-        <v>8</v>
+        <v>435</v>
       </c>
       <c r="J42" s="3" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="K42" s="6" t="s">
-        <v>35</v>
+        <v>452</v>
       </c>
       <c r="M42" t="s">
-        <v>218</v>
+        <v>87</v>
       </c>
       <c r="N42" t="s">
-        <v>357</v>
+        <v>474</v>
       </c>
       <c r="O42" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>405</v>
+        <v>208</v>
       </c>
       <c r="B43" t="s">
-        <v>411</v>
+        <v>516</v>
       </c>
       <c r="C43" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="E43" s="6" t="s">
-        <v>202</v>
+        <v>436</v>
       </c>
       <c r="J43" s="3" t="s">
-        <v>88</v>
+        <v>67</v>
       </c>
       <c r="K43" s="6" t="s">
-        <v>36</v>
+        <v>453</v>
       </c>
       <c r="M43" t="s">
-        <v>218</v>
+        <v>87</v>
       </c>
       <c r="N43" t="s">
-        <v>358</v>
+        <v>475</v>
       </c>
       <c r="O43" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>405</v>
+        <v>208</v>
       </c>
       <c r="B44" t="s">
-        <v>412</v>
+        <v>517</v>
       </c>
       <c r="C44" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="E44" s="6" t="s">
-        <v>9</v>
+        <v>437</v>
       </c>
       <c r="J44" s="3" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K44" s="6" t="s">
-        <v>37</v>
+        <v>454</v>
       </c>
       <c r="M44" t="s">
-        <v>218</v>
+        <v>87</v>
       </c>
       <c r="N44" t="s">
-        <v>359</v>
+        <v>476</v>
       </c>
       <c r="O44" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>405</v>
+        <v>208</v>
       </c>
       <c r="B45" t="s">
-        <v>413</v>
+        <v>370</v>
       </c>
       <c r="C45" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="E45" s="6" t="s">
-        <v>10</v>
+        <v>438</v>
       </c>
       <c r="J45" s="3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K45" s="6" t="s">
-        <v>41</v>
+        <v>455</v>
       </c>
       <c r="M45" t="s">
-        <v>218</v>
+        <v>87</v>
       </c>
       <c r="N45" t="s">
-        <v>360</v>
+        <v>370</v>
       </c>
       <c r="O45" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>405</v>
+        <v>208</v>
       </c>
       <c r="B46" t="s">
-        <v>414</v>
+        <v>513</v>
       </c>
       <c r="C46" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="E46" s="6" t="s">
-        <v>11</v>
+        <v>439</v>
       </c>
       <c r="J46" s="3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="K46" s="6" t="s">
-        <v>38</v>
+        <v>456</v>
       </c>
       <c r="M46" t="s">
-        <v>218</v>
+        <v>87</v>
       </c>
       <c r="N46" t="s">
-        <v>361</v>
+        <v>477</v>
       </c>
       <c r="O46" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>405</v>
+        <v>208</v>
       </c>
       <c r="B47" t="s">
-        <v>387</v>
+        <v>478</v>
       </c>
       <c r="C47" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="E47" s="6" t="s">
-        <v>12</v>
+        <v>440</v>
       </c>
       <c r="J47" s="3" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K47" s="6" t="s">
-        <v>39</v>
+        <v>457</v>
       </c>
       <c r="M47" t="s">
-        <v>218</v>
+        <v>87</v>
       </c>
       <c r="N47" t="s">
-        <v>362</v>
+        <v>478</v>
       </c>
       <c r="O47" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>405</v>
+        <v>208</v>
       </c>
       <c r="B48" t="s">
-        <v>418</v>
+        <v>371</v>
       </c>
       <c r="C48" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="E48" s="6" t="s">
         <v>13</v>
       </c>
       <c r="J48" s="3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K48" s="6" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="M48" t="s">
-        <v>218</v>
+        <v>87</v>
       </c>
       <c r="N48" t="s">
-        <v>363</v>
+        <v>215</v>
       </c>
       <c r="O48" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>405</v>
+        <v>208</v>
       </c>
       <c r="B49" t="s">
-        <v>419</v>
+        <v>372</v>
       </c>
       <c r="C49" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="E49" s="6" t="s">
         <v>13</v>
       </c>
       <c r="J49" s="3" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K49" s="6" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="M49" t="s">
-        <v>218</v>
+        <v>87</v>
       </c>
       <c r="N49" t="s">
-        <v>364</v>
+        <v>216</v>
       </c>
       <c r="O49" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>405</v>
+        <v>208</v>
       </c>
       <c r="B50" t="s">
-        <v>420</v>
+        <v>392</v>
       </c>
       <c r="C50" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="E50" s="6" t="s">
         <v>13</v>
       </c>
       <c r="J50" s="3" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="K50" s="6" t="s">
-        <v>100</v>
+        <v>44</v>
       </c>
       <c r="M50" t="s">
-        <v>218</v>
+        <v>87</v>
       </c>
       <c r="N50" t="s">
-        <v>365</v>
+        <v>217</v>
       </c>
       <c r="O50" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>405</v>
+        <v>208</v>
       </c>
       <c r="B51" t="s">
-        <v>421</v>
+        <v>389</v>
       </c>
       <c r="C51" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="E51" s="6" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="J51" s="3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="K51" s="6" t="s">
-        <v>101</v>
+        <v>458</v>
       </c>
       <c r="M51" t="s">
-        <v>218</v>
+        <v>87</v>
       </c>
       <c r="N51" t="s">
-        <v>366</v>
+        <v>432</v>
       </c>
       <c r="O51" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>405</v>
+        <v>208</v>
       </c>
       <c r="B52" t="s">
-        <v>422</v>
+        <v>44</v>
       </c>
       <c r="C52" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="E52" s="6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J52" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="K52" s="6" t="s">
-        <v>102</v>
+        <v>44</v>
       </c>
       <c r="M52" t="s">
-        <v>218</v>
+        <v>87</v>
       </c>
       <c r="N52" t="s">
-        <v>367</v>
+        <v>219</v>
       </c>
       <c r="O52" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>405</v>
+        <v>208</v>
       </c>
       <c r="B53" t="s">
-        <v>423</v>
+        <v>365</v>
       </c>
       <c r="C53" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="E53" s="6" t="s">
-        <v>16</v>
+        <v>520</v>
       </c>
       <c r="J53" s="3" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K53" s="6" t="s">
-        <v>103</v>
+        <v>29</v>
       </c>
       <c r="M53" t="s">
-        <v>218</v>
+        <v>87</v>
       </c>
       <c r="N53" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="O53" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>405</v>
+        <v>208</v>
       </c>
       <c r="B54" t="s">
-        <v>424</v>
+        <v>393</v>
       </c>
       <c r="C54" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="E54" s="6" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="J54" s="3" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K54" s="6" t="s">
-        <v>104</v>
+        <v>44</v>
       </c>
       <c r="M54" t="s">
-        <v>218</v>
+        <v>87</v>
       </c>
       <c r="N54" t="s">
-        <v>369</v>
+        <v>221</v>
       </c>
       <c r="O54" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>405</v>
+        <v>208</v>
       </c>
       <c r="B55" t="s">
-        <v>425</v>
+        <v>394</v>
       </c>
       <c r="C55" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="E55" s="6" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="J55" s="3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="K55" s="6" t="s">
-        <v>107</v>
+        <v>44</v>
       </c>
       <c r="M55" t="s">
-        <v>218</v>
+        <v>87</v>
       </c>
       <c r="N55" t="s">
-        <v>370</v>
+        <v>222</v>
       </c>
       <c r="O55" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>426</v>
+        <v>208</v>
+      </c>
+      <c r="B56" t="s">
+        <v>407</v>
       </c>
       <c r="C56" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="D56" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="E56" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="J56" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="K56" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="M56" t="s">
+        <v>87</v>
+      </c>
+      <c r="N56" t="s">
+        <v>223</v>
+      </c>
+      <c r="O56" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>208</v>
+      </c>
+      <c r="B57" t="s">
+        <v>408</v>
+      </c>
+      <c r="C57" t="s">
+        <v>206</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E57" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="J57" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="K57" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="M57" t="s">
+        <v>87</v>
+      </c>
+      <c r="N57" t="s">
+        <v>224</v>
+      </c>
+      <c r="O57" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>208</v>
+      </c>
+      <c r="B58" t="s">
+        <v>409</v>
+      </c>
+      <c r="C58" t="s">
+        <v>206</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="E58" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="J58" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="K58" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="M58" t="s">
+        <v>87</v>
+      </c>
+      <c r="N58" t="s">
+        <v>225</v>
+      </c>
+      <c r="O58" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>208</v>
+      </c>
+      <c r="B59" t="s">
+        <v>410</v>
+      </c>
+      <c r="C59" t="s">
+        <v>206</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E59" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="J59" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="K59" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="M59" t="s">
+        <v>87</v>
+      </c>
+      <c r="N59" t="s">
+        <v>226</v>
+      </c>
+      <c r="O59" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>208</v>
+      </c>
+      <c r="B60" t="s">
+        <v>411</v>
+      </c>
+      <c r="C60" t="s">
+        <v>206</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E60" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="J60" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="K60" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="M60" t="s">
+        <v>87</v>
+      </c>
+      <c r="N60" t="s">
+        <v>227</v>
+      </c>
+      <c r="O60" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>208</v>
+      </c>
+      <c r="B61" t="s">
+        <v>399</v>
+      </c>
+      <c r="C61" t="s">
+        <v>206</v>
+      </c>
+      <c r="D61" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E61" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="J61" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="K61" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="M61" t="s">
+        <v>87</v>
+      </c>
+      <c r="N61" t="s">
+        <v>228</v>
+      </c>
+      <c r="O61" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>400</v>
+      </c>
+      <c r="C62" t="s">
+        <v>206</v>
+      </c>
+      <c r="D62" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E56" s="6"/>
-      <c r="J56" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="K56" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="M56" t="s">
-        <v>218</v>
-      </c>
-      <c r="N56" t="s">
-        <v>371</v>
-      </c>
-      <c r="O56" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="D57" s="3" t="s">
+      <c r="E62" s="6"/>
+      <c r="J62" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="K62" s="6"/>
+      <c r="M62" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="D63" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="E57" s="6"/>
-      <c r="J57" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="K57" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="M57" t="s">
-        <v>218</v>
-      </c>
-      <c r="N57" t="s">
-        <v>372</v>
-      </c>
-      <c r="O57" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="D58" s="11" t="s">
-        <v>218</v>
-      </c>
-      <c r="E58" s="6" t="s">
-        <v>204</v>
-      </c>
-      <c r="J58" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="K58" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="M58" t="s">
-        <v>218</v>
-      </c>
-      <c r="N58" t="s">
-        <v>373</v>
-      </c>
-      <c r="O58" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="59" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D59" s="4" t="s">
+      <c r="E63" s="6"/>
+      <c r="J63" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="K63" s="6"/>
+    </row>
+    <row r="64" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="D64" s="11" t="s">
+        <v>208</v>
+      </c>
+      <c r="E64" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="J64" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="K64" s="3" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="65" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D65" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E59" s="7"/>
-      <c r="J59" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="K59" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="M59" t="s">
-        <v>218</v>
-      </c>
-      <c r="N59" t="s">
-        <v>374</v>
-      </c>
-      <c r="O59" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="J60" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="K60" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="M60" t="s">
-        <v>218</v>
-      </c>
-      <c r="N60" t="s">
+      <c r="E65" s="7"/>
+      <c r="J65" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="K65" s="7"/>
+    </row>
+    <row r="71" spans="1:15" ht="19" x14ac:dyDescent="0.25">
+      <c r="B71" s="29" t="s">
+        <v>504</v>
+      </c>
+      <c r="D71" s="23" t="s">
+        <v>379</v>
+      </c>
+      <c r="J71" s="23" t="s">
         <v>375</v>
       </c>
-      <c r="O60" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="J61" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="K61" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="M61" t="s">
-        <v>218</v>
-      </c>
-      <c r="N61" t="s">
-        <v>376</v>
-      </c>
-      <c r="O61" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="J62" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="K62" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="M62" t="s">
-        <v>218</v>
-      </c>
-      <c r="N62" t="s">
-        <v>44</v>
-      </c>
-      <c r="O62" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="J63" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="K63" s="6"/>
-      <c r="M63" t="s">
-        <v>216</v>
-      </c>
-      <c r="O63" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="J64" s="3"/>
-      <c r="K64" s="6"/>
-    </row>
-    <row r="65" spans="1:15" ht="20" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D65" s="25" t="s">
-        <v>404</v>
-      </c>
-      <c r="J65" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="K65" s="6"/>
-    </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A66" t="s">
-        <v>448</v>
-      </c>
-      <c r="D66" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="E66" s="5" t="s">
-        <v>452</v>
-      </c>
-      <c r="J66" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="K66" s="3" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="67" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
-        <v>405</v>
-      </c>
-      <c r="B67" t="s">
-        <v>427</v>
-      </c>
-      <c r="C67" t="s">
-        <v>214</v>
-      </c>
-      <c r="D67" s="3" t="s">
+      <c r="N71" s="29" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="72" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>419</v>
+      </c>
+      <c r="D72" s="28" t="s">
+        <v>459</v>
+      </c>
+      <c r="E72" s="28" t="s">
+        <v>512</v>
+      </c>
+      <c r="J72" s="28" t="s">
+        <v>518</v>
+      </c>
+      <c r="K72" s="28" t="s">
+        <v>469</v>
+      </c>
+      <c r="M72" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="73" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>208</v>
+      </c>
+      <c r="B73" t="s">
+        <v>401</v>
+      </c>
+      <c r="C73" t="s">
+        <v>206</v>
+      </c>
+      <c r="D73" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="E67" s="6" t="s">
+      <c r="E73" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="J67" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="K67" s="7"/>
-    </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A68" t="s">
-        <v>405</v>
-      </c>
-      <c r="B68" t="s">
-        <v>428</v>
-      </c>
-      <c r="C68" t="s">
-        <v>214</v>
-      </c>
-      <c r="D68" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="E68" s="6" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A69" t="s">
-        <v>405</v>
-      </c>
-      <c r="B69" t="s">
-        <v>429</v>
-      </c>
-      <c r="C69" t="s">
-        <v>214</v>
-      </c>
-      <c r="D69" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="E69" s="6" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A70" t="s">
-        <v>405</v>
-      </c>
-      <c r="B70" t="s">
-        <v>430</v>
-      </c>
-      <c r="C70" t="s">
-        <v>214</v>
-      </c>
-      <c r="D70" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="E70" s="6" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A71" t="s">
-        <v>405</v>
-      </c>
-      <c r="B71" t="s">
-        <v>396</v>
-      </c>
-      <c r="C71" t="s">
-        <v>214</v>
-      </c>
-      <c r="D71" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="E71" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="72" spans="1:15" ht="20" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A72" t="s">
-        <v>405</v>
-      </c>
-      <c r="B72" t="s">
-        <v>397</v>
-      </c>
-      <c r="C72" t="s">
-        <v>214</v>
-      </c>
-      <c r="D72" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="E72" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="J72" s="24" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="73" spans="1:15" ht="34" x14ac:dyDescent="0.2">
-      <c r="A73" t="s">
-        <v>405</v>
-      </c>
-      <c r="B73" t="s">
-        <v>418</v>
-      </c>
-      <c r="C73" t="s">
-        <v>214</v>
-      </c>
-      <c r="D73" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="E73" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="J73" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="K73" s="13" t="s">
-        <v>94</v>
+      <c r="J73" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="K73" s="6" t="s">
+        <v>113</v>
       </c>
       <c r="M73" t="s">
-        <v>217</v>
+        <v>87</v>
+      </c>
+      <c r="N73" t="s">
+        <v>505</v>
+      </c>
+      <c r="O73" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="74" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>405</v>
+        <v>208</v>
       </c>
       <c r="B74" t="s">
-        <v>419</v>
+        <v>402</v>
       </c>
       <c r="C74" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="E74" s="6" t="s">
-        <v>8</v>
+        <v>108</v>
       </c>
       <c r="J74" s="3" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="K74" s="6" t="s">
-        <v>206</v>
+        <v>114</v>
       </c>
       <c r="M74" t="s">
-        <v>218</v>
+        <v>87</v>
       </c>
       <c r="N74" t="s">
-        <v>239</v>
+        <v>506</v>
       </c>
       <c r="O74" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
     </row>
     <row r="75" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>405</v>
+        <v>208</v>
       </c>
       <c r="B75" t="s">
-        <v>420</v>
+        <v>403</v>
       </c>
       <c r="C75" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="E75" s="6" t="s">
-        <v>8</v>
+        <v>110</v>
       </c>
       <c r="J75" s="3" t="s">
-        <v>88</v>
+        <v>67</v>
       </c>
       <c r="K75" s="6" t="s">
-        <v>44</v>
+        <v>115</v>
       </c>
       <c r="M75" t="s">
-        <v>218</v>
+        <v>87</v>
       </c>
       <c r="N75" t="s">
-        <v>219</v>
+        <v>507</v>
       </c>
       <c r="O75" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
     </row>
     <row r="76" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>405</v>
+        <v>208</v>
       </c>
       <c r="B76" t="s">
-        <v>433</v>
+        <v>404</v>
       </c>
       <c r="C76" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="E76" s="6" t="s">
-        <v>8</v>
+        <v>111</v>
       </c>
       <c r="J76" s="3" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K76" s="6" t="s">
-        <v>44</v>
+        <v>116</v>
       </c>
       <c r="M76" t="s">
-        <v>218</v>
+        <v>87</v>
       </c>
       <c r="N76" t="s">
-        <v>220</v>
+        <v>508</v>
       </c>
       <c r="O76" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
     </row>
     <row r="77" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>405</v>
+        <v>208</v>
       </c>
       <c r="B77" t="s">
-        <v>434</v>
+        <v>371</v>
       </c>
       <c r="C77" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="E77" s="6" t="s">
         <v>8</v>
       </c>
       <c r="J77" s="3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K77" s="6" t="s">
         <v>44</v>
       </c>
       <c r="M77" t="s">
-        <v>218</v>
+        <v>87</v>
       </c>
       <c r="N77" t="s">
-        <v>221</v>
+        <v>212</v>
       </c>
       <c r="O77" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
     </row>
     <row r="78" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>405</v>
+        <v>208</v>
       </c>
       <c r="B78" t="s">
-        <v>435</v>
+        <v>372</v>
       </c>
       <c r="C78" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="D78" s="3" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="E78" s="6" t="s">
         <v>8</v>
       </c>
       <c r="J78" s="3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="K78" s="6" t="s">
         <v>44</v>
       </c>
       <c r="M78" t="s">
-        <v>218</v>
+        <v>87</v>
       </c>
       <c r="N78" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
       <c r="O78" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
     </row>
     <row r="79" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>405</v>
+        <v>208</v>
       </c>
       <c r="B79" t="s">
-        <v>387</v>
+        <v>392</v>
       </c>
       <c r="C79" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="D79" s="3" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="E79" s="6" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="J79" s="3" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K79" s="6" t="s">
         <v>44</v>
       </c>
       <c r="M79" t="s">
-        <v>218</v>
+        <v>87</v>
       </c>
       <c r="N79" t="s">
-        <v>223</v>
+        <v>214</v>
       </c>
       <c r="O79" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
     </row>
     <row r="80" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>405</v>
+        <v>208</v>
       </c>
       <c r="B80" t="s">
-        <v>436</v>
+        <v>393</v>
       </c>
       <c r="C80" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="D80" s="3" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="E80" s="6" t="s">
         <v>8</v>
       </c>
       <c r="J80" s="3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K80" s="6" t="s">
         <v>44</v>
       </c>
       <c r="M80" t="s">
-        <v>218</v>
+        <v>87</v>
       </c>
       <c r="N80" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
       <c r="O80" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
     </row>
     <row r="81" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>405</v>
+        <v>208</v>
       </c>
       <c r="B81" t="s">
-        <v>437</v>
+        <v>394</v>
       </c>
       <c r="C81" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="D81" s="3" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="E81" s="6" t="s">
         <v>8</v>
       </c>
       <c r="J81" s="3" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K81" s="6" t="s">
         <v>44</v>
       </c>
       <c r="M81" t="s">
-        <v>218</v>
+        <v>87</v>
       </c>
       <c r="N81" t="s">
-        <v>225</v>
+        <v>216</v>
       </c>
       <c r="O81" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
     </row>
     <row r="82" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>405</v>
+        <v>208</v>
       </c>
       <c r="B82" t="s">
-        <v>438</v>
+        <v>407</v>
       </c>
       <c r="C82" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="D82" s="3" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="E82" s="6" t="s">
         <v>8</v>
       </c>
       <c r="J82" s="3" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="K82" s="6" t="s">
         <v>44</v>
       </c>
       <c r="M82" t="s">
-        <v>218</v>
+        <v>87</v>
       </c>
       <c r="N82" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="O82" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
     </row>
     <row r="83" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>405</v>
+        <v>208</v>
       </c>
       <c r="B83" t="s">
-        <v>439</v>
+        <v>408</v>
       </c>
       <c r="C83" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="D83" s="3" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="E83" s="6" t="s">
         <v>8</v>
       </c>
       <c r="J83" s="3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="K83" s="6" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="M83" t="s">
-        <v>218</v>
+        <v>87</v>
       </c>
       <c r="N83" t="s">
-        <v>227</v>
+        <v>509</v>
       </c>
       <c r="O83" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
     </row>
     <row r="84" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>405</v>
+        <v>208</v>
       </c>
       <c r="B84" t="s">
-        <v>431</v>
+        <v>409</v>
       </c>
       <c r="C84" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="D84" s="3" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="E84" s="6" t="s">
-        <v>450</v>
+        <v>8</v>
       </c>
       <c r="J84" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="K84" s="6" t="s">
         <v>44</v>
       </c>
       <c r="M84" t="s">
-        <v>218</v>
+        <v>87</v>
       </c>
       <c r="N84" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
       <c r="O84" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
     </row>
     <row r="85" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>405</v>
+        <v>208</v>
       </c>
       <c r="B85" t="s">
-        <v>432</v>
+        <v>365</v>
       </c>
       <c r="C85" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="D85" s="3" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="E85" s="6" t="s">
-        <v>451</v>
+        <v>520</v>
       </c>
       <c r="J85" s="3" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K85" s="6" t="s">
         <v>44</v>
       </c>
       <c r="M85" t="s">
-        <v>218</v>
+        <v>87</v>
       </c>
       <c r="N85" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
       <c r="O85" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
     </row>
     <row r="86" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>405</v>
+        <v>208</v>
       </c>
       <c r="B86" t="s">
-        <v>440</v>
+        <v>410</v>
       </c>
       <c r="C86" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="D86" s="3" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="E86" s="6" t="s">
         <v>8</v>
       </c>
       <c r="J86" s="3" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K86" s="6" t="s">
         <v>44</v>
       </c>
       <c r="M86" t="s">
-        <v>218</v>
+        <v>87</v>
       </c>
       <c r="N86" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
       <c r="O86" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
     </row>
     <row r="87" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>405</v>
+        <v>208</v>
       </c>
       <c r="B87" t="s">
-        <v>385</v>
+        <v>411</v>
       </c>
       <c r="C87" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="D87" s="3" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="E87" s="6" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="J87" s="3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="K87" s="6" t="s">
         <v>44</v>
       </c>
       <c r="M87" t="s">
-        <v>218</v>
+        <v>87</v>
       </c>
       <c r="N87" t="s">
-        <v>231</v>
+        <v>222</v>
       </c>
       <c r="O87" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
     </row>
     <row r="88" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>426</v>
+        <v>208</v>
+      </c>
+      <c r="B88" t="s">
+        <v>412</v>
       </c>
       <c r="C88" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="D88" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E88" s="6"/>
+        <v>61</v>
+      </c>
+      <c r="E88" s="6" t="s">
+        <v>8</v>
+      </c>
       <c r="J88" s="3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K88" s="6" t="s">
         <v>44</v>
       </c>
       <c r="M88" t="s">
-        <v>218</v>
+        <v>87</v>
       </c>
       <c r="N88" t="s">
-        <v>232</v>
+        <v>223</v>
       </c>
       <c r="O88" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
     </row>
     <row r="89" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>208</v>
+      </c>
+      <c r="B89" t="s">
+        <v>413</v>
+      </c>
+      <c r="C89" t="s">
+        <v>206</v>
+      </c>
       <c r="D89" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E89" s="6"/>
+        <v>62</v>
+      </c>
+      <c r="E89" s="6" t="s">
+        <v>8</v>
+      </c>
       <c r="J89" s="3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K89" s="6" t="s">
         <v>44</v>
       </c>
       <c r="M89" t="s">
-        <v>218</v>
+        <v>87</v>
       </c>
       <c r="N89" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
       <c r="O89" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
     </row>
     <row r="90" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="D90" s="10" t="s">
-        <v>218</v>
+      <c r="A90" t="s">
+        <v>208</v>
+      </c>
+      <c r="B90" t="s">
+        <v>405</v>
+      </c>
+      <c r="C90" t="s">
+        <v>206</v>
+      </c>
+      <c r="D90" s="3" t="s">
+        <v>63</v>
       </c>
       <c r="E90" s="6" t="s">
-        <v>193</v>
+        <v>420</v>
       </c>
       <c r="J90" s="3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K90" s="6" t="s">
         <v>44</v>
       </c>
       <c r="M90" t="s">
-        <v>218</v>
+        <v>87</v>
       </c>
       <c r="N90" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
       <c r="O90" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="91" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D91" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="E91" s="7"/>
+        <v>206</v>
+      </c>
+    </row>
+    <row r="91" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>208</v>
+      </c>
+      <c r="B91" t="s">
+        <v>406</v>
+      </c>
+      <c r="C91" t="s">
+        <v>206</v>
+      </c>
+      <c r="D91" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E91" s="6" t="s">
+        <v>421</v>
+      </c>
       <c r="J91" s="3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K91" s="6" t="s">
         <v>44</v>
       </c>
       <c r="M91" t="s">
-        <v>218</v>
+        <v>87</v>
       </c>
       <c r="N91" t="s">
-        <v>235</v>
+        <v>226</v>
       </c>
       <c r="O91" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
     </row>
     <row r="92" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>208</v>
+      </c>
+      <c r="B92" t="s">
+        <v>414</v>
+      </c>
+      <c r="C92" t="s">
+        <v>206</v>
+      </c>
+      <c r="D92" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E92" s="6" t="s">
+        <v>8</v>
+      </c>
       <c r="J92" s="3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K92" s="6" t="s">
         <v>44</v>
       </c>
       <c r="M92" t="s">
-        <v>218</v>
+        <v>87</v>
       </c>
       <c r="N92" t="s">
-        <v>236</v>
+        <v>227</v>
       </c>
       <c r="O92" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
     </row>
     <row r="93" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>208</v>
+      </c>
+      <c r="B93" t="s">
+        <v>364</v>
+      </c>
+      <c r="C93" t="s">
+        <v>206</v>
+      </c>
+      <c r="D93" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E93" s="6" t="s">
+        <v>18</v>
+      </c>
       <c r="J93" s="3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K93" s="6" t="s">
         <v>44</v>
       </c>
       <c r="M93" t="s">
-        <v>218</v>
+        <v>87</v>
       </c>
       <c r="N93" t="s">
-        <v>237</v>
+        <v>228</v>
       </c>
       <c r="O93" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
     </row>
     <row r="94" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="B94" s="12" t="s">
-        <v>188</v>
-      </c>
-      <c r="C94" s="12">
+      <c r="A94" t="s">
+        <v>400</v>
+      </c>
+      <c r="C94" t="s">
+        <v>206</v>
+      </c>
+      <c r="D94" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E94" s="6"/>
+      <c r="J94" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="K94" s="6"/>
+      <c r="M94" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="95" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="D95" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D94" s="12" t="s">
-        <v>138</v>
-      </c>
-      <c r="E94" s="12" t="s">
-        <v>187</v>
-      </c>
-      <c r="J94" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="K94" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="M94" t="s">
-        <v>218</v>
-      </c>
-      <c r="N94" t="s">
-        <v>238</v>
-      </c>
-      <c r="O94" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="B95" s="12" t="s">
-        <v>169</v>
-      </c>
-      <c r="C95" s="12">
+      <c r="E95" s="6"/>
+      <c r="J95" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="K95" s="6"/>
+    </row>
+    <row r="96" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="D96" s="10" t="s">
+        <v>208</v>
+      </c>
+      <c r="E96" s="6" t="s">
+        <v>489</v>
+      </c>
+      <c r="J96" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="K96" s="3" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="97" spans="2:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D97" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E97" s="7"/>
+      <c r="J97" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D95" s="12" t="s">
-        <v>139</v>
-      </c>
-      <c r="E95" s="12" t="s">
-        <v>126</v>
-      </c>
-      <c r="J95" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="K95" s="6" t="s">
-        <v>208</v>
-      </c>
-      <c r="M95" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="B96" s="12" t="s">
-        <v>169</v>
-      </c>
-      <c r="C96" s="12">
-        <v>2</v>
-      </c>
-      <c r="D96" s="12" t="s">
-        <v>140</v>
-      </c>
-      <c r="E96" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="J96" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="K96" s="6"/>
-    </row>
-    <row r="97" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B97" s="12" t="s">
-        <v>169</v>
-      </c>
-      <c r="C97" s="12">
-        <v>3</v>
-      </c>
-      <c r="D97" s="12" t="s">
-        <v>141</v>
-      </c>
-      <c r="E97" s="12" t="s">
-        <v>128</v>
-      </c>
-      <c r="J97" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="K97" s="6"/>
-    </row>
-    <row r="98" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B98" s="12" t="s">
-        <v>169</v>
-      </c>
-      <c r="C98" s="12">
-        <v>4</v>
-      </c>
-      <c r="D98" s="12" t="s">
-        <v>142</v>
-      </c>
-      <c r="E98" s="12" t="s">
-        <v>137</v>
-      </c>
-      <c r="J98" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="K98" s="3" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="99" spans="2:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B99" s="12" t="s">
-        <v>169</v>
-      </c>
-      <c r="C99" s="12">
-        <v>5</v>
-      </c>
-      <c r="D99" s="12" t="s">
-        <v>143</v>
-      </c>
-      <c r="E99" s="12" t="s">
-        <v>183</v>
-      </c>
-      <c r="J99" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="K99" s="7"/>
+      <c r="K97" s="7"/>
     </row>
     <row r="100" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B100" s="12" t="s">
-        <v>169</v>
+        <v>188</v>
       </c>
       <c r="C100" s="12">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D100" s="12" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="E100" s="12" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
     </row>
     <row r="101" spans="2:15" x14ac:dyDescent="0.2">
@@ -10174,13 +10599,13 @@
         <v>169</v>
       </c>
       <c r="C101" s="12">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D101" s="12" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="E101" s="12" t="s">
-        <v>185</v>
+        <v>126</v>
       </c>
     </row>
     <row r="102" spans="2:15" x14ac:dyDescent="0.2">
@@ -10188,13 +10613,13 @@
         <v>169</v>
       </c>
       <c r="C102" s="12">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D102" s="12" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="E102" s="12" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
     </row>
     <row r="103" spans="2:15" x14ac:dyDescent="0.2">
@@ -10202,27 +10627,33 @@
         <v>169</v>
       </c>
       <c r="C103" s="12">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D103" s="12" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="E103" s="12" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="104" spans="2:15" x14ac:dyDescent="0.2">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="104" spans="2:15" ht="19" x14ac:dyDescent="0.25">
       <c r="B104" s="12" t="s">
         <v>169</v>
       </c>
       <c r="C104" s="12">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D104" s="12" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="E104" s="12" t="s">
-        <v>130</v>
+        <v>137</v>
+      </c>
+      <c r="J104" s="22" t="s">
+        <v>376</v>
+      </c>
+      <c r="N104" t="s">
+        <v>500</v>
       </c>
     </row>
     <row r="105" spans="2:15" x14ac:dyDescent="0.2">
@@ -10230,53 +10661,80 @@
         <v>169</v>
       </c>
       <c r="C105" s="12">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D105" s="12" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="E105" s="12" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="106" spans="2:15" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+        <v>183</v>
+      </c>
+      <c r="J105" s="28" t="s">
+        <v>463</v>
+      </c>
+      <c r="K105" s="28" t="s">
+        <v>470</v>
+      </c>
+      <c r="M105" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="106" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B106" s="12" t="s">
         <v>169</v>
       </c>
       <c r="C106" s="12">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D106" s="12" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="E106" s="12" t="s">
-        <v>131</v>
-      </c>
-      <c r="J106" s="25" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="107" spans="2:15" ht="34" x14ac:dyDescent="0.2">
+        <v>184</v>
+      </c>
+      <c r="J106" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="K106" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="M106" t="s">
+        <v>208</v>
+      </c>
+      <c r="N106" t="s">
+        <v>341</v>
+      </c>
+      <c r="O106" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="107" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B107" s="12" t="s">
         <v>169</v>
       </c>
       <c r="C107" s="12">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D107" s="12" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="E107" s="12" t="s">
-        <v>132</v>
-      </c>
-      <c r="J107" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="K107" s="13" t="s">
-        <v>118</v>
+        <v>185</v>
+      </c>
+      <c r="J107" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="K107" s="6" t="s">
+        <v>36</v>
       </c>
       <c r="M107" t="s">
-        <v>352</v>
+        <v>208</v>
+      </c>
+      <c r="N107" t="s">
+        <v>342</v>
+      </c>
+      <c r="O107" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="108" spans="2:15" x14ac:dyDescent="0.2">
@@ -10284,28 +10742,28 @@
         <v>169</v>
       </c>
       <c r="C108" s="12">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="D108" s="12" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="E108" s="12" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="J108" s="3" t="s">
-        <v>86</v>
+        <v>67</v>
       </c>
       <c r="K108" s="6" t="s">
-        <v>113</v>
+        <v>37</v>
       </c>
       <c r="M108" t="s">
-        <v>87</v>
+        <v>208</v>
       </c>
       <c r="N108" t="s">
-        <v>353</v>
+        <v>343</v>
       </c>
       <c r="O108" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
     </row>
     <row r="109" spans="2:15" x14ac:dyDescent="0.2">
@@ -10313,28 +10771,28 @@
         <v>169</v>
       </c>
       <c r="C109" s="12">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D109" s="12" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="E109" s="12" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="J109" s="3" t="s">
-        <v>88</v>
+        <v>68</v>
       </c>
       <c r="K109" s="6" t="s">
-        <v>114</v>
+        <v>41</v>
       </c>
       <c r="M109" t="s">
-        <v>87</v>
+        <v>208</v>
       </c>
       <c r="N109" t="s">
-        <v>354</v>
+        <v>344</v>
       </c>
       <c r="O109" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
     </row>
     <row r="110" spans="2:15" x14ac:dyDescent="0.2">
@@ -10342,28 +10800,28 @@
         <v>169</v>
       </c>
       <c r="C110" s="12">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D110" s="12" t="s">
-        <v>166</v>
+        <v>148</v>
       </c>
       <c r="E110" s="12" t="s">
-        <v>178</v>
+        <v>130</v>
       </c>
       <c r="J110" s="3" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="K110" s="6" t="s">
-        <v>115</v>
+        <v>38</v>
       </c>
       <c r="M110" t="s">
-        <v>87</v>
+        <v>208</v>
       </c>
       <c r="N110" t="s">
-        <v>355</v>
+        <v>345</v>
       </c>
       <c r="O110" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
     </row>
     <row r="111" spans="2:15" x14ac:dyDescent="0.2">
@@ -10371,28 +10829,28 @@
         <v>169</v>
       </c>
       <c r="C111" s="12">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D111" s="12" t="s">
-        <v>167</v>
+        <v>149</v>
       </c>
       <c r="E111" s="12" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="J111" s="3" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="K111" s="6" t="s">
-        <v>116</v>
+        <v>39</v>
       </c>
       <c r="M111" t="s">
-        <v>87</v>
+        <v>208</v>
       </c>
       <c r="N111" t="s">
-        <v>356</v>
+        <v>346</v>
       </c>
       <c r="O111" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
     </row>
     <row r="112" spans="2:15" x14ac:dyDescent="0.2">
@@ -10400,28 +10858,28 @@
         <v>169</v>
       </c>
       <c r="C112" s="12">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D112" s="12" t="s">
-        <v>168</v>
+        <v>150</v>
       </c>
       <c r="E112" s="12" t="s">
-        <v>180</v>
+        <v>131</v>
       </c>
       <c r="J112" s="3" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="K112" s="6" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="M112" t="s">
-        <v>87</v>
+        <v>208</v>
       </c>
       <c r="N112" t="s">
-        <v>222</v>
+        <v>347</v>
       </c>
       <c r="O112" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
     </row>
     <row r="113" spans="2:15" x14ac:dyDescent="0.2">
@@ -10429,28 +10887,28 @@
         <v>169</v>
       </c>
       <c r="C113" s="12">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D113" s="12" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="E113" s="12" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="J113" s="3" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="K113" s="6" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="M113" t="s">
-        <v>87</v>
+        <v>208</v>
       </c>
       <c r="N113" t="s">
-        <v>223</v>
+        <v>348</v>
       </c>
       <c r="O113" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
     </row>
     <row r="114" spans="2:15" x14ac:dyDescent="0.2">
@@ -10458,28 +10916,28 @@
         <v>169</v>
       </c>
       <c r="C114" s="12">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D114" s="12" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="E114" s="12" t="s">
-        <v>182</v>
+        <v>133</v>
       </c>
       <c r="J114" s="3" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="K114" s="6" t="s">
-        <v>44</v>
+        <v>100</v>
       </c>
       <c r="M114" t="s">
-        <v>87</v>
+        <v>208</v>
       </c>
       <c r="N114" t="s">
-        <v>224</v>
+        <v>349</v>
       </c>
       <c r="O114" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
     </row>
     <row r="115" spans="2:15" x14ac:dyDescent="0.2">
@@ -10487,28 +10945,28 @@
         <v>169</v>
       </c>
       <c r="C115" s="12">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D115" s="12" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="E115" s="12" t="s">
-        <v>181</v>
+        <v>134</v>
       </c>
       <c r="J115" s="3" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="K115" s="6" t="s">
-        <v>44</v>
+        <v>101</v>
       </c>
       <c r="M115" t="s">
-        <v>87</v>
+        <v>208</v>
       </c>
       <c r="N115" t="s">
-        <v>225</v>
+        <v>350</v>
       </c>
       <c r="O115" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
     </row>
     <row r="116" spans="2:15" x14ac:dyDescent="0.2">
@@ -10516,28 +10974,28 @@
         <v>169</v>
       </c>
       <c r="C116" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="D116" s="12" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="E116" s="12" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="J116" s="3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="K116" s="6" t="s">
-        <v>44</v>
+        <v>102</v>
       </c>
       <c r="M116" t="s">
-        <v>87</v>
+        <v>208</v>
       </c>
       <c r="N116" t="s">
-        <v>226</v>
+        <v>351</v>
       </c>
       <c r="O116" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
     </row>
     <row r="117" spans="2:15" x14ac:dyDescent="0.2">
@@ -10545,28 +11003,28 @@
         <v>169</v>
       </c>
       <c r="C117" s="12">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="D117" s="12" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="E117" s="12" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="J117" s="3" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="K117" s="6" t="s">
-        <v>44</v>
+        <v>103</v>
       </c>
       <c r="M117" t="s">
-        <v>87</v>
+        <v>208</v>
       </c>
       <c r="N117" t="s">
-        <v>227</v>
+        <v>352</v>
       </c>
       <c r="O117" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
     </row>
     <row r="118" spans="2:15" x14ac:dyDescent="0.2">
@@ -10574,28 +11032,28 @@
         <v>169</v>
       </c>
       <c r="C118" s="12">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D118" s="12" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
       <c r="E118" s="12" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="J118" s="3" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="K118" s="6" t="s">
-        <v>29</v>
+        <v>104</v>
       </c>
       <c r="M118" t="s">
-        <v>87</v>
+        <v>208</v>
       </c>
       <c r="N118" t="s">
-        <v>29</v>
+        <v>353</v>
       </c>
       <c r="O118" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
     </row>
     <row r="119" spans="2:15" x14ac:dyDescent="0.2">
@@ -10603,28 +11061,28 @@
         <v>169</v>
       </c>
       <c r="C119" s="12">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D119" s="12" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="E119" s="12" t="s">
-        <v>177</v>
+        <v>135</v>
       </c>
       <c r="J119" s="3" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="K119" s="6" t="s">
-        <v>44</v>
+        <v>107</v>
       </c>
       <c r="M119" t="s">
-        <v>87</v>
+        <v>208</v>
       </c>
       <c r="N119" t="s">
-        <v>229</v>
+        <v>354</v>
       </c>
       <c r="O119" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
     </row>
     <row r="120" spans="2:15" x14ac:dyDescent="0.2">
@@ -10632,28 +11090,28 @@
         <v>169</v>
       </c>
       <c r="C120" s="12">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="D120" s="12" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="E120" s="12" t="s">
-        <v>170</v>
+        <v>182</v>
       </c>
       <c r="J120" s="3" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="K120" s="6" t="s">
-        <v>44</v>
+        <v>106</v>
       </c>
       <c r="M120" t="s">
-        <v>87</v>
+        <v>208</v>
       </c>
       <c r="N120" t="s">
-        <v>230</v>
+        <v>355</v>
       </c>
       <c r="O120" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
     </row>
     <row r="121" spans="2:15" x14ac:dyDescent="0.2">
@@ -10661,28 +11119,28 @@
         <v>169</v>
       </c>
       <c r="C121" s="12">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D121" s="12" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="E121" s="12" t="s">
-        <v>171</v>
+        <v>181</v>
       </c>
       <c r="J121" s="3" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="K121" s="6" t="s">
-        <v>44</v>
+        <v>105</v>
       </c>
       <c r="M121" t="s">
-        <v>87</v>
+        <v>208</v>
       </c>
       <c r="N121" t="s">
-        <v>231</v>
+        <v>356</v>
       </c>
       <c r="O121" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
     </row>
     <row r="122" spans="2:15" x14ac:dyDescent="0.2">
@@ -10690,28 +11148,28 @@
         <v>169</v>
       </c>
       <c r="C122" s="12">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="D122" s="12" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="E122" s="12" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="J122" s="3" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="K122" s="6" t="s">
-        <v>44</v>
+        <v>124</v>
       </c>
       <c r="M122" t="s">
-        <v>87</v>
+        <v>208</v>
       </c>
       <c r="N122" t="s">
-        <v>232</v>
+        <v>357</v>
       </c>
       <c r="O122" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
     </row>
     <row r="123" spans="2:15" x14ac:dyDescent="0.2">
@@ -10719,28 +11177,28 @@
         <v>169</v>
       </c>
       <c r="C123" s="12">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="D123" s="12" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="E123" s="12" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="J123" s="3" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="K123" s="6" t="s">
-        <v>44</v>
+        <v>125</v>
       </c>
       <c r="M123" t="s">
-        <v>87</v>
+        <v>208</v>
       </c>
       <c r="N123" t="s">
-        <v>233</v>
+        <v>358</v>
       </c>
       <c r="O123" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
     </row>
     <row r="124" spans="2:15" x14ac:dyDescent="0.2">
@@ -10748,130 +11206,584 @@
         <v>169</v>
       </c>
       <c r="C124" s="12">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D124" s="12" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="E124" s="12" t="s">
-        <v>136</v>
+        <v>176</v>
       </c>
       <c r="J124" s="3" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="K124" s="6" t="s">
-        <v>44</v>
+        <v>99</v>
       </c>
       <c r="M124" t="s">
-        <v>87</v>
+        <v>208</v>
       </c>
       <c r="N124" t="s">
-        <v>234</v>
+        <v>359</v>
       </c>
       <c r="O124" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
     </row>
     <row r="125" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B125" s="12" t="s">
+        <v>169</v>
+      </c>
+      <c r="C125" s="12">
+        <v>25</v>
+      </c>
+      <c r="D125" s="12" t="s">
+        <v>160</v>
+      </c>
+      <c r="E125" s="12" t="s">
+        <v>177</v>
+      </c>
       <c r="J125" s="3" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="K125" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M125" t="s">
-        <v>87</v>
+        <v>208</v>
       </c>
       <c r="N125" t="s">
-        <v>235</v>
+        <v>360</v>
       </c>
       <c r="O125" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
     </row>
     <row r="126" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B126" s="12" t="s">
+        <v>169</v>
+      </c>
+      <c r="C126" s="12">
+        <v>26</v>
+      </c>
+      <c r="D126" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="E126" s="12" t="s">
+        <v>170</v>
+      </c>
       <c r="J126" s="3" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="K126" s="6" t="s">
         <v>44</v>
       </c>
       <c r="M126" t="s">
-        <v>87</v>
+        <v>208</v>
       </c>
       <c r="N126" t="s">
-        <v>236</v>
+        <v>44</v>
       </c>
       <c r="O126" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="127" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B127" s="12" t="s">
+        <v>169</v>
+      </c>
+      <c r="C127" s="12">
+        <v>27</v>
+      </c>
+      <c r="D127" s="12" t="s">
+        <v>162</v>
+      </c>
+      <c r="E127" s="12" t="s">
+        <v>171</v>
+      </c>
+      <c r="J127" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="K127" s="6"/>
+      <c r="M127" t="s">
+        <v>207</v>
+      </c>
+      <c r="O127" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="128" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B128" s="12" t="s">
+        <v>169</v>
+      </c>
+      <c r="C128" s="12">
+        <v>28</v>
+      </c>
+      <c r="D128" s="12" t="s">
+        <v>163</v>
+      </c>
+      <c r="E128" s="12" t="s">
+        <v>172</v>
+      </c>
+      <c r="J128" s="3"/>
+      <c r="K128" s="6"/>
+    </row>
+    <row r="129" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B129" s="12" t="s">
+        <v>169</v>
+      </c>
+      <c r="C129" s="12">
+        <v>29</v>
+      </c>
+      <c r="D129" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="E129" s="12" t="s">
+        <v>173</v>
+      </c>
+      <c r="J129" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="K129" s="6"/>
+    </row>
+    <row r="130" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B130" s="12" t="s">
+        <v>169</v>
+      </c>
+      <c r="C130" s="12">
+        <v>30</v>
+      </c>
+      <c r="D130" s="12" t="s">
+        <v>165</v>
+      </c>
+      <c r="E130" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="J130" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="K130" s="3" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="131" spans="2:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="J131" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="K131" s="7"/>
+    </row>
+    <row r="136" spans="2:15" ht="19" x14ac:dyDescent="0.25">
+      <c r="J136" s="22" t="s">
+        <v>433</v>
+      </c>
+      <c r="N136" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="137" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="J137" s="28" t="s">
+        <v>462</v>
+      </c>
+      <c r="K137" s="28" t="s">
+        <v>471</v>
+      </c>
+      <c r="M137" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="138" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="J138" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="K138" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="M138" t="s">
+        <v>208</v>
+      </c>
+      <c r="N138" t="s">
+        <v>229</v>
+      </c>
+      <c r="O138" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="139" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="J139" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="K139" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="M139" t="s">
+        <v>208</v>
+      </c>
+      <c r="N139" t="s">
+        <v>209</v>
+      </c>
+      <c r="O139" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="140" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="J140" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="K140" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="M140" t="s">
+        <v>208</v>
+      </c>
+      <c r="N140" t="s">
+        <v>210</v>
+      </c>
+      <c r="O140" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="141" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="J141" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="K141" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="M141" t="s">
+        <v>208</v>
+      </c>
+      <c r="N141" t="s">
+        <v>211</v>
+      </c>
+      <c r="O141" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="142" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="J142" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="K142" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="M142" t="s">
+        <v>208</v>
+      </c>
+      <c r="N142" t="s">
+        <v>212</v>
+      </c>
+      <c r="O142" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="143" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="J143" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="K143" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="M143" t="s">
+        <v>208</v>
+      </c>
+      <c r="N143" t="s">
+        <v>213</v>
+      </c>
+      <c r="O143" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="144" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="J144" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="K144" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="M144" t="s">
+        <v>208</v>
+      </c>
+      <c r="N144" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="127" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="J127" s="3" t="s">
+      <c r="O144" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="145" spans="10:15" x14ac:dyDescent="0.2">
+      <c r="J145" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="K145" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="M145" t="s">
+        <v>208</v>
+      </c>
+      <c r="N145" t="s">
+        <v>215</v>
+      </c>
+      <c r="O145" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="146" spans="10:15" x14ac:dyDescent="0.2">
+      <c r="J146" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="K146" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="M146" t="s">
+        <v>208</v>
+      </c>
+      <c r="N146" t="s">
+        <v>216</v>
+      </c>
+      <c r="O146" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="147" spans="10:15" x14ac:dyDescent="0.2">
+      <c r="J147" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="K147" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="M147" t="s">
+        <v>208</v>
+      </c>
+      <c r="N147" t="s">
+        <v>217</v>
+      </c>
+      <c r="O147" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="148" spans="10:15" x14ac:dyDescent="0.2">
+      <c r="J148" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="K148" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="M148" t="s">
+        <v>208</v>
+      </c>
+      <c r="N148" t="s">
+        <v>218</v>
+      </c>
+      <c r="O148" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="149" spans="10:15" x14ac:dyDescent="0.2">
+      <c r="J149" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="K149" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="M149" t="s">
+        <v>208</v>
+      </c>
+      <c r="N149" t="s">
+        <v>219</v>
+      </c>
+      <c r="O149" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="150" spans="10:15" x14ac:dyDescent="0.2">
+      <c r="J150" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="K150" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="M150" t="s">
+        <v>208</v>
+      </c>
+      <c r="N150" t="s">
+        <v>220</v>
+      </c>
+      <c r="O150" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="151" spans="10:15" x14ac:dyDescent="0.2">
+      <c r="J151" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="K151" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="M151" t="s">
+        <v>208</v>
+      </c>
+      <c r="N151" t="s">
+        <v>221</v>
+      </c>
+      <c r="O151" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="152" spans="10:15" x14ac:dyDescent="0.2">
+      <c r="J152" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="K152" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="M152" t="s">
+        <v>208</v>
+      </c>
+      <c r="N152" t="s">
+        <v>222</v>
+      </c>
+      <c r="O152" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="153" spans="10:15" x14ac:dyDescent="0.2">
+      <c r="J153" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="K153" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="M153" t="s">
+        <v>208</v>
+      </c>
+      <c r="N153" t="s">
+        <v>223</v>
+      </c>
+      <c r="O153" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="154" spans="10:15" x14ac:dyDescent="0.2">
+      <c r="J154" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="K154" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="M154" t="s">
+        <v>208</v>
+      </c>
+      <c r="N154" t="s">
+        <v>224</v>
+      </c>
+      <c r="O154" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="155" spans="10:15" x14ac:dyDescent="0.2">
+      <c r="J155" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="K155" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="M155" t="s">
+        <v>208</v>
+      </c>
+      <c r="N155" t="s">
+        <v>225</v>
+      </c>
+      <c r="O155" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="156" spans="10:15" x14ac:dyDescent="0.2">
+      <c r="J156" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="K156" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="M156" t="s">
+        <v>208</v>
+      </c>
+      <c r="N156" t="s">
+        <v>226</v>
+      </c>
+      <c r="O156" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="157" spans="10:15" x14ac:dyDescent="0.2">
+      <c r="J157" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="K127" s="6" t="s">
+      <c r="K157" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="M127" t="s">
-        <v>87</v>
-      </c>
-      <c r="N127" t="s">
-        <v>237</v>
-      </c>
-      <c r="O127" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="128" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="J128" s="3" t="s">
+      <c r="M157" t="s">
+        <v>208</v>
+      </c>
+      <c r="N157" t="s">
+        <v>227</v>
+      </c>
+      <c r="O157" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="158" spans="10:15" x14ac:dyDescent="0.2">
+      <c r="J158" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="K128" s="6" t="s">
+      <c r="K158" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="M128" t="s">
-        <v>87</v>
-      </c>
-      <c r="N128" t="s">
-        <v>238</v>
-      </c>
-      <c r="O128" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="129" spans="10:13" x14ac:dyDescent="0.2">
-      <c r="J129" s="3" t="s">
+      <c r="M158" t="s">
+        <v>208</v>
+      </c>
+      <c r="N158" t="s">
+        <v>228</v>
+      </c>
+      <c r="O158" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="159" spans="10:15" x14ac:dyDescent="0.2">
+      <c r="J159" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="K159" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="M159" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="160" spans="10:15" x14ac:dyDescent="0.2">
+      <c r="J160" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="K129" s="6"/>
-      <c r="M129" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="130" spans="10:13" x14ac:dyDescent="0.2">
-      <c r="J130" s="3"/>
-      <c r="K130" s="6"/>
-    </row>
-    <row r="131" spans="10:13" x14ac:dyDescent="0.2">
-      <c r="J131" s="3" t="s">
+      <c r="K160" s="6"/>
+    </row>
+    <row r="161" spans="10:11" x14ac:dyDescent="0.2">
+      <c r="J161" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="K131" s="6"/>
-    </row>
-    <row r="132" spans="10:13" x14ac:dyDescent="0.2">
-      <c r="J132" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="K132" s="3" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="133" spans="10:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="J133" s="4" t="s">
+      <c r="K161" s="6"/>
+    </row>
+    <row r="162" spans="10:11" x14ac:dyDescent="0.2">
+      <c r="J162" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="K162" s="3" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="163" spans="10:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="J163" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="K133" s="7"/>
+      <c r="K163" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -10907,362 +11819,362 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:13" ht="24" x14ac:dyDescent="0.3">
-      <c r="A3" s="14"/>
-      <c r="B3" s="15" t="s">
-        <v>302</v>
-      </c>
-      <c r="C3" s="16" t="s">
-        <v>240</v>
-      </c>
-      <c r="D3" s="16" t="s">
-        <v>241</v>
-      </c>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16" t="s">
-        <v>306</v>
-      </c>
-      <c r="G3" s="16" t="s">
-        <v>242</v>
-      </c>
-      <c r="H3" s="16" t="s">
-        <v>243</v>
-      </c>
-      <c r="I3" s="16" t="s">
-        <v>244</v>
-      </c>
-      <c r="J3" s="16" t="s">
-        <v>245</v>
-      </c>
-      <c r="K3" s="16" t="s">
-        <v>246</v>
-      </c>
-      <c r="L3" s="16" t="s">
-        <v>247</v>
-      </c>
-      <c r="M3" s="16" t="s">
-        <v>248</v>
+      <c r="A3" s="13"/>
+      <c r="B3" s="14" t="s">
+        <v>292</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>230</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>231</v>
+      </c>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15" t="s">
+        <v>296</v>
+      </c>
+      <c r="G3" s="15" t="s">
+        <v>232</v>
+      </c>
+      <c r="H3" s="15" t="s">
+        <v>233</v>
+      </c>
+      <c r="I3" s="15" t="s">
+        <v>234</v>
+      </c>
+      <c r="J3" s="15" t="s">
+        <v>235</v>
+      </c>
+      <c r="K3" s="15" t="s">
+        <v>236</v>
+      </c>
+      <c r="L3" s="15" t="s">
+        <v>237</v>
+      </c>
+      <c r="M3" s="15" t="s">
+        <v>238</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>308</v>
+        <v>298</v>
       </c>
       <c r="B4" t="s">
-        <v>309</v>
+        <v>299</v>
       </c>
       <c r="C4" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="D4" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="E4" t="s">
         <v>1</v>
       </c>
       <c r="F4" t="s">
-        <v>320</v>
+        <v>310</v>
       </c>
       <c r="G4" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="J4" t="s">
-        <v>303</v>
+        <v>293</v>
       </c>
       <c r="L4" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="M4" t="s">
-        <v>253</v>
+        <v>243</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>308</v>
+        <v>298</v>
       </c>
       <c r="B5" t="s">
-        <v>310</v>
+        <v>300</v>
       </c>
       <c r="C5" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="D5" t="s">
-        <v>284</v>
+        <v>274</v>
       </c>
       <c r="E5" t="s">
         <v>1</v>
       </c>
       <c r="G5" t="s">
-        <v>285</v>
+        <v>275</v>
       </c>
       <c r="J5" t="s">
-        <v>254</v>
+        <v>244</v>
       </c>
       <c r="L5" t="s">
-        <v>286</v>
+        <v>276</v>
       </c>
       <c r="M5" t="s">
-        <v>287</v>
+        <v>277</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>308</v>
+        <v>298</v>
       </c>
       <c r="B6" t="s">
-        <v>311</v>
+        <v>301</v>
       </c>
       <c r="C6" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="D6" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
       <c r="E6" t="s">
         <v>1</v>
       </c>
       <c r="G6" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="J6" t="s">
-        <v>257</v>
+        <v>247</v>
       </c>
       <c r="L6" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="M6" t="s">
-        <v>259</v>
+        <v>249</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>308</v>
+        <v>298</v>
       </c>
       <c r="B7" t="s">
-        <v>312</v>
+        <v>302</v>
       </c>
       <c r="C7" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="D7" t="s">
-        <v>288</v>
+        <v>278</v>
       </c>
       <c r="E7" t="s">
         <v>1</v>
       </c>
       <c r="G7" t="s">
-        <v>289</v>
+        <v>279</v>
       </c>
       <c r="J7" t="s">
-        <v>305</v>
+        <v>295</v>
       </c>
       <c r="L7" t="s">
-        <v>304</v>
+        <v>294</v>
       </c>
       <c r="M7" t="s">
-        <v>290</v>
+        <v>280</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>308</v>
+        <v>298</v>
       </c>
       <c r="B8" t="s">
-        <v>314</v>
+        <v>304</v>
       </c>
       <c r="C8" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="D8" t="s">
-        <v>291</v>
+        <v>281</v>
       </c>
       <c r="E8" t="s">
         <v>1</v>
       </c>
       <c r="G8" t="s">
-        <v>292</v>
+        <v>282</v>
       </c>
       <c r="H8" t="s">
-        <v>294</v>
+        <v>284</v>
       </c>
       <c r="J8" t="s">
-        <v>293</v>
+        <v>283</v>
       </c>
       <c r="L8" t="s">
-        <v>295</v>
+        <v>285</v>
       </c>
       <c r="M8" t="s">
-        <v>296</v>
+        <v>286</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>308</v>
+        <v>298</v>
       </c>
       <c r="B9" t="s">
-        <v>313</v>
+        <v>303</v>
       </c>
       <c r="C9" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="D9" t="s">
-        <v>297</v>
+        <v>287</v>
       </c>
       <c r="E9" t="s">
         <v>1</v>
       </c>
       <c r="G9" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
       <c r="H9" t="s">
-        <v>299</v>
+        <v>289</v>
       </c>
       <c r="J9" t="s">
-        <v>293</v>
+        <v>283</v>
       </c>
       <c r="L9" t="s">
-        <v>300</v>
+        <v>290</v>
       </c>
       <c r="M9" t="s">
-        <v>301</v>
+        <v>291</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>308</v>
+        <v>298</v>
       </c>
       <c r="B10" t="s">
-        <v>315</v>
+        <v>305</v>
       </c>
       <c r="C10" t="s">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="D10" t="s">
-        <v>261</v>
+        <v>251</v>
       </c>
       <c r="E10" t="s">
         <v>1</v>
       </c>
       <c r="F10" t="s">
-        <v>307</v>
+        <v>297</v>
       </c>
       <c r="G10" t="s">
-        <v>262</v>
+        <v>252</v>
       </c>
       <c r="H10" t="s">
-        <v>263</v>
+        <v>253</v>
       </c>
       <c r="I10" t="s">
-        <v>267</v>
+        <v>257</v>
       </c>
       <c r="J10" t="s">
-        <v>264</v>
+        <v>254</v>
       </c>
       <c r="L10" t="s">
-        <v>265</v>
+        <v>255</v>
       </c>
       <c r="M10" t="s">
-        <v>266</v>
+        <v>256</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>308</v>
+        <v>298</v>
       </c>
       <c r="B11" t="s">
-        <v>316</v>
+        <v>306</v>
       </c>
       <c r="C11" t="s">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="D11" t="s">
-        <v>268</v>
+        <v>258</v>
       </c>
       <c r="E11" t="s">
         <v>1</v>
       </c>
       <c r="G11" t="s">
-        <v>269</v>
+        <v>259</v>
       </c>
       <c r="H11" t="s">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="L11" t="s">
-        <v>271</v>
+        <v>261</v>
       </c>
       <c r="M11" t="s">
-        <v>272</v>
+        <v>262</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>308</v>
+        <v>298</v>
       </c>
       <c r="B12" t="s">
-        <v>317</v>
+        <v>307</v>
       </c>
       <c r="C12" t="s">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="D12" t="s">
-        <v>273</v>
+        <v>263</v>
       </c>
       <c r="E12" t="s">
         <v>1</v>
       </c>
       <c r="G12" t="s">
-        <v>269</v>
+        <v>259</v>
       </c>
       <c r="H12" t="s">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="L12" t="s">
-        <v>274</v>
+        <v>264</v>
       </c>
       <c r="M12" t="s">
-        <v>275</v>
+        <v>265</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
+        <v>298</v>
+      </c>
+      <c r="B13" t="s">
         <v>308</v>
       </c>
-      <c r="B13" t="s">
-        <v>318</v>
-      </c>
       <c r="C13" t="s">
-        <v>276</v>
+        <v>266</v>
       </c>
       <c r="D13" t="s">
-        <v>277</v>
+        <v>267</v>
       </c>
       <c r="E13" t="s">
         <v>1</v>
       </c>
       <c r="G13" t="s">
-        <v>269</v>
+        <v>259</v>
       </c>
       <c r="H13" t="s">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="L13" t="s">
-        <v>271</v>
+        <v>261</v>
       </c>
       <c r="M13" t="s">
-        <v>278</v>
+        <v>268</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>308</v>
+        <v>298</v>
       </c>
       <c r="B14" t="s">
-        <v>319</v>
+        <v>309</v>
       </c>
       <c r="C14" t="s">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="D14" t="s">
-        <v>279</v>
+        <v>269</v>
       </c>
       <c r="E14" t="s">
         <v>1</v>
@@ -11271,45 +12183,45 @@
         <v>21</v>
       </c>
       <c r="H14" t="s">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="J14" t="s">
-        <v>283</v>
+        <v>273</v>
       </c>
       <c r="L14" t="s">
-        <v>281</v>
+        <v>271</v>
       </c>
       <c r="M14" t="s">
-        <v>282</v>
+        <v>272</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>308</v>
+        <v>298</v>
       </c>
       <c r="B15" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
       <c r="C15" t="s">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="D15" t="s">
-        <v>321</v>
+        <v>311</v>
       </c>
       <c r="E15" t="s">
         <v>1</v>
       </c>
       <c r="G15" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
       <c r="J15" t="s">
-        <v>324</v>
+        <v>314</v>
       </c>
       <c r="L15" t="s">
-        <v>325</v>
+        <v>315</v>
       </c>
       <c r="M15" t="s">
-        <v>326</v>
+        <v>316</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="27" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -11332,7 +12244,7 @@
   <dimension ref="A1:AY33"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+      <selection activeCell="B10" sqref="B10:L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11348,159 +12260,159 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="19" x14ac:dyDescent="0.25">
-      <c r="B1" s="21" t="s">
-        <v>458</v>
+      <c r="B1" s="20" t="s">
+        <v>427</v>
       </c>
     </row>
     <row r="2" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
-        <v>327</v>
+        <v>317</v>
       </c>
       <c r="C2" t="s">
-        <v>328</v>
+        <v>318</v>
       </c>
       <c r="D2" t="s">
-        <v>329</v>
+        <v>319</v>
       </c>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
-        <v>330</v>
+        <v>320</v>
       </c>
       <c r="C3" t="s">
-        <v>459</v>
+        <v>428</v>
       </c>
       <c r="D3" t="s">
-        <v>331</v>
+        <v>321</v>
       </c>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
-        <v>343</v>
+        <v>333</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7" t="s">
-        <v>344</v>
+        <v>334</v>
       </c>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.2">
       <c r="C8" t="s">
-        <v>345</v>
+        <v>335</v>
       </c>
       <c r="D8" t="s">
-        <v>346</v>
+        <v>336</v>
       </c>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
-        <v>332</v>
+        <v>322</v>
       </c>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
       <c r="C12" t="s">
-        <v>334</v>
+        <v>324</v>
       </c>
       <c r="D12" s="31" t="s">
-        <v>455</v>
+        <v>424</v>
       </c>
       <c r="E12" s="31"/>
       <c r="F12" t="s">
-        <v>336</v>
+        <v>326</v>
       </c>
       <c r="H12" t="s">
-        <v>335</v>
+        <v>325</v>
       </c>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
-        <v>337</v>
+        <v>327</v>
       </c>
       <c r="C13" t="s">
-        <v>338</v>
+        <v>328</v>
       </c>
       <c r="D13" s="31" t="s">
-        <v>455</v>
+        <v>424</v>
       </c>
       <c r="E13" s="31"/>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
-        <v>339</v>
+        <v>329</v>
       </c>
       <c r="C14" t="s">
-        <v>340</v>
+        <v>330</v>
       </c>
       <c r="D14" s="31" t="s">
-        <v>455</v>
+        <v>424</v>
       </c>
       <c r="E14" s="31"/>
       <c r="F14" t="s">
-        <v>336</v>
+        <v>326</v>
       </c>
       <c r="H14" t="s">
-        <v>335</v>
+        <v>325</v>
       </c>
       <c r="I14" t="s">
-        <v>460</v>
+        <v>429</v>
       </c>
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
-        <v>341</v>
+        <v>331</v>
       </c>
       <c r="C15" t="s">
-        <v>342</v>
+        <v>332</v>
       </c>
       <c r="D15" s="31" t="s">
-        <v>455</v>
+        <v>424</v>
       </c>
       <c r="E15" s="31"/>
       <c r="F15" t="s">
-        <v>336</v>
+        <v>326</v>
       </c>
       <c r="H15" t="s">
-        <v>335</v>
+        <v>325</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
-        <v>447</v>
+        <v>418</v>
       </c>
       <c r="C16" t="s">
-        <v>457</v>
+        <v>426</v>
       </c>
       <c r="D16" s="31" t="s">
-        <v>457</v>
+        <v>426</v>
       </c>
       <c r="E16" s="31"/>
       <c r="F16" t="s">
-        <v>336</v>
+        <v>326</v>
       </c>
       <c r="H16" t="s">
-        <v>335</v>
+        <v>325</v>
       </c>
       <c r="J16" t="s">
-        <v>456</v>
+        <v>425</v>
       </c>
     </row>
     <row r="19" spans="1:51" ht="22" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="20" spans="1:51" x14ac:dyDescent="0.2">
-      <c r="A20" s="17"/>
+      <c r="A20" s="16"/>
       <c r="B20" s="30" t="s">
-        <v>347</v>
+        <v>337</v>
       </c>
       <c r="C20" s="30"/>
       <c r="D20" s="30"/>
       <c r="E20" s="30"/>
       <c r="F20" s="30"/>
-      <c r="G20" s="17"/>
+      <c r="G20" s="16"/>
       <c r="H20" s="30" t="s">
-        <v>348</v>
+        <v>338</v>
       </c>
       <c r="I20" s="30"/>
       <c r="J20" s="30"/>
@@ -11522,9 +12434,9 @@
       <c r="Z20" s="30"/>
       <c r="AA20" s="30"/>
       <c r="AB20" s="30"/>
-      <c r="AC20" s="17"/>
+      <c r="AC20" s="16"/>
       <c r="AD20" s="30" t="s">
-        <v>349</v>
+        <v>339</v>
       </c>
       <c r="AE20" s="30"/>
       <c r="AF20" s="30"/>
@@ -11546,345 +12458,345 @@
       <c r="AV20" s="30"/>
       <c r="AW20" s="30"/>
       <c r="AX20" s="30"/>
-      <c r="AY20" s="17"/>
-    </row>
-    <row r="21" spans="1:51" s="20" customFormat="1" ht="97" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="18"/>
-      <c r="B21" s="19" t="s">
+      <c r="AY20" s="16"/>
+    </row>
+    <row r="21" spans="1:51" s="19" customFormat="1" ht="97" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="17"/>
+      <c r="B21" s="18" t="s">
         <v>109</v>
       </c>
-      <c r="C21" s="19" t="s">
+      <c r="C21" s="18" t="s">
         <v>108</v>
       </c>
-      <c r="D21" s="19" t="s">
+      <c r="D21" s="18" t="s">
         <v>110</v>
       </c>
-      <c r="E21" s="19" t="s">
+      <c r="E21" s="18" t="s">
         <v>197</v>
       </c>
-      <c r="F21" s="19" t="s">
+      <c r="F21" s="18" t="s">
         <v>198</v>
       </c>
-      <c r="G21" s="18"/>
-      <c r="H21" s="19" t="s">
+      <c r="G21" s="17"/>
+      <c r="H21" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="I21" s="19" t="s">
+      <c r="I21" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="J21" s="19" t="s">
+      <c r="J21" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="K21" s="19" t="s">
+      <c r="K21" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="L21" s="19" t="s">
-        <v>201</v>
-      </c>
-      <c r="M21" s="19" t="s">
+      <c r="L21" s="18" t="s">
+        <v>199</v>
+      </c>
+      <c r="M21" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="N21" s="19" t="s">
+      <c r="N21" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="O21" s="19" t="s">
+      <c r="O21" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="P21" s="19" t="s">
-        <v>202</v>
-      </c>
-      <c r="Q21" s="19" t="s">
+      <c r="P21" s="18" t="s">
+        <v>200</v>
+      </c>
+      <c r="Q21" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="R21" s="19" t="s">
+      <c r="R21" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="S21" s="19" t="s">
+      <c r="S21" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="T21" s="19" t="s">
+      <c r="T21" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="U21" s="19" t="s">
+      <c r="U21" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="V21" s="19" t="s">
+      <c r="V21" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="W21" s="19" t="s">
+      <c r="W21" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="X21" s="19" t="s">
+      <c r="X21" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="Y21" s="19" t="s">
+      <c r="Y21" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="Z21" s="19" t="s">
+      <c r="Z21" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="AA21" s="19" t="s">
+      <c r="AA21" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="AB21" s="19" t="s">
+      <c r="AB21" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="AC21" s="18"/>
-      <c r="AD21" s="19" t="s">
+      <c r="AC21" s="17"/>
+      <c r="AD21" s="18" t="s">
         <v>109</v>
       </c>
-      <c r="AE21" s="19" t="s">
+      <c r="AE21" s="18" t="s">
         <v>108</v>
       </c>
-      <c r="AF21" s="19" t="s">
+      <c r="AF21" s="18" t="s">
         <v>110</v>
       </c>
-      <c r="AG21" s="19" t="s">
+      <c r="AG21" s="18" t="s">
         <v>111</v>
       </c>
-      <c r="AH21" s="19" t="s">
+      <c r="AH21" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="AI21" s="19" t="s">
+      <c r="AI21" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="AJ21" s="19" t="s">
+      <c r="AJ21" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="AK21" s="19" t="s">
+      <c r="AK21" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="AL21" s="19" t="s">
+      <c r="AL21" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="AM21" s="19" t="s">
+      <c r="AM21" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="AN21" s="19" t="s">
+      <c r="AN21" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="AO21" s="19" t="s">
+      <c r="AO21" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="AP21" s="19" t="s">
+      <c r="AP21" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="AQ21" s="19" t="s">
+      <c r="AQ21" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="AR21" s="19" t="s">
+      <c r="AR21" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="AS21" s="19" t="s">
+      <c r="AS21" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="AT21" s="19" t="s">
+      <c r="AT21" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="AU21" s="19" t="s">
+      <c r="AU21" s="18" t="s">
         <v>120</v>
       </c>
-      <c r="AV21" s="19" t="s">
+      <c r="AV21" s="18" t="s">
         <v>121</v>
       </c>
-      <c r="AW21" s="19" t="s">
+      <c r="AW21" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="AX21" s="19" t="s">
+      <c r="AX21" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="AY21" s="18"/>
-    </row>
-    <row r="22" spans="1:51" s="26" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="27"/>
-      <c r="B22" s="28" t="s">
-        <v>427</v>
-      </c>
-      <c r="C22" s="28" t="s">
-        <v>428</v>
-      </c>
-      <c r="D22" s="28" t="s">
-        <v>429</v>
-      </c>
-      <c r="E22" s="28" t="s">
-        <v>441</v>
-      </c>
-      <c r="F22" s="28" t="s">
-        <v>442</v>
-      </c>
-      <c r="G22" s="27"/>
-      <c r="H22" s="26" t="s">
+      <c r="AY21" s="17"/>
+    </row>
+    <row r="22" spans="1:51" s="24" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="25"/>
+      <c r="B22" s="26" t="s">
+        <v>401</v>
+      </c>
+      <c r="C22" s="26" t="s">
+        <v>402</v>
+      </c>
+      <c r="D22" s="26" t="s">
+        <v>403</v>
+      </c>
+      <c r="E22" s="26" t="s">
+        <v>415</v>
+      </c>
+      <c r="F22" s="26" t="s">
+        <v>416</v>
+      </c>
+      <c r="G22" s="25"/>
+      <c r="H22" s="24" t="s">
+        <v>381</v>
+      </c>
+      <c r="I22" s="24" t="s">
+        <v>382</v>
+      </c>
+      <c r="J22" s="24" t="s">
+        <v>383</v>
+      </c>
+      <c r="K22" s="24" t="s">
+        <v>384</v>
+      </c>
+      <c r="L22" s="24" t="s">
+        <v>390</v>
+      </c>
+      <c r="M22" s="24" t="s">
+        <v>389</v>
+      </c>
+      <c r="N22" s="24" t="s">
+        <v>371</v>
+      </c>
+      <c r="O22" s="24" t="s">
+        <v>372</v>
+      </c>
+      <c r="P22" s="24" t="s">
+        <v>385</v>
+      </c>
+      <c r="Q22" s="24" t="s">
+        <v>386</v>
+      </c>
+      <c r="R22" s="24" t="s">
+        <v>387</v>
+      </c>
+      <c r="S22" s="24" t="s">
+        <v>388</v>
+      </c>
+      <c r="T22" s="24" t="s">
+        <v>391</v>
+      </c>
+      <c r="U22" s="24" t="s">
+        <v>392</v>
+      </c>
+      <c r="V22" s="24" t="s">
+        <v>393</v>
+      </c>
+      <c r="W22" s="24" t="s">
+        <v>394</v>
+      </c>
+      <c r="X22" s="24" t="s">
+        <v>395</v>
+      </c>
+      <c r="Y22" s="24" t="s">
+        <v>396</v>
+      </c>
+      <c r="Z22" s="24" t="s">
+        <v>397</v>
+      </c>
+      <c r="AA22" s="24" t="s">
+        <v>398</v>
+      </c>
+      <c r="AB22" s="24" t="s">
+        <v>399</v>
+      </c>
+      <c r="AC22" s="25"/>
+      <c r="AD22" s="26" t="s">
+        <v>401</v>
+      </c>
+      <c r="AE22" s="26" t="s">
+        <v>402</v>
+      </c>
+      <c r="AF22" s="26" t="s">
+        <v>403</v>
+      </c>
+      <c r="AG22" s="26" t="s">
+        <v>404</v>
+      </c>
+      <c r="AH22" s="26" t="s">
+        <v>371</v>
+      </c>
+      <c r="AI22" s="26" t="s">
+        <v>372</v>
+      </c>
+      <c r="AJ22" s="26" t="s">
+        <v>392</v>
+      </c>
+      <c r="AK22" s="26" t="s">
+        <v>393</v>
+      </c>
+      <c r="AL22" s="26" t="s">
+        <v>394</v>
+      </c>
+      <c r="AM22" s="26" t="s">
         <v>407</v>
       </c>
-      <c r="I22" s="26" t="s">
+      <c r="AN22" s="26" t="s">
         <v>408</v>
       </c>
-      <c r="J22" s="26" t="s">
+      <c r="AO22" s="26" t="s">
         <v>409</v>
       </c>
-      <c r="K22" s="26" t="s">
+      <c r="AP22" s="26" t="s">
+        <v>365</v>
+      </c>
+      <c r="AQ22" s="26" t="s">
         <v>410</v>
       </c>
-      <c r="L22" s="26" t="s">
-        <v>416</v>
-      </c>
-      <c r="M22" s="26" t="s">
-        <v>415</v>
-      </c>
-      <c r="N22" s="26" t="s">
-        <v>396</v>
-      </c>
-      <c r="O22" s="26" t="s">
-        <v>397</v>
-      </c>
-      <c r="P22" s="26" t="s">
+      <c r="AR22" s="26" t="s">
         <v>411</v>
       </c>
-      <c r="Q22" s="26" t="s">
+      <c r="AS22" s="26" t="s">
         <v>412</v>
       </c>
-      <c r="R22" s="26" t="s">
+      <c r="AT22" s="26" t="s">
         <v>413</v>
       </c>
-      <c r="S22" s="26" t="s">
+      <c r="AU22" s="26" t="s">
+        <v>405</v>
+      </c>
+      <c r="AV22" s="26" t="s">
+        <v>406</v>
+      </c>
+      <c r="AW22" s="26" t="s">
         <v>414</v>
       </c>
-      <c r="T22" s="26" t="s">
-        <v>417</v>
-      </c>
-      <c r="U22" s="26" t="s">
-        <v>418</v>
-      </c>
-      <c r="V22" s="26" t="s">
-        <v>419</v>
-      </c>
-      <c r="W22" s="26" t="s">
-        <v>420</v>
-      </c>
-      <c r="X22" s="26" t="s">
-        <v>421</v>
-      </c>
-      <c r="Y22" s="26" t="s">
-        <v>422</v>
-      </c>
-      <c r="Z22" s="26" t="s">
-        <v>423</v>
-      </c>
-      <c r="AA22" s="26" t="s">
-        <v>424</v>
-      </c>
-      <c r="AB22" s="26" t="s">
-        <v>425</v>
-      </c>
-      <c r="AC22" s="27"/>
-      <c r="AD22" s="28" t="s">
-        <v>427</v>
-      </c>
-      <c r="AE22" s="28" t="s">
-        <v>428</v>
-      </c>
-      <c r="AF22" s="28" t="s">
-        <v>429</v>
-      </c>
-      <c r="AG22" s="28" t="s">
-        <v>430</v>
-      </c>
-      <c r="AH22" s="28" t="s">
-        <v>396</v>
-      </c>
-      <c r="AI22" s="28" t="s">
-        <v>397</v>
-      </c>
-      <c r="AJ22" s="28" t="s">
-        <v>418</v>
-      </c>
-      <c r="AK22" s="28" t="s">
-        <v>419</v>
-      </c>
-      <c r="AL22" s="28" t="s">
-        <v>420</v>
-      </c>
-      <c r="AM22" s="28" t="s">
-        <v>433</v>
-      </c>
-      <c r="AN22" s="28" t="s">
-        <v>434</v>
-      </c>
-      <c r="AO22" s="28" t="s">
-        <v>435</v>
-      </c>
-      <c r="AP22" s="28" t="s">
-        <v>387</v>
-      </c>
-      <c r="AQ22" s="28" t="s">
-        <v>436</v>
-      </c>
-      <c r="AR22" s="28" t="s">
-        <v>437</v>
-      </c>
-      <c r="AS22" s="28" t="s">
-        <v>438</v>
-      </c>
-      <c r="AT22" s="28" t="s">
-        <v>439</v>
-      </c>
-      <c r="AU22" s="28" t="s">
-        <v>431</v>
-      </c>
-      <c r="AV22" s="28" t="s">
-        <v>432</v>
-      </c>
-      <c r="AW22" s="28" t="s">
-        <v>440</v>
-      </c>
-      <c r="AX22" s="28" t="s">
-        <v>385</v>
-      </c>
-      <c r="AY22" s="27"/>
+      <c r="AX22" s="26" t="s">
+        <v>364</v>
+      </c>
+      <c r="AY22" s="25"/>
     </row>
     <row r="30" spans="1:51" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
-        <v>350</v>
+        <v>340</v>
       </c>
     </row>
     <row r="31" spans="1:51" x14ac:dyDescent="0.2">
-      <c r="C31" s="23" t="s">
-        <v>333</v>
-      </c>
-      <c r="D31" s="29" t="s">
-        <v>442</v>
-      </c>
-      <c r="E31" s="23" t="s">
-        <v>446</v>
-      </c>
-      <c r="F31" s="23">
+      <c r="C31" s="21" t="s">
+        <v>323</v>
+      </c>
+      <c r="D31" s="27" t="s">
+        <v>416</v>
+      </c>
+      <c r="E31" s="21" t="s">
+        <v>417</v>
+      </c>
+      <c r="F31" s="21">
         <v>1</v>
       </c>
-      <c r="G31" s="23">
+      <c r="G31" s="21">
         <v>5</v>
       </c>
     </row>
     <row r="32" spans="1:51" x14ac:dyDescent="0.2">
-      <c r="C32" s="23" t="s">
-        <v>339</v>
-      </c>
-      <c r="D32" s="29" t="s">
-        <v>389</v>
-      </c>
-      <c r="E32" s="23" t="s">
-        <v>447</v>
-      </c>
-      <c r="F32" s="23">
+      <c r="C32" s="21" t="s">
+        <v>329</v>
+      </c>
+      <c r="D32" s="27" t="s">
+        <v>366</v>
+      </c>
+      <c r="E32" s="21" t="s">
+        <v>418</v>
+      </c>
+      <c r="F32" s="21">
         <v>1</v>
       </c>
-      <c r="G32" s="23"/>
+      <c r="G32" s="21"/>
     </row>
     <row r="33" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="C33" s="23"/>
-      <c r="D33" s="23"/>
-      <c r="E33" s="23"/>
-      <c r="F33" s="23"/>
-      <c r="G33" s="23"/>
+      <c r="C33" s="21"/>
+      <c r="D33" s="21"/>
+      <c r="E33" s="21"/>
+      <c r="F33" s="21"/>
+      <c r="G33" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="8">

--- a/WaterDiag.xlsx
+++ b/WaterDiag.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dub/Code/MilanoWaterProject/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3143B8D9-AA9E-2F4B-BAED-3B22CA77B4C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{460F13E6-9963-0041-887C-FD1B96B8CD8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18940" yWindow="1180" windowWidth="46700" windowHeight="19020" activeTab="1" xr2:uid="{60223CC9-929C-2C40-9DF4-4D5E66E85102}"/>
+    <workbookView xWindow="1440" yWindow="500" windowWidth="46700" windowHeight="19020" activeTab="1" xr2:uid="{60223CC9-929C-2C40-9DF4-4D5E66E85102}"/>
   </bookViews>
   <sheets>
     <sheet name="Current" sheetId="1" r:id="rId1"/>
     <sheet name="Future" sheetId="3" r:id="rId2"/>
-    <sheet name="Alerts" sheetId="4" r:id="rId3"/>
-    <sheet name="TestStruct" sheetId="5" r:id="rId4"/>
+    <sheet name="Calculations" sheetId="6" r:id="rId3"/>
+    <sheet name="Alerts" sheetId="4" r:id="rId4"/>
+    <sheet name="TestStruct" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <fileRecoveryPr repairLoad="1"/>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1698" uniqueCount="521">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1711" uniqueCount="533">
   <si>
     <t>/*</t>
   </si>
@@ -1653,12 +1654,48 @@
   <si>
     <t xml:space="preserve"> Cycle Counter</t>
   </si>
+  <si>
+    <t>Hex</t>
+  </si>
+  <si>
+    <t>Dec</t>
+  </si>
+  <si>
+    <t>LSB</t>
+  </si>
+  <si>
+    <t>Voltage</t>
+  </si>
+  <si>
+    <t>Height of Water</t>
+  </si>
+  <si>
+    <t>Pi</t>
+  </si>
+  <si>
+    <t>Radius</t>
+  </si>
+  <si>
+    <t>VoltoGal</t>
+  </si>
+  <si>
+    <t>Gallons in Tank</t>
+  </si>
+  <si>
+    <t>Height in Ft</t>
+  </si>
+  <si>
+    <t>area</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1769,6 +1806,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFB5CEA8"/>
+      <name val="Menlo"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="11">
@@ -1913,7 +1956,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1974,6 +2017,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -6633,7 +6678,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0F5BC79-5CC4-4146-A4AC-12A07A1DA7E2}">
   <dimension ref="B3:K133"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E67" sqref="E67:E87"/>
     </sheetView>
   </sheetViews>
@@ -8189,8 +8234,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C03884E4-1121-FE49-8CFC-397DF0F5A368}">
   <dimension ref="A1:R163"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E40" sqref="E40"/>
+    <sheetView tabSelected="1" topLeftCell="B9" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11794,6 +11839,203 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10E1C9A1-DABD-5748-A871-466FBF261D9F}">
+  <dimension ref="B2:L10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L4" sqref="L4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="6" max="7" width="14.83203125" hidden="1" customWidth="1"/>
+    <col min="8" max="11" width="0" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="12.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>521</v>
+      </c>
+      <c r="C2" t="s">
+        <v>522</v>
+      </c>
+      <c r="D2" t="s">
+        <v>523</v>
+      </c>
+      <c r="E2" t="s">
+        <v>524</v>
+      </c>
+      <c r="F2" t="s">
+        <v>525</v>
+      </c>
+      <c r="G2" t="s">
+        <v>530</v>
+      </c>
+      <c r="H2" t="s">
+        <v>526</v>
+      </c>
+      <c r="I2" t="s">
+        <v>527</v>
+      </c>
+      <c r="J2" t="s">
+        <v>531</v>
+      </c>
+      <c r="K2" t="s">
+        <v>528</v>
+      </c>
+      <c r="L2" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="3" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B3">
+        <v>135</v>
+      </c>
+      <c r="C3">
+        <f>HEX2DEC(B3)</f>
+        <v>309</v>
+      </c>
+      <c r="D3" s="32">
+        <v>3.2258064499999998E-3</v>
+      </c>
+      <c r="E3">
+        <f>D3*C3</f>
+        <v>0.99677419304999992</v>
+      </c>
+      <c r="F3">
+        <v>76.5</v>
+      </c>
+      <c r="G3">
+        <f>F3/12</f>
+        <v>6.375</v>
+      </c>
+      <c r="H3">
+        <v>3.1419000000000001</v>
+      </c>
+      <c r="I3">
+        <v>4</v>
+      </c>
+      <c r="J3">
+        <f>(I3*I3)*H3</f>
+        <v>50.270400000000002</v>
+      </c>
+      <c r="K3">
+        <f>(G3*J3)*7.048052</f>
+        <v>2258.7160070376003</v>
+      </c>
+      <c r="L3" s="33">
+        <f>K3</f>
+        <v>2258.7160070376003</v>
+      </c>
+    </row>
+    <row r="4" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B4">
+        <v>117</v>
+      </c>
+      <c r="C4">
+        <f>HEX2DEC(B4)</f>
+        <v>279</v>
+      </c>
+      <c r="D4" s="32">
+        <v>3.2258064499999998E-3</v>
+      </c>
+      <c r="E4">
+        <f>D4*C4</f>
+        <v>0.89999999954999998</v>
+      </c>
+      <c r="F4">
+        <v>66.5</v>
+      </c>
+      <c r="G4">
+        <f>F4/12</f>
+        <v>5.541666666666667</v>
+      </c>
+      <c r="H4">
+        <v>3.1419000000000001</v>
+      </c>
+      <c r="I4">
+        <v>4</v>
+      </c>
+      <c r="J4">
+        <f>(I4*I4)*H4</f>
+        <v>50.270400000000002</v>
+      </c>
+      <c r="K4">
+        <f>(G4*J4)*7.048052</f>
+        <v>1963.4590126536004</v>
+      </c>
+      <c r="L4" s="33">
+        <f>K4</f>
+        <v>1963.4590126536004</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="E8" t="s">
+        <v>417</v>
+      </c>
+      <c r="L8" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="E9">
+        <v>0.99677419304999992</v>
+      </c>
+      <c r="F9">
+        <v>76.5</v>
+      </c>
+      <c r="G9">
+        <v>6.375</v>
+      </c>
+      <c r="H9">
+        <v>3.1419000000000001</v>
+      </c>
+      <c r="I9">
+        <v>4</v>
+      </c>
+      <c r="J9">
+        <v>50.270400000000002</v>
+      </c>
+      <c r="K9">
+        <v>2258.7160070376003</v>
+      </c>
+      <c r="L9">
+        <v>2258.7160070376003</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="E10">
+        <v>0.89999999954999998</v>
+      </c>
+      <c r="F10">
+        <v>66.5</v>
+      </c>
+      <c r="G10">
+        <v>5.541666666666667</v>
+      </c>
+      <c r="H10">
+        <v>3.1419000000000001</v>
+      </c>
+      <c r="I10">
+        <v>4</v>
+      </c>
+      <c r="J10">
+        <v>50.270400000000002</v>
+      </c>
+      <c r="K10">
+        <v>1963.4590126536004</v>
+      </c>
+      <c r="L10">
+        <v>1963.4590126536004</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43EF0447-FEAA-DE4B-B6F4-489E40F1B706}">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
@@ -12236,7 +12478,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE230EF6-CC67-FC4F-BD53-EEEF0DC38F92}">
   <sheetPr>
     <tabColor theme="7" tint="0.39997558519241921"/>

--- a/WaterDiag.xlsx
+++ b/WaterDiag.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dub/Code/MilanoWaterProject/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{460F13E6-9963-0041-887C-FD1B96B8CD8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65C31A93-FDF4-244D-A059-C6F3C802DDB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1440" yWindow="500" windowWidth="46700" windowHeight="19020" activeTab="1" xr2:uid="{60223CC9-929C-2C40-9DF4-4D5E66E85102}"/>
   </bookViews>
@@ -18,7 +18,11 @@
     <sheet name="Calculations" sheetId="6" r:id="rId3"/>
     <sheet name="Alerts" sheetId="4" r:id="rId4"/>
     <sheet name="TestStruct" sheetId="5" r:id="rId5"/>
+    <sheet name="Sheet2" sheetId="7" r:id="rId6"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">Sheet2!$A$1:$B$142</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <fileRecoveryPr repairLoad="1"/>
   <extLst>
@@ -41,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1711" uniqueCount="533">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1855" uniqueCount="539">
   <si>
     <t>/*</t>
   </si>
@@ -1690,12 +1694,30 @@
   <si>
     <t>y</t>
   </si>
+  <si>
+    <t>&gt;</t>
+  </si>
+  <si>
+    <t>|</t>
+  </si>
+  <si>
+    <t>Avg Sensor Value</t>
+  </si>
+  <si>
+    <t>WaterHeight = ((PresSensorValue - ConstantX) / Constant) + .1</t>
+  </si>
+  <si>
+    <t>ConstantX</t>
+  </si>
+  <si>
+    <t>Constant</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1810,6 +1832,12 @@
     <font>
       <sz val="12"/>
       <color rgb="FFB5CEA8"/>
+      <name val="Menlo"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
       <name val="Menlo"/>
       <family val="2"/>
     </font>
@@ -1956,7 +1984,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -2019,6 +2047,7 @@
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2034,6 +2063,2326 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$A$1:$A$141</c:f>
+              <c:strCache>
+                <c:ptCount val="141"/>
+                <c:pt idx="0">
+                  <c:v>Avg Sensor Value</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>&gt;</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>|</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Avg Sensor Value</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>&gt;</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>|</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Avg Sensor Value</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>&gt;</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>|</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Avg Sensor Value</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>&gt;</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>|</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Avg Sensor Value</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>&gt;</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>|</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Avg Sensor Value</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>&gt;</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>|</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>Avg Sensor Value</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>&gt;</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>|</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>Avg Sensor Value</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>&gt;</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>|</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>Avg Sensor Value</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>&gt;</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>|</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>Avg Sensor Value</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>&gt;</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>|</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>Avg Sensor Value</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>&gt;</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>|</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>Avg Sensor Value</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>&gt;</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>|</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>Avg Sensor Value</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>&gt;</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>|</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>Avg Sensor Value</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>&gt;</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>|</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>Avg Sensor Value</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>&gt;</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>|</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>Avg Sensor Value</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>&gt;</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>|</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>Avg Sensor Value</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>&gt;</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>|</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>Avg Sensor Value</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>&gt;</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>|</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>Avg Sensor Value</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>&gt;</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>|</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>Avg Sensor Value</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>&gt;</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>|</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>Avg Sensor Value</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>&gt;</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>|</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>Avg Sensor Value</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>&gt;</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>|</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>Avg Sensor Value</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>&gt;</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>|</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>Avg Sensor Value</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>&gt;</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>|</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>Avg Sensor Value</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>&gt;</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>|</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>Avg Sensor Value</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>&gt;</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>|</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>Avg Sensor Value</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>&gt;</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>|</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>Avg Sensor Value</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>&gt;</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>|</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>Avg Sensor Value</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>&gt;</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>|</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>Avg Sensor Value</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>&gt;</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>|</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>Avg Sensor Value</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>&gt;</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>Avg Sensor Value</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>|</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>&gt;</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>Avg Sensor Value</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>|</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>&gt;</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>Avg Sensor Value</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>|</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>&gt;</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>Avg Sensor Value</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>|</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>&gt;</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>Avg Sensor Value</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>|</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>&gt;</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>Avg Sensor Value</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>|</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>&gt;</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>Avg Sensor Value</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>&gt;</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>Avg Sensor Value</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>&gt;</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>|</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>|</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>Avg Sensor Value</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>|</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>&gt;</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>Avg Sensor Value</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>|</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>&gt;</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>Avg Sensor Value</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>|</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>&gt;</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>Avg Sensor Value</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>|</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>&gt;</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>Avg Sensor Value</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>|</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>&gt;</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>Avg Sensor Value</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>&gt;</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>|</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>Avg Sensor Value</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>&gt;</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>|</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>Avg Sensor Value</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>&gt;</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>|</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>Avg Sensor Value</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$B$1:$B$141</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="141"/>
+                <c:pt idx="0">
+                  <c:v>0.93951600000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.94032300000000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.94064499999999995</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.94128999999999996</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.941774</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.94225800000000004</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.942581</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.94274199999999997</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.94241900000000001</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.94161300000000003</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.94080600000000003</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.94064499999999995</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.94016100000000002</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.93983899999999998</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.94</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.94064499999999995</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.94112899999999999</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.94161300000000003</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.94257999999999997</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.94306400000000001</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.94322600000000001</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.94306400000000001</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.94338699999999998</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.94338699999999998</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.94290300000000005</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.94209699999999996</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.94145100000000004</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.94096800000000003</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.94048399999999999</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.94048399999999999</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.94016100000000002</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.93983899999999998</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.93983899999999998</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0.94</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>0.94032199999999999</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>0.94048399999999999</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>0.94064499999999995</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>0.94064499999999995</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>0.94016100000000002</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>0.93967699999999998</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>0.93935500000000005</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>0.93903199999999998</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>0.93838699999999997</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>0.93774199999999996</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>0.937581</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>0.937581</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>0.937419</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>0.93725800000000004</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0DE5-F944-9B55-A11B9BCB3037}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1039572383"/>
+        <c:axId val="1022591472"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1039572383"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1022591472"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1022591472"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1039572383"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$Y$79:$Y$93</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>2.4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.2000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$Z$79:$Z$93</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>2258</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2058</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1800</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1650</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1400</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1200</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-97C4-6844-B272-B41E32006ECC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="390906032"/>
+        <c:axId val="390886224"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="390906032"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="390886224"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="390886224"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="390906032"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6376,6 +8725,83 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>330200</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>241300</xdr:colOff>
+      <xdr:row>145</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7079DE55-B4A0-8863-4DFD-C26F9F87424F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>450850</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>69850</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B837EC13-52A7-3C8E-FFEB-44B76D730010}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -8234,8 +10660,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C03884E4-1121-FE49-8CFC-397DF0F5A368}">
   <dimension ref="A1:R163"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B9" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -13053,4 +15479,1225 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{227A706B-9ECB-5744-BC59-C11D58CA612E}">
+  <dimension ref="A1:AC141"/>
+  <sheetViews>
+    <sheetView topLeftCell="A92" workbookViewId="0">
+      <selection activeCell="V113" sqref="V113:V121"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="2" width="18.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>535</v>
+      </c>
+      <c r="B1">
+        <v>0.93951600000000002</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>535</v>
+      </c>
+      <c r="B4">
+        <v>0.94032300000000002</v>
+      </c>
+      <c r="C4">
+        <f>B1-B4</f>
+        <v>-8.0700000000000216E-4</v>
+      </c>
+      <c r="E4">
+        <v>0.93951600000000002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>533</v>
+      </c>
+      <c r="E5">
+        <v>0.94032300000000002</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>534</v>
+      </c>
+      <c r="E6">
+        <v>0.94064499999999995</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>535</v>
+      </c>
+      <c r="B7">
+        <v>0.94064499999999995</v>
+      </c>
+      <c r="C7">
+        <f>B4-B7</f>
+        <v>-3.2199999999993345E-4</v>
+      </c>
+      <c r="E7">
+        <v>0.94128999999999996</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>533</v>
+      </c>
+      <c r="E8">
+        <v>0.941774</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>534</v>
+      </c>
+      <c r="E9">
+        <v>0.94225800000000004</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>535</v>
+      </c>
+      <c r="B10">
+        <v>0.94128999999999996</v>
+      </c>
+      <c r="C10">
+        <f>B7-B10</f>
+        <v>-6.4500000000000668E-4</v>
+      </c>
+      <c r="E10">
+        <v>0.942581</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>533</v>
+      </c>
+      <c r="E11">
+        <v>0.94274199999999997</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>534</v>
+      </c>
+      <c r="E12">
+        <v>0.94241900000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>535</v>
+      </c>
+      <c r="B13">
+        <v>0.941774</v>
+      </c>
+      <c r="C13">
+        <f>B10-B13</f>
+        <v>-4.8400000000003995E-4</v>
+      </c>
+      <c r="E13">
+        <v>0.94161300000000003</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>533</v>
+      </c>
+      <c r="E14">
+        <v>0.94080600000000003</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>534</v>
+      </c>
+      <c r="E15">
+        <v>0.94064499999999995</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>535</v>
+      </c>
+      <c r="B16">
+        <v>0.94225800000000004</v>
+      </c>
+      <c r="C16">
+        <f>B13-B16</f>
+        <v>-4.8400000000003995E-4</v>
+      </c>
+      <c r="E16">
+        <v>0.94016100000000002</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>533</v>
+      </c>
+      <c r="E17">
+        <v>0.93983899999999998</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>534</v>
+      </c>
+      <c r="E18">
+        <v>0.94</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>535</v>
+      </c>
+      <c r="B19">
+        <v>0.942581</v>
+      </c>
+      <c r="C19">
+        <f>B16-B19</f>
+        <v>-3.2299999999996221E-4</v>
+      </c>
+      <c r="E19">
+        <v>0.94064499999999995</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>533</v>
+      </c>
+      <c r="E20">
+        <v>0.94112899999999999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>534</v>
+      </c>
+      <c r="E21">
+        <v>0.94161300000000003</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>535</v>
+      </c>
+      <c r="B22">
+        <v>0.94274199999999997</v>
+      </c>
+      <c r="C22">
+        <f>B19-B22</f>
+        <v>-1.6099999999996673E-4</v>
+      </c>
+      <c r="E22">
+        <v>0.94257999999999997</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>533</v>
+      </c>
+      <c r="E23">
+        <v>0.94306400000000001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>534</v>
+      </c>
+      <c r="E24">
+        <v>0.94322600000000001</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>535</v>
+      </c>
+      <c r="B25">
+        <v>0.94241900000000001</v>
+      </c>
+      <c r="C25">
+        <f>B22-B25</f>
+        <v>3.2299999999996221E-4</v>
+      </c>
+      <c r="E25">
+        <v>0.94306400000000001</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>533</v>
+      </c>
+      <c r="E26">
+        <v>0.94338699999999998</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>534</v>
+      </c>
+      <c r="E27">
+        <v>0.94338699999999998</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>535</v>
+      </c>
+      <c r="B28">
+        <v>0.94161300000000003</v>
+      </c>
+      <c r="C28">
+        <f>B25-B28</f>
+        <v>8.059999999999734E-4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>535</v>
+      </c>
+      <c r="B31">
+        <v>0.94080600000000003</v>
+      </c>
+      <c r="C31">
+        <f>B28-B31</f>
+        <v>8.0700000000000216E-4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>535</v>
+      </c>
+      <c r="B34">
+        <v>0.94064499999999995</v>
+      </c>
+      <c r="C34">
+        <f>B31-B34</f>
+        <v>1.6100000000007775E-4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>535</v>
+      </c>
+      <c r="B37">
+        <v>0.94016100000000002</v>
+      </c>
+      <c r="C37">
+        <f>B34-B37</f>
+        <v>4.8399999999992893E-4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>535</v>
+      </c>
+      <c r="B40">
+        <v>0.93983899999999998</v>
+      </c>
+      <c r="C40">
+        <f>B37-B40</f>
+        <v>3.2200000000004447E-4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>535</v>
+      </c>
+      <c r="B43">
+        <v>0.94</v>
+      </c>
+      <c r="C43">
+        <f>B40-B43</f>
+        <v>-1.6099999999996673E-4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>535</v>
+      </c>
+      <c r="B46">
+        <v>0.94064499999999995</v>
+      </c>
+      <c r="C46">
+        <f>B43-B46</f>
+        <v>-6.4500000000000668E-4</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="49" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>535</v>
+      </c>
+      <c r="B49">
+        <v>0.94112899999999999</v>
+      </c>
+      <c r="C49">
+        <f>B46-B49</f>
+        <v>-4.8400000000003995E-4</v>
+      </c>
+      <c r="AA49">
+        <f>AB49*Z61</f>
+        <v>0.98064516129032253</v>
+      </c>
+      <c r="AB49">
+        <f>HEX2DEC(AC49)</f>
+        <v>304</v>
+      </c>
+      <c r="AC49">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="50" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="51" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="52" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>535</v>
+      </c>
+      <c r="B52">
+        <v>0.94161300000000003</v>
+      </c>
+      <c r="C52">
+        <f>B49-B52</f>
+        <v>-4.8400000000003995E-4</v>
+      </c>
+      <c r="AA52">
+        <v>0.98599999999999999</v>
+      </c>
+      <c r="AB52">
+        <f>AA52/Z61</f>
+        <v>305.65999999999997</v>
+      </c>
+      <c r="AC52" t="str">
+        <f>DEC2HEX(AB52)</f>
+        <v>131</v>
+      </c>
+    </row>
+    <row r="53" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="54" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="55" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>535</v>
+      </c>
+      <c r="B55">
+        <v>0.94257999999999997</v>
+      </c>
+      <c r="C55">
+        <f>B52-B55</f>
+        <v>-9.6699999999994013E-4</v>
+      </c>
+      <c r="AA55">
+        <f>AB55*Z61</f>
+        <v>0.98709677419354835</v>
+      </c>
+      <c r="AB55">
+        <f>HEX2DEC(AC55)</f>
+        <v>306</v>
+      </c>
+      <c r="AC55">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="56" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="57" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="58" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>535</v>
+      </c>
+      <c r="B58">
+        <v>0.94306400000000001</v>
+      </c>
+      <c r="C58">
+        <f>B55-B58</f>
+        <v>-4.8400000000003995E-4</v>
+      </c>
+      <c r="AA58">
+        <f>AB58*Z61</f>
+        <v>0.99032258064516132</v>
+      </c>
+      <c r="AB58">
+        <f>HEX2DEC(AC58)</f>
+        <v>307</v>
+      </c>
+      <c r="AC58">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="59" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="60" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="61" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>535</v>
+      </c>
+      <c r="B61">
+        <v>0.94322600000000001</v>
+      </c>
+      <c r="C61">
+        <f>B58-B61</f>
+        <v>-1.6199999999999548E-4</v>
+      </c>
+      <c r="X61">
+        <v>3.3</v>
+      </c>
+      <c r="Y61">
+        <v>1023</v>
+      </c>
+      <c r="Z61">
+        <f>X61/Y61</f>
+        <v>3.2258064516129032E-3</v>
+      </c>
+      <c r="AA61">
+        <f>AB61*Z67</f>
+        <v>0</v>
+      </c>
+      <c r="AB61">
+        <f>HEX2DEC(AC61)</f>
+        <v>308</v>
+      </c>
+      <c r="AC61">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="62" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="63" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="64" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>535</v>
+      </c>
+      <c r="B64">
+        <v>0.94306400000000001</v>
+      </c>
+      <c r="C64">
+        <f>B61-B64</f>
+        <v>1.6199999999999548E-4</v>
+      </c>
+    </row>
+    <row r="65" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="66" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="67" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>535</v>
+      </c>
+      <c r="B67">
+        <v>0.94338699999999998</v>
+      </c>
+      <c r="C67">
+        <f>B64-B67</f>
+        <v>-3.2299999999996221E-4</v>
+      </c>
+    </row>
+    <row r="68" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="69" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="70" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>535</v>
+      </c>
+      <c r="B70">
+        <v>0.94338699999999998</v>
+      </c>
+      <c r="C70">
+        <f>B67-B70</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="72" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="73" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>535</v>
+      </c>
+      <c r="B73">
+        <v>0.94290300000000005</v>
+      </c>
+      <c r="C73">
+        <f>B70-B73</f>
+        <v>4.8399999999992893E-4</v>
+      </c>
+    </row>
+    <row r="74" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="75" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="76" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>535</v>
+      </c>
+      <c r="B76">
+        <v>0.94209699999999996</v>
+      </c>
+      <c r="C76">
+        <f>B73-B76</f>
+        <v>8.0600000000008443E-4</v>
+      </c>
+    </row>
+    <row r="77" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="78" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="79" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>535</v>
+      </c>
+      <c r="B79">
+        <v>0.94145100000000004</v>
+      </c>
+      <c r="C79">
+        <f>B76-B79</f>
+        <v>6.4599999999992441E-4</v>
+      </c>
+      <c r="Y79">
+        <v>2.4</v>
+      </c>
+      <c r="Z79">
+        <v>2258</v>
+      </c>
+    </row>
+    <row r="80" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="81" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="82" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>535</v>
+      </c>
+      <c r="B82">
+        <v>0.94096800000000003</v>
+      </c>
+      <c r="C82">
+        <f>B79-B82</f>
+        <v>4.830000000000112E-4</v>
+      </c>
+      <c r="Y82">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="Z82">
+        <v>2058</v>
+      </c>
+    </row>
+    <row r="83" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="84" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="85" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>535</v>
+      </c>
+      <c r="B85">
+        <v>0.94048399999999999</v>
+      </c>
+      <c r="C85">
+        <f>B82-B85</f>
+        <v>4.8400000000003995E-4</v>
+      </c>
+      <c r="Y85">
+        <v>2</v>
+      </c>
+      <c r="Z85">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="86" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="87" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="88" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>535</v>
+      </c>
+      <c r="B88">
+        <v>0.94048399999999999</v>
+      </c>
+      <c r="C88">
+        <f>B85-B88</f>
+        <v>0</v>
+      </c>
+      <c r="Y88">
+        <v>1.8</v>
+      </c>
+      <c r="Z88">
+        <v>1650</v>
+      </c>
+    </row>
+    <row r="89" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="90" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="91" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>535</v>
+      </c>
+      <c r="B91">
+        <v>0.94016100000000002</v>
+      </c>
+      <c r="C91">
+        <f>B88-B91</f>
+        <v>3.2299999999996221E-4</v>
+      </c>
+      <c r="Y91">
+        <v>1.6</v>
+      </c>
+      <c r="Z91">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="92" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="93" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>535</v>
+      </c>
+      <c r="B93">
+        <v>0.93983899999999998</v>
+      </c>
+      <c r="C93">
+        <f>B90-B93</f>
+        <v>-0.93983899999999998</v>
+      </c>
+      <c r="Y93">
+        <v>1.4</v>
+      </c>
+      <c r="Z93">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="94" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="95" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="96" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
+        <v>535</v>
+      </c>
+      <c r="B96">
+        <v>0.93983899999999998</v>
+      </c>
+      <c r="C96">
+        <f>B93-B96</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="98" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="99" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
+        <v>535</v>
+      </c>
+      <c r="B99">
+        <v>0.94</v>
+      </c>
+    </row>
+    <row r="100" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="101" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A101" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="102" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A102" t="s">
+        <v>535</v>
+      </c>
+      <c r="B102">
+        <v>0.94032199999999999</v>
+      </c>
+      <c r="V102" t="s">
+        <v>537</v>
+      </c>
+      <c r="W102">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="103" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A103" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="104" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A104" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="105" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A105" t="s">
+        <v>535</v>
+      </c>
+      <c r="B105">
+        <v>0.94048399999999999</v>
+      </c>
+      <c r="V105" t="s">
+        <v>538</v>
+      </c>
+      <c r="W105">
+        <v>9.6199999999999994E-2</v>
+      </c>
+    </row>
+    <row r="106" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A106" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="107" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A107" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="108" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A108" t="s">
+        <v>535</v>
+      </c>
+      <c r="B108">
+        <v>0.94064499999999995</v>
+      </c>
+    </row>
+    <row r="109" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A109" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="110" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A110" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="111" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A111" t="s">
+        <v>535</v>
+      </c>
+      <c r="B111">
+        <v>0.94064499999999995</v>
+      </c>
+      <c r="V111" s="34" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="112" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A112" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="113" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A113" t="s">
+        <v>535</v>
+      </c>
+      <c r="B113">
+        <v>0.94016100000000002</v>
+      </c>
+      <c r="V113">
+        <f>((E4-$W$102)/$W$105)+0.1</f>
+        <v>6.3319750519750517</v>
+      </c>
+    </row>
+    <row r="114" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A114" t="s">
+        <v>533</v>
+      </c>
+      <c r="V114">
+        <f t="shared" ref="V114:V121" si="0">((E5-$W$102)/$W$105)+0.1</f>
+        <v>6.3403638253638244</v>
+      </c>
+    </row>
+    <row r="115" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A115" t="s">
+        <v>534</v>
+      </c>
+      <c r="V115">
+        <f t="shared" si="0"/>
+        <v>6.3437110187110175</v>
+      </c>
+    </row>
+    <row r="116" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A116" t="s">
+        <v>534</v>
+      </c>
+      <c r="V116">
+        <f t="shared" si="0"/>
+        <v>6.3504158004157993</v>
+      </c>
+    </row>
+    <row r="117" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A117" t="s">
+        <v>535</v>
+      </c>
+      <c r="B117">
+        <v>0.93967699999999998</v>
+      </c>
+      <c r="V117">
+        <f t="shared" si="0"/>
+        <v>6.3554469854469859</v>
+      </c>
+    </row>
+    <row r="118" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A118" t="s">
+        <v>534</v>
+      </c>
+      <c r="V118">
+        <f t="shared" si="0"/>
+        <v>6.3604781704781699</v>
+      </c>
+    </row>
+    <row r="119" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A119" t="s">
+        <v>533</v>
+      </c>
+      <c r="V119">
+        <f t="shared" si="0"/>
+        <v>6.3638357588357595</v>
+      </c>
+    </row>
+    <row r="120" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A120" t="s">
+        <v>535</v>
+      </c>
+      <c r="B120">
+        <v>0.93935500000000005</v>
+      </c>
+      <c r="V120">
+        <f t="shared" si="0"/>
+        <v>6.3655093555093547</v>
+      </c>
+    </row>
+    <row r="121" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A121" t="s">
+        <v>534</v>
+      </c>
+      <c r="V121">
+        <f t="shared" si="0"/>
+        <v>6.3621517671517678</v>
+      </c>
+    </row>
+    <row r="122" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A122" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="123" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A123" t="s">
+        <v>535</v>
+      </c>
+      <c r="B123">
+        <v>0.93903199999999998</v>
+      </c>
+    </row>
+    <row r="124" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A124" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="125" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A125" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="126" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A126" t="s">
+        <v>535</v>
+      </c>
+      <c r="B126">
+        <v>0.93838699999999997</v>
+      </c>
+    </row>
+    <row r="127" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A127" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="128" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A128" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A129" t="s">
+        <v>535</v>
+      </c>
+      <c r="B129">
+        <v>0.93774199999999996</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A130" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A131" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A132" t="s">
+        <v>535</v>
+      </c>
+      <c r="B132">
+        <v>0.937581</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A133" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A134" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A135" t="s">
+        <v>535</v>
+      </c>
+      <c r="B135">
+        <v>0.937581</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A136" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A137" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A138" t="s">
+        <v>535</v>
+      </c>
+      <c r="B138">
+        <v>0.937419</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A139" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A140" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A141" t="s">
+        <v>535</v>
+      </c>
+      <c r="B141">
+        <v>0.93725800000000004</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:B142" xr:uid="{227A706B-9ECB-5744-BC59-C11D58CA612E}"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/WaterDiag.xlsx
+++ b/WaterDiag.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dub/Code/MilanoWaterProject/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6B3C71B5-2A0E-6F4A-B534-9FCF888D4226}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{63748BEA-E918-9241-8C75-42DB357C82EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4500" yWindow="1160" windowWidth="46700" windowHeight="19020" activeTab="1" xr2:uid="{60223CC9-929C-2C40-9DF4-4D5E66E85102}"/>
+    <workbookView xWindow="2460" yWindow="500" windowWidth="46700" windowHeight="19020" activeTab="1" xr2:uid="{60223CC9-929C-2C40-9DF4-4D5E66E85102}"/>
   </bookViews>
   <sheets>
     <sheet name="Previous" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,8 @@
     <sheet name="TestStruct" sheetId="5" r:id="rId5"/>
     <sheet name="Sheet2" sheetId="7" r:id="rId6"/>
     <sheet name="FlowCalc" sheetId="8" r:id="rId7"/>
-    <sheet name="PressCalc" sheetId="9" r:id="rId8"/>
+    <sheet name="Chart1" sheetId="10" r:id="rId8"/>
+    <sheet name="PressCalc" sheetId="9" r:id="rId9"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">FlowCalc!$A$79:$AF$567</definedName>
@@ -48,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3464" uniqueCount="766">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3476" uniqueCount="781">
   <si>
     <t>/*</t>
   </si>
@@ -2395,6 +2396,51 @@
   </si>
   <si>
     <t>tankgal_data_payload[TANKGAL_LEN] ;</t>
+  </si>
+  <si>
+    <t>Water Height Press</t>
+  </si>
+  <si>
+    <t>Water Height Ultra</t>
+  </si>
+  <si>
+    <t>Tank Temperature</t>
+  </si>
+  <si>
+    <t>Tank Humidity</t>
+  </si>
+  <si>
+    <t>inches of water</t>
+  </si>
+  <si>
+    <t>feet</t>
+  </si>
+  <si>
+    <t>volume cu/ft</t>
+  </si>
+  <si>
+    <t>gallons</t>
+  </si>
+  <si>
+    <t>CM from Ultrasond</t>
+  </si>
+  <si>
+    <t>Height of Water Ultra</t>
+  </si>
+  <si>
+    <t>raw sensor</t>
+  </si>
+  <si>
+    <t>Sensor</t>
+  </si>
+  <si>
+    <t>Feet</t>
+  </si>
+  <si>
+    <t>SenorVal</t>
+  </si>
+  <si>
+    <t>scaled</t>
   </si>
 </sst>
 </file>
@@ -2532,7 +2578,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2596,6 +2642,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2680,7 +2732,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -2751,6 +2803,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3111,7 +3164,421 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>PressCalc!$U$22:$AB$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1.5709677411499998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.6645161281999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.8193548378</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.9516129022499999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.0580645155999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.1548387090999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.2516129026</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.354838709</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>PressCalc!$U$23:$AB$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>3.5833333333333335</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.208333333333333</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.885416666666667</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.666666666666667</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.3333333333333333</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.8229166666666667</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.2604166666666665</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.75</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-1373-DC40-AC77-7D77E8CB1987}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="754043792"/>
+        <c:axId val="754812768"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="754043792"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="754812768"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="754812768"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="754043792"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -3665,6 +4132,533 @@
     </cs:spPr>
   </cs:wall>
 </cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{E8DCA7A8-BAAC-7645-97C5-749345EB628D}">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView zoomScale="146" workbookViewId="0" zoomToFit="1"/>
+  </sheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</chartsheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -8179,6 +9173,39 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="8672534" cy="6280411"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2999FBA3-87D4-DA5E-D4EB-25938CDBBC9D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -10034,8 +11061,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C03884E4-1121-FE49-8CFC-397DF0F5A368}">
   <dimension ref="A4:R191"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B5" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E104" sqref="E104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10623,7 +11650,7 @@
       <c r="D42" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="E42" s="6" t="s">
+      <c r="E42" s="42" t="s">
         <v>197</v>
       </c>
       <c r="J42" s="3" t="s">
@@ -10655,7 +11682,7 @@
       <c r="D43" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="E43" s="6" t="s">
+      <c r="E43" s="42" t="s">
         <v>441</v>
       </c>
       <c r="J43" s="3" t="s">
@@ -10687,14 +11714,14 @@
       <c r="D44" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="E44" s="6" t="s">
+      <c r="E44" s="42" t="s">
         <v>442</v>
       </c>
       <c r="J44" s="3" t="s">
         <v>70</v>
       </c>
       <c r="K44" s="6" t="s">
-        <v>13</v>
+        <v>766</v>
       </c>
       <c r="M44" t="s">
         <v>87</v>
@@ -10719,14 +11746,14 @@
       <c r="D45" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="E45" s="6" t="s">
+      <c r="E45" s="42" t="s">
         <v>443</v>
       </c>
       <c r="J45" s="3" t="s">
         <v>71</v>
       </c>
       <c r="K45" s="6" t="s">
-        <v>13</v>
+        <v>767</v>
       </c>
       <c r="M45" t="s">
         <v>87</v>
@@ -10751,14 +11778,14 @@
       <c r="D46" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="E46" s="6" t="s">
+      <c r="E46" s="42" t="s">
         <v>444</v>
       </c>
       <c r="J46" s="3" t="s">
         <v>72</v>
       </c>
       <c r="K46" s="6" t="s">
-        <v>13</v>
+        <v>768</v>
       </c>
       <c r="M46" t="s">
         <v>87</v>
@@ -10790,7 +11817,7 @@
         <v>73</v>
       </c>
       <c r="K47" s="6" t="s">
-        <v>13</v>
+        <v>769</v>
       </c>
       <c r="M47" t="s">
         <v>87</v>
@@ -12144,7 +13171,7 @@
       <c r="D104" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="E104" s="6" t="s">
+      <c r="E104" s="42" t="s">
         <v>111</v>
       </c>
       <c r="J104" s="3" t="s">
@@ -15194,8 +16221,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{227A706B-9ECB-5744-BC59-C11D58CA612E}">
   <dimension ref="A1:AC141"/>
   <sheetViews>
-    <sheetView topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="W78" sqref="W78:X79"/>
+    <sheetView topLeftCell="A75" workbookViewId="0">
+      <selection activeCell="W107" sqref="W107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -55894,15 +56921,15 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{749A8602-3B3D-E049-A50C-F77EAF1374E8}">
-  <dimension ref="B3:J18"/>
+  <dimension ref="B3:AB33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection activeCell="X12" sqref="X12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B3">
         <v>338</v>
       </c>
@@ -55913,13 +56940,75 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B5">
         <f>(B3*C3)/D3</f>
         <v>32.977054500000001</v>
       </c>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="O6" s="30">
+        <v>3.2258064499999998E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="O8" t="s">
+        <v>780</v>
+      </c>
+      <c r="P8" t="s">
+        <v>776</v>
+      </c>
+      <c r="R8" t="s">
+        <v>770</v>
+      </c>
+      <c r="T8" t="s">
+        <v>771</v>
+      </c>
+      <c r="V8" t="s">
+        <v>772</v>
+      </c>
+      <c r="X8" t="s">
+        <v>773</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>775</v>
+      </c>
+      <c r="AB8" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="9" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="O9">
+        <f t="shared" ref="O9:O16" si="0">P9*$O$6</f>
+        <v>1.0580645155999999</v>
+      </c>
+      <c r="P9">
+        <v>328</v>
+      </c>
+      <c r="R9">
+        <v>16</v>
+      </c>
+      <c r="T9">
+        <f t="shared" ref="T9:T16" si="1">R9/12</f>
+        <v>1.3333333333333333</v>
+      </c>
+      <c r="V9">
+        <f t="shared" ref="V9:V16" si="2">(16*PI())*T9</f>
+        <v>67.020643276582248</v>
+      </c>
+      <c r="X9">
+        <f t="shared" ref="X9:X16" si="3">V9*7.048052</f>
+        <v>472.36497888680208</v>
+      </c>
+      <c r="Z9">
+        <f>(6.3783+0.748)-AB9/30.48</f>
+        <v>1.3848301837270345</v>
+      </c>
+      <c r="AB9">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="10" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B10">
         <v>3.3</v>
       </c>
@@ -55929,85 +57018,396 @@
       <c r="D10">
         <v>1023</v>
       </c>
-    </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B12" t="s">
+      <c r="O10">
+        <f t="shared" si="0"/>
+        <v>1.1548387090999999</v>
+      </c>
+      <c r="P10">
+        <v>358</v>
+      </c>
+      <c r="R10">
+        <v>21.875</v>
+      </c>
+      <c r="T10">
+        <f t="shared" si="1"/>
+        <v>1.8229166666666667</v>
+      </c>
+      <c r="V10">
+        <f t="shared" si="2"/>
+        <v>91.629785729702306</v>
+      </c>
+      <c r="X10">
+        <f t="shared" si="3"/>
+        <v>645.81149457179981</v>
+      </c>
+      <c r="Z10">
+        <f>(6.3783+0.748)-AB10/30.48</f>
+        <v>2.9924417322834653</v>
+      </c>
+      <c r="AB10">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="11" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="O11">
+        <f t="shared" si="0"/>
+        <v>1.2516129026</v>
+      </c>
+      <c r="P11">
+        <v>388</v>
+      </c>
+      <c r="R11">
+        <v>27.125</v>
+      </c>
+      <c r="T11">
+        <f t="shared" si="1"/>
+        <v>2.2604166666666665</v>
+      </c>
+      <c r="V11">
+        <f t="shared" si="2"/>
+        <v>113.62093430483084</v>
+      </c>
+      <c r="X11">
+        <f t="shared" si="3"/>
+        <v>800.80625326903169</v>
+      </c>
+    </row>
+    <row r="12" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="O12">
+        <f t="shared" si="0"/>
+        <v>1.354838709</v>
+      </c>
+      <c r="P12">
+        <v>420</v>
+      </c>
+      <c r="R12">
+        <v>33</v>
+      </c>
+      <c r="T12">
+        <f t="shared" si="1"/>
+        <v>2.75</v>
+      </c>
+      <c r="V12">
+        <f t="shared" si="2"/>
+        <v>138.23007675795088</v>
+      </c>
+      <c r="X12">
+        <f t="shared" si="3"/>
+        <v>974.25276895402931</v>
+      </c>
+    </row>
+    <row r="13" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="O13">
+        <f t="shared" si="0"/>
+        <v>1.5709677411499998</v>
+      </c>
+      <c r="P13">
+        <v>487</v>
+      </c>
+      <c r="R13">
+        <v>43</v>
+      </c>
+      <c r="T13">
+        <f t="shared" si="1"/>
+        <v>3.5833333333333335</v>
+      </c>
+      <c r="V13">
+        <f t="shared" si="2"/>
+        <v>180.1179788058148</v>
+      </c>
+      <c r="X13">
+        <f t="shared" si="3"/>
+        <v>1269.4808807582806</v>
+      </c>
+      <c r="Z13">
+        <f>(6.3783+0.748)-AB13/30.48</f>
+        <v>7.1263000000000005</v>
+      </c>
+    </row>
+    <row r="14" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="B14" t="s">
         <v>742</v>
       </c>
-      <c r="G12">
+      <c r="G14">
         <v>3.3</v>
       </c>
-    </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B13" t="s">
+      <c r="O14">
+        <f t="shared" si="0"/>
+        <v>1.6645161281999998</v>
+      </c>
+      <c r="P14">
+        <v>516</v>
+      </c>
+      <c r="R14">
+        <v>50.5</v>
+      </c>
+      <c r="T14">
+        <f t="shared" si="1"/>
+        <v>4.208333333333333</v>
+      </c>
+      <c r="V14">
+        <f t="shared" si="2"/>
+        <v>211.53390534171271</v>
+      </c>
+      <c r="X14">
+        <f t="shared" si="3"/>
+        <v>1490.9019646114689</v>
+      </c>
+    </row>
+    <row r="15" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="B15" t="s">
         <v>743</v>
       </c>
-      <c r="C13">
+      <c r="C15">
         <f>B10/D10</f>
         <v>3.2258064516129032E-3</v>
       </c>
-      <c r="E13">
+      <c r="E15">
         <v>0.5</v>
       </c>
-      <c r="F13">
+      <c r="F15">
         <v>2.5</v>
       </c>
-      <c r="G13">
+      <c r="G15">
         <v>4.5</v>
       </c>
-    </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="E14">
-        <v>0</v>
-      </c>
-      <c r="F14">
+      <c r="O15">
+        <f t="shared" si="0"/>
+        <v>1.8193548378</v>
+      </c>
+      <c r="P15">
+        <v>564</v>
+      </c>
+      <c r="R15">
+        <v>58.625</v>
+      </c>
+      <c r="T15">
+        <f t="shared" si="1"/>
+        <v>4.885416666666667</v>
+      </c>
+      <c r="V15">
+        <f t="shared" si="2"/>
+        <v>245.56782575560217</v>
+      </c>
+      <c r="X15">
+        <f t="shared" si="3"/>
+        <v>1730.7748054524234</v>
+      </c>
+    </row>
+    <row r="16" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
         <v>50</v>
       </c>
-      <c r="G14">
+      <c r="G16">
         <v>100</v>
       </c>
-    </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B15">
-        <f>B3*C13</f>
+      <c r="O16">
+        <f t="shared" si="0"/>
+        <v>1.9516129022499999</v>
+      </c>
+      <c r="P16">
+        <v>605</v>
+      </c>
+      <c r="R16">
+        <v>68</v>
+      </c>
+      <c r="T16">
+        <f t="shared" si="1"/>
+        <v>5.666666666666667</v>
+      </c>
+      <c r="V16">
+        <f t="shared" si="2"/>
+        <v>284.83773392547459</v>
+      </c>
+      <c r="X16">
+        <f t="shared" si="3"/>
+        <v>2007.5511602689091</v>
+      </c>
+    </row>
+    <row r="17" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="B17">
+        <f>B3*C15</f>
         <v>1.0903225806451613</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C17" t="s">
         <v>745</v>
       </c>
-      <c r="D15">
-        <f>J18</f>
+      <c r="D17">
+        <f>J20</f>
         <v>40.816326530612244</v>
       </c>
     </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B17">
-        <f>B15*D15</f>
+    <row r="19" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="B19">
+        <f>B17*D17</f>
         <v>44.502962475312707</v>
       </c>
-      <c r="G17">
+      <c r="G19">
         <v>2.4500000000000002</v>
       </c>
-      <c r="H17" t="s">
+      <c r="H19" t="s">
         <v>417</v>
       </c>
-      <c r="I17" t="s">
+      <c r="I19" t="s">
         <v>744</v>
       </c>
-      <c r="J17">
+      <c r="J19">
         <v>100</v>
       </c>
     </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="H18" t="s">
+    <row r="20" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="H20" t="s">
         <v>417</v>
       </c>
-      <c r="I18" t="s">
+      <c r="I20" t="s">
         <v>744</v>
       </c>
-      <c r="J18">
-        <f>J17/G17</f>
+      <c r="J20">
+        <f>J19/G19</f>
         <v>40.816326530612244</v>
+      </c>
+    </row>
+    <row r="22" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="T22" t="s">
+        <v>779</v>
+      </c>
+      <c r="U22">
+        <f>R24*$O$6</f>
+        <v>1.5709677411499998</v>
+      </c>
+      <c r="V22">
+        <f>R25*$O$6</f>
+        <v>1.6645161281999998</v>
+      </c>
+      <c r="W22">
+        <f>R26*$O$6</f>
+        <v>1.8193548378</v>
+      </c>
+      <c r="X22">
+        <f>R27*$O$6</f>
+        <v>1.9516129022499999</v>
+      </c>
+      <c r="Y22">
+        <v>1.0580645155999999</v>
+      </c>
+      <c r="Z22">
+        <v>1.1548387090999999</v>
+      </c>
+      <c r="AA22">
+        <v>1.2516129026</v>
+      </c>
+      <c r="AB22">
+        <v>1.354838709</v>
+      </c>
+    </row>
+    <row r="23" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="Q23" t="s">
+        <v>778</v>
+      </c>
+      <c r="R23" t="s">
+        <v>777</v>
+      </c>
+      <c r="T23" t="s">
+        <v>778</v>
+      </c>
+      <c r="U23">
+        <v>3.5833333333333335</v>
+      </c>
+      <c r="V23">
+        <v>4.208333333333333</v>
+      </c>
+      <c r="W23">
+        <v>4.885416666666667</v>
+      </c>
+      <c r="X23">
+        <v>5.666666666666667</v>
+      </c>
+      <c r="Y23">
+        <v>1.3333333333333333</v>
+      </c>
+      <c r="Z23">
+        <v>1.8229166666666667</v>
+      </c>
+      <c r="AA23">
+        <v>2.2604166666666665</v>
+      </c>
+      <c r="AB23">
+        <v>2.75</v>
+      </c>
+    </row>
+    <row r="24" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="Q24">
+        <v>3.5833333333333335</v>
+      </c>
+      <c r="R24">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="25" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="Q25">
+        <v>4.208333333333333</v>
+      </c>
+      <c r="R25">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="26" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="Q26">
+        <v>4.885416666666667</v>
+      </c>
+      <c r="R26">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="27" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="Q27">
+        <v>5.666666666666667</v>
+      </c>
+      <c r="R27">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="30" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="O30">
+        <f>(5.3113*O13)-4.7174</f>
+        <v>3.6264809635699944</v>
+      </c>
+      <c r="Q30">
+        <f>(3.0242*O13)+0.1028</f>
+        <v>4.8537206427858299</v>
+      </c>
+    </row>
+    <row r="31" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="O31">
+        <f>(5.3113*O14)-4.7174</f>
+        <v>4.1233445117086589</v>
+      </c>
+      <c r="Q31">
+        <f>(3.0242*O14)+0.1028</f>
+        <v>5.1366296749024398</v>
+      </c>
+    </row>
+    <row r="32" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="O32">
+        <f>(5.3113*O15)-4.7174</f>
+        <v>4.9457393500071412</v>
+      </c>
+      <c r="Q32">
+        <f>(3.0242*O15)+0.1028</f>
+        <v>5.6048929004747601</v>
+      </c>
+    </row>
+    <row r="33" spans="15:17" x14ac:dyDescent="0.2">
+      <c r="O33">
+        <f>(5.3113*O16)-4.7174</f>
+        <v>5.6482016077204253</v>
+      </c>
+      <c r="Q33">
+        <f>(3.0242*O16)+0.1028</f>
+        <v>6.0048677389844505</v>
       </c>
     </row>
   </sheetData>

--- a/WaterDiag.xlsx
+++ b/WaterDiag.xlsx
@@ -1,34 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10709"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dub/Code/MilanoWaterProject/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{63748BEA-E918-9241-8C75-42DB357C82EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA6575FD-3478-4C4D-8313-415EF546615B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2460" yWindow="500" windowWidth="46700" windowHeight="19020" activeTab="1" xr2:uid="{60223CC9-929C-2C40-9DF4-4D5E66E85102}"/>
+    <workbookView xWindow="4500" yWindow="500" windowWidth="46700" windowHeight="19020" activeTab="10" xr2:uid="{60223CC9-929C-2C40-9DF4-4D5E66E85102}"/>
   </bookViews>
   <sheets>
     <sheet name="Previous" sheetId="1" r:id="rId1"/>
-    <sheet name="Current2023" sheetId="3" r:id="rId2"/>
-    <sheet name="Calculations" sheetId="6" r:id="rId3"/>
-    <sheet name="Alerts" sheetId="4" r:id="rId4"/>
-    <sheet name="TestStruct" sheetId="5" r:id="rId5"/>
-    <sheet name="Sheet2" sheetId="7" r:id="rId6"/>
-    <sheet name="FlowCalc" sheetId="8" r:id="rId7"/>
-    <sheet name="Chart1" sheetId="10" r:id="rId8"/>
-    <sheet name="PressCalc" sheetId="9" r:id="rId9"/>
+    <sheet name="Previous2023" sheetId="3" r:id="rId2"/>
+    <sheet name="Current2023" sheetId="11" r:id="rId3"/>
+    <sheet name="Calculations" sheetId="6" r:id="rId4"/>
+    <sheet name="Alerts" sheetId="4" r:id="rId5"/>
+    <sheet name="TestStruct" sheetId="5" r:id="rId6"/>
+    <sheet name="Sheet2" sheetId="7" r:id="rId7"/>
+    <sheet name="FlowCalc" sheetId="8" r:id="rId8"/>
+    <sheet name="Chart1" sheetId="10" r:id="rId9"/>
+    <sheet name="PressCalc" sheetId="9" r:id="rId10"/>
+    <sheet name="Sheet1" sheetId="12" r:id="rId11"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">FlowCalc!$A$79:$AF$567</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">Sheet2!$A$1:$B$142</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">FlowCalc!$A$79:$AF$567</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">Sheet2!$A$1:$B$142</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Sheet1!$P$10:$P$18</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Sheet1!$Q$10:$Q$18</definedName>
+    <definedName name="_xlchart.v2.0" hidden="1">Sheet1!$P$10:$P$18</definedName>
+    <definedName name="_xlchart.v2.1" hidden="1">Sheet1!$Q$10:$Q$18</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -49,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3476" uniqueCount="781">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4573" uniqueCount="803">
   <si>
     <t>/*</t>
   </si>
@@ -2441,6 +2446,72 @@
   </si>
   <si>
     <t>scaled</t>
+  </si>
+  <si>
+    <t>Temp f (int)</t>
+  </si>
+  <si>
+    <t>temp_w1</t>
+  </si>
+  <si>
+    <t>temp_w2</t>
+  </si>
+  <si>
+    <t>temp</t>
+  </si>
+  <si>
+    <t>#define HOUSE_CLIENTID</t>
+  </si>
+  <si>
+    <t>#define  SPARE_CLIENTID</t>
+  </si>
+  <si>
+    <t>#define IRRIGATION_CLIENTID</t>
+  </si>
+  <si>
+    <t>ADC Raw Sensor value (int/hex)</t>
+  </si>
+  <si>
+    <t>adc_sensor</t>
+  </si>
+  <si>
+    <t>gpio_sensor</t>
+  </si>
+  <si>
+    <t>GPIO Sensor Data valuse (int/hex)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "Irrigation Flow Client", #define IRRIGATION_CLIENT   "Irrigation Flow Payload", #define IRRIGATION_LEN 10</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "Tank Flow Client", #define TANK_CLIENT   "TankFlow  Payload", #define TANK_LEN 10</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "House Flow Client", #define HOUSE_CLIENT   "House Flow Payload", #define HOUSE_LEN 10</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "SpareFlow  Client", #define SPARE_CLIENT   "SpareFlow  Payload", #define SPARE_LEN 10</t>
+  </si>
+  <si>
+    <t>3ba</t>
+  </si>
+  <si>
+    <t>2d0</t>
+  </si>
+  <si>
+    <t>1c9</t>
+  </si>
+  <si>
+    <t>e8</t>
+  </si>
+  <si>
+    <t>a3</t>
+  </si>
+  <si>
+    <t>34d</t>
+  </si>
+  <si>
+    <t>3ff</t>
   </si>
 </sst>
 </file>
@@ -2797,13 +2868,13 @@
     <xf numFmtId="21" fontId="0" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="18" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3538,6 +3609,391 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$P$10:$P$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>845</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>766</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>720</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>549</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>457</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>368</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>338</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>232</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>163</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$Q$10:$Q$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>95.3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>87.3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>63.4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50.8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>40.299999999999997</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D9A9-DF4C-8728-37542EF907C2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1642919632"/>
+        <c:axId val="1642405536"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1642919632"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1642405536"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1642405536"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1642919632"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -3579,6 +4035,46 @@
 </file>
 
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -4135,6 +4631,522 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -9134,6 +10146,2459 @@
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>6859</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="5918200" cy="374141"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D0EFF46F-BA83-2E4E-8F23-96543B4493FF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3200400" y="6966459"/>
+          <a:ext cx="5918200" cy="374141"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1800"/>
+            <a:t>Sensor Input Raw</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1800" baseline="0"/>
+            <a:t> Data </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1800"/>
+            <a:t> from TankClient.c</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="Straight Arrow Connector 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{91EBBBFA-3B71-5946-895F-861E3441ACC6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9080500" y="8864600"/>
+          <a:ext cx="825500" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="76200" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="4" name="Straight Arrow Connector 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F16E4A65-FF7E-6D41-AAC7-D4426DF3FD21}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="11557000" y="8458200"/>
+          <a:ext cx="825500" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="76200" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>120650</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>120650</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="5" name="Straight Arrow Connector 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{574D6DE3-0621-C549-BBF6-DD486101F398}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11557000" y="7931150"/>
+          <a:ext cx="825500" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="76200" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="4660900" cy="825500"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="TextBox 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FCA9F81F-43FE-104E-864C-2ABE5D0D481E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12395200" y="6527800"/>
+          <a:ext cx="4660900" cy="825500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1800"/>
+            <a:t>/*Raw Tank Sensor Data Conversion</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1800" baseline="0"/>
+            <a:t> and Formatted */</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1800"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1651000" cy="34645600"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="TextBox 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6DCC97A9-56B2-914A-B4BA-F56EBBBDE2D7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9906000" y="1435100"/>
+          <a:ext cx="1651000" cy="34645600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="ctr">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="2800">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>MQTT</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="2800">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Broker</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>660400</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>12701</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="901700" cy="762000"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="TextBox 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FAA6DD10-851F-FD48-BB6A-C657B63F0BA3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11391900" y="6972301"/>
+          <a:ext cx="901700" cy="762000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="ctr">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000"/>
+            <a:t>Sensor</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t> Input</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Raw</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> Data</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>from Tank</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>800100</xdr:colOff>
+      <xdr:row>127</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="4660900" cy="762000"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="TextBox 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{40CB1B18-12C0-0D47-8D08-A1C3BB88584A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12357100" y="26454100"/>
+          <a:ext cx="4660900" cy="762000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1800" baseline="0"/>
+            <a:t>/*Data Formatted for Blynk</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1800" baseline="0"/>
+            <a:t>monitor.c() */</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1800"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>711200</xdr:colOff>
+      <xdr:row>134</xdr:row>
+      <xdr:rowOff>88899</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>711200</xdr:colOff>
+      <xdr:row>134</xdr:row>
+      <xdr:rowOff>88899</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="10" name="Straight Arrow Connector 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0D357380-0996-7845-862D-EA51535E85E5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="11442700" y="27965399"/>
+          <a:ext cx="825500" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="76200" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>132</xdr:row>
+      <xdr:rowOff>171449</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>132</xdr:row>
+      <xdr:rowOff>171449</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="11" name="Straight Arrow Connector 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7A8B4F63-D293-FF4F-84EE-8C7491732A61}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11582400" y="27641549"/>
+          <a:ext cx="825500" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="76200" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>685800</xdr:colOff>
+      <xdr:row>128</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="901700" cy="762000"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="TextBox 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0BCAB9D3-76D7-4A4D-B310-5ECAB7E76C18}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11417300" y="26682700"/>
+          <a:ext cx="901700" cy="762000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="ctr">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000"/>
+            <a:t>Converted</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000" baseline="0"/>
+            <a:t> &amp;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000" baseline="0"/>
+            <a:t> Formatted</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000" baseline="0"/>
+            <a:t>Sensor Data</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>787400</xdr:colOff>
+      <xdr:row>166</xdr:row>
+      <xdr:rowOff>50799</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>787400</xdr:colOff>
+      <xdr:row>166</xdr:row>
+      <xdr:rowOff>50799</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="13" name="Straight Arrow Connector 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C4EB8C2F-83B5-2945-87BB-F2C676A33B20}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="11518900" y="34480499"/>
+          <a:ext cx="825500" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="76200" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>163</xdr:row>
+      <xdr:rowOff>171449</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>163</xdr:row>
+      <xdr:rowOff>171449</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E6F72A9F-9CEF-5345-B6DE-C4076B78EAB6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11582400" y="33953449"/>
+          <a:ext cx="825500" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="76200" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>159</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="4660900" cy="774700"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="TextBox 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F40B3793-9EC2-C24C-8DAA-3275E7D24737}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12382500" y="32994600"/>
+          <a:ext cx="4660900" cy="774700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="C00000"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>/* Compute Alerts alert.c() */</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>660400</xdr:colOff>
+      <xdr:row>159</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="901700" cy="762000"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="TextBox 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2D8DDD45-02B4-7940-B02A-EF0AD91B0FC0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11391900" y="33096200"/>
+          <a:ext cx="901700" cy="762000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="ctr">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000"/>
+            <a:t>Converted</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000" baseline="0"/>
+            <a:t> &amp;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000" baseline="0"/>
+            <a:t> Formatted</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000" baseline="0"/>
+            <a:t>Sensor Data</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>660400</xdr:colOff>
+      <xdr:row>155</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="901700" cy="762000"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="TextBox 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A6043617-E560-9841-BACF-8BA74AB11E9C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11391900" y="32321500"/>
+          <a:ext cx="901700" cy="762000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="ctr">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000"/>
+            <a:t>Formatted</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1000" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000" baseline="0"/>
+            <a:t>Sensor</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000" baseline="0"/>
+            <a:t>Data</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>3517900</xdr:colOff>
+      <xdr:row>132</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>520700</xdr:colOff>
+      <xdr:row>132</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="18" name="Straight Arrow Connector 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{03BD6A3D-2470-4D40-824E-40CEE48D904C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="8775700" y="27546300"/>
+          <a:ext cx="825500" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="76200" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>3520017</xdr:colOff>
+      <xdr:row>135</xdr:row>
+      <xdr:rowOff>33867</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>508000</xdr:colOff>
+      <xdr:row>135</xdr:row>
+      <xdr:rowOff>33867</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="19" name="Straight Arrow Connector 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D775BF6E-9166-F24B-A7AA-17A87BA674A3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="8777817" y="28113567"/>
+          <a:ext cx="810683" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="76200" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>3520016</xdr:colOff>
+      <xdr:row>139</xdr:row>
+      <xdr:rowOff>29633</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>507999</xdr:colOff>
+      <xdr:row>139</xdr:row>
+      <xdr:rowOff>29633</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="20" name="Straight Arrow Connector 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7D8F4D5-0B4F-494B-BA31-C650D425ED18}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="8777816" y="28922133"/>
+          <a:ext cx="810683" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="76200" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>141817</xdr:colOff>
+      <xdr:row>128</xdr:row>
+      <xdr:rowOff>162983</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="901700" cy="762000"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="TextBox 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0D776318-C3A1-7F49-BFFF-8B5D5D078CB9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9222317" y="26782183"/>
+          <a:ext cx="901700" cy="762000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="ctr">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000"/>
+            <a:t>Converted</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000" baseline="0"/>
+            <a:t> &amp;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000" baseline="0"/>
+            <a:t> Formatted</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000" baseline="0"/>
+            <a:t>Sensor Data</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>132</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="901700" cy="762000"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="22" name="TextBox 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B9F328C2-77C3-974F-967D-082AC7944DCE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9232900" y="27660600"/>
+          <a:ext cx="901700" cy="762000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="ctr">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000"/>
+            <a:t>Formatted</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1000" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000" baseline="0"/>
+            <a:t>Sensor</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000" baseline="0"/>
+            <a:t>Data</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>139700</xdr:colOff>
+      <xdr:row>137</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="901700" cy="762000"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="23" name="TextBox 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5810C8DC-AC64-B549-8830-8D475B5BE507}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9220200" y="28575000"/>
+          <a:ext cx="901700" cy="762000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="C00000"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="ctr">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Alert Data</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>164</xdr:row>
+      <xdr:rowOff>171449</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>164</xdr:row>
+      <xdr:rowOff>171449</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9D765518-BEE9-DB4C-995C-D4327056E7FE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11582400" y="34194749"/>
+          <a:ext cx="825500" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="76200" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>4232</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>8976</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="5939367" cy="374141"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="25" name="TextBox 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F79BAFB0-A2B6-0A41-A9BD-B513BEE9F289}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3166532" y="20074976"/>
+          <a:ext cx="5939367" cy="374141"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1800"/>
+            <a:t>Sensor Input Raw</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1800" baseline="0"/>
+            <a:t> Data </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1800"/>
+            <a:t> from GenericFlowClient.c</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>104</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>104</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="26" name="Straight Arrow Connector 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D4B447CB-E61D-0249-B62C-1185AE116145}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9080500" y="21729700"/>
+          <a:ext cx="825500" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="76200" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>783166</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>14816</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="5630334" cy="632884"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="27" name="TextBox 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8D69278E-C27C-3640-8CDF-5FC7D3DCFFBF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12340166" y="19471216"/>
+          <a:ext cx="5630334" cy="632884"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1800" baseline="0"/>
+            <a:t>/*Data Formatted for Blynk flowmonitor.c() */</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1800"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>643465</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>643465</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="28" name="Straight Arrow Connector 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3D074FFF-5FC4-074C-BDB1-F2DD7CF2C2F8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="11379200" y="21115865"/>
+          <a:ext cx="825500" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="76200" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>730250</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>207433</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="901700" cy="762000"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="29" name="TextBox 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2518F207-89D8-504B-A431-462E6872659A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11461750" y="19447933"/>
+          <a:ext cx="901700" cy="762000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="ctr">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000" baseline="0"/>
+            <a:t>Flow Data</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>666749</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>666749</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="30" name="Straight Arrow Connector 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{09208D3E-CEB3-7F4A-B5A1-A12D0BB291A6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11557000" y="21126449"/>
+          <a:ext cx="825500" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="76200" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="5918200" cy="374141"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="31" name="TextBox 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9B47E562-312E-D542-B81F-FAF3228C9E97}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3162300" y="13373100"/>
+          <a:ext cx="5918200" cy="374141"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1800"/>
+            <a:t>Sensor Input Raw</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1800" baseline="0"/>
+            <a:t> Data </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1800"/>
+            <a:t> from WellClient.c</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>156633</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>156633</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="32" name="Straight Arrow Connector 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{392501EE-B698-BE4A-B99D-0F10C626445B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11614150" y="14355233"/>
+          <a:ext cx="825500" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="76200" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>660400</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>812800</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4B0B4970-C9DF-A348-B236-FACD9029E025}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="11391900" y="14338300"/>
+          <a:ext cx="977900" cy="25400"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="76200" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>812800</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>95249</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>812800</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>95249</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="34" name="Straight Arrow Connector 33">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{48A307E6-7585-214B-AB82-23384DDFE5AA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11544300" y="14090649"/>
+          <a:ext cx="825500" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="76200" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>52916</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>203200</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="5357284" cy="622300"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="35" name="TextBox 34">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A12EA6E6-5C1F-AB48-A6B0-D63D6A813BF6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12435416" y="13131800"/>
+          <a:ext cx="5357284" cy="622300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1800" baseline="0"/>
+            <a:t>/*Raw Well Sensor Data Converted and Formatted*/</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1800"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>177799</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="901700" cy="687917"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="36" name="TextBox 35">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BD45D058-DB46-E04D-A339-68CB82DD4AFC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11569700" y="13106399"/>
+          <a:ext cx="901700" cy="687917"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="ctr">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000" baseline="0"/>
+            <a:t> Well Data</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>6859</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="5918200" cy="374141"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="37" name="TextBox 36">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CDF72F03-F8DE-6F49-9873-EE5EB061DF37}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3200400" y="210059"/>
+          <a:ext cx="5918200" cy="374141"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1800"/>
+            <a:t>Sensor Input Raw</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1800" baseline="0"/>
+            <a:t> Data </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1800"/>
+            <a:t> from TankGalClient.c</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="38" name="Straight Arrow Connector 37">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{35798CDA-18FE-4B4E-AF70-32E5AD52CBA0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9080500" y="1866900"/>
+          <a:ext cx="825500" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="76200" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
@@ -9173,7 +12638,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
@@ -9203,6 +12668,47 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>749300</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D42304D4-BE83-FB36-CE83-6C613E512E94}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -11057,12 +14563,167 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{966771D5-F530-CA40-9B7F-ABED69F80906}">
+  <dimension ref="O5:Q18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="J7" zoomScale="185" zoomScaleNormal="185" workbookViewId="0">
+      <selection activeCell="P10" sqref="P10:Q18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="5" spans="15:17" x14ac:dyDescent="0.2">
+      <c r="O5" t="s">
+        <v>796</v>
+      </c>
+      <c r="P5">
+        <v>72.5</v>
+      </c>
+    </row>
+    <row r="6" spans="15:17" x14ac:dyDescent="0.2">
+      <c r="O6">
+        <v>226</v>
+      </c>
+      <c r="P6">
+        <v>38.5</v>
+      </c>
+    </row>
+    <row r="8" spans="15:17" x14ac:dyDescent="0.2">
+      <c r="O8" t="s">
+        <v>802</v>
+      </c>
+      <c r="P8">
+        <f t="shared" ref="P8:P9" si="0">HEX2DEC(O8)</f>
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="9" spans="15:17" x14ac:dyDescent="0.2">
+      <c r="P9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="15:17" x14ac:dyDescent="0.2">
+      <c r="O10" t="s">
+        <v>801</v>
+      </c>
+      <c r="P10">
+        <f>HEX2DEC(O10)</f>
+        <v>845</v>
+      </c>
+      <c r="Q10">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="11" spans="15:17" x14ac:dyDescent="0.2">
+      <c r="O11" t="s">
+        <v>565</v>
+      </c>
+      <c r="P11">
+        <f>HEX2DEC(O11)</f>
+        <v>766</v>
+      </c>
+      <c r="Q11">
+        <v>95.3</v>
+      </c>
+    </row>
+    <row r="12" spans="15:17" x14ac:dyDescent="0.2">
+      <c r="O12" t="s">
+        <v>797</v>
+      </c>
+      <c r="P12">
+        <f t="shared" ref="P12:P18" si="1">HEX2DEC(O12)</f>
+        <v>720</v>
+      </c>
+      <c r="Q12">
+        <v>87.3</v>
+      </c>
+    </row>
+    <row r="13" spans="15:17" x14ac:dyDescent="0.2">
+      <c r="O13">
+        <v>225</v>
+      </c>
+      <c r="P13">
+        <f t="shared" si="1"/>
+        <v>549</v>
+      </c>
+      <c r="Q13">
+        <v>63.4</v>
+      </c>
+    </row>
+    <row r="14" spans="15:17" x14ac:dyDescent="0.2">
+      <c r="O14" t="s">
+        <v>798</v>
+      </c>
+      <c r="P14">
+        <f t="shared" si="1"/>
+        <v>457</v>
+      </c>
+      <c r="Q14">
+        <v>50.8</v>
+      </c>
+    </row>
+    <row r="15" spans="15:17" x14ac:dyDescent="0.2">
+      <c r="O15">
+        <v>170</v>
+      </c>
+      <c r="P15">
+        <f t="shared" si="1"/>
+        <v>368</v>
+      </c>
+      <c r="Q15">
+        <v>40.299999999999997</v>
+      </c>
+    </row>
+    <row r="16" spans="15:17" x14ac:dyDescent="0.2">
+      <c r="O16">
+        <v>152</v>
+      </c>
+      <c r="P16">
+        <f t="shared" si="1"/>
+        <v>338</v>
+      </c>
+      <c r="Q16">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="15:17" x14ac:dyDescent="0.2">
+      <c r="O17" t="s">
+        <v>799</v>
+      </c>
+      <c r="P17">
+        <f t="shared" si="1"/>
+        <v>232</v>
+      </c>
+      <c r="Q17">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="15:17" x14ac:dyDescent="0.2">
+      <c r="O18" t="s">
+        <v>800</v>
+      </c>
+      <c r="P18">
+        <f t="shared" si="1"/>
+        <v>163</v>
+      </c>
+      <c r="Q18">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C03884E4-1121-FE49-8CFC-397DF0F5A368}">
   <dimension ref="A4:R191"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E104" sqref="E104"/>
+    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11650,7 +15311,7 @@
       <c r="D42" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="E42" s="42" t="s">
+      <c r="E42" s="40" t="s">
         <v>197</v>
       </c>
       <c r="J42" s="3" t="s">
@@ -11682,7 +15343,7 @@
       <c r="D43" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="E43" s="42" t="s">
+      <c r="E43" s="40" t="s">
         <v>441</v>
       </c>
       <c r="J43" s="3" t="s">
@@ -11714,7 +15375,7 @@
       <c r="D44" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="E44" s="42" t="s">
+      <c r="E44" s="40" t="s">
         <v>442</v>
       </c>
       <c r="J44" s="3" t="s">
@@ -11746,7 +15407,7 @@
       <c r="D45" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="E45" s="42" t="s">
+      <c r="E45" s="40" t="s">
         <v>443</v>
       </c>
       <c r="J45" s="3" t="s">
@@ -11778,7 +15439,7 @@
       <c r="D46" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="E46" s="42" t="s">
+      <c r="E46" s="40" t="s">
         <v>444</v>
       </c>
       <c r="J46" s="3" t="s">
@@ -13171,7 +16832,7 @@
       <c r="D104" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="E104" s="42" t="s">
+      <c r="E104" s="40" t="s">
         <v>111</v>
       </c>
       <c r="J104" s="3" t="s">
@@ -15001,6 +18662,3816 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3D24274-DAA9-3546-803E-FD965780B13F}">
+  <dimension ref="A4:R191"/>
+  <sheetViews>
+    <sheetView topLeftCell="A81" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E115" sqref="D104:E115"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="8.6640625" customWidth="1"/>
+    <col min="2" max="2" width="30" customWidth="1"/>
+    <col min="3" max="3" width="2.83203125" customWidth="1"/>
+    <col min="4" max="4" width="27.5" style="1" customWidth="1"/>
+    <col min="5" max="5" width="50.1640625" customWidth="1"/>
+    <col min="10" max="10" width="15.6640625" customWidth="1"/>
+    <col min="11" max="11" width="45.33203125" customWidth="1"/>
+    <col min="12" max="12" width="9.33203125" customWidth="1"/>
+    <col min="13" max="13" width="17.33203125" customWidth="1"/>
+    <col min="14" max="14" width="20.83203125" customWidth="1"/>
+    <col min="15" max="16" width="3.5" customWidth="1"/>
+    <col min="17" max="17" width="22.33203125" customWidth="1"/>
+    <col min="18" max="18" width="77.83203125" customWidth="1"/>
+    <col min="19" max="19" width="16.5" customWidth="1"/>
+    <col min="20" max="20" width="39.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="2:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>752</v>
+      </c>
+      <c r="D4" s="23" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D5" s="28" t="s">
+        <v>750</v>
+      </c>
+      <c r="E5" s="28" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>760</v>
+      </c>
+      <c r="C6" t="s">
+        <v>206</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>761</v>
+      </c>
+      <c r="C7" t="s">
+        <v>206</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>762</v>
+      </c>
+      <c r="C8" t="s">
+        <v>206</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
+        <v>371</v>
+      </c>
+      <c r="C9" t="s">
+        <v>206</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
+        <v>372</v>
+      </c>
+      <c r="C10" t="s">
+        <v>206</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
+        <v>392</v>
+      </c>
+      <c r="C11" t="s">
+        <v>206</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B12" t="s">
+        <v>393</v>
+      </c>
+      <c r="C12" t="s">
+        <v>206</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B13" t="s">
+        <v>394</v>
+      </c>
+      <c r="C13" t="s">
+        <v>206</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B14" t="s">
+        <v>407</v>
+      </c>
+      <c r="C14" t="s">
+        <v>206</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B15" t="s">
+        <v>408</v>
+      </c>
+      <c r="C15" t="s">
+        <v>206</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B16" t="s">
+        <v>764</v>
+      </c>
+      <c r="C16" t="s">
+        <v>206</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="17" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B17" t="s">
+        <v>410</v>
+      </c>
+      <c r="C17" t="s">
+        <v>206</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B18" t="s">
+        <v>365</v>
+      </c>
+      <c r="C18" t="s">
+        <v>206</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="19" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B19" t="s">
+        <v>411</v>
+      </c>
+      <c r="C19" t="s">
+        <v>206</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B20" t="s">
+        <v>412</v>
+      </c>
+      <c r="C20" t="s">
+        <v>206</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B21" t="s">
+        <v>413</v>
+      </c>
+      <c r="C21" t="s">
+        <v>206</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B22" t="s">
+        <v>414</v>
+      </c>
+      <c r="C22" t="s">
+        <v>206</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B23" t="s">
+        <v>756</v>
+      </c>
+      <c r="C23" t="s">
+        <v>206</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="24" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B24" t="s">
+        <v>757</v>
+      </c>
+      <c r="C24" t="s">
+        <v>206</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B25" t="s">
+        <v>758</v>
+      </c>
+      <c r="C25" t="s">
+        <v>206</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="26" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B26" t="s">
+        <v>759</v>
+      </c>
+      <c r="C26" t="s">
+        <v>206</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="27" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="C27" t="s">
+        <v>206</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E27" s="6"/>
+    </row>
+    <row r="28" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="D28" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E28" s="6"/>
+    </row>
+    <row r="29" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="D29" s="11" t="s">
+        <v>208</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>765</v>
+      </c>
+      <c r="P29">
+        <v>0</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>422</v>
+      </c>
+      <c r="R29" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="30" spans="2:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D30" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E30" s="7"/>
+      <c r="P30">
+        <v>1</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>423</v>
+      </c>
+      <c r="R30" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="31" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="P31">
+        <v>2</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>459</v>
+      </c>
+      <c r="R31" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="32" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="P32">
+        <v>3</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>461</v>
+      </c>
+      <c r="R32" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="P33">
+        <v>4</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>460</v>
+      </c>
+      <c r="R33" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="P34">
+        <v>5</v>
+      </c>
+      <c r="Q34" t="s">
+        <v>519</v>
+      </c>
+      <c r="R34" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="P35">
+        <v>6</v>
+      </c>
+      <c r="Q35" t="s">
+        <v>463</v>
+      </c>
+      <c r="R35" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="P36">
+        <v>7</v>
+      </c>
+      <c r="Q36" t="s">
+        <v>462</v>
+      </c>
+      <c r="R36" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18" ht="19" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
+        <v>502</v>
+      </c>
+      <c r="D37" s="23" t="s">
+        <v>377</v>
+      </c>
+      <c r="J37" s="22" t="s">
+        <v>373</v>
+      </c>
+      <c r="N37" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>494</v>
+      </c>
+      <c r="D38" s="28" t="s">
+        <v>422</v>
+      </c>
+      <c r="E38" s="28" t="s">
+        <v>510</v>
+      </c>
+      <c r="J38" s="28" t="s">
+        <v>461</v>
+      </c>
+      <c r="K38" s="28" t="s">
+        <v>467</v>
+      </c>
+      <c r="M38" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>208</v>
+      </c>
+      <c r="B39" t="s">
+        <v>401</v>
+      </c>
+      <c r="C39" t="s">
+        <v>206</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="E39" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="J39" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="K39" s="6" t="s">
+        <v>445</v>
+      </c>
+      <c r="M39" t="s">
+        <v>87</v>
+      </c>
+      <c r="N39" t="s">
+        <v>448</v>
+      </c>
+      <c r="O39" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>208</v>
+      </c>
+      <c r="B40" t="s">
+        <v>402</v>
+      </c>
+      <c r="C40" t="s">
+        <v>206</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E40" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="J40" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="K40" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="M40" t="s">
+        <v>87</v>
+      </c>
+      <c r="N40" t="s">
+        <v>361</v>
+      </c>
+      <c r="O40" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>208</v>
+      </c>
+      <c r="B41" t="s">
+        <v>403</v>
+      </c>
+      <c r="C41" t="s">
+        <v>206</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E41" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="J41" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="K41" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="M41" t="s">
+        <v>87</v>
+      </c>
+      <c r="N41" t="s">
+        <v>362</v>
+      </c>
+      <c r="O41" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>208</v>
+      </c>
+      <c r="B42" t="s">
+        <v>479</v>
+      </c>
+      <c r="C42" t="s">
+        <v>206</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E42" s="40" t="s">
+        <v>197</v>
+      </c>
+      <c r="J42" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="K42" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="M42" t="s">
+        <v>87</v>
+      </c>
+      <c r="N42" t="s">
+        <v>363</v>
+      </c>
+      <c r="O42" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>208</v>
+      </c>
+      <c r="B43" t="s">
+        <v>480</v>
+      </c>
+      <c r="C43" t="s">
+        <v>206</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E43" s="40" t="s">
+        <v>441</v>
+      </c>
+      <c r="J43" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="K43" s="6" t="s">
+        <v>447</v>
+      </c>
+      <c r="M43" t="s">
+        <v>87</v>
+      </c>
+      <c r="N43" t="s">
+        <v>449</v>
+      </c>
+      <c r="O43" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>208</v>
+      </c>
+      <c r="B44" t="s">
+        <v>481</v>
+      </c>
+      <c r="C44" t="s">
+        <v>206</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E44" s="40" t="s">
+        <v>442</v>
+      </c>
+      <c r="J44" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="K44" s="6" t="s">
+        <v>766</v>
+      </c>
+      <c r="M44" t="s">
+        <v>87</v>
+      </c>
+      <c r="N44" t="s">
+        <v>44</v>
+      </c>
+      <c r="O44" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>208</v>
+      </c>
+      <c r="B45" t="s">
+        <v>482</v>
+      </c>
+      <c r="C45" t="s">
+        <v>206</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E45" s="40" t="s">
+        <v>443</v>
+      </c>
+      <c r="J45" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="K45" s="6" t="s">
+        <v>767</v>
+      </c>
+      <c r="M45" t="s">
+        <v>87</v>
+      </c>
+      <c r="N45" t="s">
+        <v>44</v>
+      </c>
+      <c r="O45" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>208</v>
+      </c>
+      <c r="B46" t="s">
+        <v>483</v>
+      </c>
+      <c r="C46" t="s">
+        <v>206</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E46" s="40" t="s">
+        <v>444</v>
+      </c>
+      <c r="J46" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="K46" s="6" t="s">
+        <v>768</v>
+      </c>
+      <c r="M46" t="s">
+        <v>87</v>
+      </c>
+      <c r="N46" t="s">
+        <v>44</v>
+      </c>
+      <c r="O46" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="47" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>208</v>
+      </c>
+      <c r="B47" t="s">
+        <v>371</v>
+      </c>
+      <c r="C47" t="s">
+        <v>206</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E47" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="J47" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="K47" s="6" t="s">
+        <v>769</v>
+      </c>
+      <c r="M47" t="s">
+        <v>87</v>
+      </c>
+      <c r="N47" t="s">
+        <v>44</v>
+      </c>
+      <c r="O47" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="48" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>208</v>
+      </c>
+      <c r="B48" t="s">
+        <v>372</v>
+      </c>
+      <c r="C48" t="s">
+        <v>206</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E48" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="J48" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="K48" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="M48" t="s">
+        <v>87</v>
+      </c>
+      <c r="N48" t="s">
+        <v>44</v>
+      </c>
+      <c r="O48" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>208</v>
+      </c>
+      <c r="B49" t="s">
+        <v>392</v>
+      </c>
+      <c r="C49" t="s">
+        <v>206</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E49" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="J49" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="K49" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="M49" t="s">
+        <v>87</v>
+      </c>
+      <c r="N49" t="s">
+        <v>365</v>
+      </c>
+      <c r="O49" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>208</v>
+      </c>
+      <c r="B50" t="s">
+        <v>393</v>
+      </c>
+      <c r="C50" t="s">
+        <v>206</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E50" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="J50" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="K50" s="6" t="s">
+        <v>446</v>
+      </c>
+      <c r="M50" t="s">
+        <v>87</v>
+      </c>
+      <c r="N50" t="s">
+        <v>450</v>
+      </c>
+      <c r="O50" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>208</v>
+      </c>
+      <c r="B51" t="s">
+        <v>365</v>
+      </c>
+      <c r="C51" t="s">
+        <v>206</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E51" s="6" t="s">
+        <v>509</v>
+      </c>
+      <c r="J51" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="K51" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="M51" t="s">
+        <v>87</v>
+      </c>
+      <c r="N51" t="s">
+        <v>366</v>
+      </c>
+      <c r="O51" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>208</v>
+      </c>
+      <c r="B52" t="s">
+        <v>394</v>
+      </c>
+      <c r="C52" t="s">
+        <v>206</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E52" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="J52" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="K52" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="M52" t="s">
+        <v>87</v>
+      </c>
+      <c r="N52" t="s">
+        <v>367</v>
+      </c>
+      <c r="O52" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>208</v>
+      </c>
+      <c r="B53" t="s">
+        <v>407</v>
+      </c>
+      <c r="C53" t="s">
+        <v>206</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E53" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="J53" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="K53" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="M53" t="s">
+        <v>87</v>
+      </c>
+      <c r="N53" t="s">
+        <v>368</v>
+      </c>
+      <c r="O53" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>208</v>
+      </c>
+      <c r="B54" t="s">
+        <v>408</v>
+      </c>
+      <c r="C54" t="s">
+        <v>206</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="E54" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="J54" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="K54" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="M54" t="s">
+        <v>87</v>
+      </c>
+      <c r="N54" t="s">
+        <v>369</v>
+      </c>
+      <c r="O54" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>208</v>
+      </c>
+      <c r="B55" t="s">
+        <v>409</v>
+      </c>
+      <c r="C55" t="s">
+        <v>206</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E55" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="J55" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="K55" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="M55" t="s">
+        <v>87</v>
+      </c>
+      <c r="N55" t="s">
+        <v>44</v>
+      </c>
+      <c r="O55" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>208</v>
+      </c>
+      <c r="B56" t="s">
+        <v>484</v>
+      </c>
+      <c r="C56" t="s">
+        <v>206</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="E56" s="6" t="s">
+        <v>430</v>
+      </c>
+      <c r="J56" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="K56" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="M56" t="s">
+        <v>87</v>
+      </c>
+      <c r="N56" t="s">
+        <v>44</v>
+      </c>
+      <c r="O56" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>208</v>
+      </c>
+      <c r="B57" t="s">
+        <v>485</v>
+      </c>
+      <c r="C57" t="s">
+        <v>206</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E57" s="6" t="s">
+        <v>431</v>
+      </c>
+      <c r="J57" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="K57" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="M57" t="s">
+        <v>87</v>
+      </c>
+      <c r="N57" t="s">
+        <v>44</v>
+      </c>
+      <c r="O57" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>208</v>
+      </c>
+      <c r="B58" t="s">
+        <v>410</v>
+      </c>
+      <c r="C58" t="s">
+        <v>206</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E58" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="J58" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="K58" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="M58" t="s">
+        <v>87</v>
+      </c>
+      <c r="N58" t="s">
+        <v>44</v>
+      </c>
+      <c r="O58" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>208</v>
+      </c>
+      <c r="B59" t="s">
+        <v>411</v>
+      </c>
+      <c r="C59" t="s">
+        <v>206</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E59" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="J59" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="K59" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="M59" t="s">
+        <v>87</v>
+      </c>
+      <c r="N59" t="s">
+        <v>44</v>
+      </c>
+      <c r="O59" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>400</v>
+      </c>
+      <c r="C60" t="s">
+        <v>206</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E60" s="6"/>
+      <c r="J60" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="K60" s="6"/>
+      <c r="M60" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="D61" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E61" s="6"/>
+      <c r="J61" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="K61" s="6"/>
+      <c r="N61" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="D62" s="11" t="s">
+        <v>208</v>
+      </c>
+      <c r="E62" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="J62" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="K62" s="3" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D63" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E63" s="7"/>
+      <c r="J63" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="K63" s="7"/>
+    </row>
+    <row r="67" spans="1:15" ht="19" x14ac:dyDescent="0.25">
+      <c r="B67" t="s">
+        <v>503</v>
+      </c>
+      <c r="D67" s="23" t="s">
+        <v>378</v>
+      </c>
+      <c r="J67" s="23" t="s">
+        <v>374</v>
+      </c>
+      <c r="N67" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="68" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>380</v>
+      </c>
+      <c r="D68" s="28" t="s">
+        <v>423</v>
+      </c>
+      <c r="E68" s="28" t="s">
+        <v>511</v>
+      </c>
+      <c r="J68" s="28" t="s">
+        <v>460</v>
+      </c>
+      <c r="K68" s="28" t="s">
+        <v>468</v>
+      </c>
+      <c r="M68" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="69" spans="1:15" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>208</v>
+      </c>
+      <c r="B69" t="s">
+        <v>514</v>
+      </c>
+      <c r="C69" t="s">
+        <v>206</v>
+      </c>
+      <c r="D69" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="E69" s="6" t="s">
+        <v>434</v>
+      </c>
+      <c r="J69" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="K69" s="6" t="s">
+        <v>451</v>
+      </c>
+      <c r="M69" t="s">
+        <v>87</v>
+      </c>
+      <c r="N69" t="s">
+        <v>473</v>
+      </c>
+      <c r="O69" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="70" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>208</v>
+      </c>
+      <c r="B70" t="s">
+        <v>515</v>
+      </c>
+      <c r="C70" t="s">
+        <v>206</v>
+      </c>
+      <c r="D70" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E70" s="6" t="s">
+        <v>435</v>
+      </c>
+      <c r="J70" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="K70" s="6" t="s">
+        <v>452</v>
+      </c>
+      <c r="M70" t="s">
+        <v>87</v>
+      </c>
+      <c r="N70" t="s">
+        <v>474</v>
+      </c>
+      <c r="O70" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="71" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>208</v>
+      </c>
+      <c r="B71" t="s">
+        <v>516</v>
+      </c>
+      <c r="C71" t="s">
+        <v>206</v>
+      </c>
+      <c r="D71" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E71" s="6" t="s">
+        <v>436</v>
+      </c>
+      <c r="J71" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="K71" s="6" t="s">
+        <v>453</v>
+      </c>
+      <c r="M71" t="s">
+        <v>87</v>
+      </c>
+      <c r="N71" t="s">
+        <v>475</v>
+      </c>
+      <c r="O71" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="72" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>208</v>
+      </c>
+      <c r="B72" t="s">
+        <v>517</v>
+      </c>
+      <c r="C72" t="s">
+        <v>206</v>
+      </c>
+      <c r="D72" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E72" s="6" t="s">
+        <v>437</v>
+      </c>
+      <c r="J72" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="K72" s="6" t="s">
+        <v>454</v>
+      </c>
+      <c r="M72" t="s">
+        <v>87</v>
+      </c>
+      <c r="N72" t="s">
+        <v>476</v>
+      </c>
+      <c r="O72" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="73" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>208</v>
+      </c>
+      <c r="B73" t="s">
+        <v>370</v>
+      </c>
+      <c r="C73" t="s">
+        <v>206</v>
+      </c>
+      <c r="D73" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E73" s="6" t="s">
+        <v>438</v>
+      </c>
+      <c r="J73" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="K73" s="6" t="s">
+        <v>455</v>
+      </c>
+      <c r="M73" t="s">
+        <v>87</v>
+      </c>
+      <c r="N73" t="s">
+        <v>370</v>
+      </c>
+      <c r="O73" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="74" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>208</v>
+      </c>
+      <c r="B74" t="s">
+        <v>513</v>
+      </c>
+      <c r="C74" t="s">
+        <v>206</v>
+      </c>
+      <c r="D74" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E74" s="6" t="s">
+        <v>439</v>
+      </c>
+      <c r="J74" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="K74" s="6" t="s">
+        <v>456</v>
+      </c>
+      <c r="M74" t="s">
+        <v>87</v>
+      </c>
+      <c r="N74" t="s">
+        <v>477</v>
+      </c>
+      <c r="O74" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="75" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>208</v>
+      </c>
+      <c r="B75" t="s">
+        <v>478</v>
+      </c>
+      <c r="C75" t="s">
+        <v>206</v>
+      </c>
+      <c r="D75" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E75" s="6" t="s">
+        <v>440</v>
+      </c>
+      <c r="J75" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="K75" s="6" t="s">
+        <v>457</v>
+      </c>
+      <c r="M75" t="s">
+        <v>87</v>
+      </c>
+      <c r="N75" t="s">
+        <v>478</v>
+      </c>
+      <c r="O75" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="76" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>208</v>
+      </c>
+      <c r="B76" t="s">
+        <v>371</v>
+      </c>
+      <c r="C76" t="s">
+        <v>206</v>
+      </c>
+      <c r="D76" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E76" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="J76" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="K76" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="M76" t="s">
+        <v>87</v>
+      </c>
+      <c r="N76" t="s">
+        <v>215</v>
+      </c>
+      <c r="O76" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="77" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>208</v>
+      </c>
+      <c r="B77" t="s">
+        <v>372</v>
+      </c>
+      <c r="C77" t="s">
+        <v>206</v>
+      </c>
+      <c r="D77" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E77" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="J77" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="K77" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="M77" t="s">
+        <v>87</v>
+      </c>
+      <c r="N77" t="s">
+        <v>216</v>
+      </c>
+      <c r="O77" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="78" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>208</v>
+      </c>
+      <c r="B78" t="s">
+        <v>392</v>
+      </c>
+      <c r="C78" t="s">
+        <v>206</v>
+      </c>
+      <c r="D78" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E78" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="J78" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="K78" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="M78" t="s">
+        <v>87</v>
+      </c>
+      <c r="N78" t="s">
+        <v>217</v>
+      </c>
+      <c r="O78" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="79" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>208</v>
+      </c>
+      <c r="B79" t="s">
+        <v>389</v>
+      </c>
+      <c r="C79" t="s">
+        <v>206</v>
+      </c>
+      <c r="D79" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E79" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="J79" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="K79" s="6" t="s">
+        <v>458</v>
+      </c>
+      <c r="M79" t="s">
+        <v>87</v>
+      </c>
+      <c r="N79" t="s">
+        <v>432</v>
+      </c>
+      <c r="O79" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="80" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>208</v>
+      </c>
+      <c r="B80" t="s">
+        <v>44</v>
+      </c>
+      <c r="C80" t="s">
+        <v>206</v>
+      </c>
+      <c r="D80" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E80" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="J80" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="K80" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="M80" t="s">
+        <v>87</v>
+      </c>
+      <c r="N80" t="s">
+        <v>219</v>
+      </c>
+      <c r="O80" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="81" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>208</v>
+      </c>
+      <c r="B81" t="s">
+        <v>365</v>
+      </c>
+      <c r="C81" t="s">
+        <v>206</v>
+      </c>
+      <c r="D81" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E81" s="6" t="s">
+        <v>520</v>
+      </c>
+      <c r="J81" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="K81" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="M81" t="s">
+        <v>87</v>
+      </c>
+      <c r="N81" t="s">
+        <v>365</v>
+      </c>
+      <c r="O81" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="82" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>208</v>
+      </c>
+      <c r="B82" t="s">
+        <v>393</v>
+      </c>
+      <c r="C82" t="s">
+        <v>206</v>
+      </c>
+      <c r="D82" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E82" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="J82" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="K82" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="M82" t="s">
+        <v>87</v>
+      </c>
+      <c r="N82" t="s">
+        <v>221</v>
+      </c>
+      <c r="O82" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="83" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>208</v>
+      </c>
+      <c r="B83" t="s">
+        <v>394</v>
+      </c>
+      <c r="C83" t="s">
+        <v>206</v>
+      </c>
+      <c r="D83" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E83" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="J83" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="K83" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="M83" t="s">
+        <v>87</v>
+      </c>
+      <c r="N83" t="s">
+        <v>222</v>
+      </c>
+      <c r="O83" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="84" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>208</v>
+      </c>
+      <c r="B84" t="s">
+        <v>407</v>
+      </c>
+      <c r="C84" t="s">
+        <v>206</v>
+      </c>
+      <c r="D84" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="E84" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="J84" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="K84" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="M84" t="s">
+        <v>87</v>
+      </c>
+      <c r="N84" t="s">
+        <v>223</v>
+      </c>
+      <c r="O84" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="85" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>208</v>
+      </c>
+      <c r="B85" t="s">
+        <v>408</v>
+      </c>
+      <c r="C85" t="s">
+        <v>206</v>
+      </c>
+      <c r="D85" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E85" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="J85" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="K85" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="M85" t="s">
+        <v>87</v>
+      </c>
+      <c r="N85" t="s">
+        <v>224</v>
+      </c>
+      <c r="O85" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="86" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>208</v>
+      </c>
+      <c r="B86" t="s">
+        <v>409</v>
+      </c>
+      <c r="C86" t="s">
+        <v>206</v>
+      </c>
+      <c r="D86" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="E86" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="J86" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="K86" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="M86" t="s">
+        <v>87</v>
+      </c>
+      <c r="N86" t="s">
+        <v>225</v>
+      </c>
+      <c r="O86" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="87" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>208</v>
+      </c>
+      <c r="B87" t="s">
+        <v>410</v>
+      </c>
+      <c r="C87" t="s">
+        <v>206</v>
+      </c>
+      <c r="D87" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E87" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="J87" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="K87" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="M87" t="s">
+        <v>87</v>
+      </c>
+      <c r="N87" t="s">
+        <v>226</v>
+      </c>
+      <c r="O87" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="88" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>208</v>
+      </c>
+      <c r="B88" t="s">
+        <v>411</v>
+      </c>
+      <c r="C88" t="s">
+        <v>206</v>
+      </c>
+      <c r="D88" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E88" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="J88" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="K88" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="M88" t="s">
+        <v>87</v>
+      </c>
+      <c r="N88" t="s">
+        <v>227</v>
+      </c>
+      <c r="O88" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="89" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>208</v>
+      </c>
+      <c r="B89" t="s">
+        <v>399</v>
+      </c>
+      <c r="C89" t="s">
+        <v>206</v>
+      </c>
+      <c r="D89" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E89" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="J89" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="K89" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="M89" t="s">
+        <v>87</v>
+      </c>
+      <c r="N89" t="s">
+        <v>228</v>
+      </c>
+      <c r="O89" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="90" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>400</v>
+      </c>
+      <c r="C90" t="s">
+        <v>206</v>
+      </c>
+      <c r="D90" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E90" s="6"/>
+      <c r="J90" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="K90" s="6"/>
+      <c r="M90" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="91" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="D91" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E91" s="6"/>
+      <c r="J91" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="K91" s="6"/>
+    </row>
+    <row r="92" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="D92" s="11" t="s">
+        <v>208</v>
+      </c>
+      <c r="E92" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="J92" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="K92" s="3" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="93" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D93" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E93" s="7"/>
+      <c r="J93" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="K93" s="7"/>
+    </row>
+    <row r="99" spans="1:15" ht="19" x14ac:dyDescent="0.25">
+      <c r="D99" s="23" t="s">
+        <v>379</v>
+      </c>
+      <c r="J99" s="23" t="s">
+        <v>375</v>
+      </c>
+      <c r="N99" s="29" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="100" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="D100" s="28" t="s">
+        <v>787</v>
+      </c>
+      <c r="E100" s="28" t="s">
+        <v>792</v>
+      </c>
+      <c r="J100" s="28" t="s">
+        <v>518</v>
+      </c>
+      <c r="K100" s="28" t="s">
+        <v>469</v>
+      </c>
+      <c r="M100" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="101" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="D101" s="28" t="s">
+        <v>422</v>
+      </c>
+      <c r="E101" s="28" t="s">
+        <v>793</v>
+      </c>
+      <c r="J101" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="K101" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="M101" t="s">
+        <v>87</v>
+      </c>
+      <c r="N101" t="s">
+        <v>505</v>
+      </c>
+      <c r="O101" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="102" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="D102" s="28" t="s">
+        <v>785</v>
+      </c>
+      <c r="E102" s="28" t="s">
+        <v>794</v>
+      </c>
+      <c r="J102" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="K102" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="M102" t="s">
+        <v>87</v>
+      </c>
+      <c r="N102" t="s">
+        <v>506</v>
+      </c>
+      <c r="O102" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="103" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="D103" s="28" t="s">
+        <v>786</v>
+      </c>
+      <c r="E103" s="28" t="s">
+        <v>795</v>
+      </c>
+      <c r="J103" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="K103" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="M103" t="s">
+        <v>87</v>
+      </c>
+      <c r="N103" t="s">
+        <v>507</v>
+      </c>
+      <c r="O103" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="104" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B104" s="29" t="s">
+        <v>504</v>
+      </c>
+      <c r="D104" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="E104" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="J104" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="K104" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="M104" t="s">
+        <v>87</v>
+      </c>
+      <c r="N104" t="s">
+        <v>508</v>
+      </c>
+      <c r="O104" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="105" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A105" t="s">
+        <v>419</v>
+      </c>
+      <c r="D105" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E105" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="J105" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="K105" s="6" t="s">
+        <v>746</v>
+      </c>
+      <c r="M105" t="s">
+        <v>87</v>
+      </c>
+      <c r="N105" t="s">
+        <v>748</v>
+      </c>
+      <c r="O105" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="106" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A106" t="s">
+        <v>208</v>
+      </c>
+      <c r="B106" t="s">
+        <v>401</v>
+      </c>
+      <c r="C106" t="s">
+        <v>206</v>
+      </c>
+      <c r="D106" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E106" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="J106" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="K106" s="6" t="s">
+        <v>747</v>
+      </c>
+      <c r="M106" t="s">
+        <v>87</v>
+      </c>
+      <c r="N106" t="s">
+        <v>749</v>
+      </c>
+      <c r="O106" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="107" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A107" t="s">
+        <v>208</v>
+      </c>
+      <c r="B107" t="s">
+        <v>402</v>
+      </c>
+      <c r="C107" t="s">
+        <v>206</v>
+      </c>
+      <c r="D107" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E107" s="6" t="s">
+        <v>788</v>
+      </c>
+      <c r="J107" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="K107" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="M107" t="s">
+        <v>87</v>
+      </c>
+      <c r="N107" t="s">
+        <v>214</v>
+      </c>
+      <c r="O107" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="108" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A108" t="s">
+        <v>208</v>
+      </c>
+      <c r="B108" t="s">
+        <v>403</v>
+      </c>
+      <c r="C108" t="s">
+        <v>206</v>
+      </c>
+      <c r="D108" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E108" s="6" t="s">
+        <v>791</v>
+      </c>
+      <c r="J108" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="K108" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="M108" t="s">
+        <v>87</v>
+      </c>
+      <c r="N108" t="s">
+        <v>215</v>
+      </c>
+      <c r="O108" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="109" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A109" t="s">
+        <v>208</v>
+      </c>
+      <c r="B109" t="s">
+        <v>789</v>
+      </c>
+      <c r="C109" t="s">
+        <v>206</v>
+      </c>
+      <c r="D109" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E109" s="6" t="s">
+        <v>781</v>
+      </c>
+      <c r="J109" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="K109" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="M109" t="s">
+        <v>87</v>
+      </c>
+      <c r="N109" t="s">
+        <v>216</v>
+      </c>
+      <c r="O109" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="110" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A110" t="s">
+        <v>208</v>
+      </c>
+      <c r="B110" t="s">
+        <v>790</v>
+      </c>
+      <c r="C110" t="s">
+        <v>206</v>
+      </c>
+      <c r="D110" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E110" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="J110" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="K110" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="M110" t="s">
+        <v>87</v>
+      </c>
+      <c r="N110" t="s">
+        <v>217</v>
+      </c>
+      <c r="O110" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="111" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A111" t="s">
+        <v>208</v>
+      </c>
+      <c r="B111" t="s">
+        <v>784</v>
+      </c>
+      <c r="C111" t="s">
+        <v>206</v>
+      </c>
+      <c r="D111" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E111" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="J111" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="K111" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="M111" t="s">
+        <v>87</v>
+      </c>
+      <c r="N111" t="s">
+        <v>509</v>
+      </c>
+      <c r="O111" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="112" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A112" t="s">
+        <v>208</v>
+      </c>
+      <c r="B112" t="s">
+        <v>782</v>
+      </c>
+      <c r="C112" t="s">
+        <v>206</v>
+      </c>
+      <c r="D112" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E112" s="6" t="s">
+        <v>520</v>
+      </c>
+      <c r="J112" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="K112" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="M112" t="s">
+        <v>87</v>
+      </c>
+      <c r="N112" t="s">
+        <v>219</v>
+      </c>
+      <c r="O112" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="113" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A113" t="s">
+        <v>208</v>
+      </c>
+      <c r="B113" t="s">
+        <v>783</v>
+      </c>
+      <c r="C113" t="s">
+        <v>206</v>
+      </c>
+      <c r="D113" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E113" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="J113" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="K113" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="M113" t="s">
+        <v>87</v>
+      </c>
+      <c r="N113" t="s">
+        <v>220</v>
+      </c>
+      <c r="O113" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="114" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A114" t="s">
+        <v>208</v>
+      </c>
+      <c r="B114" t="s">
+        <v>365</v>
+      </c>
+      <c r="C114" t="s">
+        <v>206</v>
+      </c>
+      <c r="D114" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E114" s="6"/>
+      <c r="J114" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="K114" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="M114" t="s">
+        <v>87</v>
+      </c>
+      <c r="N114" t="s">
+        <v>221</v>
+      </c>
+      <c r="O114" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="115" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A115" t="s">
+        <v>208</v>
+      </c>
+      <c r="B115" t="s">
+        <v>364</v>
+      </c>
+      <c r="C115" t="s">
+        <v>206</v>
+      </c>
+      <c r="D115" s="3"/>
+      <c r="E115" s="6"/>
+      <c r="J115" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="K115" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="M115" t="s">
+        <v>87</v>
+      </c>
+      <c r="N115" t="s">
+        <v>222</v>
+      </c>
+      <c r="O115" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="116" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B116" t="s">
+        <v>400</v>
+      </c>
+      <c r="D116" s="3"/>
+      <c r="E116" s="6"/>
+      <c r="J116" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="K116" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="M116" t="s">
+        <v>87</v>
+      </c>
+      <c r="N116" t="s">
+        <v>223</v>
+      </c>
+      <c r="O116" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="117" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="D117" s="3"/>
+      <c r="E117" s="6"/>
+      <c r="J117" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="K117" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="M117" t="s">
+        <v>87</v>
+      </c>
+      <c r="N117" t="s">
+        <v>224</v>
+      </c>
+      <c r="O117" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="118" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="D118" s="3"/>
+      <c r="E118" s="6"/>
+      <c r="J118" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="K118" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="M118" t="s">
+        <v>87</v>
+      </c>
+      <c r="N118" t="s">
+        <v>225</v>
+      </c>
+      <c r="O118" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="119" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="D119" s="3"/>
+      <c r="E119" s="6"/>
+      <c r="J119" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="K119" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="M119" t="s">
+        <v>87</v>
+      </c>
+      <c r="N119" t="s">
+        <v>226</v>
+      </c>
+      <c r="O119" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="120" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="D120" s="3"/>
+      <c r="E120" s="6"/>
+      <c r="J120" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="K120" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="M120" t="s">
+        <v>87</v>
+      </c>
+      <c r="N120" t="s">
+        <v>227</v>
+      </c>
+      <c r="O120" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="121" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="D121" s="3"/>
+      <c r="E121" s="6"/>
+      <c r="J121" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="K121" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="M121" t="s">
+        <v>87</v>
+      </c>
+      <c r="N121" t="s">
+        <v>228</v>
+      </c>
+      <c r="O121" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="122" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="D122" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E122" s="6"/>
+      <c r="J122" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="K122" s="6"/>
+      <c r="M122" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="123" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="D123" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E123" s="6"/>
+      <c r="J123" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="K123" s="6"/>
+    </row>
+    <row r="124" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="D124" s="10" t="s">
+        <v>208</v>
+      </c>
+      <c r="E124" s="6" t="s">
+        <v>489</v>
+      </c>
+      <c r="J124" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="K124" s="3" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="125" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D125" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E125" s="7"/>
+      <c r="J125" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="K125" s="7"/>
+    </row>
+    <row r="128" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B128" s="12" t="s">
+        <v>188</v>
+      </c>
+      <c r="C128" s="12">
+        <v>0</v>
+      </c>
+      <c r="D128" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="E128" s="12" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="129" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B129" s="12" t="s">
+        <v>169</v>
+      </c>
+      <c r="C129" s="12">
+        <v>1</v>
+      </c>
+      <c r="D129" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="E129" s="12" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="130" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B130" s="12" t="s">
+        <v>169</v>
+      </c>
+      <c r="C130" s="12">
+        <v>2</v>
+      </c>
+      <c r="D130" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="E130" s="12" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="131" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B131" s="12" t="s">
+        <v>169</v>
+      </c>
+      <c r="C131" s="12">
+        <v>3</v>
+      </c>
+      <c r="D131" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="E131" s="12" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="132" spans="2:15" ht="19" x14ac:dyDescent="0.25">
+      <c r="B132" s="12" t="s">
+        <v>169</v>
+      </c>
+      <c r="C132" s="12">
+        <v>4</v>
+      </c>
+      <c r="D132" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="E132" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="J132" s="22" t="s">
+        <v>376</v>
+      </c>
+      <c r="N132" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="133" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B133" s="12" t="s">
+        <v>169</v>
+      </c>
+      <c r="C133" s="12">
+        <v>5</v>
+      </c>
+      <c r="D133" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="E133" s="12" t="s">
+        <v>183</v>
+      </c>
+      <c r="J133" s="28" t="s">
+        <v>463</v>
+      </c>
+      <c r="K133" s="28" t="s">
+        <v>470</v>
+      </c>
+      <c r="M133" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="134" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B134" s="12" t="s">
+        <v>169</v>
+      </c>
+      <c r="C134" s="12">
+        <v>6</v>
+      </c>
+      <c r="D134" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="E134" s="12" t="s">
+        <v>184</v>
+      </c>
+      <c r="J134" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="K134" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="M134" t="s">
+        <v>208</v>
+      </c>
+      <c r="N134" t="s">
+        <v>341</v>
+      </c>
+      <c r="O134" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="135" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B135" s="12" t="s">
+        <v>169</v>
+      </c>
+      <c r="C135" s="12">
+        <v>7</v>
+      </c>
+      <c r="D135" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="E135" s="12" t="s">
+        <v>185</v>
+      </c>
+      <c r="J135" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="K135" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="M135" t="s">
+        <v>208</v>
+      </c>
+      <c r="N135" t="s">
+        <v>342</v>
+      </c>
+      <c r="O135" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="136" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B136" s="12" t="s">
+        <v>169</v>
+      </c>
+      <c r="C136" s="12">
+        <v>8</v>
+      </c>
+      <c r="D136" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="E136" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="J136" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="K136" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="M136" t="s">
+        <v>208</v>
+      </c>
+      <c r="N136" t="s">
+        <v>343</v>
+      </c>
+      <c r="O136" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="137" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B137" s="12" t="s">
+        <v>169</v>
+      </c>
+      <c r="C137" s="12">
+        <v>9</v>
+      </c>
+      <c r="D137" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="E137" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="J137" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="K137" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="M137" t="s">
+        <v>208</v>
+      </c>
+      <c r="N137" t="s">
+        <v>344</v>
+      </c>
+      <c r="O137" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="138" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B138" s="12" t="s">
+        <v>169</v>
+      </c>
+      <c r="C138" s="12">
+        <v>10</v>
+      </c>
+      <c r="D138" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="E138" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="J138" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="K138" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="M138" t="s">
+        <v>208</v>
+      </c>
+      <c r="N138" t="s">
+        <v>345</v>
+      </c>
+      <c r="O138" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="139" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B139" s="12" t="s">
+        <v>169</v>
+      </c>
+      <c r="C139" s="12">
+        <v>11</v>
+      </c>
+      <c r="D139" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="E139" s="12" t="s">
+        <v>186</v>
+      </c>
+      <c r="J139" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="K139" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="M139" t="s">
+        <v>208</v>
+      </c>
+      <c r="N139" t="s">
+        <v>346</v>
+      </c>
+      <c r="O139" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="140" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B140" s="12" t="s">
+        <v>169</v>
+      </c>
+      <c r="C140" s="12">
+        <v>12</v>
+      </c>
+      <c r="D140" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="E140" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="J140" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="K140" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="M140" t="s">
+        <v>208</v>
+      </c>
+      <c r="N140" t="s">
+        <v>347</v>
+      </c>
+      <c r="O140" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="141" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B141" s="12" t="s">
+        <v>169</v>
+      </c>
+      <c r="C141" s="12">
+        <v>13</v>
+      </c>
+      <c r="D141" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="E141" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="J141" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="K141" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="M141" t="s">
+        <v>208</v>
+      </c>
+      <c r="N141" t="s">
+        <v>348</v>
+      </c>
+      <c r="O141" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="142" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B142" s="12" t="s">
+        <v>169</v>
+      </c>
+      <c r="C142" s="12">
+        <v>14</v>
+      </c>
+      <c r="D142" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="E142" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="J142" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="K142" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="M142" t="s">
+        <v>208</v>
+      </c>
+      <c r="N142" t="s">
+        <v>349</v>
+      </c>
+      <c r="O142" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="143" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B143" s="12" t="s">
+        <v>169</v>
+      </c>
+      <c r="C143" s="12">
+        <v>15</v>
+      </c>
+      <c r="D143" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="E143" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="J143" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="K143" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="M143" t="s">
+        <v>208</v>
+      </c>
+      <c r="N143" t="s">
+        <v>350</v>
+      </c>
+      <c r="O143" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="144" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B144" s="12" t="s">
+        <v>169</v>
+      </c>
+      <c r="C144" s="12">
+        <v>16</v>
+      </c>
+      <c r="D144" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="E144" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="J144" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="K144" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="M144" t="s">
+        <v>208</v>
+      </c>
+      <c r="N144" t="s">
+        <v>351</v>
+      </c>
+      <c r="O144" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="145" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B145" s="12" t="s">
+        <v>169</v>
+      </c>
+      <c r="C145" s="12">
+        <v>17</v>
+      </c>
+      <c r="D145" s="12" t="s">
+        <v>167</v>
+      </c>
+      <c r="E145" s="12" t="s">
+        <v>179</v>
+      </c>
+      <c r="J145" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="K145" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="M145" t="s">
+        <v>208</v>
+      </c>
+      <c r="N145" t="s">
+        <v>352</v>
+      </c>
+      <c r="O145" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="146" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B146" s="12" t="s">
+        <v>169</v>
+      </c>
+      <c r="C146" s="12">
+        <v>18</v>
+      </c>
+      <c r="D146" s="12" t="s">
+        <v>168</v>
+      </c>
+      <c r="E146" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="J146" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="K146" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="M146" t="s">
+        <v>208</v>
+      </c>
+      <c r="N146" t="s">
+        <v>353</v>
+      </c>
+      <c r="O146" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="147" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B147" s="12" t="s">
+        <v>169</v>
+      </c>
+      <c r="C147" s="12">
+        <v>19</v>
+      </c>
+      <c r="D147" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="E147" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="J147" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="K147" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="M147" t="s">
+        <v>208</v>
+      </c>
+      <c r="N147" t="s">
+        <v>354</v>
+      </c>
+      <c r="O147" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="148" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B148" s="12" t="s">
+        <v>169</v>
+      </c>
+      <c r="C148" s="12">
+        <v>20</v>
+      </c>
+      <c r="D148" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="E148" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="J148" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="K148" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="M148" t="s">
+        <v>208</v>
+      </c>
+      <c r="N148" t="s">
+        <v>355</v>
+      </c>
+      <c r="O148" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="149" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B149" s="12" t="s">
+        <v>169</v>
+      </c>
+      <c r="C149" s="12">
+        <v>21</v>
+      </c>
+      <c r="D149" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="E149" s="12" t="s">
+        <v>181</v>
+      </c>
+      <c r="J149" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="K149" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="M149" t="s">
+        <v>208</v>
+      </c>
+      <c r="N149" t="s">
+        <v>356</v>
+      </c>
+      <c r="O149" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="150" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B150" s="12" t="s">
+        <v>169</v>
+      </c>
+      <c r="C150" s="12">
+        <v>22</v>
+      </c>
+      <c r="D150" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="E150" s="12" t="s">
+        <v>174</v>
+      </c>
+      <c r="J150" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="K150" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="M150" t="s">
+        <v>208</v>
+      </c>
+      <c r="N150" t="s">
+        <v>357</v>
+      </c>
+      <c r="O150" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="151" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B151" s="12" t="s">
+        <v>169</v>
+      </c>
+      <c r="C151" s="12">
+        <v>23</v>
+      </c>
+      <c r="D151" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="E151" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="J151" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="K151" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="M151" t="s">
+        <v>208</v>
+      </c>
+      <c r="N151" t="s">
+        <v>358</v>
+      </c>
+      <c r="O151" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="152" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B152" s="12" t="s">
+        <v>169</v>
+      </c>
+      <c r="C152" s="12">
+        <v>24</v>
+      </c>
+      <c r="D152" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="E152" s="12" t="s">
+        <v>176</v>
+      </c>
+      <c r="J152" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="K152" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="M152" t="s">
+        <v>208</v>
+      </c>
+      <c r="N152" t="s">
+        <v>359</v>
+      </c>
+      <c r="O152" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="153" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B153" s="12" t="s">
+        <v>169</v>
+      </c>
+      <c r="C153" s="12">
+        <v>25</v>
+      </c>
+      <c r="D153" s="12" t="s">
+        <v>160</v>
+      </c>
+      <c r="E153" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="J153" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="K153" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="M153" t="s">
+        <v>208</v>
+      </c>
+      <c r="N153" t="s">
+        <v>360</v>
+      </c>
+      <c r="O153" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="154" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B154" s="12" t="s">
+        <v>169</v>
+      </c>
+      <c r="C154" s="12">
+        <v>26</v>
+      </c>
+      <c r="D154" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="E154" s="12" t="s">
+        <v>170</v>
+      </c>
+      <c r="J154" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="K154" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="M154" t="s">
+        <v>208</v>
+      </c>
+      <c r="N154" t="s">
+        <v>44</v>
+      </c>
+      <c r="O154" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="155" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B155" s="12" t="s">
+        <v>169</v>
+      </c>
+      <c r="C155" s="12">
+        <v>27</v>
+      </c>
+      <c r="D155" s="12" t="s">
+        <v>162</v>
+      </c>
+      <c r="E155" s="12" t="s">
+        <v>171</v>
+      </c>
+      <c r="J155" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="K155" s="6"/>
+      <c r="M155" t="s">
+        <v>207</v>
+      </c>
+      <c r="O155" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="156" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B156" s="12" t="s">
+        <v>169</v>
+      </c>
+      <c r="C156" s="12">
+        <v>28</v>
+      </c>
+      <c r="D156" s="12" t="s">
+        <v>163</v>
+      </c>
+      <c r="E156" s="12" t="s">
+        <v>172</v>
+      </c>
+      <c r="J156" s="3"/>
+      <c r="K156" s="6"/>
+    </row>
+    <row r="157" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B157" s="12" t="s">
+        <v>169</v>
+      </c>
+      <c r="C157" s="12">
+        <v>29</v>
+      </c>
+      <c r="D157" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="E157" s="12" t="s">
+        <v>173</v>
+      </c>
+      <c r="J157" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="K157" s="6"/>
+    </row>
+    <row r="158" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B158" s="12" t="s">
+        <v>169</v>
+      </c>
+      <c r="C158" s="12">
+        <v>30</v>
+      </c>
+      <c r="D158" s="12" t="s">
+        <v>165</v>
+      </c>
+      <c r="E158" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="J158" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="K158" s="3" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="159" spans="2:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="J159" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="K159" s="7"/>
+    </row>
+    <row r="164" spans="10:15" ht="19" x14ac:dyDescent="0.25">
+      <c r="J164" s="22" t="s">
+        <v>433</v>
+      </c>
+      <c r="N164" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="165" spans="10:15" x14ac:dyDescent="0.2">
+      <c r="J165" s="28" t="s">
+        <v>462</v>
+      </c>
+      <c r="K165" s="28" t="s">
+        <v>471</v>
+      </c>
+      <c r="M165" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="166" spans="10:15" x14ac:dyDescent="0.2">
+      <c r="J166" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="K166" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="M166" t="s">
+        <v>208</v>
+      </c>
+      <c r="N166" t="s">
+        <v>229</v>
+      </c>
+      <c r="O166" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="167" spans="10:15" x14ac:dyDescent="0.2">
+      <c r="J167" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="K167" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="M167" t="s">
+        <v>208</v>
+      </c>
+      <c r="N167" t="s">
+        <v>209</v>
+      </c>
+      <c r="O167" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="168" spans="10:15" x14ac:dyDescent="0.2">
+      <c r="J168" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="K168" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="M168" t="s">
+        <v>208</v>
+      </c>
+      <c r="N168" t="s">
+        <v>210</v>
+      </c>
+      <c r="O168" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="169" spans="10:15" x14ac:dyDescent="0.2">
+      <c r="J169" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="K169" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="M169" t="s">
+        <v>208</v>
+      </c>
+      <c r="N169" t="s">
+        <v>211</v>
+      </c>
+      <c r="O169" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="170" spans="10:15" x14ac:dyDescent="0.2">
+      <c r="J170" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="K170" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="M170" t="s">
+        <v>208</v>
+      </c>
+      <c r="N170" t="s">
+        <v>212</v>
+      </c>
+      <c r="O170" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="171" spans="10:15" x14ac:dyDescent="0.2">
+      <c r="J171" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="K171" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="M171" t="s">
+        <v>208</v>
+      </c>
+      <c r="N171" t="s">
+        <v>213</v>
+      </c>
+      <c r="O171" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="172" spans="10:15" x14ac:dyDescent="0.2">
+      <c r="J172" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="K172" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="M172" t="s">
+        <v>208</v>
+      </c>
+      <c r="N172" t="s">
+        <v>214</v>
+      </c>
+      <c r="O172" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="173" spans="10:15" x14ac:dyDescent="0.2">
+      <c r="J173" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="K173" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="M173" t="s">
+        <v>208</v>
+      </c>
+      <c r="N173" t="s">
+        <v>215</v>
+      </c>
+      <c r="O173" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="174" spans="10:15" x14ac:dyDescent="0.2">
+      <c r="J174" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="K174" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="M174" t="s">
+        <v>208</v>
+      </c>
+      <c r="N174" t="s">
+        <v>216</v>
+      </c>
+      <c r="O174" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="175" spans="10:15" x14ac:dyDescent="0.2">
+      <c r="J175" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="K175" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="M175" t="s">
+        <v>208</v>
+      </c>
+      <c r="N175" t="s">
+        <v>217</v>
+      </c>
+      <c r="O175" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="176" spans="10:15" x14ac:dyDescent="0.2">
+      <c r="J176" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="K176" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="M176" t="s">
+        <v>208</v>
+      </c>
+      <c r="N176" t="s">
+        <v>218</v>
+      </c>
+      <c r="O176" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="177" spans="10:15" x14ac:dyDescent="0.2">
+      <c r="J177" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="K177" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="M177" t="s">
+        <v>208</v>
+      </c>
+      <c r="N177" t="s">
+        <v>219</v>
+      </c>
+      <c r="O177" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="178" spans="10:15" x14ac:dyDescent="0.2">
+      <c r="J178" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="K178" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="M178" t="s">
+        <v>208</v>
+      </c>
+      <c r="N178" t="s">
+        <v>220</v>
+      </c>
+      <c r="O178" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="179" spans="10:15" x14ac:dyDescent="0.2">
+      <c r="J179" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="K179" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="M179" t="s">
+        <v>208</v>
+      </c>
+      <c r="N179" t="s">
+        <v>221</v>
+      </c>
+      <c r="O179" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="180" spans="10:15" x14ac:dyDescent="0.2">
+      <c r="J180" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="K180" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="M180" t="s">
+        <v>208</v>
+      </c>
+      <c r="N180" t="s">
+        <v>222</v>
+      </c>
+      <c r="O180" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="181" spans="10:15" x14ac:dyDescent="0.2">
+      <c r="J181" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="K181" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="M181" t="s">
+        <v>208</v>
+      </c>
+      <c r="N181" t="s">
+        <v>223</v>
+      </c>
+      <c r="O181" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="182" spans="10:15" x14ac:dyDescent="0.2">
+      <c r="J182" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="K182" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="M182" t="s">
+        <v>208</v>
+      </c>
+      <c r="N182" t="s">
+        <v>224</v>
+      </c>
+      <c r="O182" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="183" spans="10:15" x14ac:dyDescent="0.2">
+      <c r="J183" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="K183" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="M183" t="s">
+        <v>208</v>
+      </c>
+      <c r="N183" t="s">
+        <v>225</v>
+      </c>
+      <c r="O183" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="184" spans="10:15" x14ac:dyDescent="0.2">
+      <c r="J184" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="K184" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="M184" t="s">
+        <v>208</v>
+      </c>
+      <c r="N184" t="s">
+        <v>226</v>
+      </c>
+      <c r="O184" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="185" spans="10:15" x14ac:dyDescent="0.2">
+      <c r="J185" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="K185" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="M185" t="s">
+        <v>208</v>
+      </c>
+      <c r="N185" t="s">
+        <v>227</v>
+      </c>
+      <c r="O185" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="186" spans="10:15" x14ac:dyDescent="0.2">
+      <c r="J186" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="K186" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="M186" t="s">
+        <v>208</v>
+      </c>
+      <c r="N186" t="s">
+        <v>228</v>
+      </c>
+      <c r="O186" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="187" spans="10:15" x14ac:dyDescent="0.2">
+      <c r="J187" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="K187" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="M187" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="188" spans="10:15" x14ac:dyDescent="0.2">
+      <c r="J188" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="K188" s="6"/>
+    </row>
+    <row r="189" spans="10:15" x14ac:dyDescent="0.2">
+      <c r="J189" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="K189" s="6"/>
+    </row>
+    <row r="190" spans="10:15" x14ac:dyDescent="0.2">
+      <c r="J190" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="K190" s="3" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="191" spans="10:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="J191" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="K191" s="7"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10E1C9A1-DABD-5748-A871-466FBF261D9F}">
   <dimension ref="B2:L10"/>
   <sheetViews>
@@ -15197,7 +22668,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43EF0447-FEAA-DE4B-B6F4-489E40F1B706}">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
@@ -15640,7 +23111,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE230EF6-CC67-FC4F-BD53-EEEF0DC38F92}">
   <sheetPr>
     <tabColor theme="7" tint="0.39997558519241921"/>
@@ -15721,10 +23192,10 @@
       <c r="C12" t="s">
         <v>324</v>
       </c>
-      <c r="D12" s="41" t="s">
+      <c r="D12" s="42" t="s">
         <v>424</v>
       </c>
-      <c r="E12" s="41"/>
+      <c r="E12" s="42"/>
       <c r="F12" t="s">
         <v>326</v>
       </c>
@@ -15739,10 +23210,10 @@
       <c r="C13" t="s">
         <v>328</v>
       </c>
-      <c r="D13" s="41" t="s">
+      <c r="D13" s="42" t="s">
         <v>424</v>
       </c>
-      <c r="E13" s="41"/>
+      <c r="E13" s="42"/>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
@@ -15751,10 +23222,10 @@
       <c r="C14" t="s">
         <v>330</v>
       </c>
-      <c r="D14" s="41" t="s">
+      <c r="D14" s="42" t="s">
         <v>424</v>
       </c>
-      <c r="E14" s="41"/>
+      <c r="E14" s="42"/>
       <c r="F14" t="s">
         <v>326</v>
       </c>
@@ -15772,10 +23243,10 @@
       <c r="C15" t="s">
         <v>332</v>
       </c>
-      <c r="D15" s="41" t="s">
+      <c r="D15" s="42" t="s">
         <v>424</v>
       </c>
-      <c r="E15" s="41"/>
+      <c r="E15" s="42"/>
       <c r="F15" t="s">
         <v>326</v>
       </c>
@@ -15790,10 +23261,10 @@
       <c r="C16" t="s">
         <v>426</v>
       </c>
-      <c r="D16" s="41" t="s">
+      <c r="D16" s="42" t="s">
         <v>426</v>
       </c>
-      <c r="E16" s="41"/>
+      <c r="E16" s="42"/>
       <c r="F16" t="s">
         <v>326</v>
       </c>
@@ -15807,61 +23278,61 @@
     <row r="19" spans="1:51" ht="22" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="20" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A20" s="16"/>
-      <c r="B20" s="40" t="s">
+      <c r="B20" s="41" t="s">
         <v>337</v>
       </c>
-      <c r="C20" s="40"/>
-      <c r="D20" s="40"/>
-      <c r="E20" s="40"/>
-      <c r="F20" s="40"/>
+      <c r="C20" s="41"/>
+      <c r="D20" s="41"/>
+      <c r="E20" s="41"/>
+      <c r="F20" s="41"/>
       <c r="G20" s="16"/>
-      <c r="H20" s="40" t="s">
+      <c r="H20" s="41" t="s">
         <v>338</v>
       </c>
-      <c r="I20" s="40"/>
-      <c r="J20" s="40"/>
-      <c r="K20" s="40"/>
-      <c r="L20" s="40"/>
-      <c r="M20" s="40"/>
-      <c r="N20" s="40"/>
-      <c r="O20" s="40"/>
-      <c r="P20" s="40"/>
-      <c r="Q20" s="40"/>
-      <c r="R20" s="40"/>
-      <c r="S20" s="40"/>
-      <c r="T20" s="40"/>
-      <c r="U20" s="40"/>
-      <c r="V20" s="40"/>
-      <c r="W20" s="40"/>
-      <c r="X20" s="40"/>
-      <c r="Y20" s="40"/>
-      <c r="Z20" s="40"/>
-      <c r="AA20" s="40"/>
-      <c r="AB20" s="40"/>
+      <c r="I20" s="41"/>
+      <c r="J20" s="41"/>
+      <c r="K20" s="41"/>
+      <c r="L20" s="41"/>
+      <c r="M20" s="41"/>
+      <c r="N20" s="41"/>
+      <c r="O20" s="41"/>
+      <c r="P20" s="41"/>
+      <c r="Q20" s="41"/>
+      <c r="R20" s="41"/>
+      <c r="S20" s="41"/>
+      <c r="T20" s="41"/>
+      <c r="U20" s="41"/>
+      <c r="V20" s="41"/>
+      <c r="W20" s="41"/>
+      <c r="X20" s="41"/>
+      <c r="Y20" s="41"/>
+      <c r="Z20" s="41"/>
+      <c r="AA20" s="41"/>
+      <c r="AB20" s="41"/>
       <c r="AC20" s="16"/>
-      <c r="AD20" s="40" t="s">
+      <c r="AD20" s="41" t="s">
         <v>339</v>
       </c>
-      <c r="AE20" s="40"/>
-      <c r="AF20" s="40"/>
-      <c r="AG20" s="40"/>
-      <c r="AH20" s="40"/>
-      <c r="AI20" s="40"/>
-      <c r="AJ20" s="40"/>
-      <c r="AK20" s="40"/>
-      <c r="AL20" s="40"/>
-      <c r="AM20" s="40"/>
-      <c r="AN20" s="40"/>
-      <c r="AO20" s="40"/>
-      <c r="AP20" s="40"/>
-      <c r="AQ20" s="40"/>
-      <c r="AR20" s="40"/>
-      <c r="AS20" s="40"/>
-      <c r="AT20" s="40"/>
-      <c r="AU20" s="40"/>
-      <c r="AV20" s="40"/>
-      <c r="AW20" s="40"/>
-      <c r="AX20" s="40"/>
+      <c r="AE20" s="41"/>
+      <c r="AF20" s="41"/>
+      <c r="AG20" s="41"/>
+      <c r="AH20" s="41"/>
+      <c r="AI20" s="41"/>
+      <c r="AJ20" s="41"/>
+      <c r="AK20" s="41"/>
+      <c r="AL20" s="41"/>
+      <c r="AM20" s="41"/>
+      <c r="AN20" s="41"/>
+      <c r="AO20" s="41"/>
+      <c r="AP20" s="41"/>
+      <c r="AQ20" s="41"/>
+      <c r="AR20" s="41"/>
+      <c r="AS20" s="41"/>
+      <c r="AT20" s="41"/>
+      <c r="AU20" s="41"/>
+      <c r="AV20" s="41"/>
+      <c r="AW20" s="41"/>
+      <c r="AX20" s="41"/>
       <c r="AY20" s="16"/>
     </row>
     <row r="21" spans="1:51" s="19" customFormat="1" ht="97" customHeight="1" x14ac:dyDescent="0.2">
@@ -16217,7 +23688,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{227A706B-9ECB-5744-BC59-C11D58CA612E}">
   <dimension ref="A1:AC141"/>
   <sheetViews>
@@ -17454,7 +24925,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9F61E9D-B2A5-9B45-9750-8B639A717A36}">
   <sheetPr filterMode="1"/>
   <dimension ref="A1:AF567"/>
@@ -56919,7 +64390,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{749A8602-3B3D-E049-A50C-F77EAF1374E8}">
   <dimension ref="B3:AB33"/>
   <sheetViews>
